--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11533100</v>
+        <v>10479200</v>
       </c>
       <c r="E8" s="3">
-        <v>10422900</v>
+        <v>9138300</v>
       </c>
       <c r="F8" s="3">
-        <v>9680300</v>
+        <v>8258600</v>
       </c>
       <c r="G8" s="3">
-        <v>8686500</v>
+        <v>7670200</v>
       </c>
       <c r="H8" s="3">
-        <v>15273800</v>
+        <v>6882700</v>
       </c>
       <c r="I8" s="3">
-        <v>13510100</v>
+        <v>12102300</v>
       </c>
       <c r="J8" s="3">
+        <v>10704700</v>
+      </c>
+      <c r="K8" s="3">
         <v>11913300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11559200</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8835000</v>
+        <v>8224800</v>
       </c>
       <c r="E9" s="3">
-        <v>7857000</v>
+        <v>6990200</v>
       </c>
       <c r="F9" s="3">
-        <v>7457000</v>
+        <v>6225500</v>
       </c>
       <c r="G9" s="3">
-        <v>6567300</v>
+        <v>5908600</v>
       </c>
       <c r="H9" s="3">
-        <v>11351400</v>
+        <v>5203600</v>
       </c>
       <c r="I9" s="3">
-        <v>9983000</v>
+        <v>8994300</v>
       </c>
       <c r="J9" s="3">
+        <v>7910000</v>
+      </c>
+      <c r="K9" s="3">
         <v>8689300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8418100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2698100</v>
+        <v>2254400</v>
       </c>
       <c r="E10" s="3">
-        <v>2565900</v>
+        <v>2148000</v>
       </c>
       <c r="F10" s="3">
-        <v>2223300</v>
+        <v>2033100</v>
       </c>
       <c r="G10" s="3">
-        <v>2119200</v>
+        <v>1761700</v>
       </c>
       <c r="H10" s="3">
-        <v>3922400</v>
+        <v>1679100</v>
       </c>
       <c r="I10" s="3">
-        <v>3527100</v>
+        <v>3107900</v>
       </c>
       <c r="J10" s="3">
+        <v>2794700</v>
+      </c>
+      <c r="K10" s="3">
         <v>3224000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3141100</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>34300</v>
+        <v>54000</v>
       </c>
       <c r="E14" s="3">
-        <v>25000</v>
+        <v>27200</v>
       </c>
       <c r="F14" s="3">
-        <v>23100</v>
+        <v>19800</v>
       </c>
       <c r="G14" s="3">
-        <v>27100</v>
+        <v>18300</v>
       </c>
       <c r="H14" s="3">
-        <v>85500</v>
+        <v>21500</v>
       </c>
       <c r="I14" s="3">
-        <v>133800</v>
+        <v>67700</v>
       </c>
       <c r="J14" s="3">
+        <v>106000</v>
+      </c>
+      <c r="K14" s="3">
         <v>22200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>42800</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>196200</v>
+        <v>261400</v>
       </c>
       <c r="E15" s="3">
-        <v>181900</v>
+        <v>222400</v>
       </c>
       <c r="F15" s="3">
-        <v>165100</v>
+        <v>144100</v>
       </c>
       <c r="G15" s="3">
-        <v>151800</v>
+        <v>130800</v>
       </c>
       <c r="H15" s="3">
-        <v>191300</v>
+        <v>120300</v>
       </c>
       <c r="I15" s="3">
-        <v>183800</v>
+        <v>151500</v>
       </c>
       <c r="J15" s="3">
+        <v>145600</v>
+      </c>
+      <c r="K15" s="3">
         <v>175400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>168800</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11024700</v>
+        <v>10118700</v>
       </c>
       <c r="E17" s="3">
-        <v>10076900</v>
+        <v>8651600</v>
       </c>
       <c r="F17" s="3">
-        <v>9480400</v>
+        <v>7984400</v>
       </c>
       <c r="G17" s="3">
-        <v>8310000</v>
+        <v>7511800</v>
       </c>
       <c r="H17" s="3">
-        <v>14380400</v>
+        <v>6584500</v>
       </c>
       <c r="I17" s="3">
-        <v>12821400</v>
+        <v>11394300</v>
       </c>
       <c r="J17" s="3">
+        <v>10159100</v>
+      </c>
+      <c r="K17" s="3">
         <v>11243300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11037600</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>508400</v>
+        <v>360400</v>
       </c>
       <c r="E18" s="3">
-        <v>346100</v>
+        <v>486600</v>
       </c>
       <c r="F18" s="3">
-        <v>199900</v>
+        <v>274200</v>
       </c>
       <c r="G18" s="3">
-        <v>376400</v>
+        <v>158400</v>
       </c>
       <c r="H18" s="3">
-        <v>893400</v>
+        <v>298300</v>
       </c>
       <c r="I18" s="3">
-        <v>688700</v>
+        <v>707900</v>
       </c>
       <c r="J18" s="3">
+        <v>545700</v>
+      </c>
+      <c r="K18" s="3">
         <v>670000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>521600</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-19600</v>
+        <v>8100</v>
       </c>
       <c r="E20" s="3">
-        <v>-54200</v>
+        <v>-15500</v>
       </c>
       <c r="F20" s="3">
-        <v>-46200</v>
+        <v>-42900</v>
       </c>
       <c r="G20" s="3">
-        <v>-16300</v>
+        <v>-36600</v>
       </c>
       <c r="H20" s="3">
-        <v>-191300</v>
+        <v>-13000</v>
       </c>
       <c r="I20" s="3">
-        <v>-138500</v>
+        <v>-151500</v>
       </c>
       <c r="J20" s="3">
+        <v>-109700</v>
+      </c>
+      <c r="K20" s="3">
         <v>350600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-153300</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>698700</v>
+        <v>664200</v>
       </c>
       <c r="E21" s="3">
-        <v>488600</v>
+        <v>721800</v>
       </c>
       <c r="F21" s="3">
-        <v>410800</v>
+        <v>389200</v>
       </c>
       <c r="G21" s="3">
-        <v>620300</v>
+        <v>328300</v>
       </c>
       <c r="H21" s="3">
-        <v>921500</v>
+        <v>494300</v>
       </c>
       <c r="I21" s="3">
-        <v>754500</v>
+        <v>732600</v>
       </c>
       <c r="J21" s="3">
+        <v>600000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1217500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>541000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>91100</v>
+        <v>231300</v>
       </c>
       <c r="E22" s="3">
-        <v>116300</v>
+        <v>180800</v>
       </c>
       <c r="F22" s="3">
-        <v>164600</v>
+        <v>92100</v>
       </c>
       <c r="G22" s="3">
-        <v>163000</v>
+        <v>130400</v>
       </c>
       <c r="H22" s="3">
-        <v>160400</v>
+        <v>129200</v>
       </c>
       <c r="I22" s="3">
-        <v>140100</v>
+        <v>127100</v>
       </c>
       <c r="J22" s="3">
+        <v>111000</v>
+      </c>
+      <c r="K22" s="3">
         <v>629100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>168700</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>397700</v>
+        <v>137300</v>
       </c>
       <c r="E23" s="3">
-        <v>175600</v>
+        <v>290300</v>
       </c>
       <c r="F23" s="3">
-        <v>-11000</v>
+        <v>139100</v>
       </c>
       <c r="G23" s="3">
-        <v>197100</v>
+        <v>-8700</v>
       </c>
       <c r="H23" s="3">
-        <v>541800</v>
+        <v>156200</v>
       </c>
       <c r="I23" s="3">
-        <v>410100</v>
+        <v>429300</v>
       </c>
       <c r="J23" s="3">
+        <v>324900</v>
+      </c>
+      <c r="K23" s="3">
         <v>391400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>199600</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>104900</v>
+        <v>47000</v>
       </c>
       <c r="E24" s="3">
-        <v>69400</v>
+        <v>76400</v>
       </c>
       <c r="F24" s="3">
-        <v>5600</v>
+        <v>55000</v>
       </c>
       <c r="G24" s="3">
-        <v>53500</v>
+        <v>4400</v>
       </c>
       <c r="H24" s="3">
-        <v>171900</v>
+        <v>42400</v>
       </c>
       <c r="I24" s="3">
-        <v>84100</v>
+        <v>136200</v>
       </c>
       <c r="J24" s="3">
+        <v>66600</v>
+      </c>
+      <c r="K24" s="3">
         <v>121400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>21100</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>292800</v>
+        <v>90300</v>
       </c>
       <c r="E26" s="3">
-        <v>106300</v>
+        <v>213900</v>
       </c>
       <c r="F26" s="3">
-        <v>-16600</v>
+        <v>84200</v>
       </c>
       <c r="G26" s="3">
-        <v>143600</v>
+        <v>-13100</v>
       </c>
       <c r="H26" s="3">
-        <v>369900</v>
+        <v>113800</v>
       </c>
       <c r="I26" s="3">
-        <v>326000</v>
+        <v>293100</v>
       </c>
       <c r="J26" s="3">
+        <v>258300</v>
+      </c>
+      <c r="K26" s="3">
         <v>269900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>178500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>295900</v>
+        <v>81800</v>
       </c>
       <c r="E27" s="3">
-        <v>52300</v>
+        <v>188900</v>
       </c>
       <c r="F27" s="3">
-        <v>122100</v>
+        <v>41400</v>
       </c>
       <c r="G27" s="3">
-        <v>269900</v>
+        <v>96800</v>
       </c>
       <c r="H27" s="3">
-        <v>281900</v>
+        <v>213900</v>
       </c>
       <c r="I27" s="3">
-        <v>245700</v>
+        <v>223300</v>
       </c>
       <c r="J27" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K27" s="3">
         <v>87900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>64400</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,26 +1343,29 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-17300</v>
+        <v>64400</v>
       </c>
       <c r="E29" s="3">
-        <v>83100</v>
+        <v>23700</v>
       </c>
       <c r="F29" s="3">
-        <v>-234700</v>
+        <v>65900</v>
       </c>
       <c r="G29" s="3">
-        <v>-208100</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
+        <v>-186000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-164900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>19600</v>
+        <v>-8100</v>
       </c>
       <c r="E32" s="3">
-        <v>54200</v>
+        <v>15500</v>
       </c>
       <c r="F32" s="3">
-        <v>46200</v>
+        <v>42900</v>
       </c>
       <c r="G32" s="3">
-        <v>16300</v>
+        <v>36600</v>
       </c>
       <c r="H32" s="3">
-        <v>191300</v>
+        <v>13000</v>
       </c>
       <c r="I32" s="3">
-        <v>138500</v>
+        <v>151500</v>
       </c>
       <c r="J32" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-350600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>153300</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>278600</v>
+        <v>146200</v>
       </c>
       <c r="E33" s="3">
-        <v>135400</v>
+        <v>212600</v>
       </c>
       <c r="F33" s="3">
-        <v>-112600</v>
+        <v>107300</v>
       </c>
       <c r="G33" s="3">
-        <v>61900</v>
+        <v>-89200</v>
       </c>
       <c r="H33" s="3">
-        <v>281900</v>
+        <v>49000</v>
       </c>
       <c r="I33" s="3">
-        <v>245700</v>
+        <v>223300</v>
       </c>
       <c r="J33" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K33" s="3">
         <v>87900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>64400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>278600</v>
+        <v>146200</v>
       </c>
       <c r="E35" s="3">
-        <v>135400</v>
+        <v>212600</v>
       </c>
       <c r="F35" s="3">
-        <v>-112600</v>
+        <v>107300</v>
       </c>
       <c r="G35" s="3">
-        <v>61900</v>
+        <v>-89200</v>
       </c>
       <c r="H35" s="3">
-        <v>281900</v>
+        <v>49000</v>
       </c>
       <c r="I35" s="3">
-        <v>245700</v>
+        <v>223300</v>
       </c>
       <c r="J35" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K35" s="3">
         <v>87900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>64400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,38 +1645,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1020200</v>
+        <v>1490600</v>
       </c>
       <c r="E41" s="3">
-        <v>885500</v>
+        <v>818800</v>
       </c>
       <c r="F41" s="3">
-        <v>1193800</v>
+        <v>1421200</v>
       </c>
       <c r="G41" s="3">
-        <v>2572200</v>
+        <v>958000</v>
       </c>
       <c r="H41" s="3">
-        <v>2603500</v>
+        <v>2064200</v>
       </c>
       <c r="I41" s="3">
-        <v>1953900</v>
+        <v>2089300</v>
       </c>
       <c r="J41" s="3">
+        <v>1568000</v>
+      </c>
+      <c r="K41" s="3">
         <v>3309600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>129600</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1607,231 +1696,255 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I42" s="3">
-        <v>5700</v>
+        <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>4600</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1103400</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>318800</v>
+        <v>512500</v>
       </c>
       <c r="E43" s="3">
-        <v>345800</v>
+        <v>255800</v>
       </c>
       <c r="F43" s="3">
-        <v>313600</v>
+        <v>393400</v>
       </c>
       <c r="G43" s="3">
-        <v>1089400</v>
+        <v>251700</v>
       </c>
       <c r="H43" s="3">
-        <v>990400</v>
+        <v>874200</v>
       </c>
       <c r="I43" s="3">
-        <v>852600</v>
+        <v>794800</v>
       </c>
       <c r="J43" s="3">
+        <v>684200</v>
+      </c>
+      <c r="K43" s="3">
         <v>894800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1675400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1379900</v>
+        <v>1616300</v>
       </c>
       <c r="E44" s="3">
-        <v>2252100</v>
+        <v>1107300</v>
       </c>
       <c r="F44" s="3">
-        <v>1083800</v>
+        <v>1807300</v>
       </c>
       <c r="G44" s="3">
-        <v>2093500</v>
+        <v>869700</v>
       </c>
       <c r="H44" s="3">
-        <v>1953200</v>
+        <v>1680000</v>
       </c>
       <c r="I44" s="3">
-        <v>1490200</v>
+        <v>1567400</v>
       </c>
       <c r="J44" s="3">
+        <v>1195900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2690000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1377500</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>6654600</v>
+        <v>108300</v>
       </c>
       <c r="E45" s="3">
-        <v>5352500</v>
+        <v>5473200</v>
       </c>
       <c r="F45" s="3">
-        <v>4800000</v>
+        <v>5064100</v>
       </c>
       <c r="G45" s="3">
-        <v>73600</v>
+        <v>3852000</v>
       </c>
       <c r="H45" s="3">
-        <v>62300</v>
+        <v>59000</v>
       </c>
       <c r="I45" s="3">
-        <v>43300</v>
+        <v>50000</v>
       </c>
       <c r="J45" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K45" s="3">
         <v>40300</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9373500</v>
+        <v>3727800</v>
       </c>
       <c r="E46" s="3">
-        <v>7709900</v>
+        <v>7655100</v>
       </c>
       <c r="F46" s="3">
-        <v>7391100</v>
+        <v>6928600</v>
       </c>
       <c r="G46" s="3">
-        <v>5828700</v>
+        <v>5931400</v>
       </c>
       <c r="H46" s="3">
-        <v>5609400</v>
+        <v>4677500</v>
       </c>
       <c r="I46" s="3">
-        <v>4345700</v>
+        <v>4501500</v>
       </c>
       <c r="J46" s="3">
+        <v>3487500</v>
+      </c>
+      <c r="K46" s="3">
         <v>3895200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4285900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>727200</v>
+        <v>702400</v>
       </c>
       <c r="E47" s="3">
-        <v>618800</v>
+        <v>583600</v>
       </c>
       <c r="F47" s="3">
-        <v>368300</v>
+        <v>496600</v>
       </c>
       <c r="G47" s="3">
-        <v>906300</v>
+        <v>295500</v>
       </c>
       <c r="H47" s="3">
-        <v>1656600</v>
+        <v>727300</v>
       </c>
       <c r="I47" s="3">
-        <v>620300</v>
+        <v>1329400</v>
       </c>
       <c r="J47" s="3">
+        <v>497800</v>
+      </c>
+      <c r="K47" s="3">
         <v>739100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>538500</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3076200</v>
+        <v>4792200</v>
       </c>
       <c r="E48" s="3">
-        <v>2138800</v>
+        <v>2642700</v>
       </c>
       <c r="F48" s="3">
-        <v>2149600</v>
+        <v>4207300</v>
       </c>
       <c r="G48" s="3">
-        <v>2429100</v>
+        <v>1725000</v>
       </c>
       <c r="H48" s="3">
-        <v>2276600</v>
+        <v>1949300</v>
       </c>
       <c r="I48" s="3">
-        <v>2114200</v>
+        <v>1827000</v>
       </c>
       <c r="J48" s="3">
+        <v>1696600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1776800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1825400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1279700</v>
+        <v>1394300</v>
       </c>
       <c r="E49" s="3">
-        <v>898600</v>
+        <v>1029400</v>
       </c>
       <c r="F49" s="3">
-        <v>445600</v>
+        <v>1073100</v>
       </c>
       <c r="G49" s="3">
-        <v>1527900</v>
+        <v>357600</v>
       </c>
       <c r="H49" s="3">
-        <v>1505700</v>
+        <v>1226200</v>
       </c>
       <c r="I49" s="3">
-        <v>1331200</v>
+        <v>1208400</v>
       </c>
       <c r="J49" s="3">
+        <v>1068300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3485700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1225400</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>273700</v>
+        <v>250900</v>
       </c>
       <c r="E52" s="3">
-        <v>223700</v>
+        <v>278700</v>
       </c>
       <c r="F52" s="3">
         <v>204600</v>
       </c>
       <c r="G52" s="3">
-        <v>339800</v>
+        <v>164200</v>
       </c>
       <c r="H52" s="3">
-        <v>363600</v>
+        <v>272700</v>
       </c>
       <c r="I52" s="3">
-        <v>464300</v>
+        <v>291800</v>
       </c>
       <c r="J52" s="3">
+        <v>372600</v>
+      </c>
+      <c r="K52" s="3">
         <v>612800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>502200</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>14098500</v>
+        <v>10867500</v>
       </c>
       <c r="E54" s="3">
-        <v>11140500</v>
+        <v>11616600</v>
       </c>
       <c r="F54" s="3">
-        <v>10559100</v>
+        <v>10468500</v>
       </c>
       <c r="G54" s="3">
-        <v>11031700</v>
+        <v>8473700</v>
       </c>
       <c r="H54" s="3">
-        <v>10589000</v>
+        <v>8853000</v>
       </c>
       <c r="I54" s="3">
-        <v>8875700</v>
+        <v>8497700</v>
       </c>
       <c r="J54" s="3">
+        <v>7122800</v>
+      </c>
+      <c r="K54" s="3">
         <v>8134000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8377400</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2159100</v>
+        <v>2789800</v>
       </c>
       <c r="E57" s="3">
-        <v>1898100</v>
+        <v>1732700</v>
       </c>
       <c r="F57" s="3">
-        <v>1688800</v>
+        <v>1523200</v>
       </c>
       <c r="G57" s="3">
-        <v>3621400</v>
+        <v>1355300</v>
       </c>
       <c r="H57" s="3">
-        <v>3144600</v>
+        <v>2906200</v>
       </c>
       <c r="I57" s="3">
-        <v>1996000</v>
+        <v>2523500</v>
       </c>
       <c r="J57" s="3">
+        <v>1601800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2933600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1564600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1067700</v>
+        <v>829200</v>
       </c>
       <c r="E58" s="3">
-        <v>292100</v>
+        <v>844000</v>
       </c>
       <c r="F58" s="3">
-        <v>690500</v>
+        <v>542700</v>
       </c>
       <c r="G58" s="3">
-        <v>1781300</v>
+        <v>554100</v>
       </c>
       <c r="H58" s="3">
-        <v>3163500</v>
+        <v>1429500</v>
       </c>
       <c r="I58" s="3">
-        <v>1207600</v>
+        <v>2538700</v>
       </c>
       <c r="J58" s="3">
+        <v>969100</v>
+      </c>
+      <c r="K58" s="3">
         <v>2150900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1219900</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5907100</v>
+        <v>716400</v>
       </c>
       <c r="E59" s="3">
-        <v>4580000</v>
+        <v>4868700</v>
       </c>
       <c r="F59" s="3">
-        <v>4061600</v>
+        <v>4490700</v>
       </c>
       <c r="G59" s="3">
-        <v>1389700</v>
+        <v>3259400</v>
       </c>
       <c r="H59" s="3">
-        <v>1548200</v>
+        <v>1115200</v>
       </c>
       <c r="I59" s="3">
-        <v>1181200</v>
+        <v>1242500</v>
       </c>
       <c r="J59" s="3">
+        <v>948000</v>
+      </c>
+      <c r="K59" s="3">
         <v>1508300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>564900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8633500</v>
+        <v>4335500</v>
       </c>
       <c r="E60" s="3">
-        <v>6770200</v>
+        <v>7043800</v>
       </c>
       <c r="F60" s="3">
-        <v>6440900</v>
+        <v>6258200</v>
       </c>
       <c r="G60" s="3">
-        <v>5901800</v>
+        <v>5168900</v>
       </c>
       <c r="H60" s="3">
-        <v>5600000</v>
+        <v>4736200</v>
       </c>
       <c r="I60" s="3">
-        <v>3972800</v>
+        <v>4494000</v>
       </c>
       <c r="J60" s="3">
+        <v>3188200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3127100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3349400</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1769800</v>
+        <v>3454900</v>
       </c>
       <c r="E61" s="3">
-        <v>779300</v>
+        <v>1625100</v>
       </c>
       <c r="F61" s="3">
-        <v>680000</v>
+        <v>1502000</v>
       </c>
       <c r="G61" s="3">
-        <v>972400</v>
+        <v>545700</v>
       </c>
       <c r="H61" s="3">
-        <v>731900</v>
+        <v>780300</v>
       </c>
       <c r="I61" s="3">
-        <v>1009200</v>
+        <v>587300</v>
       </c>
       <c r="J61" s="3">
+        <v>809900</v>
+      </c>
+      <c r="K61" s="3">
         <v>1466800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1548200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>613700</v>
+        <v>545100</v>
       </c>
       <c r="E62" s="3">
-        <v>545700</v>
+        <v>481600</v>
       </c>
       <c r="F62" s="3">
-        <v>496500</v>
+        <v>430300</v>
       </c>
       <c r="G62" s="3">
-        <v>1039600</v>
+        <v>398400</v>
       </c>
       <c r="H62" s="3">
-        <v>1232300</v>
+        <v>834300</v>
       </c>
       <c r="I62" s="3">
-        <v>1193100</v>
+        <v>988900</v>
       </c>
       <c r="J62" s="3">
+        <v>957500</v>
+      </c>
+      <c r="K62" s="3">
         <v>1328000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>975600</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11696300</v>
+        <v>8817400</v>
       </c>
       <c r="E66" s="3">
-        <v>8761400</v>
+        <v>9698700</v>
       </c>
       <c r="F66" s="3">
-        <v>8256600</v>
+        <v>8710000</v>
       </c>
       <c r="G66" s="3">
-        <v>8613900</v>
+        <v>6625900</v>
       </c>
       <c r="H66" s="3">
-        <v>8142400</v>
+        <v>6912600</v>
       </c>
       <c r="I66" s="3">
-        <v>6661200</v>
+        <v>6534300</v>
       </c>
       <c r="J66" s="3">
+        <v>5345600</v>
+      </c>
+      <c r="K66" s="3">
         <v>6150300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6485700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>846500</v>
+        <v>760300</v>
       </c>
       <c r="E72" s="3">
-        <v>819400</v>
+        <v>669400</v>
       </c>
       <c r="F72" s="3">
-        <v>733300</v>
+        <v>485600</v>
       </c>
       <c r="G72" s="3">
-        <v>841100</v>
+        <v>588400</v>
       </c>
       <c r="H72" s="3">
-        <v>1719600</v>
+        <v>675000</v>
       </c>
       <c r="I72" s="3">
-        <v>1278500</v>
+        <v>1380000</v>
       </c>
       <c r="J72" s="3">
+        <v>1026000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1196900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>275700</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2402200</v>
+        <v>2050200</v>
       </c>
       <c r="E76" s="3">
-        <v>2379100</v>
+        <v>1917900</v>
       </c>
       <c r="F76" s="3">
-        <v>2302500</v>
+        <v>1758600</v>
       </c>
       <c r="G76" s="3">
-        <v>2417900</v>
+        <v>1847800</v>
       </c>
       <c r="H76" s="3">
-        <v>2446600</v>
+        <v>1940300</v>
       </c>
       <c r="I76" s="3">
-        <v>2214500</v>
+        <v>1963400</v>
       </c>
       <c r="J76" s="3">
+        <v>1777100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1983700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1891700</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>278600</v>
+        <v>146200</v>
       </c>
       <c r="E81" s="3">
-        <v>135400</v>
+        <v>212600</v>
       </c>
       <c r="F81" s="3">
-        <v>-112600</v>
+        <v>107300</v>
       </c>
       <c r="G81" s="3">
-        <v>61900</v>
+        <v>-89200</v>
       </c>
       <c r="H81" s="3">
-        <v>281900</v>
+        <v>49000</v>
       </c>
       <c r="I81" s="3">
-        <v>245700</v>
+        <v>223300</v>
       </c>
       <c r="J81" s="3">
+        <v>194700</v>
+      </c>
+      <c r="K81" s="3">
         <v>87900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>64400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>207600</v>
+        <v>288500</v>
       </c>
       <c r="E83" s="3">
-        <v>194500</v>
+        <v>244600</v>
       </c>
       <c r="F83" s="3">
-        <v>254300</v>
+        <v>154100</v>
       </c>
       <c r="G83" s="3">
-        <v>257300</v>
+        <v>201500</v>
       </c>
       <c r="H83" s="3">
-        <v>216900</v>
+        <v>203900</v>
       </c>
       <c r="I83" s="3">
-        <v>202100</v>
+        <v>171900</v>
       </c>
       <c r="J83" s="3">
+        <v>160100</v>
+      </c>
+      <c r="K83" s="3">
         <v>194800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>175300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>603900</v>
+        <v>210000</v>
       </c>
       <c r="E89" s="3">
-        <v>442500</v>
+        <v>789500</v>
       </c>
       <c r="F89" s="3">
-        <v>-304500</v>
+        <v>350600</v>
       </c>
       <c r="G89" s="3">
-        <v>1081700</v>
+        <v>-241300</v>
       </c>
       <c r="H89" s="3">
-        <v>1165300</v>
+        <v>857100</v>
       </c>
       <c r="I89" s="3">
-        <v>1142400</v>
+        <v>923300</v>
       </c>
       <c r="J89" s="3">
+        <v>905200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1237500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>279800</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-427300</v>
+        <v>-455500</v>
       </c>
       <c r="E91" s="3">
-        <v>-327400</v>
+        <v>-305100</v>
       </c>
       <c r="F91" s="3">
-        <v>-295400</v>
+        <v>-259400</v>
       </c>
       <c r="G91" s="3">
-        <v>-369200</v>
+        <v>-234100</v>
       </c>
       <c r="H91" s="3">
-        <v>-322000</v>
+        <v>-292500</v>
       </c>
       <c r="I91" s="3">
-        <v>-386700</v>
+        <v>-255200</v>
       </c>
       <c r="J91" s="3">
+        <v>-306400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-305700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-360800</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-443500</v>
+        <v>-604300</v>
       </c>
       <c r="E94" s="3">
-        <v>-371800</v>
+        <v>-351000</v>
       </c>
       <c r="F94" s="3">
-        <v>-471700</v>
+        <v>-294600</v>
       </c>
       <c r="G94" s="3">
-        <v>-432500</v>
+        <v>-373800</v>
       </c>
       <c r="H94" s="3">
-        <v>-379200</v>
+        <v>-342700</v>
       </c>
       <c r="I94" s="3">
-        <v>-458400</v>
+        <v>-300500</v>
       </c>
       <c r="J94" s="3">
+        <v>-363200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-305000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-336500</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-82000</v>
+        <v>-49600</v>
       </c>
       <c r="E96" s="3">
-        <v>-23600</v>
+        <v>-64900</v>
       </c>
       <c r="F96" s="3">
-        <v>-900</v>
+        <v>-18700</v>
       </c>
       <c r="G96" s="3">
-        <v>-101300</v>
+        <v>-700</v>
       </c>
       <c r="H96" s="3">
-        <v>-60200</v>
+        <v>-80300</v>
       </c>
       <c r="I96" s="3">
-        <v>-105700</v>
+        <v>-47700</v>
       </c>
       <c r="J96" s="3">
+        <v>-83800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-43500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-45500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,59 +3420,65 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>9800</v>
+        <v>350400</v>
       </c>
       <c r="E100" s="3">
-        <v>-489000</v>
+        <v>-303600</v>
       </c>
       <c r="F100" s="3">
-        <v>344400</v>
+        <v>-387500</v>
       </c>
       <c r="G100" s="3">
-        <v>-702000</v>
+        <v>272900</v>
       </c>
       <c r="H100" s="3">
-        <v>-148500</v>
+        <v>-556200</v>
       </c>
       <c r="I100" s="3">
-        <v>-384800</v>
+        <v>-117700</v>
       </c>
       <c r="J100" s="3">
+        <v>-304900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-438300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>342400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>-5600</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>21500</v>
+        <v>-4400</v>
       </c>
       <c r="H101" s="3">
-        <v>12100</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
+        <v>17000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>9600</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3238,37 +3486,43 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>170200</v>
+        <v>-23300</v>
       </c>
       <c r="E102" s="3">
-        <v>-418200</v>
+        <v>134900</v>
       </c>
       <c r="F102" s="3">
-        <v>-437400</v>
+        <v>-331400</v>
       </c>
       <c r="G102" s="3">
-        <v>-31300</v>
+        <v>-346600</v>
       </c>
       <c r="H102" s="3">
-        <v>649700</v>
+        <v>-24800</v>
       </c>
       <c r="I102" s="3">
-        <v>299100</v>
+        <v>514800</v>
       </c>
       <c r="J102" s="3">
+        <v>237000</v>
+      </c>
+      <c r="K102" s="3">
         <v>494200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>285800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10479200</v>
+        <v>10103700</v>
       </c>
       <c r="E8" s="3">
-        <v>9138300</v>
+        <v>8810800</v>
       </c>
       <c r="F8" s="3">
-        <v>8258600</v>
+        <v>7962700</v>
       </c>
       <c r="G8" s="3">
-        <v>7670200</v>
+        <v>7395400</v>
       </c>
       <c r="H8" s="3">
-        <v>6882700</v>
+        <v>6636100</v>
       </c>
       <c r="I8" s="3">
-        <v>12102300</v>
+        <v>11668600</v>
       </c>
       <c r="J8" s="3">
-        <v>10704700</v>
+        <v>10321200</v>
       </c>
       <c r="K8" s="3">
         <v>11913300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8224800</v>
+        <v>7930100</v>
       </c>
       <c r="E9" s="3">
-        <v>6990200</v>
+        <v>6739800</v>
       </c>
       <c r="F9" s="3">
-        <v>6225500</v>
+        <v>6002400</v>
       </c>
       <c r="G9" s="3">
-        <v>5908600</v>
+        <v>5696800</v>
       </c>
       <c r="H9" s="3">
-        <v>5203600</v>
+        <v>5017100</v>
       </c>
       <c r="I9" s="3">
-        <v>8994300</v>
+        <v>8672000</v>
       </c>
       <c r="J9" s="3">
-        <v>7910000</v>
+        <v>7626600</v>
       </c>
       <c r="K9" s="3">
         <v>8689300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2254400</v>
+        <v>2173600</v>
       </c>
       <c r="E10" s="3">
-        <v>2148000</v>
+        <v>2071000</v>
       </c>
       <c r="F10" s="3">
-        <v>2033100</v>
+        <v>1960300</v>
       </c>
       <c r="G10" s="3">
-        <v>1761700</v>
+        <v>1698500</v>
       </c>
       <c r="H10" s="3">
-        <v>1679100</v>
+        <v>1619000</v>
       </c>
       <c r="I10" s="3">
-        <v>3107900</v>
+        <v>2996600</v>
       </c>
       <c r="J10" s="3">
-        <v>2794700</v>
+        <v>2694600</v>
       </c>
       <c r="K10" s="3">
         <v>3224000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>54000</v>
+        <v>52100</v>
       </c>
       <c r="E14" s="3">
-        <v>27200</v>
+        <v>26200</v>
       </c>
       <c r="F14" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="G14" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="H14" s="3">
-        <v>21500</v>
+        <v>20700</v>
       </c>
       <c r="I14" s="3">
-        <v>67700</v>
+        <v>65300</v>
       </c>
       <c r="J14" s="3">
-        <v>106000</v>
+        <v>102200</v>
       </c>
       <c r="K14" s="3">
         <v>22200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>261400</v>
+        <v>252100</v>
       </c>
       <c r="E15" s="3">
-        <v>222400</v>
+        <v>214400</v>
       </c>
       <c r="F15" s="3">
-        <v>144100</v>
+        <v>139000</v>
       </c>
       <c r="G15" s="3">
-        <v>130800</v>
+        <v>126100</v>
       </c>
       <c r="H15" s="3">
-        <v>120300</v>
+        <v>116000</v>
       </c>
       <c r="I15" s="3">
-        <v>151500</v>
+        <v>146100</v>
       </c>
       <c r="J15" s="3">
-        <v>145600</v>
+        <v>140400</v>
       </c>
       <c r="K15" s="3">
         <v>175400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10118700</v>
+        <v>9756200</v>
       </c>
       <c r="E17" s="3">
-        <v>8651600</v>
+        <v>8341600</v>
       </c>
       <c r="F17" s="3">
-        <v>7984400</v>
+        <v>7698300</v>
       </c>
       <c r="G17" s="3">
-        <v>7511800</v>
+        <v>7242700</v>
       </c>
       <c r="H17" s="3">
-        <v>6584500</v>
+        <v>6348500</v>
       </c>
       <c r="I17" s="3">
-        <v>11394300</v>
+        <v>10986100</v>
       </c>
       <c r="J17" s="3">
-        <v>10159100</v>
+        <v>9795100</v>
       </c>
       <c r="K17" s="3">
         <v>11243300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>360400</v>
+        <v>347500</v>
       </c>
       <c r="E18" s="3">
-        <v>486600</v>
+        <v>469200</v>
       </c>
       <c r="F18" s="3">
-        <v>274200</v>
+        <v>264400</v>
       </c>
       <c r="G18" s="3">
-        <v>158400</v>
+        <v>152700</v>
       </c>
       <c r="H18" s="3">
-        <v>298300</v>
+        <v>287600</v>
       </c>
       <c r="I18" s="3">
-        <v>707900</v>
+        <v>682600</v>
       </c>
       <c r="J18" s="3">
-        <v>545700</v>
+        <v>526100</v>
       </c>
       <c r="K18" s="3">
         <v>670000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="E20" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="F20" s="3">
-        <v>-42900</v>
+        <v>-41400</v>
       </c>
       <c r="G20" s="3">
-        <v>-36600</v>
+        <v>-35300</v>
       </c>
       <c r="H20" s="3">
-        <v>-13000</v>
+        <v>-12500</v>
       </c>
       <c r="I20" s="3">
-        <v>-151500</v>
+        <v>-146100</v>
       </c>
       <c r="J20" s="3">
-        <v>-109700</v>
+        <v>-105800</v>
       </c>
       <c r="K20" s="3">
         <v>350600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>664200</v>
+        <v>638400</v>
       </c>
       <c r="E21" s="3">
-        <v>721800</v>
+        <v>694200</v>
       </c>
       <c r="F21" s="3">
-        <v>389200</v>
+        <v>374200</v>
       </c>
       <c r="G21" s="3">
-        <v>328300</v>
+        <v>315100</v>
       </c>
       <c r="H21" s="3">
-        <v>494300</v>
+        <v>475200</v>
       </c>
       <c r="I21" s="3">
-        <v>732600</v>
+        <v>705100</v>
       </c>
       <c r="J21" s="3">
-        <v>600000</v>
+        <v>577400</v>
       </c>
       <c r="K21" s="3">
         <v>1217500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>231300</v>
+        <v>223000</v>
       </c>
       <c r="E22" s="3">
-        <v>180800</v>
+        <v>174300</v>
       </c>
       <c r="F22" s="3">
-        <v>92100</v>
+        <v>88800</v>
       </c>
       <c r="G22" s="3">
-        <v>130400</v>
+        <v>125800</v>
       </c>
       <c r="H22" s="3">
-        <v>129200</v>
+        <v>124500</v>
       </c>
       <c r="I22" s="3">
-        <v>127100</v>
+        <v>122600</v>
       </c>
       <c r="J22" s="3">
-        <v>111000</v>
+        <v>107000</v>
       </c>
       <c r="K22" s="3">
         <v>629100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>137300</v>
+        <v>132400</v>
       </c>
       <c r="E23" s="3">
-        <v>290300</v>
+        <v>279900</v>
       </c>
       <c r="F23" s="3">
-        <v>139100</v>
+        <v>134200</v>
       </c>
       <c r="G23" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="H23" s="3">
-        <v>156200</v>
+        <v>150600</v>
       </c>
       <c r="I23" s="3">
-        <v>429300</v>
+        <v>413900</v>
       </c>
       <c r="J23" s="3">
-        <v>324900</v>
+        <v>313300</v>
       </c>
       <c r="K23" s="3">
         <v>391400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>47000</v>
+        <v>45300</v>
       </c>
       <c r="E24" s="3">
-        <v>76400</v>
+        <v>73700</v>
       </c>
       <c r="F24" s="3">
-        <v>55000</v>
+        <v>53000</v>
       </c>
       <c r="G24" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H24" s="3">
-        <v>42400</v>
+        <v>40900</v>
       </c>
       <c r="I24" s="3">
-        <v>136200</v>
+        <v>131300</v>
       </c>
       <c r="J24" s="3">
-        <v>66600</v>
+        <v>64200</v>
       </c>
       <c r="K24" s="3">
         <v>121400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>90300</v>
+        <v>87100</v>
       </c>
       <c r="E26" s="3">
-        <v>213900</v>
+        <v>206200</v>
       </c>
       <c r="F26" s="3">
-        <v>84200</v>
+        <v>81200</v>
       </c>
       <c r="G26" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="H26" s="3">
-        <v>113800</v>
+        <v>109700</v>
       </c>
       <c r="I26" s="3">
-        <v>293100</v>
+        <v>282600</v>
       </c>
       <c r="J26" s="3">
-        <v>258300</v>
+        <v>249000</v>
       </c>
       <c r="K26" s="3">
         <v>269900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>81800</v>
+        <v>78900</v>
       </c>
       <c r="E27" s="3">
-        <v>188900</v>
+        <v>182100</v>
       </c>
       <c r="F27" s="3">
-        <v>41400</v>
+        <v>40000</v>
       </c>
       <c r="G27" s="3">
-        <v>96800</v>
+        <v>93300</v>
       </c>
       <c r="H27" s="3">
-        <v>213900</v>
+        <v>206200</v>
       </c>
       <c r="I27" s="3">
-        <v>223300</v>
+        <v>215300</v>
       </c>
       <c r="J27" s="3">
-        <v>194700</v>
+        <v>187700</v>
       </c>
       <c r="K27" s="3">
         <v>87900</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>64400</v>
+        <v>62100</v>
       </c>
       <c r="E29" s="3">
-        <v>23700</v>
+        <v>22800</v>
       </c>
       <c r="F29" s="3">
-        <v>65900</v>
+        <v>63500</v>
       </c>
       <c r="G29" s="3">
-        <v>-186000</v>
+        <v>-179300</v>
       </c>
       <c r="H29" s="3">
-        <v>-164900</v>
+        <v>-159000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="E32" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="F32" s="3">
-        <v>42900</v>
+        <v>41400</v>
       </c>
       <c r="G32" s="3">
-        <v>36600</v>
+        <v>35300</v>
       </c>
       <c r="H32" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="I32" s="3">
-        <v>151500</v>
+        <v>146100</v>
       </c>
       <c r="J32" s="3">
-        <v>109700</v>
+        <v>105800</v>
       </c>
       <c r="K32" s="3">
         <v>-350600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>146200</v>
+        <v>140900</v>
       </c>
       <c r="E33" s="3">
-        <v>212600</v>
+        <v>205000</v>
       </c>
       <c r="F33" s="3">
-        <v>107300</v>
+        <v>103500</v>
       </c>
       <c r="G33" s="3">
-        <v>-89200</v>
+        <v>-86000</v>
       </c>
       <c r="H33" s="3">
-        <v>49000</v>
+        <v>47300</v>
       </c>
       <c r="I33" s="3">
-        <v>223300</v>
+        <v>215300</v>
       </c>
       <c r="J33" s="3">
-        <v>194700</v>
+        <v>187700</v>
       </c>
       <c r="K33" s="3">
         <v>87900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>146200</v>
+        <v>140900</v>
       </c>
       <c r="E35" s="3">
-        <v>212600</v>
+        <v>205000</v>
       </c>
       <c r="F35" s="3">
-        <v>107300</v>
+        <v>103500</v>
       </c>
       <c r="G35" s="3">
-        <v>-89200</v>
+        <v>-86000</v>
       </c>
       <c r="H35" s="3">
-        <v>49000</v>
+        <v>47300</v>
       </c>
       <c r="I35" s="3">
-        <v>223300</v>
+        <v>215300</v>
       </c>
       <c r="J35" s="3">
-        <v>194700</v>
+        <v>187700</v>
       </c>
       <c r="K35" s="3">
         <v>87900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1490600</v>
+        <v>1419000</v>
       </c>
       <c r="E41" s="3">
-        <v>818800</v>
+        <v>779400</v>
       </c>
       <c r="F41" s="3">
-        <v>1421200</v>
+        <v>1353000</v>
       </c>
       <c r="G41" s="3">
-        <v>958000</v>
+        <v>912000</v>
       </c>
       <c r="H41" s="3">
-        <v>2064200</v>
+        <v>1965100</v>
       </c>
       <c r="I41" s="3">
-        <v>2089300</v>
+        <v>1989000</v>
       </c>
       <c r="J41" s="3">
-        <v>1568000</v>
+        <v>1492700</v>
       </c>
       <c r="K41" s="3">
         <v>3309600</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>512500</v>
+        <v>487900</v>
       </c>
       <c r="E43" s="3">
-        <v>255800</v>
+        <v>243500</v>
       </c>
       <c r="F43" s="3">
-        <v>393400</v>
+        <v>374500</v>
       </c>
       <c r="G43" s="3">
-        <v>251700</v>
+        <v>239600</v>
       </c>
       <c r="H43" s="3">
-        <v>874200</v>
+        <v>832200</v>
       </c>
       <c r="I43" s="3">
-        <v>794800</v>
+        <v>756600</v>
       </c>
       <c r="J43" s="3">
-        <v>684200</v>
+        <v>651300</v>
       </c>
       <c r="K43" s="3">
         <v>894800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1616300</v>
+        <v>1538700</v>
       </c>
       <c r="E44" s="3">
-        <v>1107300</v>
+        <v>1054200</v>
       </c>
       <c r="F44" s="3">
-        <v>1807300</v>
+        <v>1720500</v>
       </c>
       <c r="G44" s="3">
-        <v>869700</v>
+        <v>828000</v>
       </c>
       <c r="H44" s="3">
-        <v>1680000</v>
+        <v>1599400</v>
       </c>
       <c r="I44" s="3">
-        <v>1567400</v>
+        <v>1492100</v>
       </c>
       <c r="J44" s="3">
-        <v>1195900</v>
+        <v>1138500</v>
       </c>
       <c r="K44" s="3">
         <v>2690000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>108300</v>
+        <v>103100</v>
       </c>
       <c r="E45" s="3">
-        <v>5473200</v>
+        <v>5210400</v>
       </c>
       <c r="F45" s="3">
-        <v>5064100</v>
+        <v>4820900</v>
       </c>
       <c r="G45" s="3">
-        <v>3852000</v>
+        <v>3667000</v>
       </c>
       <c r="H45" s="3">
-        <v>59000</v>
+        <v>56200</v>
       </c>
       <c r="I45" s="3">
-        <v>50000</v>
+        <v>47600</v>
       </c>
       <c r="J45" s="3">
-        <v>34800</v>
+        <v>33100</v>
       </c>
       <c r="K45" s="3">
         <v>40300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3727800</v>
+        <v>3548700</v>
       </c>
       <c r="E46" s="3">
-        <v>7655100</v>
+        <v>7287500</v>
       </c>
       <c r="F46" s="3">
-        <v>6928600</v>
+        <v>6595800</v>
       </c>
       <c r="G46" s="3">
-        <v>5931400</v>
+        <v>5646500</v>
       </c>
       <c r="H46" s="3">
-        <v>4677500</v>
+        <v>4452900</v>
       </c>
       <c r="I46" s="3">
-        <v>4501500</v>
+        <v>4285300</v>
       </c>
       <c r="J46" s="3">
-        <v>3487500</v>
+        <v>3320000</v>
       </c>
       <c r="K46" s="3">
         <v>3895200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>702400</v>
+        <v>668600</v>
       </c>
       <c r="E47" s="3">
-        <v>583600</v>
+        <v>555500</v>
       </c>
       <c r="F47" s="3">
-        <v>496600</v>
+        <v>472800</v>
       </c>
       <c r="G47" s="3">
-        <v>295500</v>
+        <v>281300</v>
       </c>
       <c r="H47" s="3">
-        <v>727300</v>
+        <v>692400</v>
       </c>
       <c r="I47" s="3">
-        <v>1329400</v>
+        <v>1265600</v>
       </c>
       <c r="J47" s="3">
-        <v>497800</v>
+        <v>473900</v>
       </c>
       <c r="K47" s="3">
         <v>739100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4792200</v>
+        <v>4562000</v>
       </c>
       <c r="E48" s="3">
-        <v>2642700</v>
+        <v>2515800</v>
       </c>
       <c r="F48" s="3">
-        <v>4207300</v>
+        <v>4005300</v>
       </c>
       <c r="G48" s="3">
-        <v>1725000</v>
+        <v>1642200</v>
       </c>
       <c r="H48" s="3">
-        <v>1949300</v>
+        <v>1855700</v>
       </c>
       <c r="I48" s="3">
-        <v>1827000</v>
+        <v>1739200</v>
       </c>
       <c r="J48" s="3">
-        <v>1696600</v>
+        <v>1615200</v>
       </c>
       <c r="K48" s="3">
         <v>1776800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1394300</v>
+        <v>1327300</v>
       </c>
       <c r="E49" s="3">
-        <v>1029400</v>
+        <v>980000</v>
       </c>
       <c r="F49" s="3">
-        <v>1073100</v>
+        <v>1021500</v>
       </c>
       <c r="G49" s="3">
-        <v>357600</v>
+        <v>340400</v>
       </c>
       <c r="H49" s="3">
-        <v>1226200</v>
+        <v>1167300</v>
       </c>
       <c r="I49" s="3">
-        <v>1208400</v>
+        <v>1150300</v>
       </c>
       <c r="J49" s="3">
-        <v>1068300</v>
+        <v>1017000</v>
       </c>
       <c r="K49" s="3">
         <v>3485700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>250900</v>
+        <v>238900</v>
       </c>
       <c r="E52" s="3">
-        <v>278700</v>
+        <v>265300</v>
       </c>
       <c r="F52" s="3">
-        <v>204600</v>
+        <v>194800</v>
       </c>
       <c r="G52" s="3">
-        <v>164200</v>
+        <v>156300</v>
       </c>
       <c r="H52" s="3">
-        <v>272700</v>
+        <v>259600</v>
       </c>
       <c r="I52" s="3">
-        <v>291800</v>
+        <v>277800</v>
       </c>
       <c r="J52" s="3">
-        <v>372600</v>
+        <v>354700</v>
       </c>
       <c r="K52" s="3">
         <v>612800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10867500</v>
+        <v>10345600</v>
       </c>
       <c r="E54" s="3">
-        <v>11616600</v>
+        <v>11058700</v>
       </c>
       <c r="F54" s="3">
-        <v>10468500</v>
+        <v>9965800</v>
       </c>
       <c r="G54" s="3">
-        <v>8473700</v>
+        <v>8066700</v>
       </c>
       <c r="H54" s="3">
-        <v>8853000</v>
+        <v>8427800</v>
       </c>
       <c r="I54" s="3">
-        <v>8497700</v>
+        <v>8089500</v>
       </c>
       <c r="J54" s="3">
-        <v>7122800</v>
+        <v>6780700</v>
       </c>
       <c r="K54" s="3">
         <v>8134000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2789800</v>
+        <v>2655800</v>
       </c>
       <c r="E57" s="3">
-        <v>1732700</v>
+        <v>1649500</v>
       </c>
       <c r="F57" s="3">
-        <v>1523200</v>
+        <v>1450000</v>
       </c>
       <c r="G57" s="3">
-        <v>1355300</v>
+        <v>1290200</v>
       </c>
       <c r="H57" s="3">
-        <v>2906200</v>
+        <v>2766600</v>
       </c>
       <c r="I57" s="3">
-        <v>2523500</v>
+        <v>2402300</v>
       </c>
       <c r="J57" s="3">
-        <v>1601800</v>
+        <v>1524900</v>
       </c>
       <c r="K57" s="3">
         <v>2933600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>829200</v>
+        <v>789400</v>
       </c>
       <c r="E58" s="3">
-        <v>844000</v>
+        <v>803500</v>
       </c>
       <c r="F58" s="3">
-        <v>542700</v>
+        <v>516600</v>
       </c>
       <c r="G58" s="3">
-        <v>554100</v>
+        <v>527500</v>
       </c>
       <c r="H58" s="3">
-        <v>1429500</v>
+        <v>1360800</v>
       </c>
       <c r="I58" s="3">
-        <v>2538700</v>
+        <v>2416800</v>
       </c>
       <c r="J58" s="3">
-        <v>969100</v>
+        <v>922600</v>
       </c>
       <c r="K58" s="3">
         <v>2150900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>716400</v>
+        <v>682000</v>
       </c>
       <c r="E59" s="3">
-        <v>4868700</v>
+        <v>4634800</v>
       </c>
       <c r="F59" s="3">
-        <v>4490700</v>
+        <v>4275000</v>
       </c>
       <c r="G59" s="3">
-        <v>3259400</v>
+        <v>3102900</v>
       </c>
       <c r="H59" s="3">
-        <v>1115200</v>
+        <v>1061700</v>
       </c>
       <c r="I59" s="3">
-        <v>1242500</v>
+        <v>1182800</v>
       </c>
       <c r="J59" s="3">
-        <v>948000</v>
+        <v>902400</v>
       </c>
       <c r="K59" s="3">
         <v>1508300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4335500</v>
+        <v>4127300</v>
       </c>
       <c r="E60" s="3">
-        <v>7043800</v>
+        <v>6705500</v>
       </c>
       <c r="F60" s="3">
-        <v>6258200</v>
+        <v>5957700</v>
       </c>
       <c r="G60" s="3">
-        <v>5168900</v>
+        <v>4920600</v>
       </c>
       <c r="H60" s="3">
-        <v>4736200</v>
+        <v>4508700</v>
       </c>
       <c r="I60" s="3">
-        <v>4494000</v>
+        <v>4278200</v>
       </c>
       <c r="J60" s="3">
-        <v>3188200</v>
+        <v>3035100</v>
       </c>
       <c r="K60" s="3">
         <v>3127100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3454900</v>
+        <v>3289000</v>
       </c>
       <c r="E61" s="3">
-        <v>1625100</v>
+        <v>1547100</v>
       </c>
       <c r="F61" s="3">
-        <v>1502000</v>
+        <v>1429900</v>
       </c>
       <c r="G61" s="3">
-        <v>545700</v>
+        <v>519500</v>
       </c>
       <c r="H61" s="3">
-        <v>780300</v>
+        <v>742900</v>
       </c>
       <c r="I61" s="3">
-        <v>587300</v>
+        <v>559100</v>
       </c>
       <c r="J61" s="3">
-        <v>809900</v>
+        <v>771000</v>
       </c>
       <c r="K61" s="3">
         <v>1466800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>545100</v>
+        <v>519000</v>
       </c>
       <c r="E62" s="3">
-        <v>481600</v>
+        <v>458500</v>
       </c>
       <c r="F62" s="3">
-        <v>430300</v>
+        <v>409600</v>
       </c>
       <c r="G62" s="3">
-        <v>398400</v>
+        <v>379300</v>
       </c>
       <c r="H62" s="3">
-        <v>834300</v>
+        <v>794200</v>
       </c>
       <c r="I62" s="3">
-        <v>988900</v>
+        <v>941400</v>
       </c>
       <c r="J62" s="3">
-        <v>957500</v>
+        <v>911500</v>
       </c>
       <c r="K62" s="3">
         <v>1328000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8817400</v>
+        <v>8393900</v>
       </c>
       <c r="E66" s="3">
-        <v>9698700</v>
+        <v>9232900</v>
       </c>
       <c r="F66" s="3">
-        <v>8710000</v>
+        <v>8291700</v>
       </c>
       <c r="G66" s="3">
-        <v>6625900</v>
+        <v>6307700</v>
       </c>
       <c r="H66" s="3">
-        <v>6912600</v>
+        <v>6580600</v>
       </c>
       <c r="I66" s="3">
-        <v>6534300</v>
+        <v>6220500</v>
       </c>
       <c r="J66" s="3">
-        <v>5345600</v>
+        <v>5088900</v>
       </c>
       <c r="K66" s="3">
         <v>6150300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>760300</v>
+        <v>723800</v>
       </c>
       <c r="E72" s="3">
-        <v>669400</v>
+        <v>637200</v>
       </c>
       <c r="F72" s="3">
-        <v>485600</v>
+        <v>462200</v>
       </c>
       <c r="G72" s="3">
-        <v>588400</v>
+        <v>560200</v>
       </c>
       <c r="H72" s="3">
-        <v>675000</v>
+        <v>642600</v>
       </c>
       <c r="I72" s="3">
-        <v>1380000</v>
+        <v>1313700</v>
       </c>
       <c r="J72" s="3">
-        <v>1026000</v>
+        <v>976800</v>
       </c>
       <c r="K72" s="3">
         <v>1196900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2050200</v>
+        <v>1951700</v>
       </c>
       <c r="E76" s="3">
-        <v>1917900</v>
+        <v>1825700</v>
       </c>
       <c r="F76" s="3">
-        <v>1758600</v>
+        <v>1674100</v>
       </c>
       <c r="G76" s="3">
-        <v>1847800</v>
+        <v>1759000</v>
       </c>
       <c r="H76" s="3">
-        <v>1940300</v>
+        <v>1847200</v>
       </c>
       <c r="I76" s="3">
-        <v>1963400</v>
+        <v>1869100</v>
       </c>
       <c r="J76" s="3">
-        <v>1777100</v>
+        <v>1691800</v>
       </c>
       <c r="K76" s="3">
         <v>1983700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>146200</v>
+        <v>140900</v>
       </c>
       <c r="E81" s="3">
-        <v>212600</v>
+        <v>205000</v>
       </c>
       <c r="F81" s="3">
-        <v>107300</v>
+        <v>103500</v>
       </c>
       <c r="G81" s="3">
-        <v>-89200</v>
+        <v>-86000</v>
       </c>
       <c r="H81" s="3">
-        <v>49000</v>
+        <v>47300</v>
       </c>
       <c r="I81" s="3">
-        <v>223300</v>
+        <v>215300</v>
       </c>
       <c r="J81" s="3">
-        <v>194700</v>
+        <v>187700</v>
       </c>
       <c r="K81" s="3">
         <v>87900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>288500</v>
+        <v>278100</v>
       </c>
       <c r="E83" s="3">
-        <v>244600</v>
+        <v>235800</v>
       </c>
       <c r="F83" s="3">
-        <v>154100</v>
+        <v>148600</v>
       </c>
       <c r="G83" s="3">
-        <v>201500</v>
+        <v>194300</v>
       </c>
       <c r="H83" s="3">
-        <v>203900</v>
+        <v>196600</v>
       </c>
       <c r="I83" s="3">
-        <v>171900</v>
+        <v>165700</v>
       </c>
       <c r="J83" s="3">
-        <v>160100</v>
+        <v>154400</v>
       </c>
       <c r="K83" s="3">
         <v>194800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>210000</v>
+        <v>202500</v>
       </c>
       <c r="E89" s="3">
-        <v>789500</v>
+        <v>761200</v>
       </c>
       <c r="F89" s="3">
-        <v>350600</v>
+        <v>338100</v>
       </c>
       <c r="G89" s="3">
-        <v>-241300</v>
+        <v>-232600</v>
       </c>
       <c r="H89" s="3">
-        <v>857100</v>
+        <v>826300</v>
       </c>
       <c r="I89" s="3">
-        <v>923300</v>
+        <v>890200</v>
       </c>
       <c r="J89" s="3">
-        <v>905200</v>
+        <v>872700</v>
       </c>
       <c r="K89" s="3">
         <v>1237500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-455500</v>
+        <v>-439200</v>
       </c>
       <c r="E91" s="3">
-        <v>-305100</v>
+        <v>-294200</v>
       </c>
       <c r="F91" s="3">
-        <v>-259400</v>
+        <v>-250100</v>
       </c>
       <c r="G91" s="3">
-        <v>-234100</v>
+        <v>-225700</v>
       </c>
       <c r="H91" s="3">
-        <v>-292500</v>
+        <v>-282100</v>
       </c>
       <c r="I91" s="3">
-        <v>-255200</v>
+        <v>-246000</v>
       </c>
       <c r="J91" s="3">
-        <v>-306400</v>
+        <v>-295400</v>
       </c>
       <c r="K91" s="3">
         <v>-305700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-604300</v>
+        <v>-582700</v>
       </c>
       <c r="E94" s="3">
-        <v>-351000</v>
+        <v>-338400</v>
       </c>
       <c r="F94" s="3">
-        <v>-294600</v>
+        <v>-284000</v>
       </c>
       <c r="G94" s="3">
-        <v>-373800</v>
+        <v>-360400</v>
       </c>
       <c r="H94" s="3">
-        <v>-342700</v>
+        <v>-330400</v>
       </c>
       <c r="I94" s="3">
-        <v>-300500</v>
+        <v>-289700</v>
       </c>
       <c r="J94" s="3">
-        <v>-363200</v>
+        <v>-350200</v>
       </c>
       <c r="K94" s="3">
         <v>-305000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-49600</v>
+        <v>-47800</v>
       </c>
       <c r="E96" s="3">
-        <v>-64900</v>
+        <v>-62600</v>
       </c>
       <c r="F96" s="3">
-        <v>-18700</v>
+        <v>-18000</v>
       </c>
       <c r="G96" s="3">
         <v>-700</v>
       </c>
       <c r="H96" s="3">
-        <v>-80300</v>
+        <v>-77400</v>
       </c>
       <c r="I96" s="3">
-        <v>-47700</v>
+        <v>-46000</v>
       </c>
       <c r="J96" s="3">
-        <v>-83800</v>
+        <v>-80800</v>
       </c>
       <c r="K96" s="3">
         <v>-43500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>350400</v>
+        <v>337900</v>
       </c>
       <c r="E100" s="3">
-        <v>-303600</v>
+        <v>-292800</v>
       </c>
       <c r="F100" s="3">
-        <v>-387500</v>
+        <v>-373600</v>
       </c>
       <c r="G100" s="3">
-        <v>272900</v>
+        <v>263100</v>
       </c>
       <c r="H100" s="3">
-        <v>-556200</v>
+        <v>-536300</v>
       </c>
       <c r="I100" s="3">
-        <v>-117700</v>
+        <v>-113500</v>
       </c>
       <c r="J100" s="3">
-        <v>-304900</v>
+        <v>-294000</v>
       </c>
       <c r="K100" s="3">
         <v>-438300</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="H101" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="I101" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-23300</v>
+        <v>-22500</v>
       </c>
       <c r="E102" s="3">
-        <v>134900</v>
+        <v>130100</v>
       </c>
       <c r="F102" s="3">
-        <v>-331400</v>
+        <v>-319500</v>
       </c>
       <c r="G102" s="3">
-        <v>-346600</v>
+        <v>-334100</v>
       </c>
       <c r="H102" s="3">
-        <v>-24800</v>
+        <v>-23900</v>
       </c>
       <c r="I102" s="3">
-        <v>514800</v>
+        <v>496300</v>
       </c>
       <c r="J102" s="3">
-        <v>237000</v>
+        <v>228500</v>
       </c>
       <c r="K102" s="3">
         <v>494200</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10103700</v>
+        <v>10598100</v>
       </c>
       <c r="E8" s="3">
-        <v>8810800</v>
+        <v>9242000</v>
       </c>
       <c r="F8" s="3">
-        <v>7962700</v>
+        <v>8352400</v>
       </c>
       <c r="G8" s="3">
-        <v>7395400</v>
+        <v>7757300</v>
       </c>
       <c r="H8" s="3">
-        <v>6636100</v>
+        <v>6960900</v>
       </c>
       <c r="I8" s="3">
-        <v>11668600</v>
+        <v>12239600</v>
       </c>
       <c r="J8" s="3">
-        <v>10321200</v>
+        <v>10826200</v>
       </c>
       <c r="K8" s="3">
         <v>11913300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7930100</v>
+        <v>8317000</v>
       </c>
       <c r="E9" s="3">
-        <v>6739800</v>
+        <v>7069600</v>
       </c>
       <c r="F9" s="3">
-        <v>6002400</v>
+        <v>6296200</v>
       </c>
       <c r="G9" s="3">
-        <v>5696800</v>
+        <v>5975600</v>
       </c>
       <c r="H9" s="3">
-        <v>5017100</v>
+        <v>5262700</v>
       </c>
       <c r="I9" s="3">
-        <v>8672000</v>
+        <v>9096400</v>
       </c>
       <c r="J9" s="3">
-        <v>7626600</v>
+        <v>7999800</v>
       </c>
       <c r="K9" s="3">
         <v>8689300</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2173600</v>
+        <v>2281100</v>
       </c>
       <c r="E10" s="3">
-        <v>2071000</v>
+        <v>2172400</v>
       </c>
       <c r="F10" s="3">
-        <v>1960300</v>
+        <v>2056200</v>
       </c>
       <c r="G10" s="3">
-        <v>1698500</v>
+        <v>1781700</v>
       </c>
       <c r="H10" s="3">
-        <v>1619000</v>
+        <v>1698200</v>
       </c>
       <c r="I10" s="3">
-        <v>2996600</v>
+        <v>3143200</v>
       </c>
       <c r="J10" s="3">
-        <v>2694600</v>
+        <v>2826400</v>
       </c>
       <c r="K10" s="3">
         <v>3224000</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>52100</v>
+        <v>54600</v>
       </c>
       <c r="E14" s="3">
-        <v>26200</v>
+        <v>27500</v>
       </c>
       <c r="F14" s="3">
-        <v>19100</v>
+        <v>20000</v>
       </c>
       <c r="G14" s="3">
-        <v>17700</v>
+        <v>18500</v>
       </c>
       <c r="H14" s="3">
-        <v>20700</v>
+        <v>21700</v>
       </c>
       <c r="I14" s="3">
-        <v>65300</v>
+        <v>68500</v>
       </c>
       <c r="J14" s="3">
-        <v>102200</v>
+        <v>107200</v>
       </c>
       <c r="K14" s="3">
         <v>22200</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>252100</v>
+        <v>264400</v>
       </c>
       <c r="E15" s="3">
-        <v>214400</v>
+        <v>224900</v>
       </c>
       <c r="F15" s="3">
-        <v>139000</v>
+        <v>145800</v>
       </c>
       <c r="G15" s="3">
-        <v>126100</v>
+        <v>132300</v>
       </c>
       <c r="H15" s="3">
-        <v>116000</v>
+        <v>121600</v>
       </c>
       <c r="I15" s="3">
-        <v>146100</v>
+        <v>153300</v>
       </c>
       <c r="J15" s="3">
-        <v>140400</v>
+        <v>147300</v>
       </c>
       <c r="K15" s="3">
         <v>175400</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9756200</v>
+        <v>10230200</v>
       </c>
       <c r="E17" s="3">
-        <v>8341600</v>
+        <v>8749800</v>
       </c>
       <c r="F17" s="3">
-        <v>7698300</v>
+        <v>8075000</v>
       </c>
       <c r="G17" s="3">
-        <v>7242700</v>
+        <v>7597100</v>
       </c>
       <c r="H17" s="3">
-        <v>6348500</v>
+        <v>6659200</v>
       </c>
       <c r="I17" s="3">
-        <v>10986100</v>
+        <v>11523700</v>
       </c>
       <c r="J17" s="3">
-        <v>9795100</v>
+        <v>10274400</v>
       </c>
       <c r="K17" s="3">
         <v>11243300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>347500</v>
+        <v>367900</v>
       </c>
       <c r="E18" s="3">
-        <v>469200</v>
+        <v>492200</v>
       </c>
       <c r="F18" s="3">
-        <v>264400</v>
+        <v>277300</v>
       </c>
       <c r="G18" s="3">
-        <v>152700</v>
+        <v>160200</v>
       </c>
       <c r="H18" s="3">
-        <v>287600</v>
+        <v>301700</v>
       </c>
       <c r="I18" s="3">
-        <v>682600</v>
+        <v>716000</v>
       </c>
       <c r="J18" s="3">
-        <v>526100</v>
+        <v>551800</v>
       </c>
       <c r="K18" s="3">
         <v>670000</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="E20" s="3">
-        <v>-15000</v>
+        <v>-15700</v>
       </c>
       <c r="F20" s="3">
-        <v>-41400</v>
+        <v>-43400</v>
       </c>
       <c r="G20" s="3">
-        <v>-35300</v>
+        <v>-37100</v>
       </c>
       <c r="H20" s="3">
-        <v>-12500</v>
+        <v>-13100</v>
       </c>
       <c r="I20" s="3">
-        <v>-146100</v>
+        <v>-153300</v>
       </c>
       <c r="J20" s="3">
-        <v>-105800</v>
+        <v>-111000</v>
       </c>
       <c r="K20" s="3">
         <v>350600</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>638400</v>
+        <v>668300</v>
       </c>
       <c r="E21" s="3">
-        <v>694200</v>
+        <v>724200</v>
       </c>
       <c r="F21" s="3">
-        <v>374200</v>
+        <v>390000</v>
       </c>
       <c r="G21" s="3">
-        <v>315100</v>
+        <v>327200</v>
       </c>
       <c r="H21" s="3">
-        <v>475200</v>
+        <v>495100</v>
       </c>
       <c r="I21" s="3">
-        <v>705100</v>
+        <v>736800</v>
       </c>
       <c r="J21" s="3">
-        <v>577400</v>
+        <v>603100</v>
       </c>
       <c r="K21" s="3">
         <v>1217500</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>223000</v>
+        <v>233900</v>
       </c>
       <c r="E22" s="3">
-        <v>174300</v>
+        <v>182800</v>
       </c>
       <c r="F22" s="3">
-        <v>88800</v>
+        <v>93200</v>
       </c>
       <c r="G22" s="3">
-        <v>125800</v>
+        <v>131900</v>
       </c>
       <c r="H22" s="3">
-        <v>124500</v>
+        <v>130600</v>
       </c>
       <c r="I22" s="3">
-        <v>122600</v>
+        <v>128600</v>
       </c>
       <c r="J22" s="3">
-        <v>107000</v>
+        <v>112300</v>
       </c>
       <c r="K22" s="3">
         <v>629100</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>132400</v>
+        <v>142200</v>
       </c>
       <c r="E23" s="3">
-        <v>279900</v>
+        <v>293600</v>
       </c>
       <c r="F23" s="3">
-        <v>134200</v>
+        <v>140700</v>
       </c>
       <c r="G23" s="3">
-        <v>-8400</v>
+        <v>-8800</v>
       </c>
       <c r="H23" s="3">
-        <v>150600</v>
+        <v>157900</v>
       </c>
       <c r="I23" s="3">
-        <v>413900</v>
+        <v>434100</v>
       </c>
       <c r="J23" s="3">
-        <v>313300</v>
+        <v>328600</v>
       </c>
       <c r="K23" s="3">
         <v>391400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>45300</v>
+        <v>50900</v>
       </c>
       <c r="E24" s="3">
-        <v>73700</v>
+        <v>77300</v>
       </c>
       <c r="F24" s="3">
-        <v>53000</v>
+        <v>55600</v>
       </c>
       <c r="G24" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H24" s="3">
-        <v>40900</v>
+        <v>42900</v>
       </c>
       <c r="I24" s="3">
-        <v>131300</v>
+        <v>137700</v>
       </c>
       <c r="J24" s="3">
-        <v>64200</v>
+        <v>67400</v>
       </c>
       <c r="K24" s="3">
         <v>121400</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>87100</v>
+        <v>91300</v>
       </c>
       <c r="E26" s="3">
-        <v>206200</v>
+        <v>216300</v>
       </c>
       <c r="F26" s="3">
-        <v>81200</v>
+        <v>85100</v>
       </c>
       <c r="G26" s="3">
-        <v>-12700</v>
+        <v>-13300</v>
       </c>
       <c r="H26" s="3">
-        <v>109700</v>
+        <v>115100</v>
       </c>
       <c r="I26" s="3">
-        <v>282600</v>
+        <v>296400</v>
       </c>
       <c r="J26" s="3">
-        <v>249000</v>
+        <v>261200</v>
       </c>
       <c r="K26" s="3">
         <v>269900</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>78900</v>
+        <v>82700</v>
       </c>
       <c r="E27" s="3">
-        <v>182100</v>
+        <v>191100</v>
       </c>
       <c r="F27" s="3">
-        <v>40000</v>
+        <v>41900</v>
       </c>
       <c r="G27" s="3">
-        <v>93300</v>
+        <v>97900</v>
       </c>
       <c r="H27" s="3">
-        <v>206200</v>
+        <v>216300</v>
       </c>
       <c r="I27" s="3">
-        <v>215300</v>
+        <v>225900</v>
       </c>
       <c r="J27" s="3">
-        <v>187700</v>
+        <v>196900</v>
       </c>
       <c r="K27" s="3">
         <v>87900</v>
@@ -1353,19 +1353,19 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>62100</v>
+        <v>65100</v>
       </c>
       <c r="E29" s="3">
-        <v>22800</v>
+        <v>24000</v>
       </c>
       <c r="F29" s="3">
-        <v>63500</v>
+        <v>66600</v>
       </c>
       <c r="G29" s="3">
-        <v>-179300</v>
+        <v>-188100</v>
       </c>
       <c r="H29" s="3">
-        <v>-159000</v>
+        <v>-166700</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-7800</v>
+        <v>-8200</v>
       </c>
       <c r="E32" s="3">
-        <v>15000</v>
+        <v>15700</v>
       </c>
       <c r="F32" s="3">
-        <v>41400</v>
+        <v>43400</v>
       </c>
       <c r="G32" s="3">
-        <v>35300</v>
+        <v>37100</v>
       </c>
       <c r="H32" s="3">
-        <v>12500</v>
+        <v>13100</v>
       </c>
       <c r="I32" s="3">
-        <v>146100</v>
+        <v>153300</v>
       </c>
       <c r="J32" s="3">
-        <v>105800</v>
+        <v>111000</v>
       </c>
       <c r="K32" s="3">
         <v>-350600</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>140900</v>
+        <v>147800</v>
       </c>
       <c r="E33" s="3">
-        <v>205000</v>
+        <v>215000</v>
       </c>
       <c r="F33" s="3">
-        <v>103500</v>
+        <v>108500</v>
       </c>
       <c r="G33" s="3">
-        <v>-86000</v>
+        <v>-90200</v>
       </c>
       <c r="H33" s="3">
-        <v>47300</v>
+        <v>49600</v>
       </c>
       <c r="I33" s="3">
-        <v>215300</v>
+        <v>225900</v>
       </c>
       <c r="J33" s="3">
-        <v>187700</v>
+        <v>196900</v>
       </c>
       <c r="K33" s="3">
         <v>87900</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>140900</v>
+        <v>147800</v>
       </c>
       <c r="E35" s="3">
-        <v>205000</v>
+        <v>215000</v>
       </c>
       <c r="F35" s="3">
-        <v>103500</v>
+        <v>108500</v>
       </c>
       <c r="G35" s="3">
-        <v>-86000</v>
+        <v>-90200</v>
       </c>
       <c r="H35" s="3">
-        <v>47300</v>
+        <v>49600</v>
       </c>
       <c r="I35" s="3">
-        <v>215300</v>
+        <v>225900</v>
       </c>
       <c r="J35" s="3">
-        <v>187700</v>
+        <v>196900</v>
       </c>
       <c r="K35" s="3">
         <v>87900</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1419000</v>
+        <v>1488400</v>
       </c>
       <c r="E41" s="3">
-        <v>779400</v>
+        <v>817600</v>
       </c>
       <c r="F41" s="3">
-        <v>1353000</v>
+        <v>1419200</v>
       </c>
       <c r="G41" s="3">
-        <v>912000</v>
+        <v>956600</v>
       </c>
       <c r="H41" s="3">
-        <v>1965100</v>
+        <v>2061200</v>
       </c>
       <c r="I41" s="3">
-        <v>1989000</v>
+        <v>2086300</v>
       </c>
       <c r="J41" s="3">
-        <v>1492700</v>
+        <v>1565700</v>
       </c>
       <c r="K41" s="3">
         <v>3309600</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>487900</v>
+        <v>524000</v>
       </c>
       <c r="E43" s="3">
-        <v>243500</v>
+        <v>255400</v>
       </c>
       <c r="F43" s="3">
-        <v>374500</v>
+        <v>392800</v>
       </c>
       <c r="G43" s="3">
-        <v>239600</v>
+        <v>251300</v>
       </c>
       <c r="H43" s="3">
-        <v>832200</v>
+        <v>873000</v>
       </c>
       <c r="I43" s="3">
-        <v>756600</v>
+        <v>793600</v>
       </c>
       <c r="J43" s="3">
-        <v>651300</v>
+        <v>683200</v>
       </c>
       <c r="K43" s="3">
         <v>894800</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1538700</v>
+        <v>1615100</v>
       </c>
       <c r="E44" s="3">
-        <v>1054200</v>
+        <v>1105800</v>
       </c>
       <c r="F44" s="3">
-        <v>1720500</v>
+        <v>1804700</v>
       </c>
       <c r="G44" s="3">
-        <v>828000</v>
+        <v>868500</v>
       </c>
       <c r="H44" s="3">
-        <v>1599400</v>
+        <v>1677600</v>
       </c>
       <c r="I44" s="3">
-        <v>1492100</v>
+        <v>1565200</v>
       </c>
       <c r="J44" s="3">
-        <v>1138500</v>
+        <v>1194200</v>
       </c>
       <c r="K44" s="3">
         <v>2690000</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103100</v>
+        <v>109100</v>
       </c>
       <c r="E45" s="3">
-        <v>5210400</v>
+        <v>5465300</v>
       </c>
       <c r="F45" s="3">
-        <v>4820900</v>
+        <v>5056800</v>
       </c>
       <c r="G45" s="3">
-        <v>3667000</v>
+        <v>3846500</v>
       </c>
       <c r="H45" s="3">
-        <v>56200</v>
+        <v>58900</v>
       </c>
       <c r="I45" s="3">
-        <v>47600</v>
+        <v>50000</v>
       </c>
       <c r="J45" s="3">
-        <v>33100</v>
+        <v>34700</v>
       </c>
       <c r="K45" s="3">
         <v>40300</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3548700</v>
+        <v>3736600</v>
       </c>
       <c r="E46" s="3">
-        <v>7287500</v>
+        <v>7644100</v>
       </c>
       <c r="F46" s="3">
-        <v>6595800</v>
+        <v>6918600</v>
       </c>
       <c r="G46" s="3">
-        <v>5646500</v>
+        <v>5922900</v>
       </c>
       <c r="H46" s="3">
-        <v>4452900</v>
+        <v>4670800</v>
       </c>
       <c r="I46" s="3">
-        <v>4285300</v>
+        <v>4495000</v>
       </c>
       <c r="J46" s="3">
-        <v>3320000</v>
+        <v>3482400</v>
       </c>
       <c r="K46" s="3">
         <v>3895200</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>668600</v>
+        <v>675200</v>
       </c>
       <c r="E47" s="3">
-        <v>555500</v>
+        <v>582700</v>
       </c>
       <c r="F47" s="3">
-        <v>472800</v>
+        <v>495900</v>
       </c>
       <c r="G47" s="3">
-        <v>281300</v>
+        <v>295100</v>
       </c>
       <c r="H47" s="3">
-        <v>692400</v>
+        <v>726300</v>
       </c>
       <c r="I47" s="3">
-        <v>1265600</v>
+        <v>1327500</v>
       </c>
       <c r="J47" s="3">
-        <v>473900</v>
+        <v>497100</v>
       </c>
       <c r="K47" s="3">
         <v>739100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4562000</v>
+        <v>5116300</v>
       </c>
       <c r="E48" s="3">
-        <v>2515800</v>
+        <v>2638900</v>
       </c>
       <c r="F48" s="3">
-        <v>4005300</v>
+        <v>4201300</v>
       </c>
       <c r="G48" s="3">
-        <v>1642200</v>
+        <v>1722500</v>
       </c>
       <c r="H48" s="3">
-        <v>1855700</v>
+        <v>1946500</v>
       </c>
       <c r="I48" s="3">
-        <v>1739200</v>
+        <v>1824300</v>
       </c>
       <c r="J48" s="3">
-        <v>1615200</v>
+        <v>1694200</v>
       </c>
       <c r="K48" s="3">
         <v>1776800</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1327300</v>
+        <v>1166900</v>
       </c>
       <c r="E49" s="3">
-        <v>980000</v>
+        <v>1027900</v>
       </c>
       <c r="F49" s="3">
-        <v>1021500</v>
+        <v>1071500</v>
       </c>
       <c r="G49" s="3">
-        <v>340400</v>
+        <v>357000</v>
       </c>
       <c r="H49" s="3">
-        <v>1167300</v>
+        <v>1224400</v>
       </c>
       <c r="I49" s="3">
-        <v>1150300</v>
+        <v>1206600</v>
       </c>
       <c r="J49" s="3">
-        <v>1017000</v>
+        <v>1066800</v>
       </c>
       <c r="K49" s="3">
         <v>3485700</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>238900</v>
+        <v>247400</v>
       </c>
       <c r="E52" s="3">
-        <v>265300</v>
+        <v>278300</v>
       </c>
       <c r="F52" s="3">
-        <v>194800</v>
+        <v>204300</v>
       </c>
       <c r="G52" s="3">
-        <v>156300</v>
+        <v>163900</v>
       </c>
       <c r="H52" s="3">
-        <v>259600</v>
+        <v>272300</v>
       </c>
       <c r="I52" s="3">
-        <v>277800</v>
+        <v>291400</v>
       </c>
       <c r="J52" s="3">
-        <v>354700</v>
+        <v>372000</v>
       </c>
       <c r="K52" s="3">
         <v>612800</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10345600</v>
+        <v>10942400</v>
       </c>
       <c r="E54" s="3">
-        <v>11058700</v>
+        <v>11599800</v>
       </c>
       <c r="F54" s="3">
-        <v>9965800</v>
+        <v>10453500</v>
       </c>
       <c r="G54" s="3">
-        <v>8066700</v>
+        <v>8461500</v>
       </c>
       <c r="H54" s="3">
-        <v>8427800</v>
+        <v>8840200</v>
       </c>
       <c r="I54" s="3">
-        <v>8089500</v>
+        <v>8485400</v>
       </c>
       <c r="J54" s="3">
-        <v>6780700</v>
+        <v>7112500</v>
       </c>
       <c r="K54" s="3">
         <v>8134000</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2655800</v>
+        <v>2785800</v>
       </c>
       <c r="E57" s="3">
-        <v>1649500</v>
+        <v>1730200</v>
       </c>
       <c r="F57" s="3">
-        <v>1450000</v>
+        <v>1521000</v>
       </c>
       <c r="G57" s="3">
-        <v>1290200</v>
+        <v>1353300</v>
       </c>
       <c r="H57" s="3">
-        <v>2766600</v>
+        <v>2902000</v>
       </c>
       <c r="I57" s="3">
-        <v>2402300</v>
+        <v>2519900</v>
       </c>
       <c r="J57" s="3">
-        <v>1524900</v>
+        <v>1599500</v>
       </c>
       <c r="K57" s="3">
         <v>2933600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>789400</v>
+        <v>828100</v>
       </c>
       <c r="E58" s="3">
-        <v>803500</v>
+        <v>842800</v>
       </c>
       <c r="F58" s="3">
-        <v>516600</v>
+        <v>541900</v>
       </c>
       <c r="G58" s="3">
-        <v>527500</v>
+        <v>553300</v>
       </c>
       <c r="H58" s="3">
-        <v>1360800</v>
+        <v>1427400</v>
       </c>
       <c r="I58" s="3">
-        <v>2416800</v>
+        <v>2535100</v>
       </c>
       <c r="J58" s="3">
-        <v>922600</v>
+        <v>967700</v>
       </c>
       <c r="K58" s="3">
         <v>2150900</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>682000</v>
+        <v>715400</v>
       </c>
       <c r="E59" s="3">
-        <v>4634800</v>
+        <v>4861600</v>
       </c>
       <c r="F59" s="3">
-        <v>4275000</v>
+        <v>4484200</v>
       </c>
       <c r="G59" s="3">
-        <v>3102900</v>
+        <v>3254800</v>
       </c>
       <c r="H59" s="3">
-        <v>1061700</v>
+        <v>1113600</v>
       </c>
       <c r="I59" s="3">
-        <v>1182800</v>
+        <v>1240700</v>
       </c>
       <c r="J59" s="3">
-        <v>902400</v>
+        <v>946600</v>
       </c>
       <c r="K59" s="3">
         <v>1508300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4127300</v>
+        <v>4329300</v>
       </c>
       <c r="E60" s="3">
-        <v>6705500</v>
+        <v>7033700</v>
       </c>
       <c r="F60" s="3">
-        <v>5957700</v>
+        <v>6249200</v>
       </c>
       <c r="G60" s="3">
-        <v>4920600</v>
+        <v>5161400</v>
       </c>
       <c r="H60" s="3">
-        <v>4508700</v>
+        <v>4729300</v>
       </c>
       <c r="I60" s="3">
-        <v>4278200</v>
+        <v>4487600</v>
       </c>
       <c r="J60" s="3">
-        <v>3035100</v>
+        <v>3183600</v>
       </c>
       <c r="K60" s="3">
         <v>3127100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3289000</v>
+        <v>3449900</v>
       </c>
       <c r="E61" s="3">
-        <v>1547100</v>
+        <v>1622800</v>
       </c>
       <c r="F61" s="3">
-        <v>1429900</v>
+        <v>1499800</v>
       </c>
       <c r="G61" s="3">
-        <v>519500</v>
+        <v>544900</v>
       </c>
       <c r="H61" s="3">
-        <v>742900</v>
+        <v>779200</v>
       </c>
       <c r="I61" s="3">
-        <v>559100</v>
+        <v>586500</v>
       </c>
       <c r="J61" s="3">
-        <v>771000</v>
+        <v>808700</v>
       </c>
       <c r="K61" s="3">
         <v>1466800</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>519000</v>
+        <v>628000</v>
       </c>
       <c r="E62" s="3">
-        <v>458500</v>
+        <v>480900</v>
       </c>
       <c r="F62" s="3">
-        <v>409600</v>
+        <v>429700</v>
       </c>
       <c r="G62" s="3">
-        <v>379300</v>
+        <v>397800</v>
       </c>
       <c r="H62" s="3">
-        <v>794200</v>
+        <v>833100</v>
       </c>
       <c r="I62" s="3">
-        <v>941400</v>
+        <v>987500</v>
       </c>
       <c r="J62" s="3">
-        <v>911500</v>
+        <v>956100</v>
       </c>
       <c r="K62" s="3">
         <v>1328000</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8393900</v>
+        <v>8895200</v>
       </c>
       <c r="E66" s="3">
-        <v>9232900</v>
+        <v>9684700</v>
       </c>
       <c r="F66" s="3">
-        <v>8291700</v>
+        <v>8697400</v>
       </c>
       <c r="G66" s="3">
-        <v>6307700</v>
+        <v>6616400</v>
       </c>
       <c r="H66" s="3">
-        <v>6580600</v>
+        <v>6902700</v>
       </c>
       <c r="I66" s="3">
-        <v>6220500</v>
+        <v>6524800</v>
       </c>
       <c r="J66" s="3">
-        <v>5088900</v>
+        <v>5337900</v>
       </c>
       <c r="K66" s="3">
         <v>6150300</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>723800</v>
+        <v>759200</v>
       </c>
       <c r="E72" s="3">
-        <v>637200</v>
+        <v>668400</v>
       </c>
       <c r="F72" s="3">
-        <v>462200</v>
+        <v>484900</v>
       </c>
       <c r="G72" s="3">
-        <v>560200</v>
+        <v>587600</v>
       </c>
       <c r="H72" s="3">
-        <v>642600</v>
+        <v>674000</v>
       </c>
       <c r="I72" s="3">
-        <v>1313700</v>
+        <v>1378000</v>
       </c>
       <c r="J72" s="3">
-        <v>976800</v>
+        <v>1024600</v>
       </c>
       <c r="K72" s="3">
         <v>1196900</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1951700</v>
+        <v>2047200</v>
       </c>
       <c r="E76" s="3">
-        <v>1825700</v>
+        <v>1915100</v>
       </c>
       <c r="F76" s="3">
-        <v>1674100</v>
+        <v>1756000</v>
       </c>
       <c r="G76" s="3">
-        <v>1759000</v>
+        <v>1845100</v>
       </c>
       <c r="H76" s="3">
-        <v>1847200</v>
+        <v>1937500</v>
       </c>
       <c r="I76" s="3">
-        <v>1869100</v>
+        <v>1960600</v>
       </c>
       <c r="J76" s="3">
-        <v>1691800</v>
+        <v>1774600</v>
       </c>
       <c r="K76" s="3">
         <v>1983700</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>140900</v>
+        <v>147800</v>
       </c>
       <c r="E81" s="3">
-        <v>205000</v>
+        <v>215000</v>
       </c>
       <c r="F81" s="3">
-        <v>103500</v>
+        <v>108500</v>
       </c>
       <c r="G81" s="3">
-        <v>-86000</v>
+        <v>-90200</v>
       </c>
       <c r="H81" s="3">
-        <v>47300</v>
+        <v>49600</v>
       </c>
       <c r="I81" s="3">
-        <v>215300</v>
+        <v>225900</v>
       </c>
       <c r="J81" s="3">
-        <v>187700</v>
+        <v>196900</v>
       </c>
       <c r="K81" s="3">
         <v>87900</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>278100</v>
+        <v>291700</v>
       </c>
       <c r="E83" s="3">
-        <v>235800</v>
+        <v>247400</v>
       </c>
       <c r="F83" s="3">
-        <v>148600</v>
+        <v>155900</v>
       </c>
       <c r="G83" s="3">
-        <v>194300</v>
+        <v>203800</v>
       </c>
       <c r="H83" s="3">
-        <v>196600</v>
+        <v>206200</v>
       </c>
       <c r="I83" s="3">
-        <v>165700</v>
+        <v>173800</v>
       </c>
       <c r="J83" s="3">
-        <v>154400</v>
+        <v>161900</v>
       </c>
       <c r="K83" s="3">
         <v>194800</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>202500</v>
+        <v>212400</v>
       </c>
       <c r="E89" s="3">
-        <v>761200</v>
+        <v>798500</v>
       </c>
       <c r="F89" s="3">
-        <v>338100</v>
+        <v>354600</v>
       </c>
       <c r="G89" s="3">
-        <v>-232600</v>
+        <v>-244000</v>
       </c>
       <c r="H89" s="3">
-        <v>826300</v>
+        <v>866800</v>
       </c>
       <c r="I89" s="3">
-        <v>890200</v>
+        <v>933800</v>
       </c>
       <c r="J89" s="3">
-        <v>872700</v>
+        <v>915400</v>
       </c>
       <c r="K89" s="3">
         <v>1237500</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-439200</v>
+        <v>-460700</v>
       </c>
       <c r="E91" s="3">
-        <v>-294200</v>
+        <v>-308600</v>
       </c>
       <c r="F91" s="3">
-        <v>-250100</v>
+        <v>-262400</v>
       </c>
       <c r="G91" s="3">
-        <v>-225700</v>
+        <v>-236700</v>
       </c>
       <c r="H91" s="3">
-        <v>-282100</v>
+        <v>-295900</v>
       </c>
       <c r="I91" s="3">
-        <v>-246000</v>
+        <v>-258100</v>
       </c>
       <c r="J91" s="3">
-        <v>-295400</v>
+        <v>-309900</v>
       </c>
       <c r="K91" s="3">
         <v>-305700</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-582700</v>
+        <v>-611200</v>
       </c>
       <c r="E94" s="3">
-        <v>-338400</v>
+        <v>-355000</v>
       </c>
       <c r="F94" s="3">
-        <v>-284000</v>
+        <v>-297900</v>
       </c>
       <c r="G94" s="3">
-        <v>-360400</v>
+        <v>-378000</v>
       </c>
       <c r="H94" s="3">
-        <v>-330400</v>
+        <v>-346600</v>
       </c>
       <c r="I94" s="3">
-        <v>-289700</v>
+        <v>-303900</v>
       </c>
       <c r="J94" s="3">
-        <v>-350200</v>
+        <v>-367400</v>
       </c>
       <c r="K94" s="3">
         <v>-305000</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-47800</v>
+        <v>-50200</v>
       </c>
       <c r="E96" s="3">
-        <v>-62600</v>
+        <v>-65700</v>
       </c>
       <c r="F96" s="3">
-        <v>-18000</v>
+        <v>-18900</v>
       </c>
       <c r="G96" s="3">
         <v>-700</v>
       </c>
       <c r="H96" s="3">
-        <v>-77400</v>
+        <v>-81200</v>
       </c>
       <c r="I96" s="3">
-        <v>-46000</v>
+        <v>-48300</v>
       </c>
       <c r="J96" s="3">
-        <v>-80800</v>
+        <v>-84700</v>
       </c>
       <c r="K96" s="3">
         <v>-43500</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>337900</v>
+        <v>354400</v>
       </c>
       <c r="E100" s="3">
-        <v>-292800</v>
+        <v>-307100</v>
       </c>
       <c r="F100" s="3">
-        <v>-373600</v>
+        <v>-391900</v>
       </c>
       <c r="G100" s="3">
-        <v>263100</v>
+        <v>276000</v>
       </c>
       <c r="H100" s="3">
-        <v>-536300</v>
+        <v>-562500</v>
       </c>
       <c r="I100" s="3">
-        <v>-113500</v>
+        <v>-119000</v>
       </c>
       <c r="J100" s="3">
-        <v>-294000</v>
+        <v>-308400</v>
       </c>
       <c r="K100" s="3">
         <v>-438300</v>
@@ -3463,7 +3463,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19800</v>
+        <v>20800</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>8</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-4300</v>
+        <v>-4500</v>
       </c>
       <c r="H101" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="I101" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-22500</v>
+        <v>-23600</v>
       </c>
       <c r="E102" s="3">
-        <v>130100</v>
+        <v>136400</v>
       </c>
       <c r="F102" s="3">
-        <v>-319500</v>
+        <v>-335100</v>
       </c>
       <c r="G102" s="3">
-        <v>-334100</v>
+        <v>-350500</v>
       </c>
       <c r="H102" s="3">
-        <v>-23900</v>
+        <v>-25100</v>
       </c>
       <c r="I102" s="3">
-        <v>496300</v>
+        <v>520600</v>
       </c>
       <c r="J102" s="3">
-        <v>228500</v>
+        <v>239700</v>
       </c>
       <c r="K102" s="3">
         <v>494200</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10598100</v>
+        <v>9075400</v>
       </c>
       <c r="E8" s="3">
-        <v>9242000</v>
+        <v>5106300</v>
       </c>
       <c r="F8" s="3">
-        <v>8352400</v>
+        <v>8745100</v>
       </c>
       <c r="G8" s="3">
-        <v>7757300</v>
+        <v>7903300</v>
       </c>
       <c r="H8" s="3">
-        <v>6960900</v>
+        <v>7340300</v>
       </c>
       <c r="I8" s="3">
-        <v>12239600</v>
+        <v>6586600</v>
       </c>
       <c r="J8" s="3">
+        <v>11581600</v>
+      </c>
+      <c r="K8" s="3">
         <v>10826200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11913300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11559200</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8317000</v>
+        <v>6640800</v>
       </c>
       <c r="E9" s="3">
-        <v>7069600</v>
+        <v>3758300</v>
       </c>
       <c r="F9" s="3">
-        <v>6296200</v>
+        <v>6689500</v>
       </c>
       <c r="G9" s="3">
-        <v>5975600</v>
+        <v>5957700</v>
       </c>
       <c r="H9" s="3">
-        <v>5262700</v>
+        <v>5654400</v>
       </c>
       <c r="I9" s="3">
-        <v>9096400</v>
+        <v>4979700</v>
       </c>
       <c r="J9" s="3">
+        <v>8607400</v>
+      </c>
+      <c r="K9" s="3">
         <v>7999800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8689300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8418100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2281100</v>
+        <v>2434500</v>
       </c>
       <c r="E10" s="3">
-        <v>2172400</v>
+        <v>1348000</v>
       </c>
       <c r="F10" s="3">
-        <v>2056200</v>
+        <v>2055600</v>
       </c>
       <c r="G10" s="3">
-        <v>1781700</v>
+        <v>1945600</v>
       </c>
       <c r="H10" s="3">
-        <v>1698200</v>
+        <v>1685900</v>
       </c>
       <c r="I10" s="3">
-        <v>3143200</v>
+        <v>1606900</v>
       </c>
       <c r="J10" s="3">
+        <v>2974200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2826400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3224000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3141100</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>54600</v>
+        <v>104100</v>
       </c>
       <c r="E14" s="3">
-        <v>27500</v>
+        <v>47300</v>
       </c>
       <c r="F14" s="3">
-        <v>20000</v>
+        <v>26000</v>
       </c>
       <c r="G14" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="H14" s="3">
-        <v>21700</v>
+        <v>17500</v>
       </c>
       <c r="I14" s="3">
-        <v>68500</v>
+        <v>20500</v>
       </c>
       <c r="J14" s="3">
+        <v>64800</v>
+      </c>
+      <c r="K14" s="3">
         <v>107200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>42800</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>264400</v>
+        <v>319400</v>
       </c>
       <c r="E15" s="3">
-        <v>224900</v>
+        <v>182000</v>
       </c>
       <c r="F15" s="3">
-        <v>145800</v>
+        <v>212800</v>
       </c>
       <c r="G15" s="3">
-        <v>132300</v>
+        <v>137900</v>
       </c>
       <c r="H15" s="3">
-        <v>121600</v>
+        <v>125200</v>
       </c>
       <c r="I15" s="3">
-        <v>153300</v>
+        <v>115100</v>
       </c>
       <c r="J15" s="3">
+        <v>145000</v>
+      </c>
+      <c r="K15" s="3">
         <v>147300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>175400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>168800</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10230200</v>
+        <v>8609900</v>
       </c>
       <c r="E17" s="3">
-        <v>8749800</v>
+        <v>5017300</v>
       </c>
       <c r="F17" s="3">
-        <v>8075000</v>
+        <v>8279400</v>
       </c>
       <c r="G17" s="3">
-        <v>7597100</v>
+        <v>7640900</v>
       </c>
       <c r="H17" s="3">
-        <v>6659200</v>
+        <v>7188700</v>
       </c>
       <c r="I17" s="3">
-        <v>11523700</v>
+        <v>6301200</v>
       </c>
       <c r="J17" s="3">
+        <v>10904100</v>
+      </c>
+      <c r="K17" s="3">
         <v>10274400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>11243300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11037600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>367900</v>
+        <v>465500</v>
       </c>
       <c r="E18" s="3">
-        <v>492200</v>
+        <v>89100</v>
       </c>
       <c r="F18" s="3">
-        <v>277300</v>
+        <v>465700</v>
       </c>
       <c r="G18" s="3">
-        <v>160200</v>
+        <v>262400</v>
       </c>
       <c r="H18" s="3">
-        <v>301700</v>
+        <v>151600</v>
       </c>
       <c r="I18" s="3">
-        <v>716000</v>
+        <v>285400</v>
       </c>
       <c r="J18" s="3">
+        <v>677500</v>
+      </c>
+      <c r="K18" s="3">
         <v>551800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>670000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>521600</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>8200</v>
+        <v>68700</v>
       </c>
       <c r="E20" s="3">
-        <v>-15700</v>
+        <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>-43400</v>
+        <v>-14900</v>
       </c>
       <c r="G20" s="3">
-        <v>-37100</v>
+        <v>-41100</v>
       </c>
       <c r="H20" s="3">
-        <v>-13100</v>
+        <v>-35100</v>
       </c>
       <c r="I20" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-111000</v>
+      </c>
+      <c r="L20" s="3">
+        <v>350600</v>
+      </c>
+      <c r="M20" s="3">
         <v>-153300</v>
       </c>
-      <c r="J20" s="3">
-        <v>-111000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>350600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-153300</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>668300</v>
+        <v>990400</v>
       </c>
       <c r="E21" s="3">
-        <v>724200</v>
+        <v>365400</v>
       </c>
       <c r="F21" s="3">
-        <v>390000</v>
+        <v>686000</v>
       </c>
       <c r="G21" s="3">
-        <v>327200</v>
+        <v>369500</v>
       </c>
       <c r="H21" s="3">
-        <v>495100</v>
+        <v>310300</v>
       </c>
       <c r="I21" s="3">
-        <v>736800</v>
+        <v>469100</v>
       </c>
       <c r="J21" s="3">
+        <v>697700</v>
+      </c>
+      <c r="K21" s="3">
         <v>603100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1217500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>541000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>233900</v>
+        <v>197600</v>
       </c>
       <c r="E22" s="3">
-        <v>182800</v>
+        <v>153200</v>
       </c>
       <c r="F22" s="3">
-        <v>93200</v>
+        <v>173000</v>
       </c>
       <c r="G22" s="3">
-        <v>131900</v>
+        <v>88200</v>
       </c>
       <c r="H22" s="3">
-        <v>130600</v>
+        <v>124800</v>
       </c>
       <c r="I22" s="3">
-        <v>128600</v>
+        <v>123600</v>
       </c>
       <c r="J22" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K22" s="3">
         <v>112300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>629100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>168700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>142200</v>
+        <v>336600</v>
       </c>
       <c r="E23" s="3">
-        <v>293600</v>
+        <v>-65200</v>
       </c>
       <c r="F23" s="3">
-        <v>140700</v>
+        <v>277800</v>
       </c>
       <c r="G23" s="3">
-        <v>-8800</v>
+        <v>133200</v>
       </c>
       <c r="H23" s="3">
-        <v>157900</v>
+        <v>-8300</v>
       </c>
       <c r="I23" s="3">
-        <v>434100</v>
+        <v>149400</v>
       </c>
       <c r="J23" s="3">
+        <v>410800</v>
+      </c>
+      <c r="K23" s="3">
         <v>328600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>391400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>199600</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>50900</v>
+        <v>117200</v>
       </c>
       <c r="E24" s="3">
-        <v>77300</v>
+        <v>-16800</v>
       </c>
       <c r="F24" s="3">
-        <v>55600</v>
+        <v>73100</v>
       </c>
       <c r="G24" s="3">
-        <v>4500</v>
+        <v>52600</v>
       </c>
       <c r="H24" s="3">
-        <v>42900</v>
+        <v>4200</v>
       </c>
       <c r="I24" s="3">
-        <v>137700</v>
+        <v>40500</v>
       </c>
       <c r="J24" s="3">
+        <v>130300</v>
+      </c>
+      <c r="K24" s="3">
         <v>67400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>121400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>21100</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>91300</v>
+        <v>219400</v>
       </c>
       <c r="E26" s="3">
-        <v>216300</v>
+        <v>-48300</v>
       </c>
       <c r="F26" s="3">
-        <v>85100</v>
+        <v>204700</v>
       </c>
       <c r="G26" s="3">
-        <v>-13300</v>
+        <v>80600</v>
       </c>
       <c r="H26" s="3">
-        <v>115100</v>
+        <v>-12600</v>
       </c>
       <c r="I26" s="3">
-        <v>296400</v>
+        <v>108900</v>
       </c>
       <c r="J26" s="3">
+        <v>280500</v>
+      </c>
+      <c r="K26" s="3">
         <v>261200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>269900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>178500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>82700</v>
+        <v>193400</v>
       </c>
       <c r="E27" s="3">
-        <v>191100</v>
+        <v>-56500</v>
       </c>
       <c r="F27" s="3">
-        <v>41900</v>
+        <v>180800</v>
       </c>
       <c r="G27" s="3">
-        <v>97900</v>
+        <v>39700</v>
       </c>
       <c r="H27" s="3">
-        <v>216300</v>
+        <v>92600</v>
       </c>
       <c r="I27" s="3">
-        <v>225900</v>
+        <v>204700</v>
       </c>
       <c r="J27" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K27" s="3">
         <v>196900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>87900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>64400</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,29 +1403,32 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>65100</v>
+        <v>192500</v>
       </c>
       <c r="E29" s="3">
-        <v>24000</v>
+        <v>196400</v>
       </c>
       <c r="F29" s="3">
-        <v>66600</v>
+        <v>22700</v>
       </c>
       <c r="G29" s="3">
-        <v>-188100</v>
+        <v>63000</v>
       </c>
       <c r="H29" s="3">
-        <v>-166700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+        <v>-178000</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-157800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8200</v>
+        <v>-68700</v>
       </c>
       <c r="E32" s="3">
-        <v>15700</v>
+        <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>43400</v>
+        <v>14900</v>
       </c>
       <c r="G32" s="3">
-        <v>37100</v>
+        <v>41100</v>
       </c>
       <c r="H32" s="3">
-        <v>13100</v>
+        <v>35100</v>
       </c>
       <c r="I32" s="3">
+        <v>12400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>145000</v>
+      </c>
+      <c r="K32" s="3">
+        <v>111000</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-350600</v>
+      </c>
+      <c r="M32" s="3">
         <v>153300</v>
       </c>
-      <c r="J32" s="3">
-        <v>111000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-350600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>153300</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>147800</v>
+        <v>385800</v>
       </c>
       <c r="E33" s="3">
-        <v>215000</v>
+        <v>139900</v>
       </c>
       <c r="F33" s="3">
-        <v>108500</v>
+        <v>203500</v>
       </c>
       <c r="G33" s="3">
-        <v>-90200</v>
+        <v>102700</v>
       </c>
       <c r="H33" s="3">
-        <v>49600</v>
+        <v>-85300</v>
       </c>
       <c r="I33" s="3">
-        <v>225900</v>
+        <v>46900</v>
       </c>
       <c r="J33" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K33" s="3">
         <v>196900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>87900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>64400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>147800</v>
+        <v>385800</v>
       </c>
       <c r="E35" s="3">
-        <v>215000</v>
+        <v>139900</v>
       </c>
       <c r="F35" s="3">
-        <v>108500</v>
+        <v>203500</v>
       </c>
       <c r="G35" s="3">
-        <v>-90200</v>
+        <v>102700</v>
       </c>
       <c r="H35" s="3">
-        <v>49600</v>
+        <v>-85300</v>
       </c>
       <c r="I35" s="3">
-        <v>225900</v>
+        <v>46900</v>
       </c>
       <c r="J35" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K35" s="3">
         <v>196900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>87900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>64400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1488400</v>
+        <v>1542500</v>
       </c>
       <c r="E41" s="3">
-        <v>817600</v>
+        <v>1408400</v>
       </c>
       <c r="F41" s="3">
-        <v>1419200</v>
+        <v>773600</v>
       </c>
       <c r="G41" s="3">
-        <v>956600</v>
+        <v>1342900</v>
       </c>
       <c r="H41" s="3">
-        <v>2061200</v>
+        <v>905200</v>
       </c>
       <c r="I41" s="3">
-        <v>2086300</v>
+        <v>1950400</v>
       </c>
       <c r="J41" s="3">
+        <v>1974200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1565700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3309600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>129600</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>4600</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1103400</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>524000</v>
+        <v>360200</v>
       </c>
       <c r="E43" s="3">
-        <v>255400</v>
+        <v>495800</v>
       </c>
       <c r="F43" s="3">
-        <v>392800</v>
+        <v>241700</v>
       </c>
       <c r="G43" s="3">
-        <v>251300</v>
+        <v>371700</v>
       </c>
       <c r="H43" s="3">
-        <v>873000</v>
+        <v>237800</v>
       </c>
       <c r="I43" s="3">
-        <v>793600</v>
+        <v>826000</v>
       </c>
       <c r="J43" s="3">
+        <v>751000</v>
+      </c>
+      <c r="K43" s="3">
         <v>683200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>894800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1675400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1615100</v>
+        <v>1157300</v>
       </c>
       <c r="E44" s="3">
-        <v>1105800</v>
+        <v>1528300</v>
       </c>
       <c r="F44" s="3">
-        <v>1804700</v>
+        <v>1046300</v>
       </c>
       <c r="G44" s="3">
-        <v>868500</v>
+        <v>1707700</v>
       </c>
       <c r="H44" s="3">
-        <v>1677600</v>
+        <v>821800</v>
       </c>
       <c r="I44" s="3">
-        <v>1565200</v>
+        <v>1587400</v>
       </c>
       <c r="J44" s="3">
+        <v>1481000</v>
+      </c>
+      <c r="K44" s="3">
         <v>1194200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2690000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1377500</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>109100</v>
+        <v>63700</v>
       </c>
       <c r="E45" s="3">
-        <v>5465300</v>
+        <v>103200</v>
       </c>
       <c r="F45" s="3">
-        <v>5056800</v>
+        <v>5171500</v>
       </c>
       <c r="G45" s="3">
-        <v>3846500</v>
+        <v>4785000</v>
       </c>
       <c r="H45" s="3">
-        <v>58900</v>
+        <v>3639700</v>
       </c>
       <c r="I45" s="3">
-        <v>50000</v>
+        <v>55800</v>
       </c>
       <c r="J45" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K45" s="3">
         <v>34700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>40300</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3736600</v>
+        <v>3123700</v>
       </c>
       <c r="E46" s="3">
-        <v>7644100</v>
+        <v>3535700</v>
       </c>
       <c r="F46" s="3">
-        <v>6918600</v>
+        <v>7233100</v>
       </c>
       <c r="G46" s="3">
-        <v>5922900</v>
+        <v>6546600</v>
       </c>
       <c r="H46" s="3">
-        <v>4670800</v>
+        <v>5604400</v>
       </c>
       <c r="I46" s="3">
-        <v>4495000</v>
+        <v>4419700</v>
       </c>
       <c r="J46" s="3">
+        <v>4253400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3482400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3895200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4285900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>675200</v>
+        <v>917200</v>
       </c>
       <c r="E47" s="3">
-        <v>582700</v>
+        <v>638900</v>
       </c>
       <c r="F47" s="3">
-        <v>495900</v>
+        <v>551400</v>
       </c>
       <c r="G47" s="3">
-        <v>295100</v>
+        <v>469200</v>
       </c>
       <c r="H47" s="3">
-        <v>726300</v>
+        <v>279200</v>
       </c>
       <c r="I47" s="3">
-        <v>1327500</v>
+        <v>687200</v>
       </c>
       <c r="J47" s="3">
+        <v>1256100</v>
+      </c>
+      <c r="K47" s="3">
         <v>497100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>739100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>538500</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5116300</v>
+        <v>4165900</v>
       </c>
       <c r="E48" s="3">
-        <v>2638900</v>
+        <v>4841300</v>
       </c>
       <c r="F48" s="3">
-        <v>4201300</v>
+        <v>2497000</v>
       </c>
       <c r="G48" s="3">
-        <v>1722500</v>
+        <v>3975400</v>
       </c>
       <c r="H48" s="3">
-        <v>1946500</v>
+        <v>1629900</v>
       </c>
       <c r="I48" s="3">
-        <v>1824300</v>
+        <v>1841900</v>
       </c>
       <c r="J48" s="3">
+        <v>1726300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1694200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1776800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1825400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1166900</v>
+        <v>1091500</v>
       </c>
       <c r="E49" s="3">
-        <v>1027900</v>
+        <v>1104200</v>
       </c>
       <c r="F49" s="3">
-        <v>1071500</v>
+        <v>972600</v>
       </c>
       <c r="G49" s="3">
-        <v>357000</v>
+        <v>1013900</v>
       </c>
       <c r="H49" s="3">
-        <v>1224400</v>
+        <v>337800</v>
       </c>
       <c r="I49" s="3">
-        <v>1206600</v>
+        <v>1158600</v>
       </c>
       <c r="J49" s="3">
+        <v>1141700</v>
+      </c>
+      <c r="K49" s="3">
         <v>1066800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3485700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1225400</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>247400</v>
+        <v>138600</v>
       </c>
       <c r="E52" s="3">
-        <v>278300</v>
+        <v>234100</v>
       </c>
       <c r="F52" s="3">
-        <v>204300</v>
+        <v>263300</v>
       </c>
       <c r="G52" s="3">
-        <v>163900</v>
+        <v>193400</v>
       </c>
       <c r="H52" s="3">
-        <v>272300</v>
+        <v>155100</v>
       </c>
       <c r="I52" s="3">
-        <v>291400</v>
+        <v>257600</v>
       </c>
       <c r="J52" s="3">
+        <v>275700</v>
+      </c>
+      <c r="K52" s="3">
         <v>372000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>612800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>502200</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10942400</v>
+        <v>9436900</v>
       </c>
       <c r="E54" s="3">
-        <v>11599800</v>
+        <v>10354200</v>
       </c>
       <c r="F54" s="3">
-        <v>10453500</v>
+        <v>10976200</v>
       </c>
       <c r="G54" s="3">
-        <v>8461500</v>
+        <v>9891500</v>
       </c>
       <c r="H54" s="3">
-        <v>8840200</v>
+        <v>8006600</v>
       </c>
       <c r="I54" s="3">
-        <v>8485400</v>
+        <v>8365000</v>
       </c>
       <c r="J54" s="3">
+        <v>8029200</v>
+      </c>
+      <c r="K54" s="3">
         <v>7112500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8134000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8377400</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2785800</v>
+        <v>2022800</v>
       </c>
       <c r="E57" s="3">
-        <v>1730200</v>
+        <v>2636000</v>
       </c>
       <c r="F57" s="3">
-        <v>1521000</v>
+        <v>1637200</v>
       </c>
       <c r="G57" s="3">
-        <v>1353300</v>
+        <v>1439200</v>
       </c>
       <c r="H57" s="3">
-        <v>2902000</v>
+        <v>1280600</v>
       </c>
       <c r="I57" s="3">
-        <v>2519900</v>
+        <v>2746000</v>
       </c>
       <c r="J57" s="3">
+        <v>2384400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1599500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2933600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1564600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>828100</v>
+        <v>576500</v>
       </c>
       <c r="E58" s="3">
-        <v>842800</v>
+        <v>783500</v>
       </c>
       <c r="F58" s="3">
-        <v>541900</v>
+        <v>797500</v>
       </c>
       <c r="G58" s="3">
-        <v>553300</v>
+        <v>512800</v>
       </c>
       <c r="H58" s="3">
-        <v>1427400</v>
+        <v>523600</v>
       </c>
       <c r="I58" s="3">
-        <v>2535100</v>
+        <v>1350700</v>
       </c>
       <c r="J58" s="3">
+        <v>2398800</v>
+      </c>
+      <c r="K58" s="3">
         <v>967700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2150900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1219900</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>715400</v>
+        <v>673400</v>
       </c>
       <c r="E59" s="3">
-        <v>4861600</v>
+        <v>676900</v>
       </c>
       <c r="F59" s="3">
-        <v>4484200</v>
+        <v>4600300</v>
       </c>
       <c r="G59" s="3">
-        <v>3254800</v>
+        <v>4243100</v>
       </c>
       <c r="H59" s="3">
-        <v>1113600</v>
+        <v>3079800</v>
       </c>
       <c r="I59" s="3">
-        <v>1240700</v>
+        <v>1053700</v>
       </c>
       <c r="J59" s="3">
+        <v>1174000</v>
+      </c>
+      <c r="K59" s="3">
         <v>946600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1508300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>564900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4329300</v>
+        <v>3272800</v>
       </c>
       <c r="E60" s="3">
-        <v>7033700</v>
+        <v>4096500</v>
       </c>
       <c r="F60" s="3">
-        <v>6249200</v>
+        <v>6655500</v>
       </c>
       <c r="G60" s="3">
-        <v>5161400</v>
+        <v>5913300</v>
       </c>
       <c r="H60" s="3">
-        <v>4729300</v>
+        <v>4883900</v>
       </c>
       <c r="I60" s="3">
-        <v>4487600</v>
+        <v>4475100</v>
       </c>
       <c r="J60" s="3">
+        <v>4246300</v>
+      </c>
+      <c r="K60" s="3">
         <v>3183600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3127100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3349400</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3449900</v>
+        <v>2526600</v>
       </c>
       <c r="E61" s="3">
-        <v>1622800</v>
+        <v>3264500</v>
       </c>
       <c r="F61" s="3">
-        <v>1499800</v>
+        <v>1535600</v>
       </c>
       <c r="G61" s="3">
-        <v>544900</v>
+        <v>1419200</v>
       </c>
       <c r="H61" s="3">
-        <v>779200</v>
+        <v>515600</v>
       </c>
       <c r="I61" s="3">
-        <v>586500</v>
+        <v>737300</v>
       </c>
       <c r="J61" s="3">
+        <v>554900</v>
+      </c>
+      <c r="K61" s="3">
         <v>808700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1466800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1548200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>628000</v>
+        <v>661500</v>
       </c>
       <c r="E62" s="3">
-        <v>480900</v>
+        <v>594200</v>
       </c>
       <c r="F62" s="3">
-        <v>429700</v>
+        <v>455100</v>
       </c>
       <c r="G62" s="3">
-        <v>397800</v>
+        <v>406600</v>
       </c>
       <c r="H62" s="3">
-        <v>833100</v>
+        <v>376500</v>
       </c>
       <c r="I62" s="3">
-        <v>987500</v>
+        <v>788300</v>
       </c>
       <c r="J62" s="3">
+        <v>934400</v>
+      </c>
+      <c r="K62" s="3">
         <v>956100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1328000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>975600</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8895200</v>
+        <v>7012000</v>
       </c>
       <c r="E66" s="3">
-        <v>9684700</v>
+        <v>8417000</v>
       </c>
       <c r="F66" s="3">
-        <v>8697400</v>
+        <v>9164100</v>
       </c>
       <c r="G66" s="3">
-        <v>6616400</v>
+        <v>8229900</v>
       </c>
       <c r="H66" s="3">
-        <v>6902700</v>
+        <v>6260700</v>
       </c>
       <c r="I66" s="3">
-        <v>6524800</v>
+        <v>6531600</v>
       </c>
       <c r="J66" s="3">
+        <v>6174100</v>
+      </c>
+      <c r="K66" s="3">
         <v>5337900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6150300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6485700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>759200</v>
+        <v>1015500</v>
       </c>
       <c r="E72" s="3">
-        <v>668400</v>
+        <v>718400</v>
       </c>
       <c r="F72" s="3">
-        <v>484900</v>
+        <v>632500</v>
       </c>
       <c r="G72" s="3">
-        <v>587600</v>
+        <v>458800</v>
       </c>
       <c r="H72" s="3">
-        <v>674000</v>
+        <v>556000</v>
       </c>
       <c r="I72" s="3">
-        <v>1378000</v>
+        <v>637800</v>
       </c>
       <c r="J72" s="3">
+        <v>1303900</v>
+      </c>
+      <c r="K72" s="3">
         <v>1024600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1196900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>275700</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2047200</v>
+        <v>2425000</v>
       </c>
       <c r="E76" s="3">
-        <v>1915100</v>
+        <v>1937100</v>
       </c>
       <c r="F76" s="3">
-        <v>1756000</v>
+        <v>1812100</v>
       </c>
       <c r="G76" s="3">
-        <v>1845100</v>
+        <v>1661600</v>
       </c>
       <c r="H76" s="3">
-        <v>1937500</v>
+        <v>1745900</v>
       </c>
       <c r="I76" s="3">
-        <v>1960600</v>
+        <v>1833400</v>
       </c>
       <c r="J76" s="3">
+        <v>1855200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1774600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1983700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1891700</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>147800</v>
+        <v>385800</v>
       </c>
       <c r="E81" s="3">
-        <v>215000</v>
+        <v>139900</v>
       </c>
       <c r="F81" s="3">
-        <v>108500</v>
+        <v>203500</v>
       </c>
       <c r="G81" s="3">
-        <v>-90200</v>
+        <v>102700</v>
       </c>
       <c r="H81" s="3">
-        <v>49600</v>
+        <v>-85300</v>
       </c>
       <c r="I81" s="3">
-        <v>225900</v>
+        <v>46900</v>
       </c>
       <c r="J81" s="3">
+        <v>213700</v>
+      </c>
+      <c r="K81" s="3">
         <v>196900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>87900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>64400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>291700</v>
+        <v>454000</v>
       </c>
       <c r="E83" s="3">
-        <v>247400</v>
+        <v>276100</v>
       </c>
       <c r="F83" s="3">
-        <v>155900</v>
+        <v>234100</v>
       </c>
       <c r="G83" s="3">
-        <v>203800</v>
+        <v>147500</v>
       </c>
       <c r="H83" s="3">
-        <v>206200</v>
+        <v>192800</v>
       </c>
       <c r="I83" s="3">
-        <v>173800</v>
+        <v>195100</v>
       </c>
       <c r="J83" s="3">
+        <v>164500</v>
+      </c>
+      <c r="K83" s="3">
         <v>161900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>194800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>175300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>212400</v>
+        <v>839700</v>
       </c>
       <c r="E89" s="3">
-        <v>798500</v>
+        <v>201000</v>
       </c>
       <c r="F89" s="3">
-        <v>354600</v>
+        <v>755600</v>
       </c>
       <c r="G89" s="3">
-        <v>-244000</v>
+        <v>335500</v>
       </c>
       <c r="H89" s="3">
-        <v>866800</v>
+        <v>-230900</v>
       </c>
       <c r="I89" s="3">
-        <v>933800</v>
+        <v>820200</v>
       </c>
       <c r="J89" s="3">
+        <v>883600</v>
+      </c>
+      <c r="K89" s="3">
         <v>915400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1237500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>279800</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-460700</v>
+        <v>-405300</v>
       </c>
       <c r="E91" s="3">
-        <v>-308600</v>
+        <v>-435900</v>
       </c>
       <c r="F91" s="3">
-        <v>-262400</v>
+        <v>-292000</v>
       </c>
       <c r="G91" s="3">
-        <v>-236700</v>
+        <v>-248300</v>
       </c>
       <c r="H91" s="3">
-        <v>-295900</v>
+        <v>-224000</v>
       </c>
       <c r="I91" s="3">
-        <v>-258100</v>
+        <v>-279900</v>
       </c>
       <c r="J91" s="3">
+        <v>-244200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-309900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-305700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-360800</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-611200</v>
+        <v>-759800</v>
       </c>
       <c r="E94" s="3">
-        <v>-355000</v>
+        <v>-578300</v>
       </c>
       <c r="F94" s="3">
-        <v>-297900</v>
+        <v>-335900</v>
       </c>
       <c r="G94" s="3">
-        <v>-378000</v>
+        <v>-281900</v>
       </c>
       <c r="H94" s="3">
-        <v>-346600</v>
+        <v>-357700</v>
       </c>
       <c r="I94" s="3">
-        <v>-303900</v>
+        <v>-327900</v>
       </c>
       <c r="J94" s="3">
+        <v>-287600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-367400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-305000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-336500</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-50200</v>
+        <v>-60000</v>
       </c>
       <c r="E96" s="3">
-        <v>-65700</v>
+        <v>-47500</v>
       </c>
       <c r="F96" s="3">
-        <v>-18900</v>
+        <v>-62200</v>
       </c>
       <c r="G96" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="H96" s="3">
         <v>-700</v>
       </c>
-      <c r="H96" s="3">
-        <v>-81200</v>
-      </c>
       <c r="I96" s="3">
-        <v>-48300</v>
+        <v>-76800</v>
       </c>
       <c r="J96" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-84700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-43500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-45500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,65 +3665,71 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>354400</v>
+        <v>-49800</v>
       </c>
       <c r="E100" s="3">
-        <v>-307100</v>
+        <v>335400</v>
       </c>
       <c r="F100" s="3">
-        <v>-391900</v>
+        <v>-290600</v>
       </c>
       <c r="G100" s="3">
-        <v>276000</v>
+        <v>-370800</v>
       </c>
       <c r="H100" s="3">
-        <v>-562500</v>
+        <v>261200</v>
       </c>
       <c r="I100" s="3">
-        <v>-119000</v>
+        <v>-532300</v>
       </c>
       <c r="J100" s="3">
+        <v>-112600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-308400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-438300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>342400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>20800</v>
-      </c>
-      <c r="E101" s="3" t="s">
+        <v>103900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>-4500</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>17200</v>
+        <v>-4200</v>
       </c>
       <c r="I101" s="3">
-        <v>9700</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
+        <v>16300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>9200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3489,40 +3737,46 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-23600</v>
+        <v>134000</v>
       </c>
       <c r="E102" s="3">
-        <v>136400</v>
+        <v>-22300</v>
       </c>
       <c r="F102" s="3">
-        <v>-335100</v>
+        <v>129100</v>
       </c>
       <c r="G102" s="3">
-        <v>-350500</v>
+        <v>-317100</v>
       </c>
       <c r="H102" s="3">
-        <v>-25100</v>
+        <v>-331700</v>
       </c>
       <c r="I102" s="3">
-        <v>520600</v>
+        <v>-23700</v>
       </c>
       <c r="J102" s="3">
+        <v>492600</v>
+      </c>
+      <c r="K102" s="3">
         <v>239700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>494200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>285800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9075400</v>
+        <v>9614000</v>
       </c>
       <c r="E8" s="3">
-        <v>5106300</v>
+        <v>5409400</v>
       </c>
       <c r="F8" s="3">
-        <v>8745100</v>
+        <v>9264200</v>
       </c>
       <c r="G8" s="3">
-        <v>7903300</v>
+        <v>8372400</v>
       </c>
       <c r="H8" s="3">
-        <v>7340300</v>
+        <v>7775900</v>
       </c>
       <c r="I8" s="3">
-        <v>6586600</v>
+        <v>6977600</v>
       </c>
       <c r="J8" s="3">
-        <v>11581600</v>
+        <v>12269000</v>
       </c>
       <c r="K8" s="3">
         <v>10826200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6640800</v>
+        <v>7035000</v>
       </c>
       <c r="E9" s="3">
-        <v>3758300</v>
+        <v>3981400</v>
       </c>
       <c r="F9" s="3">
-        <v>6689500</v>
+        <v>7086600</v>
       </c>
       <c r="G9" s="3">
-        <v>5957700</v>
+        <v>6311300</v>
       </c>
       <c r="H9" s="3">
-        <v>5654400</v>
+        <v>5990000</v>
       </c>
       <c r="I9" s="3">
-        <v>4979700</v>
+        <v>5275300</v>
       </c>
       <c r="J9" s="3">
-        <v>8607400</v>
+        <v>9118300</v>
       </c>
       <c r="K9" s="3">
         <v>7999800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2434500</v>
+        <v>2579000</v>
       </c>
       <c r="E10" s="3">
-        <v>1348000</v>
+        <v>1428000</v>
       </c>
       <c r="F10" s="3">
-        <v>2055600</v>
+        <v>2177600</v>
       </c>
       <c r="G10" s="3">
-        <v>1945600</v>
+        <v>2061100</v>
       </c>
       <c r="H10" s="3">
-        <v>1685900</v>
+        <v>1785900</v>
       </c>
       <c r="I10" s="3">
-        <v>1606900</v>
+        <v>1702300</v>
       </c>
       <c r="J10" s="3">
-        <v>2974200</v>
+        <v>3150800</v>
       </c>
       <c r="K10" s="3">
         <v>2826400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>104100</v>
+        <v>110300</v>
       </c>
       <c r="E14" s="3">
-        <v>47300</v>
+        <v>50100</v>
       </c>
       <c r="F14" s="3">
-        <v>26000</v>
+        <v>27600</v>
       </c>
       <c r="G14" s="3">
-        <v>18900</v>
+        <v>20100</v>
       </c>
       <c r="H14" s="3">
-        <v>17500</v>
+        <v>18600</v>
       </c>
       <c r="I14" s="3">
-        <v>20500</v>
+        <v>21800</v>
       </c>
       <c r="J14" s="3">
-        <v>64800</v>
+        <v>68700</v>
       </c>
       <c r="K14" s="3">
         <v>107200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>319400</v>
+        <v>338400</v>
       </c>
       <c r="E15" s="3">
-        <v>182000</v>
+        <v>192800</v>
       </c>
       <c r="F15" s="3">
-        <v>212800</v>
+        <v>225500</v>
       </c>
       <c r="G15" s="3">
-        <v>137900</v>
+        <v>146100</v>
       </c>
       <c r="H15" s="3">
-        <v>125200</v>
+        <v>132600</v>
       </c>
       <c r="I15" s="3">
-        <v>115100</v>
+        <v>121900</v>
       </c>
       <c r="J15" s="3">
-        <v>145000</v>
+        <v>153600</v>
       </c>
       <c r="K15" s="3">
         <v>147300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8609900</v>
+        <v>9120900</v>
       </c>
       <c r="E17" s="3">
-        <v>5017300</v>
+        <v>5315100</v>
       </c>
       <c r="F17" s="3">
-        <v>8279400</v>
+        <v>8770900</v>
       </c>
       <c r="G17" s="3">
-        <v>7640900</v>
+        <v>8094500</v>
       </c>
       <c r="H17" s="3">
-        <v>7188700</v>
+        <v>7615400</v>
       </c>
       <c r="I17" s="3">
-        <v>6301200</v>
+        <v>6675200</v>
       </c>
       <c r="J17" s="3">
-        <v>10904100</v>
+        <v>11551400</v>
       </c>
       <c r="K17" s="3">
         <v>10274400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>465500</v>
+        <v>493100</v>
       </c>
       <c r="E18" s="3">
-        <v>89100</v>
+        <v>94400</v>
       </c>
       <c r="F18" s="3">
-        <v>465700</v>
+        <v>493300</v>
       </c>
       <c r="G18" s="3">
-        <v>262400</v>
+        <v>278000</v>
       </c>
       <c r="H18" s="3">
-        <v>151600</v>
+        <v>160600</v>
       </c>
       <c r="I18" s="3">
-        <v>285400</v>
+        <v>302400</v>
       </c>
       <c r="J18" s="3">
-        <v>677500</v>
+        <v>717700</v>
       </c>
       <c r="K18" s="3">
         <v>551800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>68700</v>
+        <v>72800</v>
       </c>
       <c r="E20" s="3">
         <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>-14900</v>
+        <v>-15800</v>
       </c>
       <c r="G20" s="3">
-        <v>-41100</v>
+        <v>-43500</v>
       </c>
       <c r="H20" s="3">
-        <v>-35100</v>
+        <v>-37100</v>
       </c>
       <c r="I20" s="3">
-        <v>-12400</v>
+        <v>-13100</v>
       </c>
       <c r="J20" s="3">
-        <v>-145000</v>
+        <v>-153600</v>
       </c>
       <c r="K20" s="3">
         <v>-111000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>990400</v>
+        <v>1048100</v>
       </c>
       <c r="E21" s="3">
-        <v>365400</v>
+        <v>386400</v>
       </c>
       <c r="F21" s="3">
-        <v>686000</v>
+        <v>726200</v>
       </c>
       <c r="G21" s="3">
-        <v>369500</v>
+        <v>391100</v>
       </c>
       <c r="H21" s="3">
-        <v>310300</v>
+        <v>328200</v>
       </c>
       <c r="I21" s="3">
-        <v>469100</v>
+        <v>496500</v>
       </c>
       <c r="J21" s="3">
-        <v>697700</v>
+        <v>738800</v>
       </c>
       <c r="K21" s="3">
         <v>603100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>197600</v>
+        <v>209300</v>
       </c>
       <c r="E22" s="3">
-        <v>153200</v>
+        <v>162300</v>
       </c>
       <c r="F22" s="3">
-        <v>173000</v>
+        <v>183300</v>
       </c>
       <c r="G22" s="3">
-        <v>88200</v>
+        <v>93400</v>
       </c>
       <c r="H22" s="3">
-        <v>124800</v>
+        <v>132200</v>
       </c>
       <c r="I22" s="3">
-        <v>123600</v>
+        <v>130900</v>
       </c>
       <c r="J22" s="3">
-        <v>121600</v>
+        <v>128900</v>
       </c>
       <c r="K22" s="3">
         <v>112300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>336600</v>
+        <v>356600</v>
       </c>
       <c r="E23" s="3">
-        <v>-65200</v>
+        <v>-69000</v>
       </c>
       <c r="F23" s="3">
-        <v>277800</v>
+        <v>294300</v>
       </c>
       <c r="G23" s="3">
-        <v>133200</v>
+        <v>141100</v>
       </c>
       <c r="H23" s="3">
-        <v>-8300</v>
+        <v>-8800</v>
       </c>
       <c r="I23" s="3">
-        <v>149400</v>
+        <v>158300</v>
       </c>
       <c r="J23" s="3">
-        <v>410800</v>
+        <v>435200</v>
       </c>
       <c r="K23" s="3">
         <v>328600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117200</v>
+        <v>124200</v>
       </c>
       <c r="E24" s="3">
-        <v>-16800</v>
+        <v>-17800</v>
       </c>
       <c r="F24" s="3">
-        <v>73100</v>
+        <v>77500</v>
       </c>
       <c r="G24" s="3">
-        <v>52600</v>
+        <v>55700</v>
       </c>
       <c r="H24" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="I24" s="3">
-        <v>40500</v>
+        <v>43000</v>
       </c>
       <c r="J24" s="3">
-        <v>130300</v>
+        <v>138100</v>
       </c>
       <c r="K24" s="3">
         <v>67400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>219400</v>
+        <v>232400</v>
       </c>
       <c r="E26" s="3">
-        <v>-48300</v>
+        <v>-51200</v>
       </c>
       <c r="F26" s="3">
-        <v>204700</v>
+        <v>216800</v>
       </c>
       <c r="G26" s="3">
-        <v>80600</v>
+        <v>85300</v>
       </c>
       <c r="H26" s="3">
-        <v>-12600</v>
+        <v>-13300</v>
       </c>
       <c r="I26" s="3">
-        <v>108900</v>
+        <v>115400</v>
       </c>
       <c r="J26" s="3">
-        <v>280500</v>
+        <v>297100</v>
       </c>
       <c r="K26" s="3">
         <v>261200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>193400</v>
+        <v>204800</v>
       </c>
       <c r="E27" s="3">
-        <v>-56500</v>
+        <v>-59800</v>
       </c>
       <c r="F27" s="3">
-        <v>180800</v>
+        <v>191500</v>
       </c>
       <c r="G27" s="3">
-        <v>39700</v>
+        <v>42000</v>
       </c>
       <c r="H27" s="3">
-        <v>92600</v>
+        <v>98100</v>
       </c>
       <c r="I27" s="3">
-        <v>204700</v>
+        <v>216800</v>
       </c>
       <c r="J27" s="3">
-        <v>213700</v>
+        <v>226400</v>
       </c>
       <c r="K27" s="3">
         <v>196900</v>
@@ -1413,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>192500</v>
+        <v>203900</v>
       </c>
       <c r="E29" s="3">
-        <v>196400</v>
+        <v>208000</v>
       </c>
       <c r="F29" s="3">
-        <v>22700</v>
+        <v>24000</v>
       </c>
       <c r="G29" s="3">
-        <v>63000</v>
+        <v>66800</v>
       </c>
       <c r="H29" s="3">
-        <v>-178000</v>
+        <v>-188500</v>
       </c>
       <c r="I29" s="3">
-        <v>-157800</v>
+        <v>-167100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-68700</v>
+        <v>-72800</v>
       </c>
       <c r="E32" s="3">
         <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>14900</v>
+        <v>15800</v>
       </c>
       <c r="G32" s="3">
-        <v>41100</v>
+        <v>43500</v>
       </c>
       <c r="H32" s="3">
-        <v>35100</v>
+        <v>37100</v>
       </c>
       <c r="I32" s="3">
-        <v>12400</v>
+        <v>13100</v>
       </c>
       <c r="J32" s="3">
-        <v>145000</v>
+        <v>153600</v>
       </c>
       <c r="K32" s="3">
         <v>111000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>385800</v>
+        <v>408700</v>
       </c>
       <c r="E33" s="3">
-        <v>139900</v>
+        <v>148200</v>
       </c>
       <c r="F33" s="3">
-        <v>203500</v>
+        <v>215500</v>
       </c>
       <c r="G33" s="3">
-        <v>102700</v>
+        <v>108800</v>
       </c>
       <c r="H33" s="3">
-        <v>-85300</v>
+        <v>-90400</v>
       </c>
       <c r="I33" s="3">
-        <v>46900</v>
+        <v>49700</v>
       </c>
       <c r="J33" s="3">
-        <v>213700</v>
+        <v>226400</v>
       </c>
       <c r="K33" s="3">
         <v>196900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>385800</v>
+        <v>408700</v>
       </c>
       <c r="E35" s="3">
-        <v>139900</v>
+        <v>148200</v>
       </c>
       <c r="F35" s="3">
-        <v>203500</v>
+        <v>215500</v>
       </c>
       <c r="G35" s="3">
-        <v>102700</v>
+        <v>108800</v>
       </c>
       <c r="H35" s="3">
-        <v>-85300</v>
+        <v>-90400</v>
       </c>
       <c r="I35" s="3">
-        <v>46900</v>
+        <v>49700</v>
       </c>
       <c r="J35" s="3">
-        <v>213700</v>
+        <v>226400</v>
       </c>
       <c r="K35" s="3">
         <v>196900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1542500</v>
+        <v>1634000</v>
       </c>
       <c r="E41" s="3">
-        <v>1408400</v>
+        <v>1492000</v>
       </c>
       <c r="F41" s="3">
-        <v>773600</v>
+        <v>819500</v>
       </c>
       <c r="G41" s="3">
-        <v>1342900</v>
+        <v>1422600</v>
       </c>
       <c r="H41" s="3">
-        <v>905200</v>
+        <v>958900</v>
       </c>
       <c r="I41" s="3">
-        <v>1950400</v>
+        <v>2066200</v>
       </c>
       <c r="J41" s="3">
-        <v>1974200</v>
+        <v>2091300</v>
       </c>
       <c r="K41" s="3">
         <v>1565700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>360200</v>
+        <v>381500</v>
       </c>
       <c r="E43" s="3">
-        <v>495800</v>
+        <v>525200</v>
       </c>
       <c r="F43" s="3">
-        <v>241700</v>
+        <v>256000</v>
       </c>
       <c r="G43" s="3">
-        <v>371700</v>
+        <v>393700</v>
       </c>
       <c r="H43" s="3">
-        <v>237800</v>
+        <v>251900</v>
       </c>
       <c r="I43" s="3">
-        <v>826000</v>
+        <v>875100</v>
       </c>
       <c r="J43" s="3">
-        <v>751000</v>
+        <v>795500</v>
       </c>
       <c r="K43" s="3">
         <v>683200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1157300</v>
+        <v>1226000</v>
       </c>
       <c r="E44" s="3">
-        <v>1528300</v>
+        <v>1619000</v>
       </c>
       <c r="F44" s="3">
-        <v>1046300</v>
+        <v>1108400</v>
       </c>
       <c r="G44" s="3">
-        <v>1707700</v>
+        <v>1809000</v>
       </c>
       <c r="H44" s="3">
-        <v>821800</v>
+        <v>870600</v>
       </c>
       <c r="I44" s="3">
-        <v>1587400</v>
+        <v>1681700</v>
       </c>
       <c r="J44" s="3">
-        <v>1481000</v>
+        <v>1568900</v>
       </c>
       <c r="K44" s="3">
         <v>1194200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>63700</v>
+        <v>67500</v>
       </c>
       <c r="E45" s="3">
-        <v>103200</v>
+        <v>109400</v>
       </c>
       <c r="F45" s="3">
-        <v>5171500</v>
+        <v>5478500</v>
       </c>
       <c r="G45" s="3">
-        <v>4785000</v>
+        <v>5069000</v>
       </c>
       <c r="H45" s="3">
-        <v>3639700</v>
+        <v>3855700</v>
       </c>
       <c r="I45" s="3">
-        <v>55800</v>
+        <v>59100</v>
       </c>
       <c r="J45" s="3">
-        <v>47300</v>
+        <v>50100</v>
       </c>
       <c r="K45" s="3">
         <v>34700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3123700</v>
+        <v>3309100</v>
       </c>
       <c r="E46" s="3">
-        <v>3535700</v>
+        <v>3745600</v>
       </c>
       <c r="F46" s="3">
-        <v>7233100</v>
+        <v>7662500</v>
       </c>
       <c r="G46" s="3">
-        <v>6546600</v>
+        <v>6935200</v>
       </c>
       <c r="H46" s="3">
-        <v>5604400</v>
+        <v>5937100</v>
       </c>
       <c r="I46" s="3">
-        <v>4419700</v>
+        <v>4682000</v>
       </c>
       <c r="J46" s="3">
-        <v>4253400</v>
+        <v>4505900</v>
       </c>
       <c r="K46" s="3">
         <v>3482400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>917200</v>
+        <v>971700</v>
       </c>
       <c r="E47" s="3">
-        <v>638900</v>
+        <v>676800</v>
       </c>
       <c r="F47" s="3">
-        <v>551400</v>
+        <v>584100</v>
       </c>
       <c r="G47" s="3">
-        <v>469200</v>
+        <v>497100</v>
       </c>
       <c r="H47" s="3">
-        <v>279200</v>
+        <v>295800</v>
       </c>
       <c r="I47" s="3">
-        <v>687200</v>
+        <v>728000</v>
       </c>
       <c r="J47" s="3">
-        <v>1256100</v>
+        <v>1330700</v>
       </c>
       <c r="K47" s="3">
         <v>497100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4165900</v>
+        <v>4413200</v>
       </c>
       <c r="E48" s="3">
-        <v>4841300</v>
+        <v>5128600</v>
       </c>
       <c r="F48" s="3">
-        <v>2497000</v>
+        <v>2645300</v>
       </c>
       <c r="G48" s="3">
-        <v>3975400</v>
+        <v>4211400</v>
       </c>
       <c r="H48" s="3">
-        <v>1629900</v>
+        <v>1726700</v>
       </c>
       <c r="I48" s="3">
-        <v>1841900</v>
+        <v>1951200</v>
       </c>
       <c r="J48" s="3">
-        <v>1726300</v>
+        <v>1828700</v>
       </c>
       <c r="K48" s="3">
         <v>1694200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1091500</v>
+        <v>1156200</v>
       </c>
       <c r="E49" s="3">
-        <v>1104200</v>
+        <v>1169700</v>
       </c>
       <c r="F49" s="3">
-        <v>972600</v>
+        <v>1030400</v>
       </c>
       <c r="G49" s="3">
-        <v>1013900</v>
+        <v>1074100</v>
       </c>
       <c r="H49" s="3">
-        <v>337800</v>
+        <v>357900</v>
       </c>
       <c r="I49" s="3">
-        <v>1158600</v>
+        <v>1227300</v>
       </c>
       <c r="J49" s="3">
-        <v>1141700</v>
+        <v>1209500</v>
       </c>
       <c r="K49" s="3">
         <v>1066800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>138600</v>
+        <v>146900</v>
       </c>
       <c r="E52" s="3">
-        <v>234100</v>
+        <v>248000</v>
       </c>
       <c r="F52" s="3">
-        <v>263300</v>
+        <v>278900</v>
       </c>
       <c r="G52" s="3">
-        <v>193400</v>
+        <v>204800</v>
       </c>
       <c r="H52" s="3">
-        <v>155100</v>
+        <v>164300</v>
       </c>
       <c r="I52" s="3">
-        <v>257600</v>
+        <v>272900</v>
       </c>
       <c r="J52" s="3">
-        <v>275700</v>
+        <v>292100</v>
       </c>
       <c r="K52" s="3">
         <v>372000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9436900</v>
+        <v>9997100</v>
       </c>
       <c r="E54" s="3">
-        <v>10354200</v>
+        <v>10968700</v>
       </c>
       <c r="F54" s="3">
-        <v>10976200</v>
+        <v>11627700</v>
       </c>
       <c r="G54" s="3">
-        <v>9891500</v>
+        <v>10478600</v>
       </c>
       <c r="H54" s="3">
-        <v>8006600</v>
+        <v>8481800</v>
       </c>
       <c r="I54" s="3">
-        <v>8365000</v>
+        <v>8861500</v>
       </c>
       <c r="J54" s="3">
-        <v>8029200</v>
+        <v>8505800</v>
       </c>
       <c r="K54" s="3">
         <v>7112500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2022800</v>
+        <v>2142900</v>
       </c>
       <c r="E57" s="3">
-        <v>2636000</v>
+        <v>2792500</v>
       </c>
       <c r="F57" s="3">
-        <v>1637200</v>
+        <v>1734400</v>
       </c>
       <c r="G57" s="3">
-        <v>1439200</v>
+        <v>1524700</v>
       </c>
       <c r="H57" s="3">
-        <v>1280600</v>
+        <v>1356600</v>
       </c>
       <c r="I57" s="3">
-        <v>2746000</v>
+        <v>2909000</v>
       </c>
       <c r="J57" s="3">
-        <v>2384400</v>
+        <v>2526000</v>
       </c>
       <c r="K57" s="3">
         <v>1599500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>576500</v>
+        <v>610800</v>
       </c>
       <c r="E58" s="3">
-        <v>783500</v>
+        <v>830000</v>
       </c>
       <c r="F58" s="3">
-        <v>797500</v>
+        <v>844900</v>
       </c>
       <c r="G58" s="3">
-        <v>512800</v>
+        <v>543200</v>
       </c>
       <c r="H58" s="3">
-        <v>523600</v>
+        <v>554700</v>
       </c>
       <c r="I58" s="3">
-        <v>1350700</v>
+        <v>1430900</v>
       </c>
       <c r="J58" s="3">
-        <v>2398800</v>
+        <v>2541100</v>
       </c>
       <c r="K58" s="3">
         <v>967700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>673400</v>
+        <v>713400</v>
       </c>
       <c r="E59" s="3">
-        <v>676900</v>
+        <v>717100</v>
       </c>
       <c r="F59" s="3">
-        <v>4600300</v>
+        <v>4873300</v>
       </c>
       <c r="G59" s="3">
-        <v>4243100</v>
+        <v>4495000</v>
       </c>
       <c r="H59" s="3">
-        <v>3079800</v>
+        <v>3262600</v>
       </c>
       <c r="I59" s="3">
-        <v>1053700</v>
+        <v>1116300</v>
       </c>
       <c r="J59" s="3">
-        <v>1174000</v>
+        <v>1243700</v>
       </c>
       <c r="K59" s="3">
         <v>946600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3272800</v>
+        <v>3467000</v>
       </c>
       <c r="E60" s="3">
-        <v>4096500</v>
+        <v>4339700</v>
       </c>
       <c r="F60" s="3">
-        <v>6655500</v>
+        <v>7050600</v>
       </c>
       <c r="G60" s="3">
-        <v>5913300</v>
+        <v>6264200</v>
       </c>
       <c r="H60" s="3">
-        <v>4883900</v>
+        <v>5173800</v>
       </c>
       <c r="I60" s="3">
-        <v>4475100</v>
+        <v>4740700</v>
       </c>
       <c r="J60" s="3">
-        <v>4246300</v>
+        <v>4498400</v>
       </c>
       <c r="K60" s="3">
         <v>3183600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2526600</v>
+        <v>2676600</v>
       </c>
       <c r="E61" s="3">
-        <v>3264500</v>
+        <v>3458200</v>
       </c>
       <c r="F61" s="3">
-        <v>1535600</v>
+        <v>1626700</v>
       </c>
       <c r="G61" s="3">
-        <v>1419200</v>
+        <v>1503500</v>
       </c>
       <c r="H61" s="3">
-        <v>515600</v>
+        <v>546200</v>
       </c>
       <c r="I61" s="3">
-        <v>737300</v>
+        <v>781100</v>
       </c>
       <c r="J61" s="3">
-        <v>554900</v>
+        <v>587900</v>
       </c>
       <c r="K61" s="3">
         <v>808700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>661500</v>
+        <v>700800</v>
       </c>
       <c r="E62" s="3">
-        <v>594200</v>
+        <v>629500</v>
       </c>
       <c r="F62" s="3">
-        <v>455100</v>
+        <v>482100</v>
       </c>
       <c r="G62" s="3">
-        <v>406600</v>
+        <v>430700</v>
       </c>
       <c r="H62" s="3">
-        <v>376500</v>
+        <v>398800</v>
       </c>
       <c r="I62" s="3">
-        <v>788300</v>
+        <v>835100</v>
       </c>
       <c r="J62" s="3">
-        <v>934400</v>
+        <v>989900</v>
       </c>
       <c r="K62" s="3">
         <v>956100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7012000</v>
+        <v>7428200</v>
       </c>
       <c r="E66" s="3">
-        <v>8417000</v>
+        <v>8916600</v>
       </c>
       <c r="F66" s="3">
-        <v>9164100</v>
+        <v>9708000</v>
       </c>
       <c r="G66" s="3">
-        <v>8229900</v>
+        <v>8718300</v>
       </c>
       <c r="H66" s="3">
-        <v>6260700</v>
+        <v>6632300</v>
       </c>
       <c r="I66" s="3">
-        <v>6531600</v>
+        <v>6919300</v>
       </c>
       <c r="J66" s="3">
-        <v>6174100</v>
+        <v>6540500</v>
       </c>
       <c r="K66" s="3">
         <v>5337900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1015500</v>
+        <v>1075800</v>
       </c>
       <c r="E72" s="3">
-        <v>718400</v>
+        <v>761000</v>
       </c>
       <c r="F72" s="3">
-        <v>632500</v>
+        <v>670000</v>
       </c>
       <c r="G72" s="3">
-        <v>458800</v>
+        <v>486000</v>
       </c>
       <c r="H72" s="3">
-        <v>556000</v>
+        <v>589000</v>
       </c>
       <c r="I72" s="3">
-        <v>637800</v>
+        <v>675700</v>
       </c>
       <c r="J72" s="3">
-        <v>1303900</v>
+        <v>1381300</v>
       </c>
       <c r="K72" s="3">
         <v>1024600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2425000</v>
+        <v>2568900</v>
       </c>
       <c r="E76" s="3">
-        <v>1937100</v>
+        <v>2052100</v>
       </c>
       <c r="F76" s="3">
-        <v>1812100</v>
+        <v>1919700</v>
       </c>
       <c r="G76" s="3">
-        <v>1661600</v>
+        <v>1760300</v>
       </c>
       <c r="H76" s="3">
-        <v>1745900</v>
+        <v>1849500</v>
       </c>
       <c r="I76" s="3">
-        <v>1833400</v>
+        <v>1942200</v>
       </c>
       <c r="J76" s="3">
-        <v>1855200</v>
+        <v>1965300</v>
       </c>
       <c r="K76" s="3">
         <v>1774600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>385800</v>
+        <v>408700</v>
       </c>
       <c r="E81" s="3">
-        <v>139900</v>
+        <v>148200</v>
       </c>
       <c r="F81" s="3">
-        <v>203500</v>
+        <v>215500</v>
       </c>
       <c r="G81" s="3">
-        <v>102700</v>
+        <v>108800</v>
       </c>
       <c r="H81" s="3">
-        <v>-85300</v>
+        <v>-90400</v>
       </c>
       <c r="I81" s="3">
-        <v>46900</v>
+        <v>49700</v>
       </c>
       <c r="J81" s="3">
-        <v>213700</v>
+        <v>226400</v>
       </c>
       <c r="K81" s="3">
         <v>196900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>454000</v>
+        <v>481000</v>
       </c>
       <c r="E83" s="3">
-        <v>276100</v>
+        <v>292400</v>
       </c>
       <c r="F83" s="3">
-        <v>234100</v>
+        <v>248000</v>
       </c>
       <c r="G83" s="3">
-        <v>147500</v>
+        <v>156300</v>
       </c>
       <c r="H83" s="3">
-        <v>192800</v>
+        <v>204300</v>
       </c>
       <c r="I83" s="3">
-        <v>195100</v>
+        <v>206700</v>
       </c>
       <c r="J83" s="3">
-        <v>164500</v>
+        <v>174300</v>
       </c>
       <c r="K83" s="3">
         <v>161900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>839700</v>
+        <v>889500</v>
       </c>
       <c r="E89" s="3">
-        <v>201000</v>
+        <v>212900</v>
       </c>
       <c r="F89" s="3">
-        <v>755600</v>
+        <v>800400</v>
       </c>
       <c r="G89" s="3">
-        <v>335500</v>
+        <v>355500</v>
       </c>
       <c r="H89" s="3">
-        <v>-230900</v>
+        <v>-244600</v>
       </c>
       <c r="I89" s="3">
-        <v>820200</v>
+        <v>868900</v>
       </c>
       <c r="J89" s="3">
-        <v>883600</v>
+        <v>936000</v>
       </c>
       <c r="K89" s="3">
         <v>915400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-405300</v>
+        <v>-429400</v>
       </c>
       <c r="E91" s="3">
-        <v>-435900</v>
+        <v>-461800</v>
       </c>
       <c r="F91" s="3">
-        <v>-292000</v>
+        <v>-309300</v>
       </c>
       <c r="G91" s="3">
-        <v>-248300</v>
+        <v>-263000</v>
       </c>
       <c r="H91" s="3">
-        <v>-224000</v>
+        <v>-237300</v>
       </c>
       <c r="I91" s="3">
-        <v>-279900</v>
+        <v>-296600</v>
       </c>
       <c r="J91" s="3">
-        <v>-244200</v>
+        <v>-258700</v>
       </c>
       <c r="K91" s="3">
         <v>-309900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-759800</v>
+        <v>-804900</v>
       </c>
       <c r="E94" s="3">
-        <v>-578300</v>
+        <v>-612600</v>
       </c>
       <c r="F94" s="3">
-        <v>-335900</v>
+        <v>-355800</v>
       </c>
       <c r="G94" s="3">
-        <v>-281900</v>
+        <v>-298600</v>
       </c>
       <c r="H94" s="3">
-        <v>-357700</v>
+        <v>-378900</v>
       </c>
       <c r="I94" s="3">
-        <v>-327900</v>
+        <v>-347400</v>
       </c>
       <c r="J94" s="3">
-        <v>-287600</v>
+        <v>-304600</v>
       </c>
       <c r="K94" s="3">
         <v>-367400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-60000</v>
+        <v>-63600</v>
       </c>
       <c r="E96" s="3">
-        <v>-47500</v>
+        <v>-50300</v>
       </c>
       <c r="F96" s="3">
-        <v>-62200</v>
+        <v>-65800</v>
       </c>
       <c r="G96" s="3">
-        <v>-17900</v>
+        <v>-18900</v>
       </c>
       <c r="H96" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I96" s="3">
-        <v>-76800</v>
+        <v>-81400</v>
       </c>
       <c r="J96" s="3">
-        <v>-45700</v>
+        <v>-48400</v>
       </c>
       <c r="K96" s="3">
         <v>-84700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-49800</v>
+        <v>-52700</v>
       </c>
       <c r="E100" s="3">
-        <v>335400</v>
+        <v>355300</v>
       </c>
       <c r="F100" s="3">
-        <v>-290600</v>
+        <v>-307800</v>
       </c>
       <c r="G100" s="3">
-        <v>-370800</v>
+        <v>-392800</v>
       </c>
       <c r="H100" s="3">
-        <v>261200</v>
+        <v>276700</v>
       </c>
       <c r="I100" s="3">
-        <v>-532300</v>
+        <v>-563900</v>
       </c>
       <c r="J100" s="3">
-        <v>-112600</v>
+        <v>-119300</v>
       </c>
       <c r="K100" s="3">
         <v>-308400</v>
@@ -3711,10 +3711,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>103900</v>
+        <v>110100</v>
       </c>
       <c r="E101" s="3">
-        <v>19700</v>
+        <v>20800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-4200</v>
+        <v>-4500</v>
       </c>
       <c r="I101" s="3">
-        <v>16300</v>
+        <v>17300</v>
       </c>
       <c r="J101" s="3">
-        <v>9200</v>
+        <v>9800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>134000</v>
+        <v>142000</v>
       </c>
       <c r="E102" s="3">
-        <v>-22300</v>
+        <v>-23600</v>
       </c>
       <c r="F102" s="3">
-        <v>129100</v>
+        <v>136700</v>
       </c>
       <c r="G102" s="3">
-        <v>-317100</v>
+        <v>-336000</v>
       </c>
       <c r="H102" s="3">
-        <v>-331700</v>
+        <v>-351300</v>
       </c>
       <c r="I102" s="3">
-        <v>-23700</v>
+        <v>-25100</v>
       </c>
       <c r="J102" s="3">
-        <v>492600</v>
+        <v>521800</v>
       </c>
       <c r="K102" s="3">
         <v>239700</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9614000</v>
+        <v>9466400</v>
       </c>
       <c r="E8" s="3">
-        <v>5409400</v>
+        <v>5326400</v>
       </c>
       <c r="F8" s="3">
-        <v>9264200</v>
+        <v>9122000</v>
       </c>
       <c r="G8" s="3">
-        <v>8372400</v>
+        <v>8243900</v>
       </c>
       <c r="H8" s="3">
-        <v>7775900</v>
+        <v>7656600</v>
       </c>
       <c r="I8" s="3">
-        <v>6977600</v>
+        <v>6870500</v>
       </c>
       <c r="J8" s="3">
-        <v>12269000</v>
+        <v>12080700</v>
       </c>
       <c r="K8" s="3">
         <v>10826200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7035000</v>
+        <v>6927000</v>
       </c>
       <c r="E9" s="3">
-        <v>3981400</v>
+        <v>3920300</v>
       </c>
       <c r="F9" s="3">
-        <v>7086600</v>
+        <v>6977800</v>
       </c>
       <c r="G9" s="3">
-        <v>6311300</v>
+        <v>6214400</v>
       </c>
       <c r="H9" s="3">
-        <v>5990000</v>
+        <v>5898000</v>
       </c>
       <c r="I9" s="3">
-        <v>5275300</v>
+        <v>5194300</v>
       </c>
       <c r="J9" s="3">
-        <v>9118300</v>
+        <v>8978300</v>
       </c>
       <c r="K9" s="3">
         <v>7999800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2579000</v>
+        <v>2539400</v>
       </c>
       <c r="E10" s="3">
-        <v>1428000</v>
+        <v>1406100</v>
       </c>
       <c r="F10" s="3">
-        <v>2177600</v>
+        <v>2144200</v>
       </c>
       <c r="G10" s="3">
-        <v>2061100</v>
+        <v>2029500</v>
       </c>
       <c r="H10" s="3">
-        <v>1785900</v>
+        <v>1758500</v>
       </c>
       <c r="I10" s="3">
-        <v>1702300</v>
+        <v>1676200</v>
       </c>
       <c r="J10" s="3">
-        <v>3150800</v>
+        <v>3102400</v>
       </c>
       <c r="K10" s="3">
         <v>2826400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>110300</v>
+        <v>108600</v>
       </c>
       <c r="E14" s="3">
-        <v>50100</v>
+        <v>49300</v>
       </c>
       <c r="F14" s="3">
-        <v>27600</v>
+        <v>27200</v>
       </c>
       <c r="G14" s="3">
-        <v>20100</v>
+        <v>19800</v>
       </c>
       <c r="H14" s="3">
-        <v>18600</v>
+        <v>18300</v>
       </c>
       <c r="I14" s="3">
-        <v>21800</v>
+        <v>21400</v>
       </c>
       <c r="J14" s="3">
-        <v>68700</v>
+        <v>67600</v>
       </c>
       <c r="K14" s="3">
         <v>107200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>338400</v>
+        <v>333200</v>
       </c>
       <c r="E15" s="3">
-        <v>192800</v>
+        <v>189900</v>
       </c>
       <c r="F15" s="3">
-        <v>225500</v>
+        <v>222000</v>
       </c>
       <c r="G15" s="3">
-        <v>146100</v>
+        <v>143900</v>
       </c>
       <c r="H15" s="3">
-        <v>132600</v>
+        <v>130600</v>
       </c>
       <c r="I15" s="3">
-        <v>121900</v>
+        <v>120100</v>
       </c>
       <c r="J15" s="3">
-        <v>153600</v>
+        <v>151300</v>
       </c>
       <c r="K15" s="3">
         <v>147300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9120900</v>
+        <v>8980900</v>
       </c>
       <c r="E17" s="3">
-        <v>5315100</v>
+        <v>5233500</v>
       </c>
       <c r="F17" s="3">
-        <v>8770900</v>
+        <v>8636200</v>
       </c>
       <c r="G17" s="3">
-        <v>8094500</v>
+        <v>7970200</v>
       </c>
       <c r="H17" s="3">
-        <v>7615400</v>
+        <v>7498500</v>
       </c>
       <c r="I17" s="3">
-        <v>6675200</v>
+        <v>6572700</v>
       </c>
       <c r="J17" s="3">
-        <v>11551400</v>
+        <v>11374000</v>
       </c>
       <c r="K17" s="3">
         <v>10274400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>493100</v>
+        <v>485600</v>
       </c>
       <c r="E18" s="3">
-        <v>94400</v>
+        <v>92900</v>
       </c>
       <c r="F18" s="3">
-        <v>493300</v>
+        <v>485800</v>
       </c>
       <c r="G18" s="3">
-        <v>278000</v>
+        <v>273700</v>
       </c>
       <c r="H18" s="3">
-        <v>160600</v>
+        <v>158100</v>
       </c>
       <c r="I18" s="3">
-        <v>302400</v>
+        <v>297700</v>
       </c>
       <c r="J18" s="3">
-        <v>717700</v>
+        <v>706700</v>
       </c>
       <c r="K18" s="3">
         <v>551800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>72800</v>
+        <v>71700</v>
       </c>
       <c r="E20" s="3">
         <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>-15800</v>
+        <v>-15500</v>
       </c>
       <c r="G20" s="3">
-        <v>-43500</v>
+        <v>-42900</v>
       </c>
       <c r="H20" s="3">
-        <v>-37100</v>
+        <v>-36600</v>
       </c>
       <c r="I20" s="3">
-        <v>-13100</v>
+        <v>-12900</v>
       </c>
       <c r="J20" s="3">
-        <v>-153600</v>
+        <v>-151300</v>
       </c>
       <c r="K20" s="3">
         <v>-111000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1048100</v>
+        <v>1033900</v>
       </c>
       <c r="E21" s="3">
-        <v>386400</v>
+        <v>381600</v>
       </c>
       <c r="F21" s="3">
-        <v>726200</v>
+        <v>716000</v>
       </c>
       <c r="G21" s="3">
-        <v>391100</v>
+        <v>385700</v>
       </c>
       <c r="H21" s="3">
-        <v>328200</v>
+        <v>324000</v>
       </c>
       <c r="I21" s="3">
-        <v>496500</v>
+        <v>489700</v>
       </c>
       <c r="J21" s="3">
-        <v>738800</v>
+        <v>728100</v>
       </c>
       <c r="K21" s="3">
         <v>603100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>209300</v>
+        <v>206100</v>
       </c>
       <c r="E22" s="3">
-        <v>162300</v>
+        <v>159800</v>
       </c>
       <c r="F22" s="3">
-        <v>183300</v>
+        <v>180500</v>
       </c>
       <c r="G22" s="3">
-        <v>93400</v>
+        <v>92000</v>
       </c>
       <c r="H22" s="3">
-        <v>132200</v>
+        <v>130200</v>
       </c>
       <c r="I22" s="3">
-        <v>130900</v>
+        <v>128900</v>
       </c>
       <c r="J22" s="3">
-        <v>128900</v>
+        <v>126900</v>
       </c>
       <c r="K22" s="3">
         <v>112300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>356600</v>
+        <v>351100</v>
       </c>
       <c r="E23" s="3">
-        <v>-69000</v>
+        <v>-68000</v>
       </c>
       <c r="F23" s="3">
-        <v>294300</v>
+        <v>289800</v>
       </c>
       <c r="G23" s="3">
-        <v>141100</v>
+        <v>138900</v>
       </c>
       <c r="H23" s="3">
-        <v>-8800</v>
+        <v>-8700</v>
       </c>
       <c r="I23" s="3">
-        <v>158300</v>
+        <v>155900</v>
       </c>
       <c r="J23" s="3">
-        <v>435200</v>
+        <v>428500</v>
       </c>
       <c r="K23" s="3">
         <v>328600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>124200</v>
+        <v>122300</v>
       </c>
       <c r="E24" s="3">
-        <v>-17800</v>
+        <v>-17500</v>
       </c>
       <c r="F24" s="3">
-        <v>77500</v>
+        <v>76300</v>
       </c>
       <c r="G24" s="3">
-        <v>55700</v>
+        <v>54900</v>
       </c>
       <c r="H24" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I24" s="3">
-        <v>43000</v>
+        <v>42300</v>
       </c>
       <c r="J24" s="3">
-        <v>138100</v>
+        <v>135900</v>
       </c>
       <c r="K24" s="3">
         <v>67400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>232400</v>
+        <v>228800</v>
       </c>
       <c r="E26" s="3">
-        <v>-51200</v>
+        <v>-50400</v>
       </c>
       <c r="F26" s="3">
-        <v>216800</v>
+        <v>213500</v>
       </c>
       <c r="G26" s="3">
-        <v>85300</v>
+        <v>84000</v>
       </c>
       <c r="H26" s="3">
-        <v>-13300</v>
+        <v>-13100</v>
       </c>
       <c r="I26" s="3">
-        <v>115400</v>
+        <v>113600</v>
       </c>
       <c r="J26" s="3">
-        <v>297100</v>
+        <v>292600</v>
       </c>
       <c r="K26" s="3">
         <v>261200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>204800</v>
+        <v>201700</v>
       </c>
       <c r="E27" s="3">
-        <v>-59800</v>
+        <v>-58900</v>
       </c>
       <c r="F27" s="3">
-        <v>191500</v>
+        <v>188600</v>
       </c>
       <c r="G27" s="3">
-        <v>42000</v>
+        <v>41400</v>
       </c>
       <c r="H27" s="3">
-        <v>98100</v>
+        <v>96600</v>
       </c>
       <c r="I27" s="3">
-        <v>216800</v>
+        <v>213500</v>
       </c>
       <c r="J27" s="3">
-        <v>226400</v>
+        <v>222900</v>
       </c>
       <c r="K27" s="3">
         <v>196900</v>
@@ -1413,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>203900</v>
+        <v>200800</v>
       </c>
       <c r="E29" s="3">
-        <v>208000</v>
+        <v>204800</v>
       </c>
       <c r="F29" s="3">
-        <v>24000</v>
+        <v>23600</v>
       </c>
       <c r="G29" s="3">
-        <v>66800</v>
+        <v>65800</v>
       </c>
       <c r="H29" s="3">
-        <v>-188500</v>
+        <v>-185600</v>
       </c>
       <c r="I29" s="3">
-        <v>-167100</v>
+        <v>-164600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-72800</v>
+        <v>-71700</v>
       </c>
       <c r="E32" s="3">
         <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>15800</v>
+        <v>15500</v>
       </c>
       <c r="G32" s="3">
-        <v>43500</v>
+        <v>42900</v>
       </c>
       <c r="H32" s="3">
-        <v>37100</v>
+        <v>36600</v>
       </c>
       <c r="I32" s="3">
-        <v>13100</v>
+        <v>12900</v>
       </c>
       <c r="J32" s="3">
-        <v>153600</v>
+        <v>151300</v>
       </c>
       <c r="K32" s="3">
         <v>111000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>408700</v>
+        <v>402500</v>
       </c>
       <c r="E33" s="3">
-        <v>148200</v>
+        <v>145900</v>
       </c>
       <c r="F33" s="3">
-        <v>215500</v>
+        <v>212200</v>
       </c>
       <c r="G33" s="3">
-        <v>108800</v>
+        <v>107100</v>
       </c>
       <c r="H33" s="3">
-        <v>-90400</v>
+        <v>-89000</v>
       </c>
       <c r="I33" s="3">
-        <v>49700</v>
+        <v>48900</v>
       </c>
       <c r="J33" s="3">
-        <v>226400</v>
+        <v>222900</v>
       </c>
       <c r="K33" s="3">
         <v>196900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>408700</v>
+        <v>402500</v>
       </c>
       <c r="E35" s="3">
-        <v>148200</v>
+        <v>145900</v>
       </c>
       <c r="F35" s="3">
-        <v>215500</v>
+        <v>212200</v>
       </c>
       <c r="G35" s="3">
-        <v>108800</v>
+        <v>107100</v>
       </c>
       <c r="H35" s="3">
-        <v>-90400</v>
+        <v>-89000</v>
       </c>
       <c r="I35" s="3">
-        <v>49700</v>
+        <v>48900</v>
       </c>
       <c r="J35" s="3">
-        <v>226400</v>
+        <v>222900</v>
       </c>
       <c r="K35" s="3">
         <v>196900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1634000</v>
+        <v>1608900</v>
       </c>
       <c r="E41" s="3">
-        <v>1492000</v>
+        <v>1469100</v>
       </c>
       <c r="F41" s="3">
-        <v>819500</v>
+        <v>807000</v>
       </c>
       <c r="G41" s="3">
-        <v>1422600</v>
+        <v>1400800</v>
       </c>
       <c r="H41" s="3">
-        <v>958900</v>
+        <v>944200</v>
       </c>
       <c r="I41" s="3">
-        <v>2066200</v>
+        <v>2034500</v>
       </c>
       <c r="J41" s="3">
-        <v>2091300</v>
+        <v>2059200</v>
       </c>
       <c r="K41" s="3">
         <v>1565700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>381500</v>
+        <v>375700</v>
       </c>
       <c r="E43" s="3">
-        <v>525200</v>
+        <v>517200</v>
       </c>
       <c r="F43" s="3">
-        <v>256000</v>
+        <v>252100</v>
       </c>
       <c r="G43" s="3">
-        <v>393700</v>
+        <v>387700</v>
       </c>
       <c r="H43" s="3">
-        <v>251900</v>
+        <v>248100</v>
       </c>
       <c r="I43" s="3">
-        <v>875100</v>
+        <v>861600</v>
       </c>
       <c r="J43" s="3">
-        <v>795500</v>
+        <v>783300</v>
       </c>
       <c r="K43" s="3">
         <v>683200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1226000</v>
+        <v>1207200</v>
       </c>
       <c r="E44" s="3">
-        <v>1619000</v>
+        <v>1594100</v>
       </c>
       <c r="F44" s="3">
-        <v>1108400</v>
+        <v>1091400</v>
       </c>
       <c r="G44" s="3">
-        <v>1809000</v>
+        <v>1781200</v>
       </c>
       <c r="H44" s="3">
-        <v>870600</v>
+        <v>857200</v>
       </c>
       <c r="I44" s="3">
-        <v>1681700</v>
+        <v>1655800</v>
       </c>
       <c r="J44" s="3">
-        <v>1568900</v>
+        <v>1544800</v>
       </c>
       <c r="K44" s="3">
         <v>1194200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67500</v>
+        <v>66500</v>
       </c>
       <c r="E45" s="3">
-        <v>109400</v>
+        <v>107700</v>
       </c>
       <c r="F45" s="3">
-        <v>5478500</v>
+        <v>5394300</v>
       </c>
       <c r="G45" s="3">
-        <v>5069000</v>
+        <v>4991100</v>
       </c>
       <c r="H45" s="3">
-        <v>3855700</v>
+        <v>3796500</v>
       </c>
       <c r="I45" s="3">
-        <v>59100</v>
+        <v>58200</v>
       </c>
       <c r="J45" s="3">
-        <v>50100</v>
+        <v>49300</v>
       </c>
       <c r="K45" s="3">
         <v>34700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3309100</v>
+        <v>3258300</v>
       </c>
       <c r="E46" s="3">
-        <v>3745600</v>
+        <v>3688100</v>
       </c>
       <c r="F46" s="3">
-        <v>7662500</v>
+        <v>7544800</v>
       </c>
       <c r="G46" s="3">
-        <v>6935200</v>
+        <v>6828700</v>
       </c>
       <c r="H46" s="3">
-        <v>5937100</v>
+        <v>5845900</v>
       </c>
       <c r="I46" s="3">
-        <v>4682000</v>
+        <v>4610100</v>
       </c>
       <c r="J46" s="3">
-        <v>4505900</v>
+        <v>4436700</v>
       </c>
       <c r="K46" s="3">
         <v>3482400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>971700</v>
+        <v>956700</v>
       </c>
       <c r="E47" s="3">
-        <v>676800</v>
+        <v>666400</v>
       </c>
       <c r="F47" s="3">
-        <v>584100</v>
+        <v>575200</v>
       </c>
       <c r="G47" s="3">
-        <v>497100</v>
+        <v>489500</v>
       </c>
       <c r="H47" s="3">
-        <v>295800</v>
+        <v>291300</v>
       </c>
       <c r="I47" s="3">
-        <v>728000</v>
+        <v>716800</v>
       </c>
       <c r="J47" s="3">
-        <v>1330700</v>
+        <v>1310300</v>
       </c>
       <c r="K47" s="3">
         <v>497100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4413200</v>
+        <v>4345400</v>
       </c>
       <c r="E48" s="3">
-        <v>5128600</v>
+        <v>5049900</v>
       </c>
       <c r="F48" s="3">
-        <v>2645300</v>
+        <v>2604600</v>
       </c>
       <c r="G48" s="3">
-        <v>4211400</v>
+        <v>4146700</v>
       </c>
       <c r="H48" s="3">
-        <v>1726700</v>
+        <v>1700200</v>
       </c>
       <c r="I48" s="3">
-        <v>1951200</v>
+        <v>1921200</v>
       </c>
       <c r="J48" s="3">
-        <v>1828700</v>
+        <v>1800600</v>
       </c>
       <c r="K48" s="3">
         <v>1694200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1156200</v>
+        <v>1138500</v>
       </c>
       <c r="E49" s="3">
-        <v>1169700</v>
+        <v>1151800</v>
       </c>
       <c r="F49" s="3">
-        <v>1030400</v>
+        <v>1014600</v>
       </c>
       <c r="G49" s="3">
-        <v>1074100</v>
+        <v>1057600</v>
       </c>
       <c r="H49" s="3">
-        <v>357900</v>
+        <v>352400</v>
       </c>
       <c r="I49" s="3">
-        <v>1227300</v>
+        <v>1208500</v>
       </c>
       <c r="J49" s="3">
-        <v>1209500</v>
+        <v>1190900</v>
       </c>
       <c r="K49" s="3">
         <v>1066800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>146900</v>
+        <v>144600</v>
       </c>
       <c r="E52" s="3">
-        <v>248000</v>
+        <v>244200</v>
       </c>
       <c r="F52" s="3">
-        <v>278900</v>
+        <v>274600</v>
       </c>
       <c r="G52" s="3">
-        <v>204800</v>
+        <v>201700</v>
       </c>
       <c r="H52" s="3">
-        <v>164300</v>
+        <v>161800</v>
       </c>
       <c r="I52" s="3">
-        <v>272900</v>
+        <v>268700</v>
       </c>
       <c r="J52" s="3">
-        <v>292100</v>
+        <v>287600</v>
       </c>
       <c r="K52" s="3">
         <v>372000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9997100</v>
+        <v>9843600</v>
       </c>
       <c r="E54" s="3">
-        <v>10968700</v>
+        <v>10800300</v>
       </c>
       <c r="F54" s="3">
-        <v>11627700</v>
+        <v>11449200</v>
       </c>
       <c r="G54" s="3">
-        <v>10478600</v>
+        <v>10317700</v>
       </c>
       <c r="H54" s="3">
-        <v>8481800</v>
+        <v>8351600</v>
       </c>
       <c r="I54" s="3">
-        <v>8861500</v>
+        <v>8725400</v>
       </c>
       <c r="J54" s="3">
-        <v>8505800</v>
+        <v>8375200</v>
       </c>
       <c r="K54" s="3">
         <v>7112500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2142900</v>
+        <v>2110000</v>
       </c>
       <c r="E57" s="3">
-        <v>2792500</v>
+        <v>2749600</v>
       </c>
       <c r="F57" s="3">
-        <v>1734400</v>
+        <v>1707700</v>
       </c>
       <c r="G57" s="3">
-        <v>1524700</v>
+        <v>1501200</v>
       </c>
       <c r="H57" s="3">
-        <v>1356600</v>
+        <v>1335800</v>
       </c>
       <c r="I57" s="3">
-        <v>2909000</v>
+        <v>2864300</v>
       </c>
       <c r="J57" s="3">
-        <v>2526000</v>
+        <v>2487200</v>
       </c>
       <c r="K57" s="3">
         <v>1599500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>610800</v>
+        <v>601400</v>
       </c>
       <c r="E58" s="3">
-        <v>830000</v>
+        <v>817300</v>
       </c>
       <c r="F58" s="3">
-        <v>844900</v>
+        <v>831900</v>
       </c>
       <c r="G58" s="3">
-        <v>543200</v>
+        <v>534900</v>
       </c>
       <c r="H58" s="3">
-        <v>554700</v>
+        <v>546200</v>
       </c>
       <c r="I58" s="3">
-        <v>1430900</v>
+        <v>1408900</v>
       </c>
       <c r="J58" s="3">
-        <v>2541100</v>
+        <v>2502100</v>
       </c>
       <c r="K58" s="3">
         <v>967700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>713400</v>
+        <v>702400</v>
       </c>
       <c r="E59" s="3">
-        <v>717100</v>
+        <v>706100</v>
       </c>
       <c r="F59" s="3">
-        <v>4873300</v>
+        <v>4798500</v>
       </c>
       <c r="G59" s="3">
-        <v>4495000</v>
+        <v>4426000</v>
       </c>
       <c r="H59" s="3">
-        <v>3262600</v>
+        <v>3212500</v>
       </c>
       <c r="I59" s="3">
-        <v>1116300</v>
+        <v>1099100</v>
       </c>
       <c r="J59" s="3">
-        <v>1243700</v>
+        <v>1224600</v>
       </c>
       <c r="K59" s="3">
         <v>946600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3467000</v>
+        <v>3413800</v>
       </c>
       <c r="E60" s="3">
-        <v>4339700</v>
+        <v>4273000</v>
       </c>
       <c r="F60" s="3">
-        <v>7050600</v>
+        <v>6942300</v>
       </c>
       <c r="G60" s="3">
-        <v>6264200</v>
+        <v>6168100</v>
       </c>
       <c r="H60" s="3">
-        <v>5173800</v>
+        <v>5094400</v>
       </c>
       <c r="I60" s="3">
-        <v>4740700</v>
+        <v>4667900</v>
       </c>
       <c r="J60" s="3">
-        <v>4498400</v>
+        <v>4429300</v>
       </c>
       <c r="K60" s="3">
         <v>3183600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2676600</v>
+        <v>2635500</v>
       </c>
       <c r="E61" s="3">
-        <v>3458200</v>
+        <v>3405100</v>
       </c>
       <c r="F61" s="3">
-        <v>1626700</v>
+        <v>1601700</v>
       </c>
       <c r="G61" s="3">
-        <v>1503500</v>
+        <v>1480400</v>
       </c>
       <c r="H61" s="3">
-        <v>546200</v>
+        <v>537800</v>
       </c>
       <c r="I61" s="3">
-        <v>781100</v>
+        <v>769100</v>
       </c>
       <c r="J61" s="3">
-        <v>587900</v>
+        <v>578800</v>
       </c>
       <c r="K61" s="3">
         <v>808700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700800</v>
+        <v>690000</v>
       </c>
       <c r="E62" s="3">
-        <v>629500</v>
+        <v>619900</v>
       </c>
       <c r="F62" s="3">
-        <v>482100</v>
+        <v>474700</v>
       </c>
       <c r="G62" s="3">
-        <v>430700</v>
+        <v>424100</v>
       </c>
       <c r="H62" s="3">
-        <v>398800</v>
+        <v>392700</v>
       </c>
       <c r="I62" s="3">
-        <v>835100</v>
+        <v>822300</v>
       </c>
       <c r="J62" s="3">
-        <v>989900</v>
+        <v>974700</v>
       </c>
       <c r="K62" s="3">
         <v>956100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7428200</v>
+        <v>7314100</v>
       </c>
       <c r="E66" s="3">
-        <v>8916600</v>
+        <v>8779700</v>
       </c>
       <c r="F66" s="3">
-        <v>9708000</v>
+        <v>9559000</v>
       </c>
       <c r="G66" s="3">
-        <v>8718300</v>
+        <v>8584500</v>
       </c>
       <c r="H66" s="3">
-        <v>6632300</v>
+        <v>6530400</v>
       </c>
       <c r="I66" s="3">
-        <v>6919300</v>
+        <v>6813000</v>
       </c>
       <c r="J66" s="3">
-        <v>6540500</v>
+        <v>6440100</v>
       </c>
       <c r="K66" s="3">
         <v>5337900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1075800</v>
+        <v>1059300</v>
       </c>
       <c r="E72" s="3">
-        <v>761000</v>
+        <v>749300</v>
       </c>
       <c r="F72" s="3">
-        <v>670000</v>
+        <v>659700</v>
       </c>
       <c r="G72" s="3">
-        <v>486000</v>
+        <v>478600</v>
       </c>
       <c r="H72" s="3">
-        <v>589000</v>
+        <v>580000</v>
       </c>
       <c r="I72" s="3">
-        <v>675700</v>
+        <v>665300</v>
       </c>
       <c r="J72" s="3">
-        <v>1381300</v>
+        <v>1360100</v>
       </c>
       <c r="K72" s="3">
         <v>1024600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2568900</v>
+        <v>2529500</v>
       </c>
       <c r="E76" s="3">
-        <v>2052100</v>
+        <v>2020600</v>
       </c>
       <c r="F76" s="3">
-        <v>1919700</v>
+        <v>1890200</v>
       </c>
       <c r="G76" s="3">
-        <v>1760300</v>
+        <v>1733200</v>
       </c>
       <c r="H76" s="3">
-        <v>1849500</v>
+        <v>1821100</v>
       </c>
       <c r="I76" s="3">
-        <v>1942200</v>
+        <v>1912400</v>
       </c>
       <c r="J76" s="3">
-        <v>1965300</v>
+        <v>1935100</v>
       </c>
       <c r="K76" s="3">
         <v>1774600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>408700</v>
+        <v>402500</v>
       </c>
       <c r="E81" s="3">
-        <v>148200</v>
+        <v>145900</v>
       </c>
       <c r="F81" s="3">
-        <v>215500</v>
+        <v>212200</v>
       </c>
       <c r="G81" s="3">
-        <v>108800</v>
+        <v>107100</v>
       </c>
       <c r="H81" s="3">
-        <v>-90400</v>
+        <v>-89000</v>
       </c>
       <c r="I81" s="3">
-        <v>49700</v>
+        <v>48900</v>
       </c>
       <c r="J81" s="3">
-        <v>226400</v>
+        <v>222900</v>
       </c>
       <c r="K81" s="3">
         <v>196900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>481000</v>
+        <v>473600</v>
       </c>
       <c r="E83" s="3">
-        <v>292400</v>
+        <v>287900</v>
       </c>
       <c r="F83" s="3">
-        <v>248000</v>
+        <v>244200</v>
       </c>
       <c r="G83" s="3">
-        <v>156300</v>
+        <v>153900</v>
       </c>
       <c r="H83" s="3">
-        <v>204300</v>
+        <v>201100</v>
       </c>
       <c r="I83" s="3">
-        <v>206700</v>
+        <v>203500</v>
       </c>
       <c r="J83" s="3">
-        <v>174300</v>
+        <v>171600</v>
       </c>
       <c r="K83" s="3">
         <v>161900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>889500</v>
+        <v>875800</v>
       </c>
       <c r="E89" s="3">
-        <v>212900</v>
+        <v>209600</v>
       </c>
       <c r="F89" s="3">
-        <v>800400</v>
+        <v>788100</v>
       </c>
       <c r="G89" s="3">
-        <v>355500</v>
+        <v>350000</v>
       </c>
       <c r="H89" s="3">
-        <v>-244600</v>
+        <v>-240800</v>
       </c>
       <c r="I89" s="3">
-        <v>868900</v>
+        <v>855500</v>
       </c>
       <c r="J89" s="3">
-        <v>936000</v>
+        <v>921700</v>
       </c>
       <c r="K89" s="3">
         <v>915400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-429400</v>
+        <v>-422800</v>
       </c>
       <c r="E91" s="3">
-        <v>-461800</v>
+        <v>-454700</v>
       </c>
       <c r="F91" s="3">
-        <v>-309300</v>
+        <v>-304600</v>
       </c>
       <c r="G91" s="3">
-        <v>-263000</v>
+        <v>-258900</v>
       </c>
       <c r="H91" s="3">
-        <v>-237300</v>
+        <v>-233600</v>
       </c>
       <c r="I91" s="3">
-        <v>-296600</v>
+        <v>-292000</v>
       </c>
       <c r="J91" s="3">
-        <v>-258700</v>
+        <v>-254700</v>
       </c>
       <c r="K91" s="3">
         <v>-309900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-804900</v>
+        <v>-792500</v>
       </c>
       <c r="E94" s="3">
-        <v>-612600</v>
+        <v>-603200</v>
       </c>
       <c r="F94" s="3">
-        <v>-355800</v>
+        <v>-350400</v>
       </c>
       <c r="G94" s="3">
-        <v>-298600</v>
+        <v>-294000</v>
       </c>
       <c r="H94" s="3">
-        <v>-378900</v>
+        <v>-373100</v>
       </c>
       <c r="I94" s="3">
-        <v>-347400</v>
+        <v>-342100</v>
       </c>
       <c r="J94" s="3">
-        <v>-304600</v>
+        <v>-300000</v>
       </c>
       <c r="K94" s="3">
         <v>-367400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-63600</v>
+        <v>-62600</v>
       </c>
       <c r="E96" s="3">
-        <v>-50300</v>
+        <v>-49500</v>
       </c>
       <c r="F96" s="3">
-        <v>-65800</v>
+        <v>-64800</v>
       </c>
       <c r="G96" s="3">
-        <v>-18900</v>
+        <v>-18700</v>
       </c>
       <c r="H96" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I96" s="3">
-        <v>-81400</v>
+        <v>-80200</v>
       </c>
       <c r="J96" s="3">
-        <v>-48400</v>
+        <v>-47700</v>
       </c>
       <c r="K96" s="3">
         <v>-84700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-52700</v>
+        <v>-51900</v>
       </c>
       <c r="E100" s="3">
-        <v>355300</v>
+        <v>349800</v>
       </c>
       <c r="F100" s="3">
-        <v>-307800</v>
+        <v>-303100</v>
       </c>
       <c r="G100" s="3">
-        <v>-392800</v>
+        <v>-386800</v>
       </c>
       <c r="H100" s="3">
-        <v>276700</v>
+        <v>272400</v>
       </c>
       <c r="I100" s="3">
-        <v>-563900</v>
+        <v>-555200</v>
       </c>
       <c r="J100" s="3">
-        <v>-119300</v>
+        <v>-117500</v>
       </c>
       <c r="K100" s="3">
         <v>-308400</v>
@@ -3711,10 +3711,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>110100</v>
+        <v>108400</v>
       </c>
       <c r="E101" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="I101" s="3">
-        <v>17300</v>
+        <v>17000</v>
       </c>
       <c r="J101" s="3">
-        <v>9800</v>
+        <v>9600</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>142000</v>
+        <v>139800</v>
       </c>
       <c r="E102" s="3">
-        <v>-23600</v>
+        <v>-23300</v>
       </c>
       <c r="F102" s="3">
-        <v>136700</v>
+        <v>134600</v>
       </c>
       <c r="G102" s="3">
-        <v>-336000</v>
+        <v>-330800</v>
       </c>
       <c r="H102" s="3">
-        <v>-351300</v>
+        <v>-345900</v>
       </c>
       <c r="I102" s="3">
-        <v>-25100</v>
+        <v>-24700</v>
       </c>
       <c r="J102" s="3">
-        <v>521800</v>
+        <v>513800</v>
       </c>
       <c r="K102" s="3">
         <v>239700</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9466400</v>
+        <v>9149700</v>
       </c>
       <c r="E8" s="3">
-        <v>5326400</v>
+        <v>5148200</v>
       </c>
       <c r="F8" s="3">
-        <v>9122000</v>
+        <v>8816700</v>
       </c>
       <c r="G8" s="3">
-        <v>8243900</v>
+        <v>7968100</v>
       </c>
       <c r="H8" s="3">
-        <v>7656600</v>
+        <v>7400400</v>
       </c>
       <c r="I8" s="3">
-        <v>6870500</v>
+        <v>6640600</v>
       </c>
       <c r="J8" s="3">
-        <v>12080700</v>
+        <v>11676500</v>
       </c>
       <c r="K8" s="3">
         <v>10826200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6927000</v>
+        <v>6695200</v>
       </c>
       <c r="E9" s="3">
-        <v>3920300</v>
+        <v>3789100</v>
       </c>
       <c r="F9" s="3">
-        <v>6977800</v>
+        <v>6744300</v>
       </c>
       <c r="G9" s="3">
-        <v>6214400</v>
+        <v>6006500</v>
       </c>
       <c r="H9" s="3">
-        <v>5898000</v>
+        <v>5700700</v>
       </c>
       <c r="I9" s="3">
-        <v>5194300</v>
+        <v>5020500</v>
       </c>
       <c r="J9" s="3">
-        <v>8978300</v>
+        <v>8677900</v>
       </c>
       <c r="K9" s="3">
         <v>7999800</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2539400</v>
+        <v>2454500</v>
       </c>
       <c r="E10" s="3">
-        <v>1406100</v>
+        <v>1359100</v>
       </c>
       <c r="F10" s="3">
-        <v>2144200</v>
+        <v>2072400</v>
       </c>
       <c r="G10" s="3">
-        <v>2029500</v>
+        <v>1961600</v>
       </c>
       <c r="H10" s="3">
-        <v>1758500</v>
+        <v>1699700</v>
       </c>
       <c r="I10" s="3">
-        <v>1676200</v>
+        <v>1620100</v>
       </c>
       <c r="J10" s="3">
-        <v>3102400</v>
+        <v>2998600</v>
       </c>
       <c r="K10" s="3">
         <v>2826400</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>108600</v>
+        <v>105000</v>
       </c>
       <c r="E14" s="3">
-        <v>49300</v>
+        <v>47700</v>
       </c>
       <c r="F14" s="3">
-        <v>27200</v>
+        <v>26200</v>
       </c>
       <c r="G14" s="3">
-        <v>19800</v>
+        <v>19100</v>
       </c>
       <c r="H14" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="I14" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="J14" s="3">
-        <v>67600</v>
+        <v>65300</v>
       </c>
       <c r="K14" s="3">
         <v>107200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>333200</v>
+        <v>322100</v>
       </c>
       <c r="E15" s="3">
-        <v>189900</v>
+        <v>183500</v>
       </c>
       <c r="F15" s="3">
-        <v>222000</v>
+        <v>214600</v>
       </c>
       <c r="G15" s="3">
-        <v>143900</v>
+        <v>139100</v>
       </c>
       <c r="H15" s="3">
-        <v>130600</v>
+        <v>126200</v>
       </c>
       <c r="I15" s="3">
-        <v>120100</v>
+        <v>116000</v>
       </c>
       <c r="J15" s="3">
-        <v>151300</v>
+        <v>146200</v>
       </c>
       <c r="K15" s="3">
         <v>147300</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8980900</v>
+        <v>8680400</v>
       </c>
       <c r="E17" s="3">
-        <v>5233500</v>
+        <v>5058400</v>
       </c>
       <c r="F17" s="3">
-        <v>8636200</v>
+        <v>8347200</v>
       </c>
       <c r="G17" s="3">
-        <v>7970200</v>
+        <v>7703500</v>
       </c>
       <c r="H17" s="3">
-        <v>7498500</v>
+        <v>7247600</v>
       </c>
       <c r="I17" s="3">
-        <v>6572700</v>
+        <v>6352800</v>
       </c>
       <c r="J17" s="3">
-        <v>11374000</v>
+        <v>10993400</v>
       </c>
       <c r="K17" s="3">
         <v>10274400</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>485600</v>
+        <v>469300</v>
       </c>
       <c r="E18" s="3">
-        <v>92900</v>
+        <v>89800</v>
       </c>
       <c r="F18" s="3">
-        <v>485800</v>
+        <v>469500</v>
       </c>
       <c r="G18" s="3">
-        <v>273700</v>
+        <v>264600</v>
       </c>
       <c r="H18" s="3">
-        <v>158100</v>
+        <v>152800</v>
       </c>
       <c r="I18" s="3">
-        <v>297700</v>
+        <v>287800</v>
       </c>
       <c r="J18" s="3">
-        <v>706700</v>
+        <v>683000</v>
       </c>
       <c r="K18" s="3">
         <v>551800</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71700</v>
+        <v>69300</v>
       </c>
       <c r="E20" s="3">
         <v>-1100</v>
       </c>
       <c r="F20" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="G20" s="3">
-        <v>-42900</v>
+        <v>-41400</v>
       </c>
       <c r="H20" s="3">
-        <v>-36600</v>
+        <v>-35300</v>
       </c>
       <c r="I20" s="3">
-        <v>-12900</v>
+        <v>-12500</v>
       </c>
       <c r="J20" s="3">
-        <v>-151300</v>
+        <v>-146200</v>
       </c>
       <c r="K20" s="3">
         <v>-111000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1033900</v>
+        <v>995700</v>
       </c>
       <c r="E21" s="3">
-        <v>381600</v>
+        <v>366700</v>
       </c>
       <c r="F21" s="3">
-        <v>716000</v>
+        <v>690200</v>
       </c>
       <c r="G21" s="3">
-        <v>385700</v>
+        <v>371700</v>
       </c>
       <c r="H21" s="3">
-        <v>324000</v>
+        <v>311600</v>
       </c>
       <c r="I21" s="3">
-        <v>489700</v>
+        <v>471700</v>
       </c>
       <c r="J21" s="3">
-        <v>728100</v>
+        <v>702400</v>
       </c>
       <c r="K21" s="3">
         <v>603100</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>206100</v>
+        <v>199200</v>
       </c>
       <c r="E22" s="3">
-        <v>159800</v>
+        <v>154400</v>
       </c>
       <c r="F22" s="3">
-        <v>180500</v>
+        <v>174400</v>
       </c>
       <c r="G22" s="3">
-        <v>92000</v>
+        <v>88900</v>
       </c>
       <c r="H22" s="3">
-        <v>130200</v>
+        <v>125900</v>
       </c>
       <c r="I22" s="3">
-        <v>128900</v>
+        <v>124600</v>
       </c>
       <c r="J22" s="3">
-        <v>126900</v>
+        <v>122600</v>
       </c>
       <c r="K22" s="3">
         <v>112300</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>351100</v>
+        <v>339400</v>
       </c>
       <c r="E23" s="3">
-        <v>-68000</v>
+        <v>-65700</v>
       </c>
       <c r="F23" s="3">
-        <v>289800</v>
+        <v>280100</v>
       </c>
       <c r="G23" s="3">
-        <v>138900</v>
+        <v>134200</v>
       </c>
       <c r="H23" s="3">
-        <v>-8700</v>
+        <v>-8400</v>
       </c>
       <c r="I23" s="3">
-        <v>155900</v>
+        <v>150700</v>
       </c>
       <c r="J23" s="3">
-        <v>428500</v>
+        <v>414200</v>
       </c>
       <c r="K23" s="3">
         <v>328600</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>122300</v>
+        <v>118200</v>
       </c>
       <c r="E24" s="3">
-        <v>-17500</v>
+        <v>-17000</v>
       </c>
       <c r="F24" s="3">
-        <v>76300</v>
+        <v>73700</v>
       </c>
       <c r="G24" s="3">
-        <v>54900</v>
+        <v>53000</v>
       </c>
       <c r="H24" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="I24" s="3">
-        <v>42300</v>
+        <v>40900</v>
       </c>
       <c r="J24" s="3">
-        <v>135900</v>
+        <v>131400</v>
       </c>
       <c r="K24" s="3">
         <v>67400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>228800</v>
+        <v>221200</v>
       </c>
       <c r="E26" s="3">
-        <v>-50400</v>
+        <v>-48700</v>
       </c>
       <c r="F26" s="3">
-        <v>213500</v>
+        <v>206400</v>
       </c>
       <c r="G26" s="3">
-        <v>84000</v>
+        <v>81200</v>
       </c>
       <c r="H26" s="3">
-        <v>-13100</v>
+        <v>-12700</v>
       </c>
       <c r="I26" s="3">
-        <v>113600</v>
+        <v>109800</v>
       </c>
       <c r="J26" s="3">
-        <v>292600</v>
+        <v>282800</v>
       </c>
       <c r="K26" s="3">
         <v>261200</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>201700</v>
+        <v>194900</v>
       </c>
       <c r="E27" s="3">
-        <v>-58900</v>
+        <v>-56900</v>
       </c>
       <c r="F27" s="3">
-        <v>188600</v>
+        <v>182300</v>
       </c>
       <c r="G27" s="3">
-        <v>41400</v>
+        <v>40000</v>
       </c>
       <c r="H27" s="3">
-        <v>96600</v>
+        <v>93400</v>
       </c>
       <c r="I27" s="3">
-        <v>213500</v>
+        <v>206400</v>
       </c>
       <c r="J27" s="3">
-        <v>222900</v>
+        <v>215500</v>
       </c>
       <c r="K27" s="3">
         <v>196900</v>
@@ -1413,22 +1413,22 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>200800</v>
+        <v>194100</v>
       </c>
       <c r="E29" s="3">
-        <v>204800</v>
+        <v>198000</v>
       </c>
       <c r="F29" s="3">
-        <v>23600</v>
+        <v>22900</v>
       </c>
       <c r="G29" s="3">
-        <v>65800</v>
+        <v>63600</v>
       </c>
       <c r="H29" s="3">
-        <v>-185600</v>
+        <v>-179400</v>
       </c>
       <c r="I29" s="3">
-        <v>-164600</v>
+        <v>-159100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71700</v>
+        <v>-69300</v>
       </c>
       <c r="E32" s="3">
         <v>1100</v>
       </c>
       <c r="F32" s="3">
-        <v>15500</v>
+        <v>15000</v>
       </c>
       <c r="G32" s="3">
-        <v>42900</v>
+        <v>41400</v>
       </c>
       <c r="H32" s="3">
-        <v>36600</v>
+        <v>35300</v>
       </c>
       <c r="I32" s="3">
-        <v>12900</v>
+        <v>12500</v>
       </c>
       <c r="J32" s="3">
-        <v>151300</v>
+        <v>146200</v>
       </c>
       <c r="K32" s="3">
         <v>111000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>402500</v>
+        <v>389000</v>
       </c>
       <c r="E33" s="3">
-        <v>145900</v>
+        <v>141000</v>
       </c>
       <c r="F33" s="3">
-        <v>212200</v>
+        <v>205100</v>
       </c>
       <c r="G33" s="3">
-        <v>107100</v>
+        <v>103500</v>
       </c>
       <c r="H33" s="3">
-        <v>-89000</v>
+        <v>-86000</v>
       </c>
       <c r="I33" s="3">
-        <v>48900</v>
+        <v>47300</v>
       </c>
       <c r="J33" s="3">
-        <v>222900</v>
+        <v>215500</v>
       </c>
       <c r="K33" s="3">
         <v>196900</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>402500</v>
+        <v>389000</v>
       </c>
       <c r="E35" s="3">
-        <v>145900</v>
+        <v>141000</v>
       </c>
       <c r="F35" s="3">
-        <v>212200</v>
+        <v>205100</v>
       </c>
       <c r="G35" s="3">
-        <v>107100</v>
+        <v>103500</v>
       </c>
       <c r="H35" s="3">
-        <v>-89000</v>
+        <v>-86000</v>
       </c>
       <c r="I35" s="3">
-        <v>48900</v>
+        <v>47300</v>
       </c>
       <c r="J35" s="3">
-        <v>222900</v>
+        <v>215500</v>
       </c>
       <c r="K35" s="3">
         <v>196900</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1608900</v>
+        <v>1555100</v>
       </c>
       <c r="E41" s="3">
-        <v>1469100</v>
+        <v>1419900</v>
       </c>
       <c r="F41" s="3">
-        <v>807000</v>
+        <v>780000</v>
       </c>
       <c r="G41" s="3">
-        <v>1400800</v>
+        <v>1353900</v>
       </c>
       <c r="H41" s="3">
-        <v>944200</v>
+        <v>912600</v>
       </c>
       <c r="I41" s="3">
-        <v>2034500</v>
+        <v>1966400</v>
       </c>
       <c r="J41" s="3">
-        <v>2059200</v>
+        <v>1990300</v>
       </c>
       <c r="K41" s="3">
         <v>1565700</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>375700</v>
+        <v>363100</v>
       </c>
       <c r="E43" s="3">
-        <v>517200</v>
+        <v>499900</v>
       </c>
       <c r="F43" s="3">
-        <v>252100</v>
+        <v>243700</v>
       </c>
       <c r="G43" s="3">
-        <v>387700</v>
+        <v>374700</v>
       </c>
       <c r="H43" s="3">
-        <v>248100</v>
+        <v>239800</v>
       </c>
       <c r="I43" s="3">
-        <v>861600</v>
+        <v>832800</v>
       </c>
       <c r="J43" s="3">
-        <v>783300</v>
+        <v>757100</v>
       </c>
       <c r="K43" s="3">
         <v>683200</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1207200</v>
+        <v>1166800</v>
       </c>
       <c r="E44" s="3">
-        <v>1594100</v>
+        <v>1540800</v>
       </c>
       <c r="F44" s="3">
-        <v>1091400</v>
+        <v>1054900</v>
       </c>
       <c r="G44" s="3">
-        <v>1781200</v>
+        <v>1721600</v>
       </c>
       <c r="H44" s="3">
-        <v>857200</v>
+        <v>828500</v>
       </c>
       <c r="I44" s="3">
-        <v>1655800</v>
+        <v>1600400</v>
       </c>
       <c r="J44" s="3">
-        <v>1544800</v>
+        <v>1493100</v>
       </c>
       <c r="K44" s="3">
         <v>1194200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>66500</v>
+        <v>64300</v>
       </c>
       <c r="E45" s="3">
-        <v>107700</v>
+        <v>104100</v>
       </c>
       <c r="F45" s="3">
-        <v>5394300</v>
+        <v>5213900</v>
       </c>
       <c r="G45" s="3">
-        <v>4991100</v>
+        <v>4824100</v>
       </c>
       <c r="H45" s="3">
-        <v>3796500</v>
+        <v>3669500</v>
       </c>
       <c r="I45" s="3">
-        <v>58200</v>
+        <v>56200</v>
       </c>
       <c r="J45" s="3">
-        <v>49300</v>
+        <v>47700</v>
       </c>
       <c r="K45" s="3">
         <v>34700</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3258300</v>
+        <v>3149300</v>
       </c>
       <c r="E46" s="3">
-        <v>3688100</v>
+        <v>3564700</v>
       </c>
       <c r="F46" s="3">
-        <v>7544800</v>
+        <v>7292400</v>
       </c>
       <c r="G46" s="3">
-        <v>6828700</v>
+        <v>6600200</v>
       </c>
       <c r="H46" s="3">
-        <v>5845900</v>
+        <v>5650300</v>
       </c>
       <c r="I46" s="3">
-        <v>4610100</v>
+        <v>4455900</v>
       </c>
       <c r="J46" s="3">
-        <v>4436700</v>
+        <v>4288200</v>
       </c>
       <c r="K46" s="3">
         <v>3482400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>956700</v>
+        <v>924700</v>
       </c>
       <c r="E47" s="3">
-        <v>666400</v>
+        <v>644100</v>
       </c>
       <c r="F47" s="3">
-        <v>575200</v>
+        <v>555900</v>
       </c>
       <c r="G47" s="3">
-        <v>489500</v>
+        <v>473100</v>
       </c>
       <c r="H47" s="3">
-        <v>291300</v>
+        <v>281500</v>
       </c>
       <c r="I47" s="3">
-        <v>716800</v>
+        <v>692800</v>
       </c>
       <c r="J47" s="3">
-        <v>1310300</v>
+        <v>1266400</v>
       </c>
       <c r="K47" s="3">
         <v>497100</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4345400</v>
+        <v>4200000</v>
       </c>
       <c r="E48" s="3">
-        <v>5049900</v>
+        <v>4880900</v>
       </c>
       <c r="F48" s="3">
-        <v>2604600</v>
+        <v>2517500</v>
       </c>
       <c r="G48" s="3">
-        <v>4146700</v>
+        <v>4008000</v>
       </c>
       <c r="H48" s="3">
-        <v>1700200</v>
+        <v>1643300</v>
       </c>
       <c r="I48" s="3">
-        <v>1921200</v>
+        <v>1857000</v>
       </c>
       <c r="J48" s="3">
-        <v>1800600</v>
+        <v>1740400</v>
       </c>
       <c r="K48" s="3">
         <v>1694200</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1138500</v>
+        <v>1100400</v>
       </c>
       <c r="E49" s="3">
-        <v>1151800</v>
+        <v>1113300</v>
       </c>
       <c r="F49" s="3">
-        <v>1014600</v>
+        <v>980600</v>
       </c>
       <c r="G49" s="3">
-        <v>1057600</v>
+        <v>1022200</v>
       </c>
       <c r="H49" s="3">
-        <v>352400</v>
+        <v>340600</v>
       </c>
       <c r="I49" s="3">
-        <v>1208500</v>
+        <v>1168100</v>
       </c>
       <c r="J49" s="3">
-        <v>1190900</v>
+        <v>1151100</v>
       </c>
       <c r="K49" s="3">
         <v>1066800</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>144600</v>
+        <v>139800</v>
       </c>
       <c r="E52" s="3">
-        <v>244200</v>
+        <v>236000</v>
       </c>
       <c r="F52" s="3">
-        <v>274600</v>
+        <v>265500</v>
       </c>
       <c r="G52" s="3">
-        <v>201700</v>
+        <v>194900</v>
       </c>
       <c r="H52" s="3">
-        <v>161800</v>
+        <v>156400</v>
       </c>
       <c r="I52" s="3">
-        <v>268700</v>
+        <v>259700</v>
       </c>
       <c r="J52" s="3">
-        <v>287600</v>
+        <v>278000</v>
       </c>
       <c r="K52" s="3">
         <v>372000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9843600</v>
+        <v>9514200</v>
       </c>
       <c r="E54" s="3">
-        <v>10800300</v>
+        <v>10439000</v>
       </c>
       <c r="F54" s="3">
-        <v>11449200</v>
+        <v>11066100</v>
       </c>
       <c r="G54" s="3">
-        <v>10317700</v>
+        <v>9972500</v>
       </c>
       <c r="H54" s="3">
-        <v>8351600</v>
+        <v>8072100</v>
       </c>
       <c r="I54" s="3">
-        <v>8725400</v>
+        <v>8433500</v>
       </c>
       <c r="J54" s="3">
-        <v>8375200</v>
+        <v>8095000</v>
       </c>
       <c r="K54" s="3">
         <v>7112500</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2110000</v>
+        <v>2039400</v>
       </c>
       <c r="E57" s="3">
-        <v>2749600</v>
+        <v>2657600</v>
       </c>
       <c r="F57" s="3">
-        <v>1707700</v>
+        <v>1650600</v>
       </c>
       <c r="G57" s="3">
-        <v>1501200</v>
+        <v>1451000</v>
       </c>
       <c r="H57" s="3">
-        <v>1335800</v>
+        <v>1291100</v>
       </c>
       <c r="I57" s="3">
-        <v>2864300</v>
+        <v>2768500</v>
       </c>
       <c r="J57" s="3">
-        <v>2487200</v>
+        <v>2404000</v>
       </c>
       <c r="K57" s="3">
         <v>1599500</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>601400</v>
+        <v>581300</v>
       </c>
       <c r="E58" s="3">
-        <v>817300</v>
+        <v>790000</v>
       </c>
       <c r="F58" s="3">
-        <v>831900</v>
+        <v>804100</v>
       </c>
       <c r="G58" s="3">
-        <v>534900</v>
+        <v>517000</v>
       </c>
       <c r="H58" s="3">
-        <v>546200</v>
+        <v>527900</v>
       </c>
       <c r="I58" s="3">
-        <v>1408900</v>
+        <v>1361800</v>
       </c>
       <c r="J58" s="3">
-        <v>2502100</v>
+        <v>2418400</v>
       </c>
       <c r="K58" s="3">
         <v>967700</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>702400</v>
+        <v>678900</v>
       </c>
       <c r="E59" s="3">
-        <v>706100</v>
+        <v>682500</v>
       </c>
       <c r="F59" s="3">
-        <v>4798500</v>
+        <v>4637900</v>
       </c>
       <c r="G59" s="3">
-        <v>4426000</v>
+        <v>4277900</v>
       </c>
       <c r="H59" s="3">
-        <v>3212500</v>
+        <v>3105000</v>
       </c>
       <c r="I59" s="3">
-        <v>1099100</v>
+        <v>1062400</v>
       </c>
       <c r="J59" s="3">
-        <v>1224600</v>
+        <v>1183600</v>
       </c>
       <c r="K59" s="3">
         <v>946600</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3413800</v>
+        <v>3299600</v>
       </c>
       <c r="E60" s="3">
-        <v>4273000</v>
+        <v>4130100</v>
       </c>
       <c r="F60" s="3">
-        <v>6942300</v>
+        <v>6710000</v>
       </c>
       <c r="G60" s="3">
-        <v>6168100</v>
+        <v>5961700</v>
       </c>
       <c r="H60" s="3">
-        <v>5094400</v>
+        <v>4923900</v>
       </c>
       <c r="I60" s="3">
-        <v>4667900</v>
+        <v>4511700</v>
       </c>
       <c r="J60" s="3">
-        <v>4429300</v>
+        <v>4281100</v>
       </c>
       <c r="K60" s="3">
         <v>3183600</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2635500</v>
+        <v>2547300</v>
       </c>
       <c r="E61" s="3">
-        <v>3405100</v>
+        <v>3291200</v>
       </c>
       <c r="F61" s="3">
-        <v>1601700</v>
+        <v>1548100</v>
       </c>
       <c r="G61" s="3">
-        <v>1480400</v>
+        <v>1430800</v>
       </c>
       <c r="H61" s="3">
-        <v>537800</v>
+        <v>519900</v>
       </c>
       <c r="I61" s="3">
-        <v>769100</v>
+        <v>743400</v>
       </c>
       <c r="J61" s="3">
-        <v>578800</v>
+        <v>559500</v>
       </c>
       <c r="K61" s="3">
         <v>808700</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>690000</v>
+        <v>667000</v>
       </c>
       <c r="E62" s="3">
-        <v>619900</v>
+        <v>599100</v>
       </c>
       <c r="F62" s="3">
-        <v>474700</v>
+        <v>458800</v>
       </c>
       <c r="G62" s="3">
-        <v>424100</v>
+        <v>409900</v>
       </c>
       <c r="H62" s="3">
-        <v>392700</v>
+        <v>379500</v>
       </c>
       <c r="I62" s="3">
-        <v>822300</v>
+        <v>794800</v>
       </c>
       <c r="J62" s="3">
-        <v>974700</v>
+        <v>942100</v>
       </c>
       <c r="K62" s="3">
         <v>956100</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7314100</v>
+        <v>7069400</v>
       </c>
       <c r="E66" s="3">
-        <v>8779700</v>
+        <v>8485900</v>
       </c>
       <c r="F66" s="3">
-        <v>9559000</v>
+        <v>9239100</v>
       </c>
       <c r="G66" s="3">
-        <v>8584500</v>
+        <v>8297300</v>
       </c>
       <c r="H66" s="3">
-        <v>6530400</v>
+        <v>6311900</v>
       </c>
       <c r="I66" s="3">
-        <v>6813000</v>
+        <v>6585100</v>
       </c>
       <c r="J66" s="3">
-        <v>6440100</v>
+        <v>6224600</v>
       </c>
       <c r="K66" s="3">
         <v>5337900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1059300</v>
+        <v>1023800</v>
       </c>
       <c r="E72" s="3">
-        <v>749300</v>
+        <v>724300</v>
       </c>
       <c r="F72" s="3">
-        <v>659700</v>
+        <v>637700</v>
       </c>
       <c r="G72" s="3">
-        <v>478600</v>
+        <v>462500</v>
       </c>
       <c r="H72" s="3">
-        <v>580000</v>
+        <v>560600</v>
       </c>
       <c r="I72" s="3">
-        <v>665300</v>
+        <v>643000</v>
       </c>
       <c r="J72" s="3">
-        <v>1360100</v>
+        <v>1314600</v>
       </c>
       <c r="K72" s="3">
         <v>1024600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2529500</v>
+        <v>2444800</v>
       </c>
       <c r="E76" s="3">
-        <v>2020600</v>
+        <v>1953000</v>
       </c>
       <c r="F76" s="3">
-        <v>1890200</v>
+        <v>1827000</v>
       </c>
       <c r="G76" s="3">
-        <v>1733200</v>
+        <v>1675200</v>
       </c>
       <c r="H76" s="3">
-        <v>1821100</v>
+        <v>1760200</v>
       </c>
       <c r="I76" s="3">
-        <v>1912400</v>
+        <v>1848400</v>
       </c>
       <c r="J76" s="3">
-        <v>1935100</v>
+        <v>1870400</v>
       </c>
       <c r="K76" s="3">
         <v>1774600</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>402500</v>
+        <v>389000</v>
       </c>
       <c r="E81" s="3">
-        <v>145900</v>
+        <v>141000</v>
       </c>
       <c r="F81" s="3">
-        <v>212200</v>
+        <v>205100</v>
       </c>
       <c r="G81" s="3">
-        <v>107100</v>
+        <v>103500</v>
       </c>
       <c r="H81" s="3">
-        <v>-89000</v>
+        <v>-86000</v>
       </c>
       <c r="I81" s="3">
-        <v>48900</v>
+        <v>47300</v>
       </c>
       <c r="J81" s="3">
-        <v>222900</v>
+        <v>215500</v>
       </c>
       <c r="K81" s="3">
         <v>196900</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>473600</v>
+        <v>457700</v>
       </c>
       <c r="E83" s="3">
-        <v>287900</v>
+        <v>278300</v>
       </c>
       <c r="F83" s="3">
-        <v>244200</v>
+        <v>236000</v>
       </c>
       <c r="G83" s="3">
-        <v>153900</v>
+        <v>148700</v>
       </c>
       <c r="H83" s="3">
-        <v>201100</v>
+        <v>194400</v>
       </c>
       <c r="I83" s="3">
-        <v>203500</v>
+        <v>196700</v>
       </c>
       <c r="J83" s="3">
-        <v>171600</v>
+        <v>165800</v>
       </c>
       <c r="K83" s="3">
         <v>161900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>875800</v>
+        <v>846500</v>
       </c>
       <c r="E89" s="3">
-        <v>209600</v>
+        <v>202600</v>
       </c>
       <c r="F89" s="3">
-        <v>788100</v>
+        <v>761700</v>
       </c>
       <c r="G89" s="3">
-        <v>350000</v>
+        <v>338300</v>
       </c>
       <c r="H89" s="3">
-        <v>-240800</v>
+        <v>-232800</v>
       </c>
       <c r="I89" s="3">
-        <v>855500</v>
+        <v>826900</v>
       </c>
       <c r="J89" s="3">
-        <v>921700</v>
+        <v>890800</v>
       </c>
       <c r="K89" s="3">
         <v>915400</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-422800</v>
+        <v>-408600</v>
       </c>
       <c r="E91" s="3">
-        <v>-454700</v>
+        <v>-439500</v>
       </c>
       <c r="F91" s="3">
-        <v>-304600</v>
+        <v>-294400</v>
       </c>
       <c r="G91" s="3">
-        <v>-258900</v>
+        <v>-250300</v>
       </c>
       <c r="H91" s="3">
-        <v>-233600</v>
+        <v>-225800</v>
       </c>
       <c r="I91" s="3">
-        <v>-292000</v>
+        <v>-282200</v>
       </c>
       <c r="J91" s="3">
-        <v>-254700</v>
+        <v>-246200</v>
       </c>
       <c r="K91" s="3">
         <v>-309900</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-792500</v>
+        <v>-766000</v>
       </c>
       <c r="E94" s="3">
-        <v>-603200</v>
+        <v>-583000</v>
       </c>
       <c r="F94" s="3">
-        <v>-350400</v>
+        <v>-338700</v>
       </c>
       <c r="G94" s="3">
-        <v>-294000</v>
+        <v>-284200</v>
       </c>
       <c r="H94" s="3">
-        <v>-373100</v>
+        <v>-360600</v>
       </c>
       <c r="I94" s="3">
-        <v>-342100</v>
+        <v>-330600</v>
       </c>
       <c r="J94" s="3">
-        <v>-300000</v>
+        <v>-289900</v>
       </c>
       <c r="K94" s="3">
         <v>-367400</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-62600</v>
+        <v>-60500</v>
       </c>
       <c r="E96" s="3">
-        <v>-49500</v>
+        <v>-47800</v>
       </c>
       <c r="F96" s="3">
-        <v>-64800</v>
+        <v>-62700</v>
       </c>
       <c r="G96" s="3">
-        <v>-18700</v>
+        <v>-18000</v>
       </c>
       <c r="H96" s="3">
         <v>-700</v>
       </c>
       <c r="I96" s="3">
-        <v>-80200</v>
+        <v>-77500</v>
       </c>
       <c r="J96" s="3">
-        <v>-47700</v>
+        <v>-46100</v>
       </c>
       <c r="K96" s="3">
         <v>-84700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-51900</v>
+        <v>-50200</v>
       </c>
       <c r="E100" s="3">
-        <v>349800</v>
+        <v>338100</v>
       </c>
       <c r="F100" s="3">
-        <v>-303100</v>
+        <v>-293000</v>
       </c>
       <c r="G100" s="3">
-        <v>-386800</v>
+        <v>-373800</v>
       </c>
       <c r="H100" s="3">
-        <v>272400</v>
+        <v>263300</v>
       </c>
       <c r="I100" s="3">
-        <v>-555200</v>
+        <v>-536600</v>
       </c>
       <c r="J100" s="3">
-        <v>-117500</v>
+        <v>-113500</v>
       </c>
       <c r="K100" s="3">
         <v>-308400</v>
@@ -3711,10 +3711,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>108400</v>
+        <v>104800</v>
       </c>
       <c r="E101" s="3">
-        <v>20500</v>
+        <v>19800</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>8</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="I101" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="J101" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>139800</v>
+        <v>135100</v>
       </c>
       <c r="E102" s="3">
-        <v>-23300</v>
+        <v>-22500</v>
       </c>
       <c r="F102" s="3">
-        <v>134600</v>
+        <v>130100</v>
       </c>
       <c r="G102" s="3">
-        <v>-330800</v>
+        <v>-319700</v>
       </c>
       <c r="H102" s="3">
-        <v>-345900</v>
+        <v>-334400</v>
       </c>
       <c r="I102" s="3">
-        <v>-24700</v>
+        <v>-23900</v>
       </c>
       <c r="J102" s="3">
-        <v>513800</v>
+        <v>496600</v>
       </c>
       <c r="K102" s="3">
         <v>239700</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9149700</v>
+        <v>10107400</v>
       </c>
       <c r="E8" s="3">
-        <v>5148200</v>
+        <v>10099900</v>
       </c>
       <c r="F8" s="3">
-        <v>8816700</v>
+        <v>5682800</v>
       </c>
       <c r="G8" s="3">
-        <v>7968100</v>
+        <v>9732400</v>
       </c>
       <c r="H8" s="3">
-        <v>7400400</v>
+        <v>8795600</v>
       </c>
       <c r="I8" s="3">
-        <v>6640600</v>
+        <v>8168900</v>
       </c>
       <c r="J8" s="3">
+        <v>7330200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11676500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10826200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11913300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11559200</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6695200</v>
+        <v>7555500</v>
       </c>
       <c r="E9" s="3">
-        <v>3789100</v>
+        <v>7390500</v>
       </c>
       <c r="F9" s="3">
-        <v>6744300</v>
+        <v>4182600</v>
       </c>
       <c r="G9" s="3">
-        <v>6006500</v>
+        <v>7444700</v>
       </c>
       <c r="H9" s="3">
-        <v>5700700</v>
+        <v>6630300</v>
       </c>
       <c r="I9" s="3">
-        <v>5020500</v>
+        <v>6292700</v>
       </c>
       <c r="J9" s="3">
+        <v>5541900</v>
+      </c>
+      <c r="K9" s="3">
         <v>8677900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7999800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>8689300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8418100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2454500</v>
+        <v>2551900</v>
       </c>
       <c r="E10" s="3">
-        <v>1359100</v>
+        <v>2709400</v>
       </c>
       <c r="F10" s="3">
-        <v>2072400</v>
+        <v>1500200</v>
       </c>
       <c r="G10" s="3">
-        <v>1961600</v>
+        <v>2287700</v>
       </c>
       <c r="H10" s="3">
-        <v>1699700</v>
+        <v>2165300</v>
       </c>
       <c r="I10" s="3">
-        <v>1620100</v>
+        <v>1876200</v>
       </c>
       <c r="J10" s="3">
+        <v>1788300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2998600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2826400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3224000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3141100</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>105000</v>
+        <v>141100</v>
       </c>
       <c r="E14" s="3">
-        <v>47700</v>
+        <v>115900</v>
       </c>
       <c r="F14" s="3">
-        <v>26200</v>
+        <v>52600</v>
       </c>
       <c r="G14" s="3">
-        <v>19100</v>
+        <v>29000</v>
       </c>
       <c r="H14" s="3">
-        <v>17700</v>
+        <v>21100</v>
       </c>
       <c r="I14" s="3">
-        <v>20700</v>
+        <v>19500</v>
       </c>
       <c r="J14" s="3">
+        <v>22900</v>
+      </c>
+      <c r="K14" s="3">
         <v>65300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>107200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>42800</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>322100</v>
+        <v>365200</v>
       </c>
       <c r="E15" s="3">
-        <v>183500</v>
+        <v>355500</v>
       </c>
       <c r="F15" s="3">
-        <v>214600</v>
+        <v>202600</v>
       </c>
       <c r="G15" s="3">
-        <v>139100</v>
+        <v>236900</v>
       </c>
       <c r="H15" s="3">
-        <v>126200</v>
+        <v>153500</v>
       </c>
       <c r="I15" s="3">
-        <v>116000</v>
+        <v>139300</v>
       </c>
       <c r="J15" s="3">
+        <v>128100</v>
+      </c>
+      <c r="K15" s="3">
         <v>146200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>147300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>175400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>168800</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8680400</v>
+        <v>9774400</v>
       </c>
       <c r="E17" s="3">
-        <v>5058400</v>
+        <v>9581800</v>
       </c>
       <c r="F17" s="3">
-        <v>8347200</v>
+        <v>5583700</v>
       </c>
       <c r="G17" s="3">
-        <v>7703500</v>
+        <v>9214100</v>
       </c>
       <c r="H17" s="3">
-        <v>7247600</v>
+        <v>8503500</v>
       </c>
       <c r="I17" s="3">
-        <v>6352800</v>
+        <v>8000200</v>
       </c>
       <c r="J17" s="3">
+        <v>7012600</v>
+      </c>
+      <c r="K17" s="3">
         <v>10993400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10274400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11243300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11037600</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>469300</v>
+        <v>333000</v>
       </c>
       <c r="E18" s="3">
-        <v>89800</v>
+        <v>518100</v>
       </c>
       <c r="F18" s="3">
-        <v>469500</v>
+        <v>99100</v>
       </c>
       <c r="G18" s="3">
-        <v>264600</v>
+        <v>518300</v>
       </c>
       <c r="H18" s="3">
-        <v>152800</v>
+        <v>292000</v>
       </c>
       <c r="I18" s="3">
-        <v>287800</v>
+        <v>168700</v>
       </c>
       <c r="J18" s="3">
+        <v>317700</v>
+      </c>
+      <c r="K18" s="3">
         <v>683000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>551800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>670000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>521600</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>69300</v>
+        <v>-16900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1100</v>
+        <v>76500</v>
       </c>
       <c r="F20" s="3">
-        <v>-15000</v>
+        <v>-1200</v>
       </c>
       <c r="G20" s="3">
-        <v>-41400</v>
+        <v>-16600</v>
       </c>
       <c r="H20" s="3">
-        <v>-35300</v>
+        <v>-45700</v>
       </c>
       <c r="I20" s="3">
-        <v>-12500</v>
+        <v>-39000</v>
       </c>
       <c r="J20" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-146200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-111000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>350600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-153300</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>995700</v>
+        <v>738400</v>
       </c>
       <c r="E21" s="3">
-        <v>366700</v>
+        <v>1106100</v>
       </c>
       <c r="F21" s="3">
-        <v>690200</v>
+        <v>409000</v>
       </c>
       <c r="G21" s="3">
-        <v>371700</v>
+        <v>765500</v>
       </c>
       <c r="H21" s="3">
-        <v>311600</v>
+        <v>412500</v>
       </c>
       <c r="I21" s="3">
-        <v>471700</v>
+        <v>346900</v>
       </c>
       <c r="J21" s="3">
+        <v>523700</v>
+      </c>
+      <c r="K21" s="3">
         <v>702400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>603100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1217500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>541000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>199200</v>
+        <v>243400</v>
       </c>
       <c r="E22" s="3">
-        <v>154400</v>
+        <v>219900</v>
       </c>
       <c r="F22" s="3">
-        <v>174400</v>
+        <v>170500</v>
       </c>
       <c r="G22" s="3">
-        <v>88900</v>
+        <v>192500</v>
       </c>
       <c r="H22" s="3">
-        <v>125900</v>
+        <v>98100</v>
       </c>
       <c r="I22" s="3">
-        <v>124600</v>
+        <v>138900</v>
       </c>
       <c r="J22" s="3">
+        <v>137500</v>
+      </c>
+      <c r="K22" s="3">
         <v>122600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>112300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>629100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>168700</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>339400</v>
+        <v>72700</v>
       </c>
       <c r="E23" s="3">
-        <v>-65700</v>
+        <v>374600</v>
       </c>
       <c r="F23" s="3">
-        <v>280100</v>
+        <v>-72500</v>
       </c>
       <c r="G23" s="3">
-        <v>134200</v>
+        <v>309200</v>
       </c>
       <c r="H23" s="3">
-        <v>-8400</v>
+        <v>148200</v>
       </c>
       <c r="I23" s="3">
-        <v>150700</v>
+        <v>-9300</v>
       </c>
       <c r="J23" s="3">
+        <v>166300</v>
+      </c>
+      <c r="K23" s="3">
         <v>414200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>328600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>391400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>199600</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>118200</v>
+        <v>-117100</v>
       </c>
       <c r="E24" s="3">
-        <v>-17000</v>
+        <v>130500</v>
       </c>
       <c r="F24" s="3">
-        <v>73700</v>
+        <v>-18700</v>
       </c>
       <c r="G24" s="3">
-        <v>53000</v>
+        <v>81400</v>
       </c>
       <c r="H24" s="3">
-        <v>4300</v>
+        <v>58500</v>
       </c>
       <c r="I24" s="3">
-        <v>40900</v>
+        <v>4700</v>
       </c>
       <c r="J24" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K24" s="3">
         <v>131400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>121400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>21100</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>221200</v>
+        <v>189800</v>
       </c>
       <c r="E26" s="3">
-        <v>-48700</v>
+        <v>244200</v>
       </c>
       <c r="F26" s="3">
-        <v>206400</v>
+        <v>-53800</v>
       </c>
       <c r="G26" s="3">
-        <v>81200</v>
+        <v>227800</v>
       </c>
       <c r="H26" s="3">
-        <v>-12700</v>
+        <v>89700</v>
       </c>
       <c r="I26" s="3">
-        <v>109800</v>
+        <v>-14000</v>
       </c>
       <c r="J26" s="3">
+        <v>121200</v>
+      </c>
+      <c r="K26" s="3">
         <v>282800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>261200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>269900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>178500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>194900</v>
+        <v>158600</v>
       </c>
       <c r="E27" s="3">
-        <v>-56900</v>
+        <v>215200</v>
       </c>
       <c r="F27" s="3">
-        <v>182300</v>
+        <v>-62900</v>
       </c>
       <c r="G27" s="3">
-        <v>40000</v>
+        <v>201200</v>
       </c>
       <c r="H27" s="3">
-        <v>93400</v>
+        <v>44100</v>
       </c>
       <c r="I27" s="3">
-        <v>206400</v>
+        <v>103100</v>
       </c>
       <c r="J27" s="3">
+        <v>227800</v>
+      </c>
+      <c r="K27" s="3">
         <v>215500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>196900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>87900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>64400</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,32 +1463,35 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>194100</v>
+        <v>-600</v>
       </c>
       <c r="E29" s="3">
-        <v>198000</v>
+        <v>214200</v>
       </c>
       <c r="F29" s="3">
-        <v>22900</v>
+        <v>218500</v>
       </c>
       <c r="G29" s="3">
-        <v>63600</v>
+        <v>25200</v>
       </c>
       <c r="H29" s="3">
-        <v>-179400</v>
+        <v>70200</v>
       </c>
       <c r="I29" s="3">
-        <v>-159100</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+        <v>-198000</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-175600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-69300</v>
+        <v>16900</v>
       </c>
       <c r="E32" s="3">
-        <v>1100</v>
+        <v>-76500</v>
       </c>
       <c r="F32" s="3">
-        <v>15000</v>
+        <v>1200</v>
       </c>
       <c r="G32" s="3">
-        <v>41400</v>
+        <v>16600</v>
       </c>
       <c r="H32" s="3">
-        <v>35300</v>
+        <v>45700</v>
       </c>
       <c r="I32" s="3">
-        <v>12500</v>
+        <v>39000</v>
       </c>
       <c r="J32" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K32" s="3">
         <v>146200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>111000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-350600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>153300</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>389000</v>
+        <v>158000</v>
       </c>
       <c r="E33" s="3">
-        <v>141000</v>
+        <v>429400</v>
       </c>
       <c r="F33" s="3">
-        <v>205100</v>
+        <v>155700</v>
       </c>
       <c r="G33" s="3">
-        <v>103500</v>
+        <v>226400</v>
       </c>
       <c r="H33" s="3">
-        <v>-86000</v>
+        <v>114300</v>
       </c>
       <c r="I33" s="3">
-        <v>47300</v>
+        <v>-95000</v>
       </c>
       <c r="J33" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K33" s="3">
         <v>215500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>196900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>87900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>64400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>389000</v>
+        <v>158000</v>
       </c>
       <c r="E35" s="3">
-        <v>141000</v>
+        <v>429400</v>
       </c>
       <c r="F35" s="3">
-        <v>205100</v>
+        <v>155700</v>
       </c>
       <c r="G35" s="3">
-        <v>103500</v>
+        <v>226400</v>
       </c>
       <c r="H35" s="3">
-        <v>-86000</v>
+        <v>114300</v>
       </c>
       <c r="I35" s="3">
-        <v>47300</v>
+        <v>-95000</v>
       </c>
       <c r="J35" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K35" s="3">
         <v>215500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>196900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>87900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>64400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1555100</v>
+        <v>1630500</v>
       </c>
       <c r="E41" s="3">
-        <v>1419900</v>
+        <v>1716600</v>
       </c>
       <c r="F41" s="3">
-        <v>780000</v>
+        <v>1567400</v>
       </c>
       <c r="G41" s="3">
-        <v>1353900</v>
+        <v>861000</v>
       </c>
       <c r="H41" s="3">
-        <v>912600</v>
+        <v>1494500</v>
       </c>
       <c r="I41" s="3">
-        <v>1966400</v>
+        <v>1007400</v>
       </c>
       <c r="J41" s="3">
+        <v>2170600</v>
+      </c>
+      <c r="K41" s="3">
         <v>1990300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1565700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3309600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129600</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1795,269 +1884,293 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>4600</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>1103400</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>363100</v>
+        <v>568300</v>
       </c>
       <c r="E43" s="3">
-        <v>499900</v>
+        <v>400800</v>
       </c>
       <c r="F43" s="3">
-        <v>243700</v>
+        <v>551800</v>
       </c>
       <c r="G43" s="3">
-        <v>374700</v>
+        <v>269000</v>
       </c>
       <c r="H43" s="3">
-        <v>239800</v>
+        <v>413600</v>
       </c>
       <c r="I43" s="3">
-        <v>832800</v>
+        <v>264700</v>
       </c>
       <c r="J43" s="3">
+        <v>919300</v>
+      </c>
+      <c r="K43" s="3">
         <v>757100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>683200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>894800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1675400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1166800</v>
+        <v>1035900</v>
       </c>
       <c r="E44" s="3">
-        <v>1540800</v>
+        <v>1288000</v>
       </c>
       <c r="F44" s="3">
-        <v>1054900</v>
+        <v>1700800</v>
       </c>
       <c r="G44" s="3">
-        <v>1721600</v>
+        <v>1164400</v>
       </c>
       <c r="H44" s="3">
-        <v>828500</v>
+        <v>1900400</v>
       </c>
       <c r="I44" s="3">
-        <v>1600400</v>
+        <v>914600</v>
       </c>
       <c r="J44" s="3">
+        <v>1766600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1493100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1194200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2690000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1377500</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64300</v>
+        <v>287100</v>
       </c>
       <c r="E45" s="3">
-        <v>104100</v>
+        <v>70900</v>
       </c>
       <c r="F45" s="3">
-        <v>5213900</v>
+        <v>114900</v>
       </c>
       <c r="G45" s="3">
-        <v>4824100</v>
+        <v>5755300</v>
       </c>
       <c r="H45" s="3">
-        <v>3669500</v>
+        <v>5325200</v>
       </c>
       <c r="I45" s="3">
-        <v>56200</v>
+        <v>4050600</v>
       </c>
       <c r="J45" s="3">
+        <v>62100</v>
+      </c>
+      <c r="K45" s="3">
         <v>47700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>34700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>40300</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3149300</v>
+        <v>3521900</v>
       </c>
       <c r="E46" s="3">
-        <v>3564700</v>
+        <v>3476300</v>
       </c>
       <c r="F46" s="3">
-        <v>7292400</v>
+        <v>3934900</v>
       </c>
       <c r="G46" s="3">
-        <v>6600200</v>
+        <v>8049700</v>
       </c>
       <c r="H46" s="3">
-        <v>5650300</v>
+        <v>7285700</v>
       </c>
       <c r="I46" s="3">
-        <v>4455900</v>
+        <v>6237100</v>
       </c>
       <c r="J46" s="3">
+        <v>4918600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4288200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3482400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3895200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4285900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>924700</v>
+        <v>934100</v>
       </c>
       <c r="E47" s="3">
-        <v>644100</v>
+        <v>1020800</v>
       </c>
       <c r="F47" s="3">
-        <v>555900</v>
+        <v>711000</v>
       </c>
       <c r="G47" s="3">
-        <v>473100</v>
+        <v>613600</v>
       </c>
       <c r="H47" s="3">
-        <v>281500</v>
+        <v>522200</v>
       </c>
       <c r="I47" s="3">
-        <v>692800</v>
+        <v>310800</v>
       </c>
       <c r="J47" s="3">
+        <v>764800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1266400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>497100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>739100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>538500</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4200000</v>
+        <v>3862000</v>
       </c>
       <c r="E48" s="3">
-        <v>4880900</v>
+        <v>4636200</v>
       </c>
       <c r="F48" s="3">
-        <v>2517500</v>
+        <v>5387800</v>
       </c>
       <c r="G48" s="3">
-        <v>4008000</v>
+        <v>2778900</v>
       </c>
       <c r="H48" s="3">
-        <v>1643300</v>
+        <v>4424200</v>
       </c>
       <c r="I48" s="3">
-        <v>1857000</v>
+        <v>1813900</v>
       </c>
       <c r="J48" s="3">
+        <v>2049800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1740400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1694200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1776800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1825400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1100400</v>
+        <v>1133700</v>
       </c>
       <c r="E49" s="3">
-        <v>1113300</v>
+        <v>1214700</v>
       </c>
       <c r="F49" s="3">
-        <v>980600</v>
+        <v>1228900</v>
       </c>
       <c r="G49" s="3">
-        <v>1022200</v>
+        <v>1082500</v>
       </c>
       <c r="H49" s="3">
-        <v>340600</v>
+        <v>1128400</v>
       </c>
       <c r="I49" s="3">
-        <v>1168100</v>
+        <v>376000</v>
       </c>
       <c r="J49" s="3">
+        <v>1289400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1151100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1066800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3485700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1225400</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>139800</v>
+        <v>291600</v>
       </c>
       <c r="E52" s="3">
-        <v>236000</v>
+        <v>154300</v>
       </c>
       <c r="F52" s="3">
-        <v>265500</v>
+        <v>260500</v>
       </c>
       <c r="G52" s="3">
-        <v>194900</v>
+        <v>293000</v>
       </c>
       <c r="H52" s="3">
-        <v>156400</v>
+        <v>215200</v>
       </c>
       <c r="I52" s="3">
-        <v>259700</v>
+        <v>172600</v>
       </c>
       <c r="J52" s="3">
+        <v>286700</v>
+      </c>
+      <c r="K52" s="3">
         <v>278000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>372000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>612800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>502200</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9514200</v>
+        <v>9743200</v>
       </c>
       <c r="E54" s="3">
-        <v>10439000</v>
+        <v>10502300</v>
       </c>
       <c r="F54" s="3">
-        <v>11066100</v>
+        <v>11523100</v>
       </c>
       <c r="G54" s="3">
-        <v>9972500</v>
+        <v>12215400</v>
       </c>
       <c r="H54" s="3">
-        <v>8072100</v>
+        <v>11008200</v>
       </c>
       <c r="I54" s="3">
-        <v>8433500</v>
+        <v>8910500</v>
       </c>
       <c r="J54" s="3">
+        <v>9309300</v>
+      </c>
+      <c r="K54" s="3">
         <v>8095000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7112500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8134000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8377400</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2039400</v>
+        <v>1986000</v>
       </c>
       <c r="E57" s="3">
-        <v>2657600</v>
+        <v>2251200</v>
       </c>
       <c r="F57" s="3">
-        <v>1650600</v>
+        <v>2933600</v>
       </c>
       <c r="G57" s="3">
-        <v>1451000</v>
+        <v>1822000</v>
       </c>
       <c r="H57" s="3">
-        <v>1291100</v>
+        <v>1601700</v>
       </c>
       <c r="I57" s="3">
-        <v>2768500</v>
+        <v>1425100</v>
       </c>
       <c r="J57" s="3">
+        <v>3056000</v>
+      </c>
+      <c r="K57" s="3">
         <v>2404000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1599500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2933600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1564600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>581300</v>
+        <v>466000</v>
       </c>
       <c r="E58" s="3">
-        <v>790000</v>
+        <v>641600</v>
       </c>
       <c r="F58" s="3">
-        <v>804100</v>
+        <v>872000</v>
       </c>
       <c r="G58" s="3">
-        <v>517000</v>
+        <v>887600</v>
       </c>
       <c r="H58" s="3">
-        <v>527900</v>
+        <v>570700</v>
       </c>
       <c r="I58" s="3">
-        <v>1361800</v>
+        <v>582700</v>
       </c>
       <c r="J58" s="3">
+        <v>1503200</v>
+      </c>
+      <c r="K58" s="3">
         <v>2418400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>967700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2150900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1219900</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>678900</v>
+        <v>809300</v>
       </c>
       <c r="E59" s="3">
-        <v>682500</v>
+        <v>749400</v>
       </c>
       <c r="F59" s="3">
-        <v>4637900</v>
+        <v>753400</v>
       </c>
       <c r="G59" s="3">
-        <v>4277900</v>
+        <v>5119600</v>
       </c>
       <c r="H59" s="3">
-        <v>3105000</v>
+        <v>4722100</v>
       </c>
       <c r="I59" s="3">
-        <v>1062400</v>
+        <v>3427500</v>
       </c>
       <c r="J59" s="3">
+        <v>1172700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1183600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>946600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1508300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>564900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3299600</v>
+        <v>3261300</v>
       </c>
       <c r="E60" s="3">
-        <v>4130100</v>
+        <v>3642300</v>
       </c>
       <c r="F60" s="3">
-        <v>6710000</v>
+        <v>4559000</v>
       </c>
       <c r="G60" s="3">
-        <v>5961700</v>
+        <v>7406900</v>
       </c>
       <c r="H60" s="3">
-        <v>4923900</v>
+        <v>6580800</v>
       </c>
       <c r="I60" s="3">
-        <v>4511700</v>
+        <v>5435300</v>
       </c>
       <c r="J60" s="3">
+        <v>4980300</v>
+      </c>
+      <c r="K60" s="3">
         <v>4281100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3183600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3127100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3349400</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2547300</v>
+        <v>2523400</v>
       </c>
       <c r="E61" s="3">
-        <v>3291200</v>
+        <v>2811800</v>
       </c>
       <c r="F61" s="3">
-        <v>1548100</v>
+        <v>3633000</v>
       </c>
       <c r="G61" s="3">
-        <v>1430800</v>
+        <v>1708900</v>
       </c>
       <c r="H61" s="3">
-        <v>519900</v>
+        <v>1579400</v>
       </c>
       <c r="I61" s="3">
-        <v>743400</v>
+        <v>573800</v>
       </c>
       <c r="J61" s="3">
+        <v>820600</v>
+      </c>
+      <c r="K61" s="3">
         <v>559500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>808700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1466800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1548200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>667000</v>
+        <v>730700</v>
       </c>
       <c r="E62" s="3">
-        <v>599100</v>
+        <v>736200</v>
       </c>
       <c r="F62" s="3">
-        <v>458800</v>
+        <v>661300</v>
       </c>
       <c r="G62" s="3">
-        <v>409900</v>
+        <v>506400</v>
       </c>
       <c r="H62" s="3">
-        <v>379500</v>
+        <v>452400</v>
       </c>
       <c r="I62" s="3">
-        <v>794800</v>
+        <v>418900</v>
       </c>
       <c r="J62" s="3">
+        <v>877300</v>
+      </c>
+      <c r="K62" s="3">
         <v>942100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>956100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1328000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>975600</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7069400</v>
+        <v>7053600</v>
       </c>
       <c r="E66" s="3">
-        <v>8485900</v>
+        <v>7803600</v>
       </c>
       <c r="F66" s="3">
-        <v>9239100</v>
+        <v>9367200</v>
       </c>
       <c r="G66" s="3">
-        <v>8297300</v>
+        <v>10198600</v>
       </c>
       <c r="H66" s="3">
-        <v>6311900</v>
+        <v>9159000</v>
       </c>
       <c r="I66" s="3">
-        <v>6585100</v>
+        <v>6967500</v>
       </c>
       <c r="J66" s="3">
+        <v>7269000</v>
+      </c>
+      <c r="K66" s="3">
         <v>6224600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5337900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6150300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6485700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1023800</v>
+        <v>1183000</v>
       </c>
       <c r="E72" s="3">
-        <v>724300</v>
+        <v>1130100</v>
       </c>
       <c r="F72" s="3">
-        <v>637700</v>
+        <v>799500</v>
       </c>
       <c r="G72" s="3">
-        <v>462500</v>
+        <v>703900</v>
       </c>
       <c r="H72" s="3">
-        <v>560600</v>
+        <v>510600</v>
       </c>
       <c r="I72" s="3">
-        <v>643000</v>
+        <v>618800</v>
       </c>
       <c r="J72" s="3">
+        <v>709800</v>
+      </c>
+      <c r="K72" s="3">
         <v>1314600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1024600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1196900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>275700</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2444800</v>
+        <v>2689700</v>
       </c>
       <c r="E76" s="3">
-        <v>1953000</v>
+        <v>2698700</v>
       </c>
       <c r="F76" s="3">
-        <v>1827000</v>
+        <v>2155800</v>
       </c>
       <c r="G76" s="3">
-        <v>1675200</v>
+        <v>2016700</v>
       </c>
       <c r="H76" s="3">
-        <v>1760200</v>
+        <v>1849200</v>
       </c>
       <c r="I76" s="3">
-        <v>1848400</v>
+        <v>1943000</v>
       </c>
       <c r="J76" s="3">
+        <v>2040400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1870400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1774600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1983700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1891700</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>389000</v>
+        <v>158000</v>
       </c>
       <c r="E81" s="3">
-        <v>141000</v>
+        <v>429400</v>
       </c>
       <c r="F81" s="3">
-        <v>205100</v>
+        <v>155700</v>
       </c>
       <c r="G81" s="3">
-        <v>103500</v>
+        <v>226400</v>
       </c>
       <c r="H81" s="3">
-        <v>-86000</v>
+        <v>114300</v>
       </c>
       <c r="I81" s="3">
-        <v>47300</v>
+        <v>-95000</v>
       </c>
       <c r="J81" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K81" s="3">
         <v>215500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>196900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>87900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>64400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>457700</v>
+        <v>417200</v>
       </c>
       <c r="E83" s="3">
-        <v>278300</v>
+        <v>505300</v>
       </c>
       <c r="F83" s="3">
-        <v>236000</v>
+        <v>307200</v>
       </c>
       <c r="G83" s="3">
-        <v>148700</v>
+        <v>260500</v>
       </c>
       <c r="H83" s="3">
-        <v>194400</v>
+        <v>164200</v>
       </c>
       <c r="I83" s="3">
-        <v>196700</v>
+        <v>214600</v>
       </c>
       <c r="J83" s="3">
+        <v>217200</v>
+      </c>
+      <c r="K83" s="3">
         <v>165800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>161900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>194800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>175300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>846500</v>
+        <v>537600</v>
       </c>
       <c r="E89" s="3">
-        <v>202600</v>
+        <v>934500</v>
       </c>
       <c r="F89" s="3">
-        <v>761700</v>
+        <v>223700</v>
       </c>
       <c r="G89" s="3">
-        <v>338300</v>
+        <v>840900</v>
       </c>
       <c r="H89" s="3">
-        <v>-232800</v>
+        <v>373400</v>
       </c>
       <c r="I89" s="3">
-        <v>826900</v>
+        <v>-257000</v>
       </c>
       <c r="J89" s="3">
+        <v>912800</v>
+      </c>
+      <c r="K89" s="3">
         <v>890800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>915400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1237500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>279800</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-408600</v>
+        <v>-204000</v>
       </c>
       <c r="E91" s="3">
-        <v>-439500</v>
+        <v>-451100</v>
       </c>
       <c r="F91" s="3">
-        <v>-294400</v>
+        <v>-485200</v>
       </c>
       <c r="G91" s="3">
-        <v>-250300</v>
+        <v>-325000</v>
       </c>
       <c r="H91" s="3">
-        <v>-225800</v>
+        <v>-276300</v>
       </c>
       <c r="I91" s="3">
-        <v>-282200</v>
+        <v>-249300</v>
       </c>
       <c r="J91" s="3">
+        <v>-311600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-246200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-309900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-305700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-360800</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-766000</v>
+        <v>-15200</v>
       </c>
       <c r="E94" s="3">
-        <v>-583000</v>
+        <v>-845600</v>
       </c>
       <c r="F94" s="3">
-        <v>-338700</v>
+        <v>-643600</v>
       </c>
       <c r="G94" s="3">
-        <v>-284200</v>
+        <v>-373800</v>
       </c>
       <c r="H94" s="3">
-        <v>-360600</v>
+        <v>-313700</v>
       </c>
       <c r="I94" s="3">
-        <v>-330600</v>
+        <v>-398100</v>
       </c>
       <c r="J94" s="3">
+        <v>-365000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-289900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-367400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-305000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-336500</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-60500</v>
+        <v>-153700</v>
       </c>
       <c r="E96" s="3">
-        <v>-47800</v>
+        <v>-66800</v>
       </c>
       <c r="F96" s="3">
-        <v>-62700</v>
+        <v>-52800</v>
       </c>
       <c r="G96" s="3">
-        <v>-18000</v>
+        <v>-69200</v>
       </c>
       <c r="H96" s="3">
-        <v>-700</v>
+        <v>-19900</v>
       </c>
       <c r="I96" s="3">
-        <v>-77500</v>
+        <v>-800</v>
       </c>
       <c r="J96" s="3">
+        <v>-85500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-46100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-84700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-43500</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-45500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,71 +3910,77 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-50200</v>
+        <v>-540500</v>
       </c>
       <c r="E100" s="3">
-        <v>338100</v>
+        <v>-55400</v>
       </c>
       <c r="F100" s="3">
-        <v>-293000</v>
+        <v>373200</v>
       </c>
       <c r="G100" s="3">
-        <v>-373800</v>
+        <v>-323400</v>
       </c>
       <c r="H100" s="3">
-        <v>263300</v>
+        <v>-412600</v>
       </c>
       <c r="I100" s="3">
-        <v>-536600</v>
+        <v>290700</v>
       </c>
       <c r="J100" s="3">
+        <v>-592400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-113500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-308400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-438300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>342400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>104800</v>
+        <v>-68000</v>
       </c>
       <c r="E101" s="3">
-        <v>19800</v>
-      </c>
-      <c r="F101" s="3" t="s">
+        <v>115700</v>
+      </c>
+      <c r="F101" s="3">
+        <v>21900</v>
+      </c>
+      <c r="G101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-4300</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>16400</v>
+        <v>-4700</v>
       </c>
       <c r="J101" s="3">
+        <v>18100</v>
+      </c>
+      <c r="K101" s="3">
         <v>9300</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
@@ -3740,43 +3988,49 @@
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>135100</v>
+        <v>-86100</v>
       </c>
       <c r="E102" s="3">
-        <v>-22500</v>
+        <v>149200</v>
       </c>
       <c r="F102" s="3">
-        <v>130100</v>
+        <v>-24800</v>
       </c>
       <c r="G102" s="3">
-        <v>-319700</v>
+        <v>143700</v>
       </c>
       <c r="H102" s="3">
-        <v>-334400</v>
+        <v>-352900</v>
       </c>
       <c r="I102" s="3">
-        <v>-23900</v>
+        <v>-369100</v>
       </c>
       <c r="J102" s="3">
+        <v>-26400</v>
+      </c>
+      <c r="K102" s="3">
         <v>496600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>239700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>494200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>285800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10107400</v>
+        <v>9990500</v>
       </c>
       <c r="E8" s="3">
-        <v>10099900</v>
+        <v>9983100</v>
       </c>
       <c r="F8" s="3">
-        <v>5682800</v>
+        <v>5617100</v>
       </c>
       <c r="G8" s="3">
-        <v>9732400</v>
+        <v>9619800</v>
       </c>
       <c r="H8" s="3">
-        <v>8795600</v>
+        <v>8693800</v>
       </c>
       <c r="I8" s="3">
-        <v>8168900</v>
+        <v>8074400</v>
       </c>
       <c r="J8" s="3">
-        <v>7330200</v>
+        <v>7245400</v>
       </c>
       <c r="K8" s="3">
         <v>11676500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7555500</v>
+        <v>7468100</v>
       </c>
       <c r="E9" s="3">
-        <v>7390500</v>
+        <v>7305000</v>
       </c>
       <c r="F9" s="3">
-        <v>4182600</v>
+        <v>4134200</v>
       </c>
       <c r="G9" s="3">
-        <v>7444700</v>
+        <v>7358600</v>
       </c>
       <c r="H9" s="3">
-        <v>6630300</v>
+        <v>6553600</v>
       </c>
       <c r="I9" s="3">
-        <v>6292700</v>
+        <v>6219900</v>
       </c>
       <c r="J9" s="3">
-        <v>5541900</v>
+        <v>5477800</v>
       </c>
       <c r="K9" s="3">
         <v>8677900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2551900</v>
+        <v>2522400</v>
       </c>
       <c r="E10" s="3">
-        <v>2709400</v>
+        <v>2678000</v>
       </c>
       <c r="F10" s="3">
-        <v>1500200</v>
+        <v>1482900</v>
       </c>
       <c r="G10" s="3">
-        <v>2287700</v>
+        <v>2261200</v>
       </c>
       <c r="H10" s="3">
-        <v>2165300</v>
+        <v>2140200</v>
       </c>
       <c r="I10" s="3">
-        <v>1876200</v>
+        <v>1854500</v>
       </c>
       <c r="J10" s="3">
-        <v>1788300</v>
+        <v>1767600</v>
       </c>
       <c r="K10" s="3">
         <v>2998600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>141100</v>
+        <v>139500</v>
       </c>
       <c r="E14" s="3">
-        <v>115900</v>
+        <v>114500</v>
       </c>
       <c r="F14" s="3">
-        <v>52600</v>
+        <v>52000</v>
       </c>
       <c r="G14" s="3">
-        <v>29000</v>
+        <v>28600</v>
       </c>
       <c r="H14" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="I14" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="J14" s="3">
-        <v>22900</v>
+        <v>22600</v>
       </c>
       <c r="K14" s="3">
         <v>65300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>365200</v>
+        <v>360900</v>
       </c>
       <c r="E15" s="3">
-        <v>355500</v>
+        <v>351400</v>
       </c>
       <c r="F15" s="3">
-        <v>202600</v>
+        <v>200200</v>
       </c>
       <c r="G15" s="3">
-        <v>236900</v>
+        <v>234100</v>
       </c>
       <c r="H15" s="3">
-        <v>153500</v>
+        <v>151700</v>
       </c>
       <c r="I15" s="3">
-        <v>139300</v>
+        <v>137700</v>
       </c>
       <c r="J15" s="3">
-        <v>128100</v>
+        <v>126600</v>
       </c>
       <c r="K15" s="3">
         <v>146200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9774400</v>
+        <v>9661300</v>
       </c>
       <c r="E17" s="3">
-        <v>9581800</v>
+        <v>9471000</v>
       </c>
       <c r="F17" s="3">
-        <v>5583700</v>
+        <v>5519100</v>
       </c>
       <c r="G17" s="3">
-        <v>9214100</v>
+        <v>9107500</v>
       </c>
       <c r="H17" s="3">
-        <v>8503500</v>
+        <v>8405100</v>
       </c>
       <c r="I17" s="3">
-        <v>8000200</v>
+        <v>7907700</v>
       </c>
       <c r="J17" s="3">
-        <v>7012600</v>
+        <v>6931400</v>
       </c>
       <c r="K17" s="3">
         <v>10993400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>333000</v>
+        <v>329200</v>
       </c>
       <c r="E18" s="3">
-        <v>518100</v>
+        <v>512100</v>
       </c>
       <c r="F18" s="3">
-        <v>99100</v>
+        <v>98000</v>
       </c>
       <c r="G18" s="3">
-        <v>518300</v>
+        <v>512300</v>
       </c>
       <c r="H18" s="3">
-        <v>292000</v>
+        <v>288700</v>
       </c>
       <c r="I18" s="3">
-        <v>168700</v>
+        <v>166700</v>
       </c>
       <c r="J18" s="3">
-        <v>317700</v>
+        <v>314000</v>
       </c>
       <c r="K18" s="3">
         <v>683000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16900</v>
+        <v>-16800</v>
       </c>
       <c r="E20" s="3">
-        <v>76500</v>
+        <v>75600</v>
       </c>
       <c r="F20" s="3">
         <v>-1200</v>
       </c>
       <c r="G20" s="3">
-        <v>-16600</v>
+        <v>-16400</v>
       </c>
       <c r="H20" s="3">
-        <v>-45700</v>
+        <v>-45200</v>
       </c>
       <c r="I20" s="3">
-        <v>-39000</v>
+        <v>-38600</v>
       </c>
       <c r="J20" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="K20" s="3">
         <v>-146200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>738400</v>
+        <v>724500</v>
       </c>
       <c r="E21" s="3">
-        <v>1106100</v>
+        <v>1086700</v>
       </c>
       <c r="F21" s="3">
-        <v>409000</v>
+        <v>400300</v>
       </c>
       <c r="G21" s="3">
-        <v>765500</v>
+        <v>753200</v>
       </c>
       <c r="H21" s="3">
-        <v>412500</v>
+        <v>405600</v>
       </c>
       <c r="I21" s="3">
-        <v>346900</v>
+        <v>340100</v>
       </c>
       <c r="J21" s="3">
-        <v>523700</v>
+        <v>514900</v>
       </c>
       <c r="K21" s="3">
         <v>702400</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>243400</v>
+        <v>240600</v>
       </c>
       <c r="E22" s="3">
-        <v>219900</v>
+        <v>217400</v>
       </c>
       <c r="F22" s="3">
-        <v>170500</v>
+        <v>168500</v>
       </c>
       <c r="G22" s="3">
-        <v>192500</v>
+        <v>190300</v>
       </c>
       <c r="H22" s="3">
-        <v>98100</v>
+        <v>97000</v>
       </c>
       <c r="I22" s="3">
-        <v>138900</v>
+        <v>137300</v>
       </c>
       <c r="J22" s="3">
-        <v>137500</v>
+        <v>136000</v>
       </c>
       <c r="K22" s="3">
         <v>122600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>72700</v>
+        <v>71900</v>
       </c>
       <c r="E23" s="3">
-        <v>374600</v>
+        <v>370300</v>
       </c>
       <c r="F23" s="3">
-        <v>-72500</v>
+        <v>-71700</v>
       </c>
       <c r="G23" s="3">
-        <v>309200</v>
+        <v>305600</v>
       </c>
       <c r="H23" s="3">
-        <v>148200</v>
+        <v>146500</v>
       </c>
       <c r="I23" s="3">
-        <v>-9300</v>
+        <v>-9200</v>
       </c>
       <c r="J23" s="3">
-        <v>166300</v>
+        <v>164400</v>
       </c>
       <c r="K23" s="3">
         <v>414200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-117100</v>
+        <v>-115700</v>
       </c>
       <c r="E24" s="3">
-        <v>130500</v>
+        <v>128900</v>
       </c>
       <c r="F24" s="3">
-        <v>-18700</v>
+        <v>-18500</v>
       </c>
       <c r="G24" s="3">
-        <v>81400</v>
+        <v>80400</v>
       </c>
       <c r="H24" s="3">
-        <v>58500</v>
+        <v>57800</v>
       </c>
       <c r="I24" s="3">
         <v>4700</v>
       </c>
       <c r="J24" s="3">
-        <v>45100</v>
+        <v>44600</v>
       </c>
       <c r="K24" s="3">
         <v>131400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>189800</v>
+        <v>187600</v>
       </c>
       <c r="E26" s="3">
-        <v>244200</v>
+        <v>241300</v>
       </c>
       <c r="F26" s="3">
-        <v>-53800</v>
+        <v>-53200</v>
       </c>
       <c r="G26" s="3">
-        <v>227800</v>
+        <v>225200</v>
       </c>
       <c r="H26" s="3">
-        <v>89700</v>
+        <v>88600</v>
       </c>
       <c r="I26" s="3">
-        <v>-14000</v>
+        <v>-13800</v>
       </c>
       <c r="J26" s="3">
-        <v>121200</v>
+        <v>119800</v>
       </c>
       <c r="K26" s="3">
         <v>282800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>158600</v>
+        <v>156800</v>
       </c>
       <c r="E27" s="3">
-        <v>215200</v>
+        <v>212700</v>
       </c>
       <c r="F27" s="3">
-        <v>-62900</v>
+        <v>-62100</v>
       </c>
       <c r="G27" s="3">
-        <v>201200</v>
+        <v>198900</v>
       </c>
       <c r="H27" s="3">
-        <v>44100</v>
+        <v>43600</v>
       </c>
       <c r="I27" s="3">
-        <v>103100</v>
+        <v>101900</v>
       </c>
       <c r="J27" s="3">
-        <v>227800</v>
+        <v>225200</v>
       </c>
       <c r="K27" s="3">
         <v>215500</v>
@@ -1476,22 +1476,22 @@
         <v>-600</v>
       </c>
       <c r="E29" s="3">
-        <v>214200</v>
+        <v>211700</v>
       </c>
       <c r="F29" s="3">
-        <v>218500</v>
+        <v>216000</v>
       </c>
       <c r="G29" s="3">
-        <v>25200</v>
+        <v>24900</v>
       </c>
       <c r="H29" s="3">
-        <v>70200</v>
+        <v>69300</v>
       </c>
       <c r="I29" s="3">
-        <v>-198000</v>
+        <v>-195800</v>
       </c>
       <c r="J29" s="3">
-        <v>-175600</v>
+        <v>-173500</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16900</v>
+        <v>16800</v>
       </c>
       <c r="E32" s="3">
-        <v>-76500</v>
+        <v>-75600</v>
       </c>
       <c r="F32" s="3">
         <v>1200</v>
       </c>
       <c r="G32" s="3">
-        <v>16600</v>
+        <v>16400</v>
       </c>
       <c r="H32" s="3">
-        <v>45700</v>
+        <v>45200</v>
       </c>
       <c r="I32" s="3">
-        <v>39000</v>
+        <v>38600</v>
       </c>
       <c r="J32" s="3">
-        <v>13800</v>
+        <v>13600</v>
       </c>
       <c r="K32" s="3">
         <v>146200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>158000</v>
+        <v>156200</v>
       </c>
       <c r="E33" s="3">
-        <v>429400</v>
+        <v>424400</v>
       </c>
       <c r="F33" s="3">
-        <v>155700</v>
+        <v>153900</v>
       </c>
       <c r="G33" s="3">
-        <v>226400</v>
+        <v>223800</v>
       </c>
       <c r="H33" s="3">
-        <v>114300</v>
+        <v>113000</v>
       </c>
       <c r="I33" s="3">
-        <v>-95000</v>
+        <v>-93900</v>
       </c>
       <c r="J33" s="3">
-        <v>52200</v>
+        <v>51600</v>
       </c>
       <c r="K33" s="3">
         <v>215500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>158000</v>
+        <v>156200</v>
       </c>
       <c r="E35" s="3">
-        <v>429400</v>
+        <v>424400</v>
       </c>
       <c r="F35" s="3">
-        <v>155700</v>
+        <v>153900</v>
       </c>
       <c r="G35" s="3">
-        <v>226400</v>
+        <v>223800</v>
       </c>
       <c r="H35" s="3">
-        <v>114300</v>
+        <v>113000</v>
       </c>
       <c r="I35" s="3">
-        <v>-95000</v>
+        <v>-93900</v>
       </c>
       <c r="J35" s="3">
-        <v>52200</v>
+        <v>51600</v>
       </c>
       <c r="K35" s="3">
         <v>215500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1630500</v>
+        <v>1611600</v>
       </c>
       <c r="E41" s="3">
-        <v>1716600</v>
+        <v>1696700</v>
       </c>
       <c r="F41" s="3">
-        <v>1567400</v>
+        <v>1549300</v>
       </c>
       <c r="G41" s="3">
-        <v>861000</v>
+        <v>851000</v>
       </c>
       <c r="H41" s="3">
-        <v>1494500</v>
+        <v>1477200</v>
       </c>
       <c r="I41" s="3">
-        <v>1007400</v>
+        <v>995700</v>
       </c>
       <c r="J41" s="3">
-        <v>2170600</v>
+        <v>2145500</v>
       </c>
       <c r="K41" s="3">
         <v>1990300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>568300</v>
+        <v>561700</v>
       </c>
       <c r="E43" s="3">
-        <v>400800</v>
+        <v>396200</v>
       </c>
       <c r="F43" s="3">
-        <v>551800</v>
+        <v>545400</v>
       </c>
       <c r="G43" s="3">
-        <v>269000</v>
+        <v>265900</v>
       </c>
       <c r="H43" s="3">
-        <v>413600</v>
+        <v>408800</v>
       </c>
       <c r="I43" s="3">
-        <v>264700</v>
+        <v>261600</v>
       </c>
       <c r="J43" s="3">
-        <v>919300</v>
+        <v>908600</v>
       </c>
       <c r="K43" s="3">
         <v>757100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1035900</v>
+        <v>1024000</v>
       </c>
       <c r="E44" s="3">
-        <v>1288000</v>
+        <v>1273100</v>
       </c>
       <c r="F44" s="3">
-        <v>1700800</v>
+        <v>1681100</v>
       </c>
       <c r="G44" s="3">
-        <v>1164400</v>
+        <v>1151000</v>
       </c>
       <c r="H44" s="3">
-        <v>1900400</v>
+        <v>1878500</v>
       </c>
       <c r="I44" s="3">
-        <v>914600</v>
+        <v>904000</v>
       </c>
       <c r="J44" s="3">
-        <v>1766600</v>
+        <v>1746200</v>
       </c>
       <c r="K44" s="3">
         <v>1493100</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>287100</v>
+        <v>283800</v>
       </c>
       <c r="E45" s="3">
-        <v>70900</v>
+        <v>70100</v>
       </c>
       <c r="F45" s="3">
-        <v>114900</v>
+        <v>113600</v>
       </c>
       <c r="G45" s="3">
-        <v>5755300</v>
+        <v>5688700</v>
       </c>
       <c r="H45" s="3">
-        <v>5325200</v>
+        <v>5263500</v>
       </c>
       <c r="I45" s="3">
-        <v>4050600</v>
+        <v>4003700</v>
       </c>
       <c r="J45" s="3">
-        <v>62100</v>
+        <v>61400</v>
       </c>
       <c r="K45" s="3">
         <v>47700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3521900</v>
+        <v>3481100</v>
       </c>
       <c r="E46" s="3">
-        <v>3476300</v>
+        <v>3436100</v>
       </c>
       <c r="F46" s="3">
-        <v>3934900</v>
+        <v>3889400</v>
       </c>
       <c r="G46" s="3">
-        <v>8049700</v>
+        <v>7956600</v>
       </c>
       <c r="H46" s="3">
-        <v>7285700</v>
+        <v>7201400</v>
       </c>
       <c r="I46" s="3">
-        <v>6237100</v>
+        <v>6165000</v>
       </c>
       <c r="J46" s="3">
-        <v>4918600</v>
+        <v>4861700</v>
       </c>
       <c r="K46" s="3">
         <v>4288200</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>934100</v>
+        <v>923300</v>
       </c>
       <c r="E47" s="3">
-        <v>1020800</v>
+        <v>1009000</v>
       </c>
       <c r="F47" s="3">
-        <v>711000</v>
+        <v>702800</v>
       </c>
       <c r="G47" s="3">
-        <v>613600</v>
+        <v>606500</v>
       </c>
       <c r="H47" s="3">
-        <v>522200</v>
+        <v>516200</v>
       </c>
       <c r="I47" s="3">
-        <v>310800</v>
+        <v>307200</v>
       </c>
       <c r="J47" s="3">
-        <v>764800</v>
+        <v>755900</v>
       </c>
       <c r="K47" s="3">
         <v>1266400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3862000</v>
+        <v>3817300</v>
       </c>
       <c r="E48" s="3">
-        <v>4636200</v>
+        <v>4582600</v>
       </c>
       <c r="F48" s="3">
-        <v>5387800</v>
+        <v>5325500</v>
       </c>
       <c r="G48" s="3">
-        <v>2778900</v>
+        <v>2746800</v>
       </c>
       <c r="H48" s="3">
-        <v>4424200</v>
+        <v>4373000</v>
       </c>
       <c r="I48" s="3">
-        <v>1813900</v>
+        <v>1792900</v>
       </c>
       <c r="J48" s="3">
-        <v>2049800</v>
+        <v>2026100</v>
       </c>
       <c r="K48" s="3">
         <v>1740400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1133700</v>
+        <v>1120600</v>
       </c>
       <c r="E49" s="3">
-        <v>1214700</v>
+        <v>1200600</v>
       </c>
       <c r="F49" s="3">
-        <v>1228900</v>
+        <v>1214600</v>
       </c>
       <c r="G49" s="3">
-        <v>1082500</v>
+        <v>1069900</v>
       </c>
       <c r="H49" s="3">
-        <v>1128400</v>
+        <v>1115300</v>
       </c>
       <c r="I49" s="3">
-        <v>376000</v>
+        <v>371600</v>
       </c>
       <c r="J49" s="3">
-        <v>1289400</v>
+        <v>1274400</v>
       </c>
       <c r="K49" s="3">
         <v>1151100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>291600</v>
+        <v>288300</v>
       </c>
       <c r="E52" s="3">
-        <v>154300</v>
+        <v>152500</v>
       </c>
       <c r="F52" s="3">
-        <v>260500</v>
+        <v>257500</v>
       </c>
       <c r="G52" s="3">
-        <v>293000</v>
+        <v>289600</v>
       </c>
       <c r="H52" s="3">
-        <v>215200</v>
+        <v>212700</v>
       </c>
       <c r="I52" s="3">
-        <v>172600</v>
+        <v>170600</v>
       </c>
       <c r="J52" s="3">
-        <v>286700</v>
+        <v>283400</v>
       </c>
       <c r="K52" s="3">
         <v>278000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9743200</v>
+        <v>9630500</v>
       </c>
       <c r="E54" s="3">
-        <v>10502300</v>
+        <v>10380800</v>
       </c>
       <c r="F54" s="3">
-        <v>11523100</v>
+        <v>11389800</v>
       </c>
       <c r="G54" s="3">
-        <v>12215400</v>
+        <v>12074000</v>
       </c>
       <c r="H54" s="3">
-        <v>11008200</v>
+        <v>10880800</v>
       </c>
       <c r="I54" s="3">
-        <v>8910500</v>
+        <v>8807400</v>
       </c>
       <c r="J54" s="3">
-        <v>9309300</v>
+        <v>9201600</v>
       </c>
       <c r="K54" s="3">
         <v>8095000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1986000</v>
+        <v>1963000</v>
       </c>
       <c r="E57" s="3">
-        <v>2251200</v>
+        <v>2225200</v>
       </c>
       <c r="F57" s="3">
-        <v>2933600</v>
+        <v>2899700</v>
       </c>
       <c r="G57" s="3">
-        <v>1822000</v>
+        <v>1800900</v>
       </c>
       <c r="H57" s="3">
-        <v>1601700</v>
+        <v>1583200</v>
       </c>
       <c r="I57" s="3">
-        <v>1425100</v>
+        <v>1408600</v>
       </c>
       <c r="J57" s="3">
-        <v>3056000</v>
+        <v>3020600</v>
       </c>
       <c r="K57" s="3">
         <v>2404000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>466000</v>
+        <v>460700</v>
       </c>
       <c r="E58" s="3">
-        <v>641600</v>
+        <v>634200</v>
       </c>
       <c r="F58" s="3">
-        <v>872000</v>
+        <v>861900</v>
       </c>
       <c r="G58" s="3">
-        <v>887600</v>
+        <v>877300</v>
       </c>
       <c r="H58" s="3">
-        <v>570700</v>
+        <v>564100</v>
       </c>
       <c r="I58" s="3">
-        <v>582700</v>
+        <v>576000</v>
       </c>
       <c r="J58" s="3">
-        <v>1503200</v>
+        <v>1485800</v>
       </c>
       <c r="K58" s="3">
         <v>2418400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>809300</v>
+        <v>800000</v>
       </c>
       <c r="E59" s="3">
-        <v>749400</v>
+        <v>740700</v>
       </c>
       <c r="F59" s="3">
-        <v>753400</v>
+        <v>744600</v>
       </c>
       <c r="G59" s="3">
-        <v>5119600</v>
+        <v>5060400</v>
       </c>
       <c r="H59" s="3">
-        <v>4722100</v>
+        <v>4667500</v>
       </c>
       <c r="I59" s="3">
-        <v>3427500</v>
+        <v>3387800</v>
       </c>
       <c r="J59" s="3">
-        <v>1172700</v>
+        <v>1159100</v>
       </c>
       <c r="K59" s="3">
         <v>1183600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3261300</v>
+        <v>3223600</v>
       </c>
       <c r="E60" s="3">
-        <v>3642300</v>
+        <v>3600100</v>
       </c>
       <c r="F60" s="3">
-        <v>4559000</v>
+        <v>4506200</v>
       </c>
       <c r="G60" s="3">
-        <v>7406900</v>
+        <v>7321200</v>
       </c>
       <c r="H60" s="3">
-        <v>6580800</v>
+        <v>6504700</v>
       </c>
       <c r="I60" s="3">
-        <v>5435300</v>
+        <v>5372400</v>
       </c>
       <c r="J60" s="3">
-        <v>4980300</v>
+        <v>4922700</v>
       </c>
       <c r="K60" s="3">
         <v>4281100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2523400</v>
+        <v>2494200</v>
       </c>
       <c r="E61" s="3">
-        <v>2811800</v>
+        <v>2779300</v>
       </c>
       <c r="F61" s="3">
-        <v>3633000</v>
+        <v>3591000</v>
       </c>
       <c r="G61" s="3">
-        <v>1708900</v>
+        <v>1689100</v>
       </c>
       <c r="H61" s="3">
-        <v>1579400</v>
+        <v>1561200</v>
       </c>
       <c r="I61" s="3">
-        <v>573800</v>
+        <v>567200</v>
       </c>
       <c r="J61" s="3">
-        <v>820600</v>
+        <v>811100</v>
       </c>
       <c r="K61" s="3">
         <v>559500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>730700</v>
+        <v>722200</v>
       </c>
       <c r="E62" s="3">
-        <v>736200</v>
+        <v>727700</v>
       </c>
       <c r="F62" s="3">
-        <v>661300</v>
+        <v>653700</v>
       </c>
       <c r="G62" s="3">
-        <v>506400</v>
+        <v>500600</v>
       </c>
       <c r="H62" s="3">
-        <v>452400</v>
+        <v>447200</v>
       </c>
       <c r="I62" s="3">
-        <v>418900</v>
+        <v>414100</v>
       </c>
       <c r="J62" s="3">
-        <v>877300</v>
+        <v>867200</v>
       </c>
       <c r="K62" s="3">
         <v>942100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7053600</v>
+        <v>6972000</v>
       </c>
       <c r="E66" s="3">
-        <v>7803600</v>
+        <v>7713300</v>
       </c>
       <c r="F66" s="3">
-        <v>9367200</v>
+        <v>9258900</v>
       </c>
       <c r="G66" s="3">
-        <v>10198600</v>
+        <v>10080600</v>
       </c>
       <c r="H66" s="3">
-        <v>9159000</v>
+        <v>9053000</v>
       </c>
       <c r="I66" s="3">
-        <v>6967500</v>
+        <v>6886800</v>
       </c>
       <c r="J66" s="3">
-        <v>7269000</v>
+        <v>7184800</v>
       </c>
       <c r="K66" s="3">
         <v>6224600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1183000</v>
+        <v>1169300</v>
       </c>
       <c r="E72" s="3">
-        <v>1130100</v>
+        <v>1117100</v>
       </c>
       <c r="F72" s="3">
-        <v>799500</v>
+        <v>790200</v>
       </c>
       <c r="G72" s="3">
-        <v>703900</v>
+        <v>695800</v>
       </c>
       <c r="H72" s="3">
-        <v>510600</v>
+        <v>504700</v>
       </c>
       <c r="I72" s="3">
-        <v>618800</v>
+        <v>611600</v>
       </c>
       <c r="J72" s="3">
-        <v>709800</v>
+        <v>701600</v>
       </c>
       <c r="K72" s="3">
         <v>1314600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2689700</v>
+        <v>2658600</v>
       </c>
       <c r="E76" s="3">
-        <v>2698700</v>
+        <v>2667500</v>
       </c>
       <c r="F76" s="3">
-        <v>2155800</v>
+        <v>2130900</v>
       </c>
       <c r="G76" s="3">
-        <v>2016700</v>
+        <v>1993400</v>
       </c>
       <c r="H76" s="3">
-        <v>1849200</v>
+        <v>1827800</v>
       </c>
       <c r="I76" s="3">
-        <v>1943000</v>
+        <v>1920500</v>
       </c>
       <c r="J76" s="3">
-        <v>2040400</v>
+        <v>2016800</v>
       </c>
       <c r="K76" s="3">
         <v>1870400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>158000</v>
+        <v>156200</v>
       </c>
       <c r="E81" s="3">
-        <v>429400</v>
+        <v>424400</v>
       </c>
       <c r="F81" s="3">
-        <v>155700</v>
+        <v>153900</v>
       </c>
       <c r="G81" s="3">
-        <v>226400</v>
+        <v>223800</v>
       </c>
       <c r="H81" s="3">
-        <v>114300</v>
+        <v>113000</v>
       </c>
       <c r="I81" s="3">
-        <v>-95000</v>
+        <v>-93900</v>
       </c>
       <c r="J81" s="3">
-        <v>52200</v>
+        <v>51600</v>
       </c>
       <c r="K81" s="3">
         <v>215500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>417200</v>
+        <v>412300</v>
       </c>
       <c r="E83" s="3">
-        <v>505300</v>
+        <v>499400</v>
       </c>
       <c r="F83" s="3">
-        <v>307200</v>
+        <v>303700</v>
       </c>
       <c r="G83" s="3">
-        <v>260500</v>
+        <v>257500</v>
       </c>
       <c r="H83" s="3">
-        <v>164200</v>
+        <v>162300</v>
       </c>
       <c r="I83" s="3">
+        <v>212100</v>
+      </c>
+      <c r="J83" s="3">
         <v>214600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>217200</v>
       </c>
       <c r="K83" s="3">
         <v>165800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>537600</v>
+        <v>531400</v>
       </c>
       <c r="E89" s="3">
-        <v>934500</v>
+        <v>923600</v>
       </c>
       <c r="F89" s="3">
-        <v>223700</v>
+        <v>221100</v>
       </c>
       <c r="G89" s="3">
-        <v>840900</v>
+        <v>831100</v>
       </c>
       <c r="H89" s="3">
-        <v>373400</v>
+        <v>369100</v>
       </c>
       <c r="I89" s="3">
-        <v>-257000</v>
+        <v>-254000</v>
       </c>
       <c r="J89" s="3">
-        <v>912800</v>
+        <v>902200</v>
       </c>
       <c r="K89" s="3">
         <v>890800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-204000</v>
+        <v>-201600</v>
       </c>
       <c r="E91" s="3">
-        <v>-451100</v>
+        <v>-445900</v>
       </c>
       <c r="F91" s="3">
-        <v>-485200</v>
+        <v>-479500</v>
       </c>
       <c r="G91" s="3">
-        <v>-325000</v>
+        <v>-321200</v>
       </c>
       <c r="H91" s="3">
-        <v>-276300</v>
+        <v>-273100</v>
       </c>
       <c r="I91" s="3">
-        <v>-249300</v>
+        <v>-246400</v>
       </c>
       <c r="J91" s="3">
-        <v>-311600</v>
+        <v>-307900</v>
       </c>
       <c r="K91" s="3">
         <v>-246200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
       <c r="E94" s="3">
-        <v>-845600</v>
+        <v>-835800</v>
       </c>
       <c r="F94" s="3">
-        <v>-643600</v>
+        <v>-636200</v>
       </c>
       <c r="G94" s="3">
-        <v>-373800</v>
+        <v>-369500</v>
       </c>
       <c r="H94" s="3">
-        <v>-313700</v>
+        <v>-310100</v>
       </c>
       <c r="I94" s="3">
-        <v>-398100</v>
+        <v>-393500</v>
       </c>
       <c r="J94" s="3">
-        <v>-365000</v>
+        <v>-360700</v>
       </c>
       <c r="K94" s="3">
         <v>-289900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-153700</v>
+        <v>-151900</v>
       </c>
       <c r="E96" s="3">
-        <v>-66800</v>
+        <v>-66000</v>
       </c>
       <c r="F96" s="3">
-        <v>-52800</v>
+        <v>-52200</v>
       </c>
       <c r="G96" s="3">
-        <v>-69200</v>
+        <v>-68400</v>
       </c>
       <c r="H96" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="I96" s="3">
         <v>-800</v>
       </c>
       <c r="J96" s="3">
-        <v>-85500</v>
+        <v>-84500</v>
       </c>
       <c r="K96" s="3">
         <v>-46100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-540500</v>
+        <v>-534300</v>
       </c>
       <c r="E100" s="3">
-        <v>-55400</v>
+        <v>-54700</v>
       </c>
       <c r="F100" s="3">
-        <v>373200</v>
+        <v>368900</v>
       </c>
       <c r="G100" s="3">
-        <v>-323400</v>
+        <v>-319600</v>
       </c>
       <c r="H100" s="3">
-        <v>-412600</v>
+        <v>-407900</v>
       </c>
       <c r="I100" s="3">
-        <v>290700</v>
+        <v>287300</v>
       </c>
       <c r="J100" s="3">
-        <v>-592400</v>
+        <v>-585500</v>
       </c>
       <c r="K100" s="3">
         <v>-113500</v>
@@ -3959,13 +3959,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-68000</v>
+        <v>-67200</v>
       </c>
       <c r="E101" s="3">
-        <v>115700</v>
+        <v>114300</v>
       </c>
       <c r="F101" s="3">
-        <v>21900</v>
+        <v>21600</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -3977,7 +3977,7 @@
         <v>-4700</v>
       </c>
       <c r="J101" s="3">
-        <v>18100</v>
+        <v>17900</v>
       </c>
       <c r="K101" s="3">
         <v>9300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-86100</v>
+        <v>-85100</v>
       </c>
       <c r="E102" s="3">
-        <v>149200</v>
+        <v>147400</v>
       </c>
       <c r="F102" s="3">
-        <v>-24800</v>
+        <v>-24500</v>
       </c>
       <c r="G102" s="3">
-        <v>143700</v>
+        <v>142000</v>
       </c>
       <c r="H102" s="3">
-        <v>-352900</v>
+        <v>-348900</v>
       </c>
       <c r="I102" s="3">
-        <v>-369100</v>
+        <v>-364800</v>
       </c>
       <c r="J102" s="3">
-        <v>-26400</v>
+        <v>-26100</v>
       </c>
       <c r="K102" s="3">
         <v>496600</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9990500</v>
+        <v>10037600</v>
       </c>
       <c r="E8" s="3">
-        <v>9983100</v>
+        <v>10030200</v>
       </c>
       <c r="F8" s="3">
-        <v>5617100</v>
+        <v>5643600</v>
       </c>
       <c r="G8" s="3">
-        <v>9619800</v>
+        <v>9665200</v>
       </c>
       <c r="H8" s="3">
-        <v>8693800</v>
+        <v>8734900</v>
       </c>
       <c r="I8" s="3">
-        <v>8074400</v>
+        <v>8112500</v>
       </c>
       <c r="J8" s="3">
-        <v>7245400</v>
+        <v>7279600</v>
       </c>
       <c r="K8" s="3">
         <v>11676500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7468100</v>
+        <v>7503300</v>
       </c>
       <c r="E9" s="3">
-        <v>7305000</v>
+        <v>7339500</v>
       </c>
       <c r="F9" s="3">
-        <v>4134200</v>
+        <v>4153700</v>
       </c>
       <c r="G9" s="3">
-        <v>7358600</v>
+        <v>7393400</v>
       </c>
       <c r="H9" s="3">
-        <v>6553600</v>
+        <v>6584500</v>
       </c>
       <c r="I9" s="3">
-        <v>6219900</v>
+        <v>6249300</v>
       </c>
       <c r="J9" s="3">
-        <v>5477800</v>
+        <v>5503700</v>
       </c>
       <c r="K9" s="3">
         <v>8677900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2522400</v>
+        <v>2534300</v>
       </c>
       <c r="E10" s="3">
-        <v>2678000</v>
+        <v>2690700</v>
       </c>
       <c r="F10" s="3">
-        <v>1482900</v>
+        <v>1489900</v>
       </c>
       <c r="G10" s="3">
-        <v>2261200</v>
+        <v>2271900</v>
       </c>
       <c r="H10" s="3">
-        <v>2140200</v>
+        <v>2150400</v>
       </c>
       <c r="I10" s="3">
-        <v>1854500</v>
+        <v>1863300</v>
       </c>
       <c r="J10" s="3">
-        <v>1767600</v>
+        <v>1776000</v>
       </c>
       <c r="K10" s="3">
         <v>2998600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>139500</v>
+        <v>140100</v>
       </c>
       <c r="E14" s="3">
-        <v>114500</v>
+        <v>115100</v>
       </c>
       <c r="F14" s="3">
-        <v>52000</v>
+        <v>52300</v>
       </c>
       <c r="G14" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="H14" s="3">
-        <v>20800</v>
+        <v>20900</v>
       </c>
       <c r="I14" s="3">
-        <v>19300</v>
+        <v>19400</v>
       </c>
       <c r="J14" s="3">
-        <v>22600</v>
+        <v>22700</v>
       </c>
       <c r="K14" s="3">
         <v>65300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>360900</v>
+        <v>362600</v>
       </c>
       <c r="E15" s="3">
-        <v>351400</v>
+        <v>353000</v>
       </c>
       <c r="F15" s="3">
-        <v>200200</v>
+        <v>201200</v>
       </c>
       <c r="G15" s="3">
-        <v>234100</v>
+        <v>235200</v>
       </c>
       <c r="H15" s="3">
-        <v>151700</v>
+        <v>152500</v>
       </c>
       <c r="I15" s="3">
-        <v>137700</v>
+        <v>138400</v>
       </c>
       <c r="J15" s="3">
-        <v>126600</v>
+        <v>127200</v>
       </c>
       <c r="K15" s="3">
         <v>146200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9661300</v>
+        <v>9706900</v>
       </c>
       <c r="E17" s="3">
-        <v>9471000</v>
+        <v>9515700</v>
       </c>
       <c r="F17" s="3">
-        <v>5519100</v>
+        <v>5545200</v>
       </c>
       <c r="G17" s="3">
-        <v>9107500</v>
+        <v>9150500</v>
       </c>
       <c r="H17" s="3">
-        <v>8405100</v>
+        <v>8444800</v>
       </c>
       <c r="I17" s="3">
-        <v>7907700</v>
+        <v>7945000</v>
       </c>
       <c r="J17" s="3">
-        <v>6931400</v>
+        <v>6964200</v>
       </c>
       <c r="K17" s="3">
         <v>10993400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>329200</v>
+        <v>330700</v>
       </c>
       <c r="E18" s="3">
-        <v>512100</v>
+        <v>514500</v>
       </c>
       <c r="F18" s="3">
-        <v>98000</v>
+        <v>98400</v>
       </c>
       <c r="G18" s="3">
-        <v>512300</v>
+        <v>514700</v>
       </c>
       <c r="H18" s="3">
-        <v>288700</v>
+        <v>290000</v>
       </c>
       <c r="I18" s="3">
-        <v>166700</v>
+        <v>167500</v>
       </c>
       <c r="J18" s="3">
-        <v>314000</v>
+        <v>315500</v>
       </c>
       <c r="K18" s="3">
         <v>683000</v>
@@ -1125,7 +1125,7 @@
         <v>-16800</v>
       </c>
       <c r="E20" s="3">
-        <v>75600</v>
+        <v>75900</v>
       </c>
       <c r="F20" s="3">
         <v>-1200</v>
@@ -1134,13 +1134,13 @@
         <v>-16400</v>
       </c>
       <c r="H20" s="3">
-        <v>-45200</v>
+        <v>-45400</v>
       </c>
       <c r="I20" s="3">
-        <v>-38600</v>
+        <v>-38700</v>
       </c>
       <c r="J20" s="3">
-        <v>-13600</v>
+        <v>-13700</v>
       </c>
       <c r="K20" s="3">
         <v>-146200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>724500</v>
+        <v>728100</v>
       </c>
       <c r="E21" s="3">
-        <v>1086700</v>
+        <v>1092000</v>
       </c>
       <c r="F21" s="3">
-        <v>400300</v>
+        <v>402300</v>
       </c>
       <c r="G21" s="3">
-        <v>753200</v>
+        <v>756900</v>
       </c>
       <c r="H21" s="3">
-        <v>405600</v>
+        <v>407600</v>
       </c>
       <c r="I21" s="3">
-        <v>340100</v>
+        <v>341800</v>
       </c>
       <c r="J21" s="3">
-        <v>514900</v>
+        <v>517400</v>
       </c>
       <c r="K21" s="3">
         <v>702400</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>240600</v>
+        <v>241700</v>
       </c>
       <c r="E22" s="3">
-        <v>217400</v>
+        <v>218400</v>
       </c>
       <c r="F22" s="3">
-        <v>168500</v>
+        <v>169300</v>
       </c>
       <c r="G22" s="3">
-        <v>190300</v>
+        <v>191200</v>
       </c>
       <c r="H22" s="3">
-        <v>97000</v>
+        <v>97500</v>
       </c>
       <c r="I22" s="3">
-        <v>137300</v>
+        <v>138000</v>
       </c>
       <c r="J22" s="3">
-        <v>136000</v>
+        <v>136600</v>
       </c>
       <c r="K22" s="3">
         <v>122600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>71900</v>
+        <v>72200</v>
       </c>
       <c r="E23" s="3">
-        <v>370300</v>
+        <v>372000</v>
       </c>
       <c r="F23" s="3">
-        <v>-71700</v>
+        <v>-72000</v>
       </c>
       <c r="G23" s="3">
-        <v>305600</v>
+        <v>307100</v>
       </c>
       <c r="H23" s="3">
-        <v>146500</v>
+        <v>147200</v>
       </c>
       <c r="I23" s="3">
         <v>-9200</v>
       </c>
       <c r="J23" s="3">
-        <v>164400</v>
+        <v>165200</v>
       </c>
       <c r="K23" s="3">
         <v>414200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-115700</v>
+        <v>-116200</v>
       </c>
       <c r="E24" s="3">
-        <v>128900</v>
+        <v>129600</v>
       </c>
       <c r="F24" s="3">
-        <v>-18500</v>
+        <v>-18600</v>
       </c>
       <c r="G24" s="3">
-        <v>80400</v>
+        <v>80800</v>
       </c>
       <c r="H24" s="3">
-        <v>57800</v>
+        <v>58100</v>
       </c>
       <c r="I24" s="3">
         <v>4700</v>
       </c>
       <c r="J24" s="3">
-        <v>44600</v>
+        <v>44800</v>
       </c>
       <c r="K24" s="3">
         <v>131400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>187600</v>
+        <v>188500</v>
       </c>
       <c r="E26" s="3">
-        <v>241300</v>
+        <v>242500</v>
       </c>
       <c r="F26" s="3">
-        <v>-53200</v>
+        <v>-53400</v>
       </c>
       <c r="G26" s="3">
-        <v>225200</v>
+        <v>226200</v>
       </c>
       <c r="H26" s="3">
-        <v>88600</v>
+        <v>89000</v>
       </c>
       <c r="I26" s="3">
-        <v>-13800</v>
+        <v>-13900</v>
       </c>
       <c r="J26" s="3">
-        <v>119800</v>
+        <v>120400</v>
       </c>
       <c r="K26" s="3">
         <v>282800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>156800</v>
+        <v>157500</v>
       </c>
       <c r="E27" s="3">
-        <v>212700</v>
+        <v>213700</v>
       </c>
       <c r="F27" s="3">
-        <v>-62100</v>
+        <v>-62400</v>
       </c>
       <c r="G27" s="3">
-        <v>198900</v>
+        <v>199800</v>
       </c>
       <c r="H27" s="3">
-        <v>43600</v>
+        <v>43800</v>
       </c>
       <c r="I27" s="3">
-        <v>101900</v>
+        <v>102400</v>
       </c>
       <c r="J27" s="3">
-        <v>225200</v>
+        <v>226200</v>
       </c>
       <c r="K27" s="3">
         <v>215500</v>
@@ -1476,22 +1476,22 @@
         <v>-600</v>
       </c>
       <c r="E29" s="3">
-        <v>211700</v>
+        <v>212700</v>
       </c>
       <c r="F29" s="3">
-        <v>216000</v>
+        <v>217000</v>
       </c>
       <c r="G29" s="3">
-        <v>24900</v>
+        <v>25000</v>
       </c>
       <c r="H29" s="3">
-        <v>69300</v>
+        <v>69700</v>
       </c>
       <c r="I29" s="3">
-        <v>-195800</v>
+        <v>-196700</v>
       </c>
       <c r="J29" s="3">
-        <v>-173500</v>
+        <v>-174400</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1593,7 +1593,7 @@
         <v>16800</v>
       </c>
       <c r="E32" s="3">
-        <v>-75600</v>
+        <v>-75900</v>
       </c>
       <c r="F32" s="3">
         <v>1200</v>
@@ -1602,13 +1602,13 @@
         <v>16400</v>
       </c>
       <c r="H32" s="3">
-        <v>45200</v>
+        <v>45400</v>
       </c>
       <c r="I32" s="3">
-        <v>38600</v>
+        <v>38700</v>
       </c>
       <c r="J32" s="3">
-        <v>13600</v>
+        <v>13700</v>
       </c>
       <c r="K32" s="3">
         <v>146200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>156200</v>
+        <v>157000</v>
       </c>
       <c r="E33" s="3">
-        <v>424400</v>
+        <v>426400</v>
       </c>
       <c r="F33" s="3">
-        <v>153900</v>
+        <v>154600</v>
       </c>
       <c r="G33" s="3">
-        <v>223800</v>
+        <v>224900</v>
       </c>
       <c r="H33" s="3">
-        <v>113000</v>
+        <v>113500</v>
       </c>
       <c r="I33" s="3">
-        <v>-93900</v>
+        <v>-94300</v>
       </c>
       <c r="J33" s="3">
-        <v>51600</v>
+        <v>51900</v>
       </c>
       <c r="K33" s="3">
         <v>215500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>156200</v>
+        <v>157000</v>
       </c>
       <c r="E35" s="3">
-        <v>424400</v>
+        <v>426400</v>
       </c>
       <c r="F35" s="3">
-        <v>153900</v>
+        <v>154600</v>
       </c>
       <c r="G35" s="3">
-        <v>223800</v>
+        <v>224900</v>
       </c>
       <c r="H35" s="3">
-        <v>113000</v>
+        <v>113500</v>
       </c>
       <c r="I35" s="3">
-        <v>-93900</v>
+        <v>-94300</v>
       </c>
       <c r="J35" s="3">
-        <v>51600</v>
+        <v>51900</v>
       </c>
       <c r="K35" s="3">
         <v>215500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1611600</v>
+        <v>1619200</v>
       </c>
       <c r="E41" s="3">
-        <v>1696700</v>
+        <v>1704700</v>
       </c>
       <c r="F41" s="3">
-        <v>1549300</v>
+        <v>1556600</v>
       </c>
       <c r="G41" s="3">
-        <v>851000</v>
+        <v>855000</v>
       </c>
       <c r="H41" s="3">
-        <v>1477200</v>
+        <v>1484200</v>
       </c>
       <c r="I41" s="3">
-        <v>995700</v>
+        <v>1000400</v>
       </c>
       <c r="J41" s="3">
-        <v>2145500</v>
+        <v>2155600</v>
       </c>
       <c r="K41" s="3">
         <v>1990300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>561700</v>
+        <v>564400</v>
       </c>
       <c r="E43" s="3">
-        <v>396200</v>
+        <v>398100</v>
       </c>
       <c r="F43" s="3">
-        <v>545400</v>
+        <v>548000</v>
       </c>
       <c r="G43" s="3">
-        <v>265900</v>
+        <v>267100</v>
       </c>
       <c r="H43" s="3">
-        <v>408800</v>
+        <v>410800</v>
       </c>
       <c r="I43" s="3">
-        <v>261600</v>
+        <v>262800</v>
       </c>
       <c r="J43" s="3">
-        <v>908600</v>
+        <v>912900</v>
       </c>
       <c r="K43" s="3">
         <v>757100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1024000</v>
+        <v>1028800</v>
       </c>
       <c r="E44" s="3">
-        <v>1273100</v>
+        <v>1279100</v>
       </c>
       <c r="F44" s="3">
-        <v>1681100</v>
+        <v>1689100</v>
       </c>
       <c r="G44" s="3">
-        <v>1151000</v>
+        <v>1156400</v>
       </c>
       <c r="H44" s="3">
-        <v>1878500</v>
+        <v>1887300</v>
       </c>
       <c r="I44" s="3">
-        <v>904000</v>
+        <v>908200</v>
       </c>
       <c r="J44" s="3">
-        <v>1746200</v>
+        <v>1754500</v>
       </c>
       <c r="K44" s="3">
         <v>1493100</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>283800</v>
+        <v>285100</v>
       </c>
       <c r="E45" s="3">
-        <v>70100</v>
+        <v>70500</v>
       </c>
       <c r="F45" s="3">
-        <v>113600</v>
+        <v>114100</v>
       </c>
       <c r="G45" s="3">
-        <v>5688700</v>
+        <v>5715600</v>
       </c>
       <c r="H45" s="3">
-        <v>5263500</v>
+        <v>5288400</v>
       </c>
       <c r="I45" s="3">
-        <v>4003700</v>
+        <v>4022600</v>
       </c>
       <c r="J45" s="3">
-        <v>61400</v>
+        <v>61600</v>
       </c>
       <c r="K45" s="3">
         <v>47700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3481100</v>
+        <v>3497600</v>
       </c>
       <c r="E46" s="3">
-        <v>3436100</v>
+        <v>3452300</v>
       </c>
       <c r="F46" s="3">
-        <v>3889400</v>
+        <v>3907700</v>
       </c>
       <c r="G46" s="3">
-        <v>7956600</v>
+        <v>7994100</v>
       </c>
       <c r="H46" s="3">
-        <v>7201400</v>
+        <v>7235400</v>
       </c>
       <c r="I46" s="3">
-        <v>6165000</v>
+        <v>6194100</v>
       </c>
       <c r="J46" s="3">
-        <v>4861700</v>
+        <v>4884700</v>
       </c>
       <c r="K46" s="3">
         <v>4288200</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>923300</v>
+        <v>927600</v>
       </c>
       <c r="E47" s="3">
-        <v>1009000</v>
+        <v>1013700</v>
       </c>
       <c r="F47" s="3">
-        <v>702800</v>
+        <v>706100</v>
       </c>
       <c r="G47" s="3">
-        <v>606500</v>
+        <v>609400</v>
       </c>
       <c r="H47" s="3">
-        <v>516200</v>
+        <v>518600</v>
       </c>
       <c r="I47" s="3">
-        <v>307200</v>
+        <v>308600</v>
       </c>
       <c r="J47" s="3">
-        <v>755900</v>
+        <v>759500</v>
       </c>
       <c r="K47" s="3">
         <v>1266400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3817300</v>
+        <v>3835300</v>
       </c>
       <c r="E48" s="3">
-        <v>4582600</v>
+        <v>4604200</v>
       </c>
       <c r="F48" s="3">
-        <v>5325500</v>
+        <v>5350600</v>
       </c>
       <c r="G48" s="3">
-        <v>2746800</v>
+        <v>2759800</v>
       </c>
       <c r="H48" s="3">
-        <v>4373000</v>
+        <v>4393700</v>
       </c>
       <c r="I48" s="3">
-        <v>1792900</v>
+        <v>1801400</v>
       </c>
       <c r="J48" s="3">
-        <v>2026100</v>
+        <v>2035700</v>
       </c>
       <c r="K48" s="3">
         <v>1740400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1125900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1206300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1220400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1075000</v>
+      </c>
+      <c r="H49" s="3">
         <v>1120600</v>
       </c>
-      <c r="E49" s="3">
-        <v>1200600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1214600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1069900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1115300</v>
-      </c>
       <c r="I49" s="3">
-        <v>371600</v>
+        <v>373400</v>
       </c>
       <c r="J49" s="3">
-        <v>1274400</v>
+        <v>1280500</v>
       </c>
       <c r="K49" s="3">
         <v>1151100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>288300</v>
+        <v>289600</v>
       </c>
       <c r="E52" s="3">
-        <v>152500</v>
+        <v>153200</v>
       </c>
       <c r="F52" s="3">
-        <v>257500</v>
+        <v>258700</v>
       </c>
       <c r="G52" s="3">
-        <v>289600</v>
+        <v>291000</v>
       </c>
       <c r="H52" s="3">
-        <v>212700</v>
+        <v>213700</v>
       </c>
       <c r="I52" s="3">
-        <v>170600</v>
+        <v>171400</v>
       </c>
       <c r="J52" s="3">
-        <v>283400</v>
+        <v>284700</v>
       </c>
       <c r="K52" s="3">
         <v>278000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9630500</v>
+        <v>9676000</v>
       </c>
       <c r="E54" s="3">
-        <v>10380800</v>
+        <v>10429800</v>
       </c>
       <c r="F54" s="3">
-        <v>11389800</v>
+        <v>11443600</v>
       </c>
       <c r="G54" s="3">
-        <v>12074000</v>
+        <v>12131100</v>
       </c>
       <c r="H54" s="3">
-        <v>10880800</v>
+        <v>10932200</v>
       </c>
       <c r="I54" s="3">
-        <v>8807400</v>
+        <v>8849000</v>
       </c>
       <c r="J54" s="3">
-        <v>9201600</v>
+        <v>9245100</v>
       </c>
       <c r="K54" s="3">
         <v>8095000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1963000</v>
+        <v>1972300</v>
       </c>
       <c r="E57" s="3">
-        <v>2225200</v>
+        <v>2235700</v>
       </c>
       <c r="F57" s="3">
-        <v>2899700</v>
+        <v>2913400</v>
       </c>
       <c r="G57" s="3">
-        <v>1800900</v>
+        <v>1809400</v>
       </c>
       <c r="H57" s="3">
-        <v>1583200</v>
+        <v>1590600</v>
       </c>
       <c r="I57" s="3">
-        <v>1408600</v>
+        <v>1415300</v>
       </c>
       <c r="J57" s="3">
-        <v>3020600</v>
+        <v>3034900</v>
       </c>
       <c r="K57" s="3">
         <v>2404000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>460700</v>
+        <v>462800</v>
       </c>
       <c r="E58" s="3">
-        <v>634200</v>
+        <v>637200</v>
       </c>
       <c r="F58" s="3">
-        <v>861900</v>
+        <v>866000</v>
       </c>
       <c r="G58" s="3">
-        <v>877300</v>
+        <v>881400</v>
       </c>
       <c r="H58" s="3">
-        <v>564100</v>
+        <v>566700</v>
       </c>
       <c r="I58" s="3">
-        <v>576000</v>
+        <v>578700</v>
       </c>
       <c r="J58" s="3">
-        <v>1485800</v>
+        <v>1492800</v>
       </c>
       <c r="K58" s="3">
         <v>2418400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800000</v>
+        <v>803700</v>
       </c>
       <c r="E59" s="3">
-        <v>740700</v>
+        <v>744200</v>
       </c>
       <c r="F59" s="3">
-        <v>744600</v>
+        <v>748200</v>
       </c>
       <c r="G59" s="3">
-        <v>5060400</v>
+        <v>5084300</v>
       </c>
       <c r="H59" s="3">
-        <v>4667500</v>
+        <v>4689600</v>
       </c>
       <c r="I59" s="3">
-        <v>3387800</v>
+        <v>3403800</v>
       </c>
       <c r="J59" s="3">
-        <v>1159100</v>
+        <v>1164600</v>
       </c>
       <c r="K59" s="3">
         <v>1183600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3223600</v>
+        <v>3238800</v>
       </c>
       <c r="E60" s="3">
-        <v>3600100</v>
+        <v>3617100</v>
       </c>
       <c r="F60" s="3">
-        <v>4506200</v>
+        <v>4527500</v>
       </c>
       <c r="G60" s="3">
-        <v>7321200</v>
+        <v>7355800</v>
       </c>
       <c r="H60" s="3">
-        <v>6504700</v>
+        <v>6535400</v>
       </c>
       <c r="I60" s="3">
-        <v>5372400</v>
+        <v>5397800</v>
       </c>
       <c r="J60" s="3">
-        <v>4922700</v>
+        <v>4945900</v>
       </c>
       <c r="K60" s="3">
         <v>4281100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2494200</v>
+        <v>2505900</v>
       </c>
       <c r="E61" s="3">
-        <v>2779300</v>
+        <v>2792400</v>
       </c>
       <c r="F61" s="3">
-        <v>3591000</v>
+        <v>3607900</v>
       </c>
       <c r="G61" s="3">
-        <v>1689100</v>
+        <v>1697100</v>
       </c>
       <c r="H61" s="3">
-        <v>1561200</v>
+        <v>1568500</v>
       </c>
       <c r="I61" s="3">
-        <v>567200</v>
+        <v>569900</v>
       </c>
       <c r="J61" s="3">
-        <v>811100</v>
+        <v>814900</v>
       </c>
       <c r="K61" s="3">
         <v>559500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>722200</v>
+        <v>725700</v>
       </c>
       <c r="E62" s="3">
-        <v>727700</v>
+        <v>731100</v>
       </c>
       <c r="F62" s="3">
-        <v>653700</v>
+        <v>656800</v>
       </c>
       <c r="G62" s="3">
-        <v>500600</v>
+        <v>502900</v>
       </c>
       <c r="H62" s="3">
-        <v>447200</v>
+        <v>449300</v>
       </c>
       <c r="I62" s="3">
-        <v>414100</v>
+        <v>416100</v>
       </c>
       <c r="J62" s="3">
-        <v>867200</v>
+        <v>871300</v>
       </c>
       <c r="K62" s="3">
         <v>942100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6972000</v>
+        <v>7004900</v>
       </c>
       <c r="E66" s="3">
-        <v>7713300</v>
+        <v>7749700</v>
       </c>
       <c r="F66" s="3">
-        <v>9258900</v>
+        <v>9302600</v>
       </c>
       <c r="G66" s="3">
-        <v>10080600</v>
+        <v>10128300</v>
       </c>
       <c r="H66" s="3">
-        <v>9053000</v>
+        <v>9095700</v>
       </c>
       <c r="I66" s="3">
-        <v>6886800</v>
+        <v>6919400</v>
       </c>
       <c r="J66" s="3">
-        <v>7184800</v>
+        <v>7218800</v>
       </c>
       <c r="K66" s="3">
         <v>6224600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1169300</v>
+        <v>1174800</v>
       </c>
       <c r="E72" s="3">
-        <v>1117100</v>
+        <v>1122300</v>
       </c>
       <c r="F72" s="3">
-        <v>790200</v>
+        <v>794000</v>
       </c>
       <c r="G72" s="3">
-        <v>695800</v>
+        <v>699000</v>
       </c>
       <c r="H72" s="3">
-        <v>504700</v>
+        <v>507100</v>
       </c>
       <c r="I72" s="3">
-        <v>611600</v>
+        <v>614500</v>
       </c>
       <c r="J72" s="3">
-        <v>701600</v>
+        <v>704900</v>
       </c>
       <c r="K72" s="3">
         <v>1314600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2658600</v>
+        <v>2671100</v>
       </c>
       <c r="E76" s="3">
-        <v>2667500</v>
+        <v>2680100</v>
       </c>
       <c r="F76" s="3">
-        <v>2130900</v>
+        <v>2141000</v>
       </c>
       <c r="G76" s="3">
-        <v>1993400</v>
+        <v>2002800</v>
       </c>
       <c r="H76" s="3">
-        <v>1827800</v>
+        <v>1836400</v>
       </c>
       <c r="I76" s="3">
-        <v>1920500</v>
+        <v>1929600</v>
       </c>
       <c r="J76" s="3">
-        <v>2016800</v>
+        <v>2026300</v>
       </c>
       <c r="K76" s="3">
         <v>1870400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>156200</v>
+        <v>157000</v>
       </c>
       <c r="E81" s="3">
-        <v>424400</v>
+        <v>426400</v>
       </c>
       <c r="F81" s="3">
-        <v>153900</v>
+        <v>154600</v>
       </c>
       <c r="G81" s="3">
-        <v>223800</v>
+        <v>224900</v>
       </c>
       <c r="H81" s="3">
-        <v>113000</v>
+        <v>113500</v>
       </c>
       <c r="I81" s="3">
-        <v>-93900</v>
+        <v>-94300</v>
       </c>
       <c r="J81" s="3">
-        <v>51600</v>
+        <v>51900</v>
       </c>
       <c r="K81" s="3">
         <v>215500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>412300</v>
+        <v>414300</v>
       </c>
       <c r="E83" s="3">
-        <v>499400</v>
+        <v>501800</v>
       </c>
       <c r="F83" s="3">
-        <v>303700</v>
+        <v>305100</v>
       </c>
       <c r="G83" s="3">
-        <v>257500</v>
+        <v>258700</v>
       </c>
       <c r="H83" s="3">
-        <v>162300</v>
+        <v>163000</v>
       </c>
       <c r="I83" s="3">
-        <v>212100</v>
+        <v>213100</v>
       </c>
       <c r="J83" s="3">
-        <v>214600</v>
+        <v>215700</v>
       </c>
       <c r="K83" s="3">
         <v>165800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>531400</v>
+        <v>533900</v>
       </c>
       <c r="E89" s="3">
-        <v>923600</v>
+        <v>928000</v>
       </c>
       <c r="F89" s="3">
-        <v>221100</v>
+        <v>222100</v>
       </c>
       <c r="G89" s="3">
-        <v>831100</v>
+        <v>835100</v>
       </c>
       <c r="H89" s="3">
-        <v>369100</v>
+        <v>370900</v>
       </c>
       <c r="I89" s="3">
-        <v>-254000</v>
+        <v>-255200</v>
       </c>
       <c r="J89" s="3">
-        <v>902200</v>
+        <v>906500</v>
       </c>
       <c r="K89" s="3">
         <v>890800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-201600</v>
+        <v>-202500</v>
       </c>
       <c r="E91" s="3">
-        <v>-445900</v>
+        <v>-448000</v>
       </c>
       <c r="F91" s="3">
-        <v>-479500</v>
+        <v>-481800</v>
       </c>
       <c r="G91" s="3">
-        <v>-321200</v>
+        <v>-322700</v>
       </c>
       <c r="H91" s="3">
-        <v>-273100</v>
+        <v>-274400</v>
       </c>
       <c r="I91" s="3">
-        <v>-246400</v>
+        <v>-247600</v>
       </c>
       <c r="J91" s="3">
-        <v>-307900</v>
+        <v>-309400</v>
       </c>
       <c r="K91" s="3">
         <v>-246200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15000</v>
+        <v>-15100</v>
       </c>
       <c r="E94" s="3">
-        <v>-835800</v>
+        <v>-839700</v>
       </c>
       <c r="F94" s="3">
-        <v>-636200</v>
+        <v>-639200</v>
       </c>
       <c r="G94" s="3">
-        <v>-369500</v>
+        <v>-371200</v>
       </c>
       <c r="H94" s="3">
-        <v>-310100</v>
+        <v>-311600</v>
       </c>
       <c r="I94" s="3">
-        <v>-393500</v>
+        <v>-395300</v>
       </c>
       <c r="J94" s="3">
-        <v>-360700</v>
+        <v>-362400</v>
       </c>
       <c r="K94" s="3">
         <v>-289900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-151900</v>
+        <v>-152600</v>
       </c>
       <c r="E96" s="3">
-        <v>-66000</v>
+        <v>-66300</v>
       </c>
       <c r="F96" s="3">
-        <v>-52200</v>
+        <v>-52400</v>
       </c>
       <c r="G96" s="3">
-        <v>-68400</v>
+        <v>-68700</v>
       </c>
       <c r="H96" s="3">
-        <v>-19700</v>
+        <v>-19800</v>
       </c>
       <c r="I96" s="3">
         <v>-800</v>
       </c>
       <c r="J96" s="3">
-        <v>-84500</v>
+        <v>-84900</v>
       </c>
       <c r="K96" s="3">
         <v>-46100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-534300</v>
+        <v>-536800</v>
       </c>
       <c r="E100" s="3">
-        <v>-54700</v>
+        <v>-55000</v>
       </c>
       <c r="F100" s="3">
-        <v>368900</v>
+        <v>370700</v>
       </c>
       <c r="G100" s="3">
-        <v>-319600</v>
+        <v>-321100</v>
       </c>
       <c r="H100" s="3">
-        <v>-407900</v>
+        <v>-409800</v>
       </c>
       <c r="I100" s="3">
-        <v>287300</v>
+        <v>288700</v>
       </c>
       <c r="J100" s="3">
-        <v>-585500</v>
+        <v>-588300</v>
       </c>
       <c r="K100" s="3">
         <v>-113500</v>
@@ -3959,13 +3959,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-67200</v>
+        <v>-67500</v>
       </c>
       <c r="E101" s="3">
-        <v>114300</v>
+        <v>114900</v>
       </c>
       <c r="F101" s="3">
-        <v>21600</v>
+        <v>21700</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -3977,7 +3977,7 @@
         <v>-4700</v>
       </c>
       <c r="J101" s="3">
-        <v>17900</v>
+        <v>18000</v>
       </c>
       <c r="K101" s="3">
         <v>9300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-85100</v>
+        <v>-85500</v>
       </c>
       <c r="E102" s="3">
-        <v>147400</v>
+        <v>148100</v>
       </c>
       <c r="F102" s="3">
-        <v>-24500</v>
+        <v>-24700</v>
       </c>
       <c r="G102" s="3">
-        <v>142000</v>
+        <v>142700</v>
       </c>
       <c r="H102" s="3">
-        <v>-348900</v>
+        <v>-350500</v>
       </c>
       <c r="I102" s="3">
-        <v>-364800</v>
+        <v>-366500</v>
       </c>
       <c r="J102" s="3">
-        <v>-26100</v>
+        <v>-26200</v>
       </c>
       <c r="K102" s="3">
         <v>496600</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10037600</v>
+        <v>9596000</v>
       </c>
       <c r="E8" s="3">
-        <v>10030200</v>
+        <v>9588900</v>
       </c>
       <c r="F8" s="3">
-        <v>5643600</v>
+        <v>5395300</v>
       </c>
       <c r="G8" s="3">
-        <v>9665200</v>
+        <v>9240000</v>
       </c>
       <c r="H8" s="3">
-        <v>8734900</v>
+        <v>8350600</v>
       </c>
       <c r="I8" s="3">
-        <v>8112500</v>
+        <v>7755600</v>
       </c>
       <c r="J8" s="3">
-        <v>7279600</v>
+        <v>6959400</v>
       </c>
       <c r="K8" s="3">
         <v>11676500</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7503300</v>
+        <v>7173200</v>
       </c>
       <c r="E9" s="3">
-        <v>7339500</v>
+        <v>7016600</v>
       </c>
       <c r="F9" s="3">
-        <v>4153700</v>
+        <v>3971000</v>
       </c>
       <c r="G9" s="3">
-        <v>7393400</v>
+        <v>7068100</v>
       </c>
       <c r="H9" s="3">
-        <v>6584500</v>
+        <v>6294800</v>
       </c>
       <c r="I9" s="3">
-        <v>6249300</v>
+        <v>5974300</v>
       </c>
       <c r="J9" s="3">
-        <v>5503700</v>
+        <v>5261500</v>
       </c>
       <c r="K9" s="3">
         <v>8677900</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2534300</v>
+        <v>2422800</v>
       </c>
       <c r="E10" s="3">
-        <v>2690700</v>
+        <v>2572300</v>
       </c>
       <c r="F10" s="3">
-        <v>1489900</v>
+        <v>1424300</v>
       </c>
       <c r="G10" s="3">
-        <v>2271900</v>
+        <v>2171900</v>
       </c>
       <c r="H10" s="3">
-        <v>2150400</v>
+        <v>2055700</v>
       </c>
       <c r="I10" s="3">
-        <v>1863300</v>
+        <v>1781300</v>
       </c>
       <c r="J10" s="3">
-        <v>1776000</v>
+        <v>1697800</v>
       </c>
       <c r="K10" s="3">
         <v>2998600</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>140100</v>
+        <v>134000</v>
       </c>
       <c r="E14" s="3">
-        <v>115100</v>
+        <v>110000</v>
       </c>
       <c r="F14" s="3">
-        <v>52300</v>
+        <v>50000</v>
       </c>
       <c r="G14" s="3">
-        <v>28800</v>
+        <v>27500</v>
       </c>
       <c r="H14" s="3">
-        <v>20900</v>
+        <v>20000</v>
       </c>
       <c r="I14" s="3">
-        <v>19400</v>
+        <v>18500</v>
       </c>
       <c r="J14" s="3">
-        <v>22700</v>
+        <v>21700</v>
       </c>
       <c r="K14" s="3">
         <v>65300</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>362600</v>
+        <v>346700</v>
       </c>
       <c r="E15" s="3">
-        <v>353000</v>
+        <v>337500</v>
       </c>
       <c r="F15" s="3">
-        <v>201200</v>
+        <v>192300</v>
       </c>
       <c r="G15" s="3">
-        <v>235200</v>
+        <v>224900</v>
       </c>
       <c r="H15" s="3">
-        <v>152500</v>
+        <v>145700</v>
       </c>
       <c r="I15" s="3">
-        <v>138400</v>
+        <v>132300</v>
       </c>
       <c r="J15" s="3">
-        <v>127200</v>
+        <v>121600</v>
       </c>
       <c r="K15" s="3">
         <v>146200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9706900</v>
+        <v>9279900</v>
       </c>
       <c r="E17" s="3">
-        <v>9515700</v>
+        <v>9097100</v>
       </c>
       <c r="F17" s="3">
-        <v>5545200</v>
+        <v>5301200</v>
       </c>
       <c r="G17" s="3">
-        <v>9150500</v>
+        <v>8748000</v>
       </c>
       <c r="H17" s="3">
-        <v>8444800</v>
+        <v>8073300</v>
       </c>
       <c r="I17" s="3">
-        <v>7945000</v>
+        <v>7595500</v>
       </c>
       <c r="J17" s="3">
-        <v>6964200</v>
+        <v>6657800</v>
       </c>
       <c r="K17" s="3">
         <v>10993400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>330700</v>
+        <v>316200</v>
       </c>
       <c r="E18" s="3">
-        <v>514500</v>
+        <v>491900</v>
       </c>
       <c r="F18" s="3">
-        <v>98400</v>
+        <v>94100</v>
       </c>
       <c r="G18" s="3">
-        <v>514700</v>
+        <v>492000</v>
       </c>
       <c r="H18" s="3">
-        <v>290000</v>
+        <v>277300</v>
       </c>
       <c r="I18" s="3">
-        <v>167500</v>
+        <v>160100</v>
       </c>
       <c r="J18" s="3">
-        <v>315500</v>
+        <v>301600</v>
       </c>
       <c r="K18" s="3">
         <v>683000</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16800</v>
+        <v>-16100</v>
       </c>
       <c r="E20" s="3">
-        <v>75900</v>
+        <v>72600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="G20" s="3">
-        <v>-16400</v>
+        <v>-15700</v>
       </c>
       <c r="H20" s="3">
-        <v>-45400</v>
+        <v>-43400</v>
       </c>
       <c r="I20" s="3">
-        <v>-38700</v>
+        <v>-37000</v>
       </c>
       <c r="J20" s="3">
-        <v>-13700</v>
+        <v>-13100</v>
       </c>
       <c r="K20" s="3">
         <v>-146200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>728100</v>
+        <v>708300</v>
       </c>
       <c r="E21" s="3">
-        <v>1092000</v>
+        <v>1058800</v>
       </c>
       <c r="F21" s="3">
-        <v>402300</v>
+        <v>393600</v>
       </c>
       <c r="G21" s="3">
-        <v>756900</v>
+        <v>731200</v>
       </c>
       <c r="H21" s="3">
-        <v>407600</v>
+        <v>394500</v>
       </c>
       <c r="I21" s="3">
-        <v>341800</v>
+        <v>333100</v>
       </c>
       <c r="J21" s="3">
-        <v>517400</v>
+        <v>501000</v>
       </c>
       <c r="K21" s="3">
         <v>702400</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>241700</v>
+        <v>231100</v>
       </c>
       <c r="E22" s="3">
-        <v>218400</v>
+        <v>208800</v>
       </c>
       <c r="F22" s="3">
-        <v>169300</v>
+        <v>161800</v>
       </c>
       <c r="G22" s="3">
-        <v>191200</v>
+        <v>182800</v>
       </c>
       <c r="H22" s="3">
-        <v>97500</v>
+        <v>93200</v>
       </c>
       <c r="I22" s="3">
-        <v>138000</v>
+        <v>131900</v>
       </c>
       <c r="J22" s="3">
-        <v>136600</v>
+        <v>130600</v>
       </c>
       <c r="K22" s="3">
         <v>122600</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>72200</v>
+        <v>69000</v>
       </c>
       <c r="E23" s="3">
-        <v>372000</v>
+        <v>355700</v>
       </c>
       <c r="F23" s="3">
-        <v>-72000</v>
+        <v>-68800</v>
       </c>
       <c r="G23" s="3">
-        <v>307100</v>
+        <v>293500</v>
       </c>
       <c r="H23" s="3">
-        <v>147200</v>
+        <v>140700</v>
       </c>
       <c r="I23" s="3">
-        <v>-9200</v>
+        <v>-8800</v>
       </c>
       <c r="J23" s="3">
-        <v>165200</v>
+        <v>157900</v>
       </c>
       <c r="K23" s="3">
         <v>414200</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-116200</v>
+        <v>-111100</v>
       </c>
       <c r="E24" s="3">
-        <v>129600</v>
+        <v>123900</v>
       </c>
       <c r="F24" s="3">
-        <v>-18600</v>
+        <v>-17800</v>
       </c>
       <c r="G24" s="3">
-        <v>80800</v>
+        <v>77300</v>
       </c>
       <c r="H24" s="3">
-        <v>58100</v>
+        <v>55600</v>
       </c>
       <c r="I24" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J24" s="3">
-        <v>44800</v>
+        <v>42800</v>
       </c>
       <c r="K24" s="3">
         <v>131400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>188500</v>
+        <v>180200</v>
       </c>
       <c r="E26" s="3">
-        <v>242500</v>
+        <v>231800</v>
       </c>
       <c r="F26" s="3">
-        <v>-53400</v>
+        <v>-51100</v>
       </c>
       <c r="G26" s="3">
-        <v>226200</v>
+        <v>216300</v>
       </c>
       <c r="H26" s="3">
-        <v>89000</v>
+        <v>85100</v>
       </c>
       <c r="I26" s="3">
-        <v>-13900</v>
+        <v>-13300</v>
       </c>
       <c r="J26" s="3">
-        <v>120400</v>
+        <v>115100</v>
       </c>
       <c r="K26" s="3">
         <v>282800</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>157500</v>
+        <v>150600</v>
       </c>
       <c r="E27" s="3">
-        <v>213700</v>
+        <v>204300</v>
       </c>
       <c r="F27" s="3">
-        <v>-62400</v>
+        <v>-59700</v>
       </c>
       <c r="G27" s="3">
-        <v>199800</v>
+        <v>191000</v>
       </c>
       <c r="H27" s="3">
-        <v>43800</v>
+        <v>41900</v>
       </c>
       <c r="I27" s="3">
-        <v>102400</v>
+        <v>97800</v>
       </c>
       <c r="J27" s="3">
-        <v>226200</v>
+        <v>216300</v>
       </c>
       <c r="K27" s="3">
         <v>215500</v>
@@ -1476,22 +1476,22 @@
         <v>-600</v>
       </c>
       <c r="E29" s="3">
-        <v>212700</v>
+        <v>203400</v>
       </c>
       <c r="F29" s="3">
-        <v>217000</v>
+        <v>207500</v>
       </c>
       <c r="G29" s="3">
-        <v>25000</v>
+        <v>23900</v>
       </c>
       <c r="H29" s="3">
-        <v>69700</v>
+        <v>66600</v>
       </c>
       <c r="I29" s="3">
-        <v>-196700</v>
+        <v>-188000</v>
       </c>
       <c r="J29" s="3">
-        <v>-174400</v>
+        <v>-166700</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16800</v>
+        <v>16100</v>
       </c>
       <c r="E32" s="3">
-        <v>-75900</v>
+        <v>-72600</v>
       </c>
       <c r="F32" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G32" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="H32" s="3">
-        <v>45400</v>
+        <v>43400</v>
       </c>
       <c r="I32" s="3">
-        <v>38700</v>
+        <v>37000</v>
       </c>
       <c r="J32" s="3">
-        <v>13700</v>
+        <v>13100</v>
       </c>
       <c r="K32" s="3">
         <v>146200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>157000</v>
+        <v>150000</v>
       </c>
       <c r="E33" s="3">
-        <v>426400</v>
+        <v>407700</v>
       </c>
       <c r="F33" s="3">
-        <v>154600</v>
+        <v>147800</v>
       </c>
       <c r="G33" s="3">
-        <v>224900</v>
+        <v>215000</v>
       </c>
       <c r="H33" s="3">
-        <v>113500</v>
+        <v>108500</v>
       </c>
       <c r="I33" s="3">
-        <v>-94300</v>
+        <v>-90200</v>
       </c>
       <c r="J33" s="3">
-        <v>51900</v>
+        <v>49600</v>
       </c>
       <c r="K33" s="3">
         <v>215500</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>157000</v>
+        <v>150000</v>
       </c>
       <c r="E35" s="3">
-        <v>426400</v>
+        <v>407700</v>
       </c>
       <c r="F35" s="3">
-        <v>154600</v>
+        <v>147800</v>
       </c>
       <c r="G35" s="3">
-        <v>224900</v>
+        <v>215000</v>
       </c>
       <c r="H35" s="3">
-        <v>113500</v>
+        <v>108500</v>
       </c>
       <c r="I35" s="3">
-        <v>-94300</v>
+        <v>-90200</v>
       </c>
       <c r="J35" s="3">
-        <v>51900</v>
+        <v>49600</v>
       </c>
       <c r="K35" s="3">
         <v>215500</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1619200</v>
+        <v>1548000</v>
       </c>
       <c r="E41" s="3">
-        <v>1704700</v>
+        <v>1629700</v>
       </c>
       <c r="F41" s="3">
-        <v>1556600</v>
+        <v>1488100</v>
       </c>
       <c r="G41" s="3">
-        <v>855000</v>
+        <v>817400</v>
       </c>
       <c r="H41" s="3">
-        <v>1484200</v>
+        <v>1418900</v>
       </c>
       <c r="I41" s="3">
-        <v>1000400</v>
+        <v>956400</v>
       </c>
       <c r="J41" s="3">
-        <v>2155600</v>
+        <v>2060800</v>
       </c>
       <c r="K41" s="3">
         <v>1990300</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>564400</v>
+        <v>539600</v>
       </c>
       <c r="E43" s="3">
-        <v>398100</v>
+        <v>380500</v>
       </c>
       <c r="F43" s="3">
-        <v>548000</v>
+        <v>523900</v>
       </c>
       <c r="G43" s="3">
-        <v>267100</v>
+        <v>255400</v>
       </c>
       <c r="H43" s="3">
-        <v>410800</v>
+        <v>392700</v>
       </c>
       <c r="I43" s="3">
-        <v>262800</v>
+        <v>251300</v>
       </c>
       <c r="J43" s="3">
-        <v>912900</v>
+        <v>872800</v>
       </c>
       <c r="K43" s="3">
         <v>757100</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1028800</v>
+        <v>983500</v>
       </c>
       <c r="E44" s="3">
-        <v>1279100</v>
+        <v>1222800</v>
       </c>
       <c r="F44" s="3">
-        <v>1689100</v>
+        <v>1614800</v>
       </c>
       <c r="G44" s="3">
-        <v>1156400</v>
+        <v>1105500</v>
       </c>
       <c r="H44" s="3">
-        <v>1887300</v>
+        <v>1804300</v>
       </c>
       <c r="I44" s="3">
-        <v>908200</v>
+        <v>868300</v>
       </c>
       <c r="J44" s="3">
-        <v>1754500</v>
+        <v>1677300</v>
       </c>
       <c r="K44" s="3">
         <v>1493100</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>285100</v>
+        <v>272600</v>
       </c>
       <c r="E45" s="3">
-        <v>70500</v>
+        <v>67400</v>
       </c>
       <c r="F45" s="3">
-        <v>114100</v>
+        <v>109100</v>
       </c>
       <c r="G45" s="3">
-        <v>5715600</v>
+        <v>5464200</v>
       </c>
       <c r="H45" s="3">
-        <v>5288400</v>
+        <v>5055700</v>
       </c>
       <c r="I45" s="3">
-        <v>4022600</v>
+        <v>3845600</v>
       </c>
       <c r="J45" s="3">
-        <v>61600</v>
+        <v>58900</v>
       </c>
       <c r="K45" s="3">
         <v>47700</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3497600</v>
+        <v>3343700</v>
       </c>
       <c r="E46" s="3">
-        <v>3452300</v>
+        <v>3300500</v>
       </c>
       <c r="F46" s="3">
-        <v>3907700</v>
+        <v>3735800</v>
       </c>
       <c r="G46" s="3">
-        <v>7994100</v>
+        <v>7642400</v>
       </c>
       <c r="H46" s="3">
-        <v>7235400</v>
+        <v>6917100</v>
       </c>
       <c r="I46" s="3">
-        <v>6194100</v>
+        <v>5921600</v>
       </c>
       <c r="J46" s="3">
-        <v>4884700</v>
+        <v>4669800</v>
       </c>
       <c r="K46" s="3">
         <v>4288200</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>927600</v>
+        <v>886800</v>
       </c>
       <c r="E47" s="3">
-        <v>1013700</v>
+        <v>969100</v>
       </c>
       <c r="F47" s="3">
-        <v>706100</v>
+        <v>675000</v>
       </c>
       <c r="G47" s="3">
-        <v>609400</v>
+        <v>582600</v>
       </c>
       <c r="H47" s="3">
-        <v>518600</v>
+        <v>495800</v>
       </c>
       <c r="I47" s="3">
-        <v>308600</v>
+        <v>295000</v>
       </c>
       <c r="J47" s="3">
-        <v>759500</v>
+        <v>726100</v>
       </c>
       <c r="K47" s="3">
         <v>1266400</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3835300</v>
+        <v>3666600</v>
       </c>
       <c r="E48" s="3">
-        <v>4604200</v>
+        <v>4401700</v>
       </c>
       <c r="F48" s="3">
-        <v>5350600</v>
+        <v>5115200</v>
       </c>
       <c r="G48" s="3">
-        <v>2759800</v>
+        <v>2638300</v>
       </c>
       <c r="H48" s="3">
-        <v>4393700</v>
+        <v>4200400</v>
       </c>
       <c r="I48" s="3">
-        <v>1801400</v>
+        <v>1722200</v>
       </c>
       <c r="J48" s="3">
-        <v>2035700</v>
+        <v>1946100</v>
       </c>
       <c r="K48" s="3">
         <v>1740400</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1125900</v>
+        <v>1076300</v>
       </c>
       <c r="E49" s="3">
-        <v>1206300</v>
+        <v>1153200</v>
       </c>
       <c r="F49" s="3">
-        <v>1220400</v>
+        <v>1166700</v>
       </c>
       <c r="G49" s="3">
-        <v>1075000</v>
+        <v>1027700</v>
       </c>
       <c r="H49" s="3">
-        <v>1120600</v>
+        <v>1071300</v>
       </c>
       <c r="I49" s="3">
-        <v>373400</v>
+        <v>357000</v>
       </c>
       <c r="J49" s="3">
-        <v>1280500</v>
+        <v>1224100</v>
       </c>
       <c r="K49" s="3">
         <v>1151100</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>289600</v>
+        <v>276900</v>
       </c>
       <c r="E52" s="3">
-        <v>153200</v>
+        <v>146500</v>
       </c>
       <c r="F52" s="3">
-        <v>258700</v>
+        <v>247300</v>
       </c>
       <c r="G52" s="3">
-        <v>291000</v>
+        <v>278200</v>
       </c>
       <c r="H52" s="3">
-        <v>213700</v>
+        <v>204300</v>
       </c>
       <c r="I52" s="3">
-        <v>171400</v>
+        <v>163900</v>
       </c>
       <c r="J52" s="3">
-        <v>284700</v>
+        <v>272200</v>
       </c>
       <c r="K52" s="3">
         <v>278000</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9676000</v>
+        <v>9250300</v>
       </c>
       <c r="E54" s="3">
-        <v>10429800</v>
+        <v>9971000</v>
       </c>
       <c r="F54" s="3">
-        <v>11443600</v>
+        <v>10940100</v>
       </c>
       <c r="G54" s="3">
-        <v>12131100</v>
+        <v>11597300</v>
       </c>
       <c r="H54" s="3">
-        <v>10932200</v>
+        <v>10451200</v>
       </c>
       <c r="I54" s="3">
-        <v>8849000</v>
+        <v>8459600</v>
       </c>
       <c r="J54" s="3">
-        <v>9245100</v>
+        <v>8838300</v>
       </c>
       <c r="K54" s="3">
         <v>8095000</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1972300</v>
+        <v>1885500</v>
       </c>
       <c r="E57" s="3">
-        <v>2235700</v>
+        <v>2137300</v>
       </c>
       <c r="F57" s="3">
-        <v>2913400</v>
+        <v>2785200</v>
       </c>
       <c r="G57" s="3">
-        <v>1809400</v>
+        <v>1729800</v>
       </c>
       <c r="H57" s="3">
-        <v>1590600</v>
+        <v>1520700</v>
       </c>
       <c r="I57" s="3">
-        <v>1415300</v>
+        <v>1353000</v>
       </c>
       <c r="J57" s="3">
-        <v>3034900</v>
+        <v>2901400</v>
       </c>
       <c r="K57" s="3">
         <v>2404000</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>462800</v>
+        <v>442500</v>
       </c>
       <c r="E58" s="3">
-        <v>637200</v>
+        <v>609200</v>
       </c>
       <c r="F58" s="3">
-        <v>866000</v>
+        <v>827900</v>
       </c>
       <c r="G58" s="3">
-        <v>881400</v>
+        <v>842700</v>
       </c>
       <c r="H58" s="3">
-        <v>566700</v>
+        <v>541800</v>
       </c>
       <c r="I58" s="3">
-        <v>578700</v>
+        <v>553200</v>
       </c>
       <c r="J58" s="3">
-        <v>1492800</v>
+        <v>1427100</v>
       </c>
       <c r="K58" s="3">
         <v>2418400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>803700</v>
+        <v>768400</v>
       </c>
       <c r="E59" s="3">
-        <v>744200</v>
+        <v>711500</v>
       </c>
       <c r="F59" s="3">
-        <v>748200</v>
+        <v>715200</v>
       </c>
       <c r="G59" s="3">
-        <v>5084300</v>
+        <v>4860600</v>
       </c>
       <c r="H59" s="3">
-        <v>4689600</v>
+        <v>4483200</v>
       </c>
       <c r="I59" s="3">
-        <v>3403800</v>
+        <v>3254100</v>
       </c>
       <c r="J59" s="3">
-        <v>1164600</v>
+        <v>1113400</v>
       </c>
       <c r="K59" s="3">
         <v>1183600</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3238800</v>
+        <v>3096300</v>
       </c>
       <c r="E60" s="3">
-        <v>3617100</v>
+        <v>3458000</v>
       </c>
       <c r="F60" s="3">
-        <v>4527500</v>
+        <v>4328300</v>
       </c>
       <c r="G60" s="3">
-        <v>7355800</v>
+        <v>7032200</v>
       </c>
       <c r="H60" s="3">
-        <v>6535400</v>
+        <v>6247900</v>
       </c>
       <c r="I60" s="3">
-        <v>5397800</v>
+        <v>5160300</v>
       </c>
       <c r="J60" s="3">
-        <v>4945900</v>
+        <v>4728300</v>
       </c>
       <c r="K60" s="3">
         <v>4281100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2505900</v>
+        <v>2395700</v>
       </c>
       <c r="E61" s="3">
-        <v>2792400</v>
+        <v>2669600</v>
       </c>
       <c r="F61" s="3">
-        <v>3607900</v>
+        <v>3449200</v>
       </c>
       <c r="G61" s="3">
-        <v>1697100</v>
+        <v>1622400</v>
       </c>
       <c r="H61" s="3">
-        <v>1568500</v>
+        <v>1499500</v>
       </c>
       <c r="I61" s="3">
-        <v>569900</v>
+        <v>544800</v>
       </c>
       <c r="J61" s="3">
-        <v>814900</v>
+        <v>779000</v>
       </c>
       <c r="K61" s="3">
         <v>559500</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>725700</v>
+        <v>693700</v>
       </c>
       <c r="E62" s="3">
-        <v>731100</v>
+        <v>699000</v>
       </c>
       <c r="F62" s="3">
-        <v>656800</v>
+        <v>627900</v>
       </c>
       <c r="G62" s="3">
-        <v>502900</v>
+        <v>480800</v>
       </c>
       <c r="H62" s="3">
-        <v>449300</v>
+        <v>429600</v>
       </c>
       <c r="I62" s="3">
-        <v>416100</v>
+        <v>397800</v>
       </c>
       <c r="J62" s="3">
-        <v>871300</v>
+        <v>832900</v>
       </c>
       <c r="K62" s="3">
         <v>942100</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>7004900</v>
+        <v>6696700</v>
       </c>
       <c r="E66" s="3">
-        <v>7749700</v>
+        <v>7408800</v>
       </c>
       <c r="F66" s="3">
-        <v>9302600</v>
+        <v>8893300</v>
       </c>
       <c r="G66" s="3">
-        <v>10128300</v>
+        <v>9682700</v>
       </c>
       <c r="H66" s="3">
-        <v>9095700</v>
+        <v>8695600</v>
       </c>
       <c r="I66" s="3">
-        <v>6919400</v>
+        <v>6614900</v>
       </c>
       <c r="J66" s="3">
-        <v>7218800</v>
+        <v>6901200</v>
       </c>
       <c r="K66" s="3">
         <v>6224600</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1174800</v>
+        <v>1123100</v>
       </c>
       <c r="E72" s="3">
-        <v>1122300</v>
+        <v>1073000</v>
       </c>
       <c r="F72" s="3">
-        <v>794000</v>
+        <v>759000</v>
       </c>
       <c r="G72" s="3">
-        <v>699000</v>
+        <v>668300</v>
       </c>
       <c r="H72" s="3">
-        <v>507100</v>
+        <v>484800</v>
       </c>
       <c r="I72" s="3">
-        <v>614500</v>
+        <v>587500</v>
       </c>
       <c r="J72" s="3">
-        <v>704900</v>
+        <v>673900</v>
       </c>
       <c r="K72" s="3">
         <v>1314600</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2671100</v>
+        <v>2553600</v>
       </c>
       <c r="E76" s="3">
-        <v>2680100</v>
+        <v>2562200</v>
       </c>
       <c r="F76" s="3">
-        <v>2141000</v>
+        <v>2046800</v>
       </c>
       <c r="G76" s="3">
-        <v>2002800</v>
+        <v>1914700</v>
       </c>
       <c r="H76" s="3">
-        <v>1836400</v>
+        <v>1755700</v>
       </c>
       <c r="I76" s="3">
-        <v>1929600</v>
+        <v>1844700</v>
       </c>
       <c r="J76" s="3">
-        <v>2026300</v>
+        <v>1937100</v>
       </c>
       <c r="K76" s="3">
         <v>1870400</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>157000</v>
+        <v>150000</v>
       </c>
       <c r="E81" s="3">
-        <v>426400</v>
+        <v>407700</v>
       </c>
       <c r="F81" s="3">
-        <v>154600</v>
+        <v>147800</v>
       </c>
       <c r="G81" s="3">
-        <v>224900</v>
+        <v>215000</v>
       </c>
       <c r="H81" s="3">
-        <v>113500</v>
+        <v>108500</v>
       </c>
       <c r="I81" s="3">
-        <v>-94300</v>
+        <v>-90200</v>
       </c>
       <c r="J81" s="3">
-        <v>51900</v>
+        <v>49600</v>
       </c>
       <c r="K81" s="3">
         <v>215500</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>414300</v>
+        <v>396100</v>
       </c>
       <c r="E83" s="3">
-        <v>501800</v>
+        <v>479700</v>
       </c>
       <c r="F83" s="3">
-        <v>305100</v>
+        <v>291700</v>
       </c>
       <c r="G83" s="3">
-        <v>258700</v>
+        <v>247300</v>
       </c>
       <c r="H83" s="3">
-        <v>163000</v>
+        <v>155800</v>
       </c>
       <c r="I83" s="3">
-        <v>213100</v>
+        <v>203700</v>
       </c>
       <c r="J83" s="3">
-        <v>215700</v>
+        <v>206200</v>
       </c>
       <c r="K83" s="3">
         <v>165800</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>533900</v>
+        <v>510400</v>
       </c>
       <c r="E89" s="3">
-        <v>928000</v>
+        <v>887200</v>
       </c>
       <c r="F89" s="3">
-        <v>222100</v>
+        <v>212300</v>
       </c>
       <c r="G89" s="3">
-        <v>835100</v>
+        <v>798300</v>
       </c>
       <c r="H89" s="3">
-        <v>370900</v>
+        <v>354500</v>
       </c>
       <c r="I89" s="3">
-        <v>-255200</v>
+        <v>-244000</v>
       </c>
       <c r="J89" s="3">
-        <v>906500</v>
+        <v>866600</v>
       </c>
       <c r="K89" s="3">
         <v>890800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-202500</v>
+        <v>-193600</v>
       </c>
       <c r="E91" s="3">
-        <v>-448000</v>
+        <v>-428200</v>
       </c>
       <c r="F91" s="3">
-        <v>-481800</v>
+        <v>-460600</v>
       </c>
       <c r="G91" s="3">
-        <v>-322700</v>
+        <v>-308500</v>
       </c>
       <c r="H91" s="3">
-        <v>-274400</v>
+        <v>-262300</v>
       </c>
       <c r="I91" s="3">
-        <v>-247600</v>
+        <v>-236700</v>
       </c>
       <c r="J91" s="3">
-        <v>-309400</v>
+        <v>-295800</v>
       </c>
       <c r="K91" s="3">
         <v>-246200</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="E94" s="3">
-        <v>-839700</v>
+        <v>-802800</v>
       </c>
       <c r="F94" s="3">
-        <v>-639200</v>
+        <v>-611000</v>
       </c>
       <c r="G94" s="3">
-        <v>-371200</v>
+        <v>-354900</v>
       </c>
       <c r="H94" s="3">
-        <v>-311600</v>
+        <v>-297800</v>
       </c>
       <c r="I94" s="3">
-        <v>-395300</v>
+        <v>-377900</v>
       </c>
       <c r="J94" s="3">
-        <v>-362400</v>
+        <v>-346500</v>
       </c>
       <c r="K94" s="3">
         <v>-289900</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-152600</v>
+        <v>-145900</v>
       </c>
       <c r="E96" s="3">
-        <v>-66300</v>
+        <v>-63400</v>
       </c>
       <c r="F96" s="3">
-        <v>-52400</v>
+        <v>-50100</v>
       </c>
       <c r="G96" s="3">
-        <v>-68700</v>
+        <v>-65700</v>
       </c>
       <c r="H96" s="3">
-        <v>-19800</v>
+        <v>-18900</v>
       </c>
       <c r="I96" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J96" s="3">
-        <v>-84900</v>
+        <v>-81200</v>
       </c>
       <c r="K96" s="3">
         <v>-46100</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-536800</v>
+        <v>-513200</v>
       </c>
       <c r="E100" s="3">
-        <v>-55000</v>
+        <v>-52600</v>
       </c>
       <c r="F100" s="3">
-        <v>370700</v>
+        <v>354300</v>
       </c>
       <c r="G100" s="3">
-        <v>-321100</v>
+        <v>-307000</v>
       </c>
       <c r="H100" s="3">
-        <v>-409800</v>
+        <v>-391800</v>
       </c>
       <c r="I100" s="3">
-        <v>288700</v>
+        <v>276000</v>
       </c>
       <c r="J100" s="3">
-        <v>-588300</v>
+        <v>-562400</v>
       </c>
       <c r="K100" s="3">
         <v>-113500</v>
@@ -3959,13 +3959,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-67500</v>
+        <v>-64500</v>
       </c>
       <c r="E101" s="3">
-        <v>114900</v>
+        <v>109800</v>
       </c>
       <c r="F101" s="3">
-        <v>21700</v>
+        <v>20800</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>8</v>
@@ -3974,10 +3974,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-4700</v>
+        <v>-4500</v>
       </c>
       <c r="J101" s="3">
-        <v>18000</v>
+        <v>17200</v>
       </c>
       <c r="K101" s="3">
         <v>9300</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-85500</v>
+        <v>-81800</v>
       </c>
       <c r="E102" s="3">
-        <v>148100</v>
+        <v>141600</v>
       </c>
       <c r="F102" s="3">
-        <v>-24700</v>
+        <v>-23600</v>
       </c>
       <c r="G102" s="3">
-        <v>142700</v>
+        <v>136400</v>
       </c>
       <c r="H102" s="3">
-        <v>-350500</v>
+        <v>-335100</v>
       </c>
       <c r="I102" s="3">
-        <v>-366500</v>
+        <v>-350400</v>
       </c>
       <c r="J102" s="3">
-        <v>-26200</v>
+        <v>-25100</v>
       </c>
       <c r="K102" s="3">
         <v>496600</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>CBD</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9596000</v>
+        <v>3353900</v>
       </c>
       <c r="E8" s="3">
-        <v>9588900</v>
+        <v>3155800</v>
       </c>
       <c r="F8" s="3">
-        <v>5395300</v>
+        <v>9924100</v>
       </c>
       <c r="G8" s="3">
-        <v>9240000</v>
+        <v>5583900</v>
       </c>
       <c r="H8" s="3">
-        <v>8350600</v>
+        <v>9563000</v>
       </c>
       <c r="I8" s="3">
-        <v>7755600</v>
+        <v>8642500</v>
       </c>
       <c r="J8" s="3">
+        <v>8026700</v>
+      </c>
+      <c r="K8" s="3">
         <v>6959400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11676500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10826200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11913300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11559200</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7173200</v>
+        <v>2520900</v>
       </c>
       <c r="E9" s="3">
-        <v>7016600</v>
+        <v>2312300</v>
       </c>
       <c r="F9" s="3">
-        <v>3971000</v>
+        <v>7261900</v>
       </c>
       <c r="G9" s="3">
-        <v>7068100</v>
+        <v>4109800</v>
       </c>
       <c r="H9" s="3">
-        <v>6294800</v>
+        <v>7315100</v>
       </c>
       <c r="I9" s="3">
-        <v>5974300</v>
+        <v>6514900</v>
       </c>
       <c r="J9" s="3">
+        <v>6183200</v>
+      </c>
+      <c r="K9" s="3">
         <v>5261500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>8677900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7999800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8689300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8418100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2422800</v>
+        <v>833000</v>
       </c>
       <c r="E10" s="3">
-        <v>2572300</v>
+        <v>843500</v>
       </c>
       <c r="F10" s="3">
-        <v>1424300</v>
+        <v>2662200</v>
       </c>
       <c r="G10" s="3">
-        <v>2171900</v>
+        <v>1474100</v>
       </c>
       <c r="H10" s="3">
-        <v>2055700</v>
+        <v>2247900</v>
       </c>
       <c r="I10" s="3">
-        <v>1781300</v>
+        <v>2127600</v>
       </c>
       <c r="J10" s="3">
+        <v>1843600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1697800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2998600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2826400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3224000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3141100</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>134000</v>
+        <v>61000</v>
       </c>
       <c r="E14" s="3">
-        <v>110000</v>
+        <v>133400</v>
       </c>
       <c r="F14" s="3">
-        <v>50000</v>
+        <v>113900</v>
       </c>
       <c r="G14" s="3">
-        <v>27500</v>
+        <v>51700</v>
       </c>
       <c r="H14" s="3">
-        <v>20000</v>
+        <v>28500</v>
       </c>
       <c r="I14" s="3">
-        <v>18500</v>
+        <v>20700</v>
       </c>
       <c r="J14" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K14" s="3">
         <v>21700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>65300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>107200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>42800</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>346700</v>
+        <v>180300</v>
       </c>
       <c r="E15" s="3">
-        <v>337500</v>
+        <v>156800</v>
       </c>
       <c r="F15" s="3">
-        <v>192300</v>
+        <v>349300</v>
       </c>
       <c r="G15" s="3">
-        <v>224900</v>
+        <v>199100</v>
       </c>
       <c r="H15" s="3">
-        <v>145700</v>
+        <v>232700</v>
       </c>
       <c r="I15" s="3">
-        <v>132300</v>
+        <v>150800</v>
       </c>
       <c r="J15" s="3">
+        <v>136900</v>
+      </c>
+      <c r="K15" s="3">
         <v>121600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>146200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>147300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>175400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>168800</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9279900</v>
+        <v>3463300</v>
       </c>
       <c r="E17" s="3">
-        <v>9097100</v>
+        <v>3145500</v>
       </c>
       <c r="F17" s="3">
-        <v>5301200</v>
+        <v>9415100</v>
       </c>
       <c r="G17" s="3">
-        <v>8748000</v>
+        <v>5486500</v>
       </c>
       <c r="H17" s="3">
-        <v>8073300</v>
+        <v>9053800</v>
       </c>
       <c r="I17" s="3">
-        <v>7595500</v>
+        <v>8355500</v>
       </c>
       <c r="J17" s="3">
+        <v>7861000</v>
+      </c>
+      <c r="K17" s="3">
         <v>6657800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>10993400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>10274400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11243300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11037600</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>316200</v>
+        <v>-109400</v>
       </c>
       <c r="E18" s="3">
-        <v>491900</v>
+        <v>10300</v>
       </c>
       <c r="F18" s="3">
-        <v>94100</v>
+        <v>509100</v>
       </c>
       <c r="G18" s="3">
-        <v>492000</v>
+        <v>97400</v>
       </c>
       <c r="H18" s="3">
-        <v>277300</v>
+        <v>509200</v>
       </c>
       <c r="I18" s="3">
-        <v>160100</v>
+        <v>287000</v>
       </c>
       <c r="J18" s="3">
+        <v>165700</v>
+      </c>
+      <c r="K18" s="3">
         <v>301600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>683000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>551800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>670000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>521600</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-16100</v>
+        <v>98000</v>
       </c>
       <c r="E20" s="3">
-        <v>72600</v>
+        <v>26100</v>
       </c>
       <c r="F20" s="3">
-        <v>-1100</v>
+        <v>75100</v>
       </c>
       <c r="G20" s="3">
-        <v>-15700</v>
+        <v>-1200</v>
       </c>
       <c r="H20" s="3">
-        <v>-43400</v>
+        <v>-16300</v>
       </c>
       <c r="I20" s="3">
-        <v>-37000</v>
+        <v>-44900</v>
       </c>
       <c r="J20" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-13100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-146200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-111000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>350600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-153300</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>708300</v>
+        <v>358200</v>
       </c>
       <c r="E21" s="3">
-        <v>1058800</v>
+        <v>447800</v>
       </c>
       <c r="F21" s="3">
-        <v>393600</v>
+        <v>1082500</v>
       </c>
       <c r="G21" s="3">
-        <v>731200</v>
+        <v>399200</v>
       </c>
       <c r="H21" s="3">
-        <v>394500</v>
+        <v>749900</v>
       </c>
       <c r="I21" s="3">
-        <v>333100</v>
+        <v>403900</v>
       </c>
       <c r="J21" s="3">
+        <v>339100</v>
+      </c>
+      <c r="K21" s="3">
         <v>501000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>702400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>603100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1217500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>541000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>231100</v>
+        <v>243200</v>
       </c>
       <c r="E22" s="3">
-        <v>208800</v>
+        <v>146800</v>
       </c>
       <c r="F22" s="3">
-        <v>161800</v>
+        <v>216100</v>
       </c>
       <c r="G22" s="3">
-        <v>182800</v>
+        <v>167500</v>
       </c>
       <c r="H22" s="3">
-        <v>93200</v>
+        <v>189200</v>
       </c>
       <c r="I22" s="3">
-        <v>131900</v>
+        <v>96400</v>
       </c>
       <c r="J22" s="3">
+        <v>136500</v>
+      </c>
+      <c r="K22" s="3">
         <v>130600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>122600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>112300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>629100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>168700</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>69000</v>
+        <v>-254600</v>
       </c>
       <c r="E23" s="3">
-        <v>355700</v>
+        <v>-110400</v>
       </c>
       <c r="F23" s="3">
-        <v>-68800</v>
+        <v>368100</v>
       </c>
       <c r="G23" s="3">
-        <v>293500</v>
+        <v>-71300</v>
       </c>
       <c r="H23" s="3">
-        <v>140700</v>
+        <v>303800</v>
       </c>
       <c r="I23" s="3">
-        <v>-8800</v>
+        <v>145600</v>
       </c>
       <c r="J23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="K23" s="3">
         <v>157900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>414200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>328600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>391400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>199600</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-111100</v>
+        <v>-87900</v>
       </c>
       <c r="E24" s="3">
-        <v>123900</v>
+        <v>-140400</v>
       </c>
       <c r="F24" s="3">
-        <v>-17800</v>
+        <v>128200</v>
       </c>
       <c r="G24" s="3">
-        <v>77300</v>
+        <v>-18400</v>
       </c>
       <c r="H24" s="3">
-        <v>55600</v>
+        <v>80000</v>
       </c>
       <c r="I24" s="3">
-        <v>4500</v>
+        <v>57500</v>
       </c>
       <c r="J24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K24" s="3">
         <v>42800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>131400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>121400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>21100</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>180200</v>
+        <v>-166700</v>
       </c>
       <c r="E26" s="3">
-        <v>231800</v>
+        <v>30000</v>
       </c>
       <c r="F26" s="3">
-        <v>-51100</v>
+        <v>239900</v>
       </c>
       <c r="G26" s="3">
-        <v>216300</v>
+        <v>-52900</v>
       </c>
       <c r="H26" s="3">
-        <v>85100</v>
+        <v>223800</v>
       </c>
       <c r="I26" s="3">
-        <v>-13300</v>
+        <v>88100</v>
       </c>
       <c r="J26" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="K26" s="3">
         <v>115100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>282800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>261200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>269900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>178500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>150600</v>
+        <v>-199200</v>
       </c>
       <c r="E27" s="3">
-        <v>204300</v>
+        <v>-600</v>
       </c>
       <c r="F27" s="3">
-        <v>-59700</v>
+        <v>211400</v>
       </c>
       <c r="G27" s="3">
-        <v>191000</v>
+        <v>-61800</v>
       </c>
       <c r="H27" s="3">
-        <v>41900</v>
+        <v>197700</v>
       </c>
       <c r="I27" s="3">
-        <v>97800</v>
+        <v>43400</v>
       </c>
       <c r="J27" s="3">
+        <v>101300</v>
+      </c>
+      <c r="K27" s="3">
         <v>216300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>215500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>196900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>87900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>64400</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,35 +1523,38 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-600</v>
+        <v>165900</v>
       </c>
       <c r="E29" s="3">
-        <v>203400</v>
+        <v>155900</v>
       </c>
       <c r="F29" s="3">
-        <v>207500</v>
+        <v>210500</v>
       </c>
       <c r="G29" s="3">
-        <v>23900</v>
+        <v>214700</v>
       </c>
       <c r="H29" s="3">
-        <v>66600</v>
+        <v>24800</v>
       </c>
       <c r="I29" s="3">
-        <v>-188000</v>
+        <v>68900</v>
       </c>
       <c r="J29" s="3">
+        <v>-194600</v>
+      </c>
+      <c r="K29" s="3">
         <v>-166700</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>16100</v>
+        <v>-98000</v>
       </c>
       <c r="E32" s="3">
-        <v>-72600</v>
+        <v>-26100</v>
       </c>
       <c r="F32" s="3">
-        <v>1100</v>
+        <v>-75100</v>
       </c>
       <c r="G32" s="3">
-        <v>15700</v>
+        <v>1200</v>
       </c>
       <c r="H32" s="3">
-        <v>43400</v>
+        <v>16300</v>
       </c>
       <c r="I32" s="3">
-        <v>37000</v>
+        <v>44900</v>
       </c>
       <c r="J32" s="3">
+        <v>38300</v>
+      </c>
+      <c r="K32" s="3">
         <v>13100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>146200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>111000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-350600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>153300</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>150000</v>
+        <v>-33300</v>
       </c>
       <c r="E33" s="3">
-        <v>407700</v>
+        <v>155300</v>
       </c>
       <c r="F33" s="3">
-        <v>147800</v>
+        <v>421900</v>
       </c>
       <c r="G33" s="3">
-        <v>215000</v>
+        <v>153000</v>
       </c>
       <c r="H33" s="3">
-        <v>108500</v>
+        <v>222500</v>
       </c>
       <c r="I33" s="3">
-        <v>-90200</v>
+        <v>112300</v>
       </c>
       <c r="J33" s="3">
+        <v>-93300</v>
+      </c>
+      <c r="K33" s="3">
         <v>49600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>215500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>196900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>87900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>64400</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>150000</v>
+        <v>-33300</v>
       </c>
       <c r="E35" s="3">
-        <v>407700</v>
+        <v>155300</v>
       </c>
       <c r="F35" s="3">
-        <v>147800</v>
+        <v>421900</v>
       </c>
       <c r="G35" s="3">
-        <v>215000</v>
+        <v>153000</v>
       </c>
       <c r="H35" s="3">
-        <v>108500</v>
+        <v>222500</v>
       </c>
       <c r="I35" s="3">
-        <v>-90200</v>
+        <v>112300</v>
       </c>
       <c r="J35" s="3">
+        <v>-93300</v>
+      </c>
+      <c r="K35" s="3">
         <v>49600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>215500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>196900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>87900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>64400</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,47 +1903,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1548000</v>
+        <v>726300</v>
       </c>
       <c r="E41" s="3">
-        <v>1629700</v>
+        <v>1602100</v>
       </c>
       <c r="F41" s="3">
-        <v>1488100</v>
+        <v>1686700</v>
       </c>
       <c r="G41" s="3">
-        <v>817400</v>
+        <v>1540100</v>
       </c>
       <c r="H41" s="3">
-        <v>1418900</v>
+        <v>846000</v>
       </c>
       <c r="I41" s="3">
-        <v>956400</v>
+        <v>1468500</v>
       </c>
       <c r="J41" s="3">
+        <v>989800</v>
+      </c>
+      <c r="K41" s="3">
         <v>2060800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1990300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1565700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3309600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129600</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1887,290 +1976,314 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>4600</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>1103400</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>539600</v>
+        <v>350500</v>
       </c>
       <c r="E43" s="3">
-        <v>380500</v>
+        <v>558400</v>
       </c>
       <c r="F43" s="3">
-        <v>523900</v>
+        <v>393800</v>
       </c>
       <c r="G43" s="3">
-        <v>255400</v>
+        <v>542200</v>
       </c>
       <c r="H43" s="3">
-        <v>392700</v>
+        <v>264300</v>
       </c>
       <c r="I43" s="3">
-        <v>251300</v>
+        <v>406400</v>
       </c>
       <c r="J43" s="3">
+        <v>260000</v>
+      </c>
+      <c r="K43" s="3">
         <v>872800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>757100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>683200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>894800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1675400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>983500</v>
+        <v>396200</v>
       </c>
       <c r="E44" s="3">
-        <v>1222800</v>
+        <v>1017900</v>
       </c>
       <c r="F44" s="3">
-        <v>1614800</v>
+        <v>1265600</v>
       </c>
       <c r="G44" s="3">
-        <v>1105500</v>
+        <v>1671200</v>
       </c>
       <c r="H44" s="3">
-        <v>1804300</v>
+        <v>1144200</v>
       </c>
       <c r="I44" s="3">
-        <v>868300</v>
+        <v>1867400</v>
       </c>
       <c r="J44" s="3">
+        <v>898600</v>
+      </c>
+      <c r="K44" s="3">
         <v>1677300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1493100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1194200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2690000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1377500</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>272600</v>
+        <v>4056900</v>
       </c>
       <c r="E45" s="3">
-        <v>67400</v>
+        <v>282100</v>
       </c>
       <c r="F45" s="3">
-        <v>109100</v>
+        <v>69700</v>
       </c>
       <c r="G45" s="3">
-        <v>5464200</v>
+        <v>112900</v>
       </c>
       <c r="H45" s="3">
-        <v>5055700</v>
+        <v>5655200</v>
       </c>
       <c r="I45" s="3">
-        <v>3845600</v>
+        <v>5232500</v>
       </c>
       <c r="J45" s="3">
+        <v>3980100</v>
+      </c>
+      <c r="K45" s="3">
         <v>58900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>47700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>34700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>40300</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>3343700</v>
+        <v>5529900</v>
       </c>
       <c r="E46" s="3">
-        <v>3300500</v>
+        <v>3460600</v>
       </c>
       <c r="F46" s="3">
-        <v>3735800</v>
+        <v>3415800</v>
       </c>
       <c r="G46" s="3">
-        <v>7642400</v>
+        <v>3866400</v>
       </c>
       <c r="H46" s="3">
-        <v>6917100</v>
+        <v>7909600</v>
       </c>
       <c r="I46" s="3">
-        <v>5921600</v>
+        <v>7158900</v>
       </c>
       <c r="J46" s="3">
+        <v>6128600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4669800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4288200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3482400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3895200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4285900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>886800</v>
+        <v>904100</v>
       </c>
       <c r="E47" s="3">
-        <v>969100</v>
+        <v>917800</v>
       </c>
       <c r="F47" s="3">
-        <v>675000</v>
+        <v>1003000</v>
       </c>
       <c r="G47" s="3">
-        <v>582600</v>
+        <v>698600</v>
       </c>
       <c r="H47" s="3">
-        <v>495800</v>
+        <v>603000</v>
       </c>
       <c r="I47" s="3">
-        <v>295000</v>
+        <v>513100</v>
       </c>
       <c r="J47" s="3">
+        <v>305400</v>
+      </c>
+      <c r="K47" s="3">
         <v>726100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1266400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>497100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>739100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>538500</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3666600</v>
+        <v>1325200</v>
       </c>
       <c r="E48" s="3">
-        <v>4401700</v>
+        <v>3794800</v>
       </c>
       <c r="F48" s="3">
-        <v>5115200</v>
+        <v>4555500</v>
       </c>
       <c r="G48" s="3">
-        <v>2638300</v>
+        <v>5294000</v>
       </c>
       <c r="H48" s="3">
-        <v>4200400</v>
+        <v>2730600</v>
       </c>
       <c r="I48" s="3">
-        <v>1722200</v>
+        <v>4347200</v>
       </c>
       <c r="J48" s="3">
+        <v>1782400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1946100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1740400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1694200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1776800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1825400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1076300</v>
+        <v>384500</v>
       </c>
       <c r="E49" s="3">
-        <v>1153200</v>
+        <v>1114000</v>
       </c>
       <c r="F49" s="3">
-        <v>1166700</v>
+        <v>1193500</v>
       </c>
       <c r="G49" s="3">
-        <v>1027700</v>
+        <v>1207500</v>
       </c>
       <c r="H49" s="3">
-        <v>1071300</v>
+        <v>1063600</v>
       </c>
       <c r="I49" s="3">
-        <v>357000</v>
+        <v>1108700</v>
       </c>
       <c r="J49" s="3">
+        <v>369400</v>
+      </c>
+      <c r="K49" s="3">
         <v>1224100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1151100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1066800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3485700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1225400</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>276900</v>
+        <v>344900</v>
       </c>
       <c r="E52" s="3">
-        <v>146500</v>
+        <v>286600</v>
       </c>
       <c r="F52" s="3">
-        <v>247300</v>
+        <v>151600</v>
       </c>
       <c r="G52" s="3">
-        <v>278200</v>
+        <v>256000</v>
       </c>
       <c r="H52" s="3">
-        <v>204300</v>
+        <v>287900</v>
       </c>
       <c r="I52" s="3">
-        <v>163900</v>
+        <v>211400</v>
       </c>
       <c r="J52" s="3">
+        <v>169600</v>
+      </c>
+      <c r="K52" s="3">
         <v>272200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>278000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>372000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>612800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>502200</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9250300</v>
+        <v>8488500</v>
       </c>
       <c r="E54" s="3">
-        <v>9971000</v>
+        <v>9573600</v>
       </c>
       <c r="F54" s="3">
-        <v>10940100</v>
+        <v>10319500</v>
       </c>
       <c r="G54" s="3">
-        <v>11597300</v>
+        <v>11322500</v>
       </c>
       <c r="H54" s="3">
-        <v>10451200</v>
+        <v>12002700</v>
       </c>
       <c r="I54" s="3">
-        <v>8459600</v>
+        <v>10816600</v>
       </c>
       <c r="J54" s="3">
+        <v>8755400</v>
+      </c>
+      <c r="K54" s="3">
         <v>8838300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8095000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7112500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8134000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8377400</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1885500</v>
+        <v>604700</v>
       </c>
       <c r="E57" s="3">
-        <v>2137300</v>
+        <v>1951400</v>
       </c>
       <c r="F57" s="3">
-        <v>2785200</v>
+        <v>2212000</v>
       </c>
       <c r="G57" s="3">
-        <v>1729800</v>
+        <v>2882600</v>
       </c>
       <c r="H57" s="3">
-        <v>1520700</v>
+        <v>1790300</v>
       </c>
       <c r="I57" s="3">
-        <v>1353000</v>
+        <v>1573800</v>
       </c>
       <c r="J57" s="3">
+        <v>1400300</v>
+      </c>
+      <c r="K57" s="3">
         <v>2901400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2404000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1599500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2933600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1564600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>442500</v>
+        <v>288700</v>
       </c>
       <c r="E58" s="3">
-        <v>609200</v>
+        <v>457900</v>
       </c>
       <c r="F58" s="3">
-        <v>827900</v>
+        <v>630500</v>
       </c>
       <c r="G58" s="3">
-        <v>842700</v>
+        <v>856800</v>
       </c>
       <c r="H58" s="3">
-        <v>541800</v>
+        <v>872100</v>
       </c>
       <c r="I58" s="3">
-        <v>553200</v>
+        <v>560800</v>
       </c>
       <c r="J58" s="3">
+        <v>572600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1427100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2418400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>967700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2150900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1219900</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>768400</v>
+        <v>2542900</v>
       </c>
       <c r="E59" s="3">
-        <v>711500</v>
+        <v>795200</v>
       </c>
       <c r="F59" s="3">
-        <v>715200</v>
+        <v>736400</v>
       </c>
       <c r="G59" s="3">
-        <v>4860600</v>
+        <v>740200</v>
       </c>
       <c r="H59" s="3">
-        <v>4483200</v>
+        <v>5030500</v>
       </c>
       <c r="I59" s="3">
-        <v>3254100</v>
+        <v>4640000</v>
       </c>
       <c r="J59" s="3">
+        <v>3367800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1113400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1183600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>946600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1508300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>564900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3096300</v>
+        <v>3436400</v>
       </c>
       <c r="E60" s="3">
-        <v>3458000</v>
+        <v>3204600</v>
       </c>
       <c r="F60" s="3">
-        <v>4328300</v>
+        <v>3578900</v>
       </c>
       <c r="G60" s="3">
-        <v>7032200</v>
+        <v>4479600</v>
       </c>
       <c r="H60" s="3">
-        <v>6247900</v>
+        <v>7278000</v>
       </c>
       <c r="I60" s="3">
-        <v>5160300</v>
+        <v>6466300</v>
       </c>
       <c r="J60" s="3">
+        <v>5340700</v>
+      </c>
+      <c r="K60" s="3">
         <v>4728300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4281100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3183600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3127100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3349400</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2395700</v>
+        <v>1628200</v>
       </c>
       <c r="E61" s="3">
-        <v>2669600</v>
+        <v>2479400</v>
       </c>
       <c r="F61" s="3">
-        <v>3449200</v>
+        <v>2762900</v>
       </c>
       <c r="G61" s="3">
-        <v>1622400</v>
+        <v>3569800</v>
       </c>
       <c r="H61" s="3">
-        <v>1499500</v>
+        <v>1679200</v>
       </c>
       <c r="I61" s="3">
-        <v>544800</v>
+        <v>1551900</v>
       </c>
       <c r="J61" s="3">
+        <v>563900</v>
+      </c>
+      <c r="K61" s="3">
         <v>779000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>559500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>808700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1466800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1548200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>693700</v>
+        <v>764800</v>
       </c>
       <c r="E62" s="3">
-        <v>699000</v>
+        <v>718000</v>
       </c>
       <c r="F62" s="3">
-        <v>627900</v>
+        <v>723400</v>
       </c>
       <c r="G62" s="3">
-        <v>480800</v>
+        <v>649800</v>
       </c>
       <c r="H62" s="3">
-        <v>429600</v>
+        <v>497600</v>
       </c>
       <c r="I62" s="3">
-        <v>397800</v>
+        <v>444600</v>
       </c>
       <c r="J62" s="3">
+        <v>411700</v>
+      </c>
+      <c r="K62" s="3">
         <v>832900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>942100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>956100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1328000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>975600</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6696700</v>
+        <v>6253100</v>
       </c>
       <c r="E66" s="3">
-        <v>7408800</v>
+        <v>6930800</v>
       </c>
       <c r="F66" s="3">
-        <v>8893300</v>
+        <v>7667700</v>
       </c>
       <c r="G66" s="3">
-        <v>9682700</v>
+        <v>9204200</v>
       </c>
       <c r="H66" s="3">
-        <v>8695600</v>
+        <v>10021100</v>
       </c>
       <c r="I66" s="3">
-        <v>6614900</v>
+        <v>8999500</v>
       </c>
       <c r="J66" s="3">
+        <v>6846200</v>
+      </c>
+      <c r="K66" s="3">
         <v>6901200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6224600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5337900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6150300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6485700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1123100</v>
+        <v>1160200</v>
       </c>
       <c r="E72" s="3">
-        <v>1073000</v>
+        <v>1162400</v>
       </c>
       <c r="F72" s="3">
-        <v>759000</v>
+        <v>1110500</v>
       </c>
       <c r="G72" s="3">
-        <v>668300</v>
+        <v>785600</v>
       </c>
       <c r="H72" s="3">
-        <v>484800</v>
+        <v>691600</v>
       </c>
       <c r="I72" s="3">
-        <v>587500</v>
+        <v>501700</v>
       </c>
       <c r="J72" s="3">
+        <v>608000</v>
+      </c>
+      <c r="K72" s="3">
         <v>673900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1314600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1024600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1196900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>275700</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2553600</v>
+        <v>2235500</v>
       </c>
       <c r="E76" s="3">
-        <v>2562200</v>
+        <v>2642900</v>
       </c>
       <c r="F76" s="3">
-        <v>2046800</v>
+        <v>2651800</v>
       </c>
       <c r="G76" s="3">
-        <v>1914700</v>
+        <v>2118300</v>
       </c>
       <c r="H76" s="3">
-        <v>1755700</v>
+        <v>1981600</v>
       </c>
       <c r="I76" s="3">
-        <v>1844700</v>
+        <v>1817000</v>
       </c>
       <c r="J76" s="3">
+        <v>1909200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1937100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1870400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1774600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1983700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1891700</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>150000</v>
+        <v>-33300</v>
       </c>
       <c r="E81" s="3">
-        <v>407700</v>
+        <v>155300</v>
       </c>
       <c r="F81" s="3">
-        <v>147800</v>
+        <v>421900</v>
       </c>
       <c r="G81" s="3">
-        <v>215000</v>
+        <v>153000</v>
       </c>
       <c r="H81" s="3">
-        <v>108500</v>
+        <v>222500</v>
       </c>
       <c r="I81" s="3">
-        <v>-90200</v>
+        <v>112300</v>
       </c>
       <c r="J81" s="3">
+        <v>-93300</v>
+      </c>
+      <c r="K81" s="3">
         <v>49600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>215500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>196900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>87900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>64400</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>396100</v>
+        <v>368300</v>
       </c>
       <c r="E83" s="3">
-        <v>479700</v>
+        <v>409900</v>
       </c>
       <c r="F83" s="3">
-        <v>291700</v>
+        <v>496500</v>
       </c>
       <c r="G83" s="3">
-        <v>247300</v>
+        <v>301900</v>
       </c>
       <c r="H83" s="3">
-        <v>155800</v>
+        <v>256000</v>
       </c>
       <c r="I83" s="3">
-        <v>203700</v>
+        <v>161300</v>
       </c>
       <c r="J83" s="3">
+        <v>210900</v>
+      </c>
+      <c r="K83" s="3">
         <v>206200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>165800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>161900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>194800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>175300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>510400</v>
+        <v>-41800</v>
       </c>
       <c r="E89" s="3">
-        <v>887200</v>
+        <v>528200</v>
       </c>
       <c r="F89" s="3">
-        <v>212300</v>
+        <v>918200</v>
       </c>
       <c r="G89" s="3">
-        <v>798300</v>
+        <v>219800</v>
       </c>
       <c r="H89" s="3">
-        <v>354500</v>
+        <v>826200</v>
       </c>
       <c r="I89" s="3">
-        <v>-244000</v>
+        <v>366900</v>
       </c>
       <c r="J89" s="3">
+        <v>-252500</v>
+      </c>
+      <c r="K89" s="3">
         <v>866600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>890800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>915400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1237500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>279800</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-193600</v>
+        <v>-270700</v>
       </c>
       <c r="E91" s="3">
-        <v>-428200</v>
+        <v>-200400</v>
       </c>
       <c r="F91" s="3">
-        <v>-460600</v>
+        <v>-443200</v>
       </c>
       <c r="G91" s="3">
-        <v>-308500</v>
+        <v>-476700</v>
       </c>
       <c r="H91" s="3">
-        <v>-262300</v>
+        <v>-319300</v>
       </c>
       <c r="I91" s="3">
-        <v>-236700</v>
+        <v>-271500</v>
       </c>
       <c r="J91" s="3">
+        <v>-244900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-295800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-246200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-309900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-305700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-360800</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-14400</v>
+        <v>548700</v>
       </c>
       <c r="E94" s="3">
-        <v>-802800</v>
+        <v>-14900</v>
       </c>
       <c r="F94" s="3">
-        <v>-611000</v>
+        <v>-830900</v>
       </c>
       <c r="G94" s="3">
-        <v>-354900</v>
+        <v>-632400</v>
       </c>
       <c r="H94" s="3">
-        <v>-297800</v>
+        <v>-367300</v>
       </c>
       <c r="I94" s="3">
-        <v>-377900</v>
+        <v>-308300</v>
       </c>
       <c r="J94" s="3">
+        <v>-391100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-346500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-289900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-367400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-305000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-336500</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-145900</v>
+        <v>-51300</v>
       </c>
       <c r="E96" s="3">
-        <v>-63400</v>
+        <v>-151000</v>
       </c>
       <c r="F96" s="3">
-        <v>-50100</v>
+        <v>-65600</v>
       </c>
       <c r="G96" s="3">
-        <v>-65700</v>
+        <v>-51900</v>
       </c>
       <c r="H96" s="3">
-        <v>-18900</v>
+        <v>-68000</v>
       </c>
       <c r="I96" s="3">
-        <v>-700</v>
+        <v>-19600</v>
       </c>
       <c r="J96" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K96" s="3">
         <v>-81200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-46100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-84700</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-43500</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-45500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,77 +4155,83 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-513200</v>
+        <v>-910600</v>
       </c>
       <c r="E100" s="3">
-        <v>-52600</v>
+        <v>-531100</v>
       </c>
       <c r="F100" s="3">
-        <v>354300</v>
+        <v>-54400</v>
       </c>
       <c r="G100" s="3">
-        <v>-307000</v>
+        <v>366700</v>
       </c>
       <c r="H100" s="3">
-        <v>-391800</v>
+        <v>-317700</v>
       </c>
       <c r="I100" s="3">
-        <v>276000</v>
+        <v>-405500</v>
       </c>
       <c r="J100" s="3">
+        <v>285600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-562400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-113500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-308400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-438300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>342400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64500</v>
+        <v>-110000</v>
       </c>
       <c r="E101" s="3">
-        <v>109800</v>
+        <v>-66800</v>
       </c>
       <c r="F101" s="3">
-        <v>20800</v>
-      </c>
-      <c r="G101" s="3" t="s">
+        <v>113700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>21500</v>
+      </c>
+      <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
-        <v>-4500</v>
+        <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K101" s="3">
         <v>17200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9300</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
@@ -3991,46 +4239,52 @@
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-81800</v>
+        <v>-513700</v>
       </c>
       <c r="E102" s="3">
-        <v>141600</v>
+        <v>-84600</v>
       </c>
       <c r="F102" s="3">
-        <v>-23600</v>
+        <v>146600</v>
       </c>
       <c r="G102" s="3">
-        <v>136400</v>
+        <v>-24400</v>
       </c>
       <c r="H102" s="3">
-        <v>-335100</v>
+        <v>141200</v>
       </c>
       <c r="I102" s="3">
-        <v>-350400</v>
+        <v>-346800</v>
       </c>
       <c r="J102" s="3">
+        <v>-362700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-25100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>496600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>239700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>494200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>285800</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3353900</v>
+        <v>3488400</v>
       </c>
       <c r="E8" s="3">
-        <v>3155800</v>
+        <v>3282400</v>
       </c>
       <c r="F8" s="3">
-        <v>9924100</v>
+        <v>10322400</v>
       </c>
       <c r="G8" s="3">
-        <v>5583900</v>
+        <v>5808000</v>
       </c>
       <c r="H8" s="3">
-        <v>9563000</v>
+        <v>9946700</v>
       </c>
       <c r="I8" s="3">
-        <v>8642500</v>
+        <v>8989300</v>
       </c>
       <c r="J8" s="3">
-        <v>8026700</v>
+        <v>8348800</v>
       </c>
       <c r="K8" s="3">
         <v>6959400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2520900</v>
+        <v>2622000</v>
       </c>
       <c r="E9" s="3">
-        <v>2312300</v>
+        <v>2405100</v>
       </c>
       <c r="F9" s="3">
-        <v>7261900</v>
+        <v>7553300</v>
       </c>
       <c r="G9" s="3">
-        <v>4109800</v>
+        <v>4274700</v>
       </c>
       <c r="H9" s="3">
-        <v>7315100</v>
+        <v>7608700</v>
       </c>
       <c r="I9" s="3">
-        <v>6514900</v>
+        <v>6776300</v>
       </c>
       <c r="J9" s="3">
-        <v>6183200</v>
+        <v>6431300</v>
       </c>
       <c r="K9" s="3">
         <v>5261500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>833000</v>
+        <v>866400</v>
       </c>
       <c r="E10" s="3">
-        <v>843500</v>
+        <v>877300</v>
       </c>
       <c r="F10" s="3">
-        <v>2662200</v>
+        <v>2769000</v>
       </c>
       <c r="G10" s="3">
-        <v>1474100</v>
+        <v>1533300</v>
       </c>
       <c r="H10" s="3">
-        <v>2247900</v>
+        <v>2338100</v>
       </c>
       <c r="I10" s="3">
-        <v>2127600</v>
+        <v>2213000</v>
       </c>
       <c r="J10" s="3">
-        <v>1843600</v>
+        <v>1917500</v>
       </c>
       <c r="K10" s="3">
         <v>1697800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>61000</v>
+        <v>63400</v>
       </c>
       <c r="E14" s="3">
-        <v>133400</v>
+        <v>138800</v>
       </c>
       <c r="F14" s="3">
-        <v>113900</v>
+        <v>118400</v>
       </c>
       <c r="G14" s="3">
-        <v>51700</v>
+        <v>53800</v>
       </c>
       <c r="H14" s="3">
-        <v>28500</v>
+        <v>29600</v>
       </c>
       <c r="I14" s="3">
-        <v>20700</v>
+        <v>21500</v>
       </c>
       <c r="J14" s="3">
-        <v>19200</v>
+        <v>19900</v>
       </c>
       <c r="K14" s="3">
         <v>21700</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>180300</v>
+        <v>187500</v>
       </c>
       <c r="E15" s="3">
-        <v>156800</v>
+        <v>163100</v>
       </c>
       <c r="F15" s="3">
-        <v>349300</v>
+        <v>363300</v>
       </c>
       <c r="G15" s="3">
-        <v>199100</v>
+        <v>207000</v>
       </c>
       <c r="H15" s="3">
-        <v>232700</v>
+        <v>242100</v>
       </c>
       <c r="I15" s="3">
-        <v>150800</v>
+        <v>156900</v>
       </c>
       <c r="J15" s="3">
-        <v>136900</v>
+        <v>142400</v>
       </c>
       <c r="K15" s="3">
         <v>121600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3463300</v>
+        <v>3602200</v>
       </c>
       <c r="E17" s="3">
-        <v>3145500</v>
+        <v>3271700</v>
       </c>
       <c r="F17" s="3">
-        <v>9415100</v>
+        <v>9792900</v>
       </c>
       <c r="G17" s="3">
-        <v>5486500</v>
+        <v>5706700</v>
       </c>
       <c r="H17" s="3">
-        <v>9053800</v>
+        <v>9417100</v>
       </c>
       <c r="I17" s="3">
-        <v>8355500</v>
+        <v>8690800</v>
       </c>
       <c r="J17" s="3">
-        <v>7861000</v>
+        <v>8176400</v>
       </c>
       <c r="K17" s="3">
         <v>6657800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-109400</v>
+        <v>-113800</v>
       </c>
       <c r="E18" s="3">
-        <v>10300</v>
+        <v>10700</v>
       </c>
       <c r="F18" s="3">
-        <v>509100</v>
+        <v>529500</v>
       </c>
       <c r="G18" s="3">
-        <v>97400</v>
+        <v>101300</v>
       </c>
       <c r="H18" s="3">
-        <v>509200</v>
+        <v>529700</v>
       </c>
       <c r="I18" s="3">
-        <v>287000</v>
+        <v>298500</v>
       </c>
       <c r="J18" s="3">
-        <v>165700</v>
+        <v>172400</v>
       </c>
       <c r="K18" s="3">
         <v>301600</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>98000</v>
+        <v>101900</v>
       </c>
       <c r="E20" s="3">
-        <v>26100</v>
+        <v>27200</v>
       </c>
       <c r="F20" s="3">
-        <v>75100</v>
+        <v>78100</v>
       </c>
       <c r="G20" s="3">
         <v>-1200</v>
       </c>
       <c r="H20" s="3">
-        <v>-16300</v>
+        <v>-16900</v>
       </c>
       <c r="I20" s="3">
-        <v>-44900</v>
+        <v>-46700</v>
       </c>
       <c r="J20" s="3">
-        <v>-38300</v>
+        <v>-39900</v>
       </c>
       <c r="K20" s="3">
         <v>-13100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>358200</v>
+        <v>373200</v>
       </c>
       <c r="E21" s="3">
-        <v>447800</v>
+        <v>466400</v>
       </c>
       <c r="F21" s="3">
-        <v>1082500</v>
+        <v>1126700</v>
       </c>
       <c r="G21" s="3">
-        <v>399200</v>
+        <v>415700</v>
       </c>
       <c r="H21" s="3">
-        <v>749900</v>
+        <v>780400</v>
       </c>
       <c r="I21" s="3">
-        <v>403900</v>
+        <v>420400</v>
       </c>
       <c r="J21" s="3">
-        <v>339100</v>
+        <v>353000</v>
       </c>
       <c r="K21" s="3">
         <v>501000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>243200</v>
+        <v>253000</v>
       </c>
       <c r="E22" s="3">
-        <v>146800</v>
+        <v>152700</v>
       </c>
       <c r="F22" s="3">
-        <v>216100</v>
+        <v>224800</v>
       </c>
       <c r="G22" s="3">
-        <v>167500</v>
+        <v>174200</v>
       </c>
       <c r="H22" s="3">
-        <v>189200</v>
+        <v>196800</v>
       </c>
       <c r="I22" s="3">
-        <v>96400</v>
+        <v>100300</v>
       </c>
       <c r="J22" s="3">
-        <v>136500</v>
+        <v>142000</v>
       </c>
       <c r="K22" s="3">
         <v>130600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-254600</v>
+        <v>-264800</v>
       </c>
       <c r="E23" s="3">
-        <v>-110400</v>
+        <v>-114800</v>
       </c>
       <c r="F23" s="3">
-        <v>368100</v>
+        <v>382900</v>
       </c>
       <c r="G23" s="3">
-        <v>-71300</v>
+        <v>-74100</v>
       </c>
       <c r="H23" s="3">
-        <v>303800</v>
+        <v>316000</v>
       </c>
       <c r="I23" s="3">
-        <v>145600</v>
+        <v>151500</v>
       </c>
       <c r="J23" s="3">
-        <v>-9100</v>
+        <v>-9500</v>
       </c>
       <c r="K23" s="3">
         <v>157900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-87900</v>
+        <v>-91400</v>
       </c>
       <c r="E24" s="3">
-        <v>-140400</v>
+        <v>-146000</v>
       </c>
       <c r="F24" s="3">
-        <v>128200</v>
+        <v>133300</v>
       </c>
       <c r="G24" s="3">
-        <v>-18400</v>
+        <v>-19100</v>
       </c>
       <c r="H24" s="3">
-        <v>80000</v>
+        <v>83200</v>
       </c>
       <c r="I24" s="3">
-        <v>57500</v>
+        <v>59800</v>
       </c>
       <c r="J24" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="K24" s="3">
         <v>42800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-166700</v>
+        <v>-173400</v>
       </c>
       <c r="E26" s="3">
-        <v>30000</v>
+        <v>31200</v>
       </c>
       <c r="F26" s="3">
-        <v>239900</v>
+        <v>249500</v>
       </c>
       <c r="G26" s="3">
-        <v>-52900</v>
+        <v>-55000</v>
       </c>
       <c r="H26" s="3">
-        <v>223800</v>
+        <v>232800</v>
       </c>
       <c r="I26" s="3">
-        <v>88100</v>
+        <v>91600</v>
       </c>
       <c r="J26" s="3">
-        <v>-13700</v>
+        <v>-14300</v>
       </c>
       <c r="K26" s="3">
         <v>115100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-199200</v>
+        <v>-207200</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
       </c>
       <c r="F27" s="3">
-        <v>211400</v>
+        <v>219900</v>
       </c>
       <c r="G27" s="3">
-        <v>-61800</v>
+        <v>-64200</v>
       </c>
       <c r="H27" s="3">
-        <v>197700</v>
+        <v>205600</v>
       </c>
       <c r="I27" s="3">
-        <v>43400</v>
+        <v>45100</v>
       </c>
       <c r="J27" s="3">
-        <v>101300</v>
+        <v>105300</v>
       </c>
       <c r="K27" s="3">
         <v>216300</v>
@@ -1533,25 +1533,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>165900</v>
+        <v>172600</v>
       </c>
       <c r="E29" s="3">
-        <v>155900</v>
+        <v>162100</v>
       </c>
       <c r="F29" s="3">
-        <v>210500</v>
+        <v>218900</v>
       </c>
       <c r="G29" s="3">
-        <v>214700</v>
+        <v>223400</v>
       </c>
       <c r="H29" s="3">
-        <v>24800</v>
+        <v>25800</v>
       </c>
       <c r="I29" s="3">
-        <v>68900</v>
+        <v>71700</v>
       </c>
       <c r="J29" s="3">
-        <v>-194600</v>
+        <v>-202400</v>
       </c>
       <c r="K29" s="3">
         <v>-166700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-98000</v>
+        <v>-101900</v>
       </c>
       <c r="E32" s="3">
-        <v>-26100</v>
+        <v>-27200</v>
       </c>
       <c r="F32" s="3">
-        <v>-75100</v>
+        <v>-78100</v>
       </c>
       <c r="G32" s="3">
         <v>1200</v>
       </c>
       <c r="H32" s="3">
-        <v>16300</v>
+        <v>16900</v>
       </c>
       <c r="I32" s="3">
-        <v>44900</v>
+        <v>46700</v>
       </c>
       <c r="J32" s="3">
-        <v>38300</v>
+        <v>39900</v>
       </c>
       <c r="K32" s="3">
         <v>13100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-33300</v>
+        <v>-34600</v>
       </c>
       <c r="E33" s="3">
-        <v>155300</v>
+        <v>161500</v>
       </c>
       <c r="F33" s="3">
-        <v>421900</v>
+        <v>438900</v>
       </c>
       <c r="G33" s="3">
-        <v>153000</v>
+        <v>159100</v>
       </c>
       <c r="H33" s="3">
-        <v>222500</v>
+        <v>231400</v>
       </c>
       <c r="I33" s="3">
-        <v>112300</v>
+        <v>116800</v>
       </c>
       <c r="J33" s="3">
-        <v>-93300</v>
+        <v>-97100</v>
       </c>
       <c r="K33" s="3">
         <v>49600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-33300</v>
+        <v>-34600</v>
       </c>
       <c r="E35" s="3">
-        <v>155300</v>
+        <v>161500</v>
       </c>
       <c r="F35" s="3">
-        <v>421900</v>
+        <v>438900</v>
       </c>
       <c r="G35" s="3">
-        <v>153000</v>
+        <v>159100</v>
       </c>
       <c r="H35" s="3">
-        <v>222500</v>
+        <v>231400</v>
       </c>
       <c r="I35" s="3">
-        <v>112300</v>
+        <v>116800</v>
       </c>
       <c r="J35" s="3">
-        <v>-93300</v>
+        <v>-97100</v>
       </c>
       <c r="K35" s="3">
         <v>49600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>726300</v>
+        <v>755500</v>
       </c>
       <c r="E41" s="3">
-        <v>1602100</v>
+        <v>1666400</v>
       </c>
       <c r="F41" s="3">
-        <v>1686700</v>
+        <v>1754400</v>
       </c>
       <c r="G41" s="3">
-        <v>1540100</v>
+        <v>1601900</v>
       </c>
       <c r="H41" s="3">
-        <v>846000</v>
+        <v>879900</v>
       </c>
       <c r="I41" s="3">
-        <v>1468500</v>
+        <v>1527400</v>
       </c>
       <c r="J41" s="3">
-        <v>989800</v>
+        <v>1029600</v>
       </c>
       <c r="K41" s="3">
         <v>2060800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>350500</v>
+        <v>364500</v>
       </c>
       <c r="E43" s="3">
-        <v>558400</v>
+        <v>580800</v>
       </c>
       <c r="F43" s="3">
-        <v>393800</v>
+        <v>409600</v>
       </c>
       <c r="G43" s="3">
-        <v>542200</v>
+        <v>563900</v>
       </c>
       <c r="H43" s="3">
-        <v>264300</v>
+        <v>274900</v>
       </c>
       <c r="I43" s="3">
-        <v>406400</v>
+        <v>422700</v>
       </c>
       <c r="J43" s="3">
-        <v>260000</v>
+        <v>270500</v>
       </c>
       <c r="K43" s="3">
         <v>872800</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>396200</v>
+        <v>412100</v>
       </c>
       <c r="E44" s="3">
-        <v>1017900</v>
+        <v>1058800</v>
       </c>
       <c r="F44" s="3">
-        <v>1265600</v>
+        <v>1316400</v>
       </c>
       <c r="G44" s="3">
-        <v>1671200</v>
+        <v>1738300</v>
       </c>
       <c r="H44" s="3">
-        <v>1144200</v>
+        <v>1190100</v>
       </c>
       <c r="I44" s="3">
-        <v>1867400</v>
+        <v>1942300</v>
       </c>
       <c r="J44" s="3">
-        <v>898600</v>
+        <v>934700</v>
       </c>
       <c r="K44" s="3">
         <v>1677300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4056900</v>
+        <v>4219700</v>
       </c>
       <c r="E45" s="3">
-        <v>282100</v>
+        <v>293400</v>
       </c>
       <c r="F45" s="3">
-        <v>69700</v>
+        <v>72500</v>
       </c>
       <c r="G45" s="3">
-        <v>112900</v>
+        <v>117400</v>
       </c>
       <c r="H45" s="3">
-        <v>5655200</v>
+        <v>5882100</v>
       </c>
       <c r="I45" s="3">
-        <v>5232500</v>
+        <v>5442400</v>
       </c>
       <c r="J45" s="3">
-        <v>3980100</v>
+        <v>4139800</v>
       </c>
       <c r="K45" s="3">
         <v>58900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5529900</v>
+        <v>5751800</v>
       </c>
       <c r="E46" s="3">
-        <v>3460600</v>
+        <v>3599400</v>
       </c>
       <c r="F46" s="3">
-        <v>3415800</v>
+        <v>3552900</v>
       </c>
       <c r="G46" s="3">
-        <v>3866400</v>
+        <v>4021600</v>
       </c>
       <c r="H46" s="3">
-        <v>7909600</v>
+        <v>8227000</v>
       </c>
       <c r="I46" s="3">
-        <v>7158900</v>
+        <v>7446200</v>
       </c>
       <c r="J46" s="3">
-        <v>6128600</v>
+        <v>6374500</v>
       </c>
       <c r="K46" s="3">
         <v>4669800</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>904100</v>
+        <v>940300</v>
       </c>
       <c r="E47" s="3">
-        <v>917800</v>
+        <v>954600</v>
       </c>
       <c r="F47" s="3">
-        <v>1003000</v>
+        <v>1043300</v>
       </c>
       <c r="G47" s="3">
-        <v>698600</v>
+        <v>726700</v>
       </c>
       <c r="H47" s="3">
-        <v>603000</v>
+        <v>627200</v>
       </c>
       <c r="I47" s="3">
-        <v>513100</v>
+        <v>533700</v>
       </c>
       <c r="J47" s="3">
-        <v>305400</v>
+        <v>317600</v>
       </c>
       <c r="K47" s="3">
         <v>726100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1325200</v>
+        <v>1378400</v>
       </c>
       <c r="E48" s="3">
-        <v>3794800</v>
+        <v>3947000</v>
       </c>
       <c r="F48" s="3">
-        <v>4555500</v>
+        <v>4738300</v>
       </c>
       <c r="G48" s="3">
-        <v>5294000</v>
+        <v>5506500</v>
       </c>
       <c r="H48" s="3">
-        <v>2730600</v>
+        <v>2840100</v>
       </c>
       <c r="I48" s="3">
-        <v>4347200</v>
+        <v>4521600</v>
       </c>
       <c r="J48" s="3">
-        <v>1782400</v>
+        <v>1853900</v>
       </c>
       <c r="K48" s="3">
         <v>1946100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>384500</v>
+        <v>400000</v>
       </c>
       <c r="E49" s="3">
-        <v>1114000</v>
+        <v>1158700</v>
       </c>
       <c r="F49" s="3">
-        <v>1193500</v>
+        <v>1241400</v>
       </c>
       <c r="G49" s="3">
-        <v>1207500</v>
+        <v>1255900</v>
       </c>
       <c r="H49" s="3">
-        <v>1063600</v>
+        <v>1106300</v>
       </c>
       <c r="I49" s="3">
-        <v>1108700</v>
+        <v>1153200</v>
       </c>
       <c r="J49" s="3">
-        <v>369400</v>
+        <v>384300</v>
       </c>
       <c r="K49" s="3">
         <v>1224100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>344900</v>
+        <v>358700</v>
       </c>
       <c r="E52" s="3">
-        <v>286600</v>
+        <v>298100</v>
       </c>
       <c r="F52" s="3">
-        <v>151600</v>
+        <v>157700</v>
       </c>
       <c r="G52" s="3">
-        <v>256000</v>
+        <v>266300</v>
       </c>
       <c r="H52" s="3">
-        <v>287900</v>
+        <v>299500</v>
       </c>
       <c r="I52" s="3">
-        <v>211400</v>
+        <v>219900</v>
       </c>
       <c r="J52" s="3">
-        <v>169600</v>
+        <v>176400</v>
       </c>
       <c r="K52" s="3">
         <v>272200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8488500</v>
+        <v>8829200</v>
       </c>
       <c r="E54" s="3">
-        <v>9573600</v>
+        <v>9957800</v>
       </c>
       <c r="F54" s="3">
-        <v>10319500</v>
+        <v>10733600</v>
       </c>
       <c r="G54" s="3">
-        <v>11322500</v>
+        <v>11776900</v>
       </c>
       <c r="H54" s="3">
-        <v>12002700</v>
+        <v>12484400</v>
       </c>
       <c r="I54" s="3">
-        <v>10816600</v>
+        <v>11250600</v>
       </c>
       <c r="J54" s="3">
-        <v>8755400</v>
+        <v>9106700</v>
       </c>
       <c r="K54" s="3">
         <v>8838300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>604700</v>
+        <v>629000</v>
       </c>
       <c r="E57" s="3">
-        <v>1951400</v>
+        <v>2029700</v>
       </c>
       <c r="F57" s="3">
-        <v>2212000</v>
+        <v>2300800</v>
       </c>
       <c r="G57" s="3">
-        <v>2882600</v>
+        <v>2998200</v>
       </c>
       <c r="H57" s="3">
-        <v>1790300</v>
+        <v>1862100</v>
       </c>
       <c r="I57" s="3">
-        <v>1573800</v>
+        <v>1637000</v>
       </c>
       <c r="J57" s="3">
-        <v>1400300</v>
+        <v>1456500</v>
       </c>
       <c r="K57" s="3">
         <v>2901400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>288700</v>
+        <v>300300</v>
       </c>
       <c r="E58" s="3">
-        <v>457900</v>
+        <v>476300</v>
       </c>
       <c r="F58" s="3">
-        <v>630500</v>
+        <v>655800</v>
       </c>
       <c r="G58" s="3">
-        <v>856800</v>
+        <v>891200</v>
       </c>
       <c r="H58" s="3">
-        <v>872100</v>
+        <v>907100</v>
       </c>
       <c r="I58" s="3">
-        <v>560800</v>
+        <v>583300</v>
       </c>
       <c r="J58" s="3">
-        <v>572600</v>
+        <v>595500</v>
       </c>
       <c r="K58" s="3">
         <v>1427100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2542900</v>
+        <v>2645000</v>
       </c>
       <c r="E59" s="3">
-        <v>795200</v>
+        <v>827100</v>
       </c>
       <c r="F59" s="3">
-        <v>736400</v>
+        <v>765900</v>
       </c>
       <c r="G59" s="3">
-        <v>740200</v>
+        <v>770000</v>
       </c>
       <c r="H59" s="3">
-        <v>5030500</v>
+        <v>5232400</v>
       </c>
       <c r="I59" s="3">
-        <v>4640000</v>
+        <v>4826100</v>
       </c>
       <c r="J59" s="3">
-        <v>3367800</v>
+        <v>3503000</v>
       </c>
       <c r="K59" s="3">
         <v>1113400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3436400</v>
+        <v>3574200</v>
       </c>
       <c r="E60" s="3">
-        <v>3204600</v>
+        <v>3333200</v>
       </c>
       <c r="F60" s="3">
-        <v>3578900</v>
+        <v>3722500</v>
       </c>
       <c r="G60" s="3">
-        <v>4479600</v>
+        <v>4659400</v>
       </c>
       <c r="H60" s="3">
-        <v>7278000</v>
+        <v>7570000</v>
       </c>
       <c r="I60" s="3">
-        <v>6466300</v>
+        <v>6725800</v>
       </c>
       <c r="J60" s="3">
-        <v>5340700</v>
+        <v>5555000</v>
       </c>
       <c r="K60" s="3">
         <v>4728300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1628200</v>
+        <v>1693600</v>
       </c>
       <c r="E61" s="3">
-        <v>2479400</v>
+        <v>2578900</v>
       </c>
       <c r="F61" s="3">
-        <v>2762900</v>
+        <v>2873800</v>
       </c>
       <c r="G61" s="3">
-        <v>3569800</v>
+        <v>3713000</v>
       </c>
       <c r="H61" s="3">
-        <v>1679200</v>
+        <v>1746500</v>
       </c>
       <c r="I61" s="3">
-        <v>1551900</v>
+        <v>1614200</v>
       </c>
       <c r="J61" s="3">
-        <v>563900</v>
+        <v>586500</v>
       </c>
       <c r="K61" s="3">
         <v>779000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>764800</v>
+        <v>795500</v>
       </c>
       <c r="E62" s="3">
-        <v>718000</v>
+        <v>746800</v>
       </c>
       <c r="F62" s="3">
-        <v>723400</v>
+        <v>752400</v>
       </c>
       <c r="G62" s="3">
-        <v>649800</v>
+        <v>675900</v>
       </c>
       <c r="H62" s="3">
-        <v>497600</v>
+        <v>517600</v>
       </c>
       <c r="I62" s="3">
-        <v>444600</v>
+        <v>462400</v>
       </c>
       <c r="J62" s="3">
-        <v>411700</v>
+        <v>428200</v>
       </c>
       <c r="K62" s="3">
         <v>832900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6253100</v>
+        <v>6504000</v>
       </c>
       <c r="E66" s="3">
-        <v>6930800</v>
+        <v>7208900</v>
       </c>
       <c r="F66" s="3">
-        <v>7667700</v>
+        <v>7975400</v>
       </c>
       <c r="G66" s="3">
-        <v>9204200</v>
+        <v>9573500</v>
       </c>
       <c r="H66" s="3">
-        <v>10021100</v>
+        <v>10423300</v>
       </c>
       <c r="I66" s="3">
-        <v>8999500</v>
+        <v>9360700</v>
       </c>
       <c r="J66" s="3">
-        <v>6846200</v>
+        <v>7120900</v>
       </c>
       <c r="K66" s="3">
         <v>6901200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1160200</v>
+        <v>1206800</v>
       </c>
       <c r="E72" s="3">
-        <v>1162400</v>
+        <v>1209000</v>
       </c>
       <c r="F72" s="3">
-        <v>1110500</v>
+        <v>1155000</v>
       </c>
       <c r="G72" s="3">
-        <v>785600</v>
+        <v>817100</v>
       </c>
       <c r="H72" s="3">
-        <v>691600</v>
+        <v>719400</v>
       </c>
       <c r="I72" s="3">
-        <v>501700</v>
+        <v>521800</v>
       </c>
       <c r="J72" s="3">
-        <v>608000</v>
+        <v>632400</v>
       </c>
       <c r="K72" s="3">
         <v>673900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2235500</v>
+        <v>2325200</v>
       </c>
       <c r="E76" s="3">
-        <v>2642900</v>
+        <v>2748900</v>
       </c>
       <c r="F76" s="3">
-        <v>2651800</v>
+        <v>2758200</v>
       </c>
       <c r="G76" s="3">
-        <v>2118300</v>
+        <v>2203300</v>
       </c>
       <c r="H76" s="3">
-        <v>1981600</v>
+        <v>2061100</v>
       </c>
       <c r="I76" s="3">
-        <v>1817000</v>
+        <v>1889900</v>
       </c>
       <c r="J76" s="3">
-        <v>1909200</v>
+        <v>1985800</v>
       </c>
       <c r="K76" s="3">
         <v>1937100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-33300</v>
+        <v>-34600</v>
       </c>
       <c r="E81" s="3">
-        <v>155300</v>
+        <v>161500</v>
       </c>
       <c r="F81" s="3">
-        <v>421900</v>
+        <v>438900</v>
       </c>
       <c r="G81" s="3">
-        <v>153000</v>
+        <v>159100</v>
       </c>
       <c r="H81" s="3">
-        <v>222500</v>
+        <v>231400</v>
       </c>
       <c r="I81" s="3">
-        <v>112300</v>
+        <v>116800</v>
       </c>
       <c r="J81" s="3">
-        <v>-93300</v>
+        <v>-97100</v>
       </c>
       <c r="K81" s="3">
         <v>49600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>368300</v>
+        <v>383100</v>
       </c>
       <c r="E83" s="3">
-        <v>409900</v>
+        <v>426400</v>
       </c>
       <c r="F83" s="3">
-        <v>496500</v>
+        <v>516400</v>
       </c>
       <c r="G83" s="3">
-        <v>301900</v>
+        <v>314000</v>
       </c>
       <c r="H83" s="3">
-        <v>256000</v>
+        <v>266300</v>
       </c>
       <c r="I83" s="3">
-        <v>161300</v>
+        <v>167800</v>
       </c>
       <c r="J83" s="3">
-        <v>210900</v>
+        <v>219300</v>
       </c>
       <c r="K83" s="3">
         <v>206200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-41800</v>
+        <v>-43500</v>
       </c>
       <c r="E89" s="3">
-        <v>528200</v>
+        <v>549400</v>
       </c>
       <c r="F89" s="3">
-        <v>918200</v>
+        <v>955000</v>
       </c>
       <c r="G89" s="3">
-        <v>219800</v>
+        <v>228600</v>
       </c>
       <c r="H89" s="3">
-        <v>826200</v>
+        <v>859400</v>
       </c>
       <c r="I89" s="3">
-        <v>366900</v>
+        <v>381700</v>
       </c>
       <c r="J89" s="3">
-        <v>-252500</v>
+        <v>-262600</v>
       </c>
       <c r="K89" s="3">
         <v>866600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-270700</v>
+        <v>-281600</v>
       </c>
       <c r="E91" s="3">
-        <v>-200400</v>
+        <v>-208400</v>
       </c>
       <c r="F91" s="3">
-        <v>-443200</v>
+        <v>-461000</v>
       </c>
       <c r="G91" s="3">
-        <v>-476700</v>
+        <v>-495800</v>
       </c>
       <c r="H91" s="3">
-        <v>-319300</v>
+        <v>-332100</v>
       </c>
       <c r="I91" s="3">
-        <v>-271500</v>
+        <v>-282400</v>
       </c>
       <c r="J91" s="3">
-        <v>-244900</v>
+        <v>-254800</v>
       </c>
       <c r="K91" s="3">
         <v>-295800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>548700</v>
+        <v>570800</v>
       </c>
       <c r="E94" s="3">
-        <v>-14900</v>
+        <v>-15500</v>
       </c>
       <c r="F94" s="3">
-        <v>-830900</v>
+        <v>-864200</v>
       </c>
       <c r="G94" s="3">
-        <v>-632400</v>
+        <v>-657800</v>
       </c>
       <c r="H94" s="3">
-        <v>-367300</v>
+        <v>-382100</v>
       </c>
       <c r="I94" s="3">
-        <v>-308300</v>
+        <v>-320600</v>
       </c>
       <c r="J94" s="3">
-        <v>-391100</v>
+        <v>-406800</v>
       </c>
       <c r="K94" s="3">
         <v>-346500</v>
@@ -3997,22 +3997,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-51300</v>
+        <v>-53400</v>
       </c>
       <c r="E96" s="3">
-        <v>-151000</v>
+        <v>-157100</v>
       </c>
       <c r="F96" s="3">
-        <v>-65600</v>
+        <v>-68300</v>
       </c>
       <c r="G96" s="3">
-        <v>-51900</v>
+        <v>-54000</v>
       </c>
       <c r="H96" s="3">
-        <v>-68000</v>
+        <v>-70700</v>
       </c>
       <c r="I96" s="3">
-        <v>-19600</v>
+        <v>-20300</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-910600</v>
+        <v>-947200</v>
       </c>
       <c r="E100" s="3">
-        <v>-531100</v>
+        <v>-552400</v>
       </c>
       <c r="F100" s="3">
-        <v>-54400</v>
+        <v>-56600</v>
       </c>
       <c r="G100" s="3">
-        <v>366700</v>
+        <v>381500</v>
       </c>
       <c r="H100" s="3">
-        <v>-317700</v>
+        <v>-330500</v>
       </c>
       <c r="I100" s="3">
-        <v>-405500</v>
+        <v>-421700</v>
       </c>
       <c r="J100" s="3">
-        <v>285600</v>
+        <v>297100</v>
       </c>
       <c r="K100" s="3">
         <v>-562400</v>
@@ -4207,16 +4207,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-110000</v>
+        <v>-114400</v>
       </c>
       <c r="E101" s="3">
-        <v>-66800</v>
+        <v>-69500</v>
       </c>
       <c r="F101" s="3">
-        <v>113700</v>
+        <v>118200</v>
       </c>
       <c r="G101" s="3">
-        <v>21500</v>
+        <v>22400</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="K101" s="3">
         <v>17200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-513700</v>
+        <v>-534300</v>
       </c>
       <c r="E102" s="3">
-        <v>-84600</v>
+        <v>-88000</v>
       </c>
       <c r="F102" s="3">
-        <v>146600</v>
+        <v>152500</v>
       </c>
       <c r="G102" s="3">
-        <v>-24400</v>
+        <v>-25400</v>
       </c>
       <c r="H102" s="3">
-        <v>141200</v>
+        <v>146800</v>
       </c>
       <c r="I102" s="3">
-        <v>-346800</v>
+        <v>-360700</v>
       </c>
       <c r="J102" s="3">
-        <v>-362700</v>
+        <v>-377200</v>
       </c>
       <c r="K102" s="3">
         <v>-25100</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3488400</v>
+        <v>3496100</v>
       </c>
       <c r="E8" s="3">
-        <v>3282400</v>
+        <v>3289600</v>
       </c>
       <c r="F8" s="3">
-        <v>10322400</v>
+        <v>10344900</v>
       </c>
       <c r="G8" s="3">
-        <v>5808000</v>
+        <v>5820700</v>
       </c>
       <c r="H8" s="3">
-        <v>9946700</v>
+        <v>9968500</v>
       </c>
       <c r="I8" s="3">
-        <v>8989300</v>
+        <v>9008900</v>
       </c>
       <c r="J8" s="3">
-        <v>8348800</v>
+        <v>8367100</v>
       </c>
       <c r="K8" s="3">
         <v>6959400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2622000</v>
+        <v>2627800</v>
       </c>
       <c r="E9" s="3">
-        <v>2405100</v>
+        <v>2410400</v>
       </c>
       <c r="F9" s="3">
-        <v>7553300</v>
+        <v>7569800</v>
       </c>
       <c r="G9" s="3">
-        <v>4274700</v>
+        <v>4284100</v>
       </c>
       <c r="H9" s="3">
-        <v>7608700</v>
+        <v>7625300</v>
       </c>
       <c r="I9" s="3">
-        <v>6776300</v>
+        <v>6791100</v>
       </c>
       <c r="J9" s="3">
-        <v>6431300</v>
+        <v>6445400</v>
       </c>
       <c r="K9" s="3">
         <v>5261500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>866400</v>
+        <v>868300</v>
       </c>
       <c r="E10" s="3">
-        <v>877300</v>
+        <v>879200</v>
       </c>
       <c r="F10" s="3">
-        <v>2769000</v>
+        <v>2775100</v>
       </c>
       <c r="G10" s="3">
-        <v>1533300</v>
+        <v>1536600</v>
       </c>
       <c r="H10" s="3">
-        <v>2338100</v>
+        <v>2343200</v>
       </c>
       <c r="I10" s="3">
-        <v>2213000</v>
+        <v>2217800</v>
       </c>
       <c r="J10" s="3">
-        <v>1917500</v>
+        <v>1921700</v>
       </c>
       <c r="K10" s="3">
         <v>1697800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>63400</v>
+        <v>63600</v>
       </c>
       <c r="E14" s="3">
-        <v>138800</v>
+        <v>139100</v>
       </c>
       <c r="F14" s="3">
-        <v>118400</v>
+        <v>118700</v>
       </c>
       <c r="G14" s="3">
-        <v>53800</v>
+        <v>53900</v>
       </c>
       <c r="H14" s="3">
-        <v>29600</v>
+        <v>29700</v>
       </c>
       <c r="I14" s="3">
-        <v>21500</v>
+        <v>21600</v>
       </c>
       <c r="J14" s="3">
-        <v>19900</v>
+        <v>20000</v>
       </c>
       <c r="K14" s="3">
         <v>21700</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>187500</v>
+        <v>187900</v>
       </c>
       <c r="E15" s="3">
-        <v>163100</v>
+        <v>163500</v>
       </c>
       <c r="F15" s="3">
-        <v>363300</v>
+        <v>364100</v>
       </c>
       <c r="G15" s="3">
-        <v>207000</v>
+        <v>207500</v>
       </c>
       <c r="H15" s="3">
-        <v>242100</v>
+        <v>242600</v>
       </c>
       <c r="I15" s="3">
-        <v>156900</v>
+        <v>157200</v>
       </c>
       <c r="J15" s="3">
-        <v>142400</v>
+        <v>142700</v>
       </c>
       <c r="K15" s="3">
         <v>121600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3602200</v>
+        <v>3610100</v>
       </c>
       <c r="E17" s="3">
-        <v>3271700</v>
+        <v>3278900</v>
       </c>
       <c r="F17" s="3">
-        <v>9792900</v>
+        <v>9814300</v>
       </c>
       <c r="G17" s="3">
-        <v>5706700</v>
+        <v>5719100</v>
       </c>
       <c r="H17" s="3">
-        <v>9417100</v>
+        <v>9437600</v>
       </c>
       <c r="I17" s="3">
-        <v>8690800</v>
+        <v>8709800</v>
       </c>
       <c r="J17" s="3">
-        <v>8176400</v>
+        <v>8194300</v>
       </c>
       <c r="K17" s="3">
         <v>6657800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-113800</v>
+        <v>-114000</v>
       </c>
       <c r="E18" s="3">
         <v>10700</v>
       </c>
       <c r="F18" s="3">
-        <v>529500</v>
+        <v>530600</v>
       </c>
       <c r="G18" s="3">
-        <v>101300</v>
+        <v>101500</v>
       </c>
       <c r="H18" s="3">
-        <v>529700</v>
+        <v>530800</v>
       </c>
       <c r="I18" s="3">
-        <v>298500</v>
+        <v>299100</v>
       </c>
       <c r="J18" s="3">
-        <v>172400</v>
+        <v>172800</v>
       </c>
       <c r="K18" s="3">
         <v>301600</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>101900</v>
+        <v>102100</v>
       </c>
       <c r="E20" s="3">
         <v>27200</v>
       </c>
       <c r="F20" s="3">
-        <v>78100</v>
+        <v>78300</v>
       </c>
       <c r="G20" s="3">
         <v>-1200</v>
       </c>
       <c r="H20" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="I20" s="3">
-        <v>-46700</v>
+        <v>-46800</v>
       </c>
       <c r="J20" s="3">
-        <v>-39900</v>
+        <v>-40000</v>
       </c>
       <c r="K20" s="3">
         <v>-13100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>373200</v>
+        <v>372000</v>
       </c>
       <c r="E21" s="3">
-        <v>466400</v>
+        <v>465200</v>
       </c>
       <c r="F21" s="3">
-        <v>1126700</v>
+        <v>1126500</v>
       </c>
       <c r="G21" s="3">
-        <v>415700</v>
+        <v>415000</v>
       </c>
       <c r="H21" s="3">
-        <v>780400</v>
+        <v>780700</v>
       </c>
       <c r="I21" s="3">
         <v>420400</v>
       </c>
       <c r="J21" s="3">
-        <v>353000</v>
+        <v>352600</v>
       </c>
       <c r="K21" s="3">
         <v>501000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>253000</v>
+        <v>253500</v>
       </c>
       <c r="E22" s="3">
-        <v>152700</v>
+        <v>153000</v>
       </c>
       <c r="F22" s="3">
-        <v>224800</v>
+        <v>225300</v>
       </c>
       <c r="G22" s="3">
-        <v>174200</v>
+        <v>174600</v>
       </c>
       <c r="H22" s="3">
-        <v>196800</v>
+        <v>197200</v>
       </c>
       <c r="I22" s="3">
-        <v>100300</v>
+        <v>100500</v>
       </c>
       <c r="J22" s="3">
-        <v>142000</v>
+        <v>142300</v>
       </c>
       <c r="K22" s="3">
         <v>130600</v>
@@ -1281,22 +1281,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-264800</v>
+        <v>-265400</v>
       </c>
       <c r="E23" s="3">
-        <v>-114800</v>
+        <v>-115000</v>
       </c>
       <c r="F23" s="3">
-        <v>382900</v>
+        <v>383700</v>
       </c>
       <c r="G23" s="3">
-        <v>-74100</v>
+        <v>-74300</v>
       </c>
       <c r="H23" s="3">
-        <v>316000</v>
+        <v>316700</v>
       </c>
       <c r="I23" s="3">
-        <v>151500</v>
+        <v>151800</v>
       </c>
       <c r="J23" s="3">
         <v>-9500</v>
@@ -1323,22 +1323,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-91400</v>
+        <v>-91600</v>
       </c>
       <c r="E24" s="3">
-        <v>-146000</v>
+        <v>-146300</v>
       </c>
       <c r="F24" s="3">
-        <v>133300</v>
+        <v>133600</v>
       </c>
       <c r="G24" s="3">
-        <v>-19100</v>
+        <v>-19200</v>
       </c>
       <c r="H24" s="3">
-        <v>83200</v>
+        <v>83400</v>
       </c>
       <c r="I24" s="3">
-        <v>59800</v>
+        <v>59900</v>
       </c>
       <c r="J24" s="3">
         <v>4800</v>
@@ -1407,22 +1407,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-173400</v>
+        <v>-173800</v>
       </c>
       <c r="E26" s="3">
-        <v>31200</v>
+        <v>31300</v>
       </c>
       <c r="F26" s="3">
-        <v>249500</v>
+        <v>250100</v>
       </c>
       <c r="G26" s="3">
-        <v>-55000</v>
+        <v>-55100</v>
       </c>
       <c r="H26" s="3">
-        <v>232800</v>
+        <v>233300</v>
       </c>
       <c r="I26" s="3">
-        <v>91600</v>
+        <v>91800</v>
       </c>
       <c r="J26" s="3">
         <v>-14300</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-207200</v>
+        <v>-207700</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
       </c>
       <c r="F27" s="3">
-        <v>219900</v>
+        <v>220400</v>
       </c>
       <c r="G27" s="3">
-        <v>-64200</v>
+        <v>-64400</v>
       </c>
       <c r="H27" s="3">
-        <v>205600</v>
+        <v>206100</v>
       </c>
       <c r="I27" s="3">
-        <v>45100</v>
+        <v>45200</v>
       </c>
       <c r="J27" s="3">
-        <v>105300</v>
+        <v>105600</v>
       </c>
       <c r="K27" s="3">
         <v>216300</v>
@@ -1533,25 +1533,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>172600</v>
+        <v>173000</v>
       </c>
       <c r="E29" s="3">
-        <v>162100</v>
+        <v>162500</v>
       </c>
       <c r="F29" s="3">
-        <v>218900</v>
+        <v>219400</v>
       </c>
       <c r="G29" s="3">
-        <v>223400</v>
+        <v>223800</v>
       </c>
       <c r="H29" s="3">
         <v>25800</v>
       </c>
       <c r="I29" s="3">
-        <v>71700</v>
+        <v>71900</v>
       </c>
       <c r="J29" s="3">
-        <v>-202400</v>
+        <v>-202800</v>
       </c>
       <c r="K29" s="3">
         <v>-166700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-101900</v>
+        <v>-102100</v>
       </c>
       <c r="E32" s="3">
         <v>-27200</v>
       </c>
       <c r="F32" s="3">
-        <v>-78100</v>
+        <v>-78300</v>
       </c>
       <c r="G32" s="3">
         <v>1200</v>
       </c>
       <c r="H32" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="I32" s="3">
-        <v>46700</v>
+        <v>46800</v>
       </c>
       <c r="J32" s="3">
-        <v>39900</v>
+        <v>40000</v>
       </c>
       <c r="K32" s="3">
         <v>13100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34600</v>
+        <v>-34700</v>
       </c>
       <c r="E33" s="3">
-        <v>161500</v>
+        <v>161900</v>
       </c>
       <c r="F33" s="3">
-        <v>438900</v>
+        <v>439800</v>
       </c>
       <c r="G33" s="3">
-        <v>159100</v>
+        <v>159500</v>
       </c>
       <c r="H33" s="3">
-        <v>231400</v>
+        <v>231900</v>
       </c>
       <c r="I33" s="3">
-        <v>116800</v>
+        <v>117100</v>
       </c>
       <c r="J33" s="3">
-        <v>-97100</v>
+        <v>-97300</v>
       </c>
       <c r="K33" s="3">
         <v>49600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34600</v>
+        <v>-34700</v>
       </c>
       <c r="E35" s="3">
-        <v>161500</v>
+        <v>161900</v>
       </c>
       <c r="F35" s="3">
-        <v>438900</v>
+        <v>439800</v>
       </c>
       <c r="G35" s="3">
-        <v>159100</v>
+        <v>159500</v>
       </c>
       <c r="H35" s="3">
-        <v>231400</v>
+        <v>231900</v>
       </c>
       <c r="I35" s="3">
-        <v>116800</v>
+        <v>117100</v>
       </c>
       <c r="J35" s="3">
-        <v>-97100</v>
+        <v>-97300</v>
       </c>
       <c r="K35" s="3">
         <v>49600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>755500</v>
+        <v>757100</v>
       </c>
       <c r="E41" s="3">
-        <v>1666400</v>
+        <v>1670000</v>
       </c>
       <c r="F41" s="3">
-        <v>1754400</v>
+        <v>1758200</v>
       </c>
       <c r="G41" s="3">
-        <v>1601900</v>
+        <v>1605400</v>
       </c>
       <c r="H41" s="3">
-        <v>879900</v>
+        <v>881800</v>
       </c>
       <c r="I41" s="3">
-        <v>1527400</v>
+        <v>1530800</v>
       </c>
       <c r="J41" s="3">
-        <v>1029600</v>
+        <v>1031800</v>
       </c>
       <c r="K41" s="3">
         <v>2060800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>364500</v>
+        <v>365300</v>
       </c>
       <c r="E43" s="3">
-        <v>580800</v>
+        <v>582100</v>
       </c>
       <c r="F43" s="3">
-        <v>409600</v>
+        <v>410500</v>
       </c>
       <c r="G43" s="3">
-        <v>563900</v>
+        <v>565200</v>
       </c>
       <c r="H43" s="3">
-        <v>274900</v>
+        <v>275500</v>
       </c>
       <c r="I43" s="3">
-        <v>422700</v>
+        <v>423700</v>
       </c>
       <c r="J43" s="3">
-        <v>270500</v>
+        <v>271100</v>
       </c>
       <c r="K43" s="3">
         <v>872800</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>412100</v>
+        <v>413000</v>
       </c>
       <c r="E44" s="3">
-        <v>1058800</v>
+        <v>1061100</v>
       </c>
       <c r="F44" s="3">
-        <v>1316400</v>
+        <v>1319200</v>
       </c>
       <c r="G44" s="3">
-        <v>1738300</v>
+        <v>1742100</v>
       </c>
       <c r="H44" s="3">
-        <v>1190100</v>
+        <v>1192700</v>
       </c>
       <c r="I44" s="3">
-        <v>1942300</v>
+        <v>1946500</v>
       </c>
       <c r="J44" s="3">
-        <v>934700</v>
+        <v>936700</v>
       </c>
       <c r="K44" s="3">
         <v>1677300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4219700</v>
+        <v>4229000</v>
       </c>
       <c r="E45" s="3">
-        <v>293400</v>
+        <v>294100</v>
       </c>
       <c r="F45" s="3">
-        <v>72500</v>
+        <v>72700</v>
       </c>
       <c r="G45" s="3">
-        <v>117400</v>
+        <v>117700</v>
       </c>
       <c r="H45" s="3">
-        <v>5882100</v>
+        <v>5894900</v>
       </c>
       <c r="I45" s="3">
-        <v>5442400</v>
+        <v>5454300</v>
       </c>
       <c r="J45" s="3">
-        <v>4139800</v>
+        <v>4148800</v>
       </c>
       <c r="K45" s="3">
         <v>58900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5751800</v>
+        <v>5764300</v>
       </c>
       <c r="E46" s="3">
-        <v>3599400</v>
+        <v>3607300</v>
       </c>
       <c r="F46" s="3">
-        <v>3552900</v>
+        <v>3560700</v>
       </c>
       <c r="G46" s="3">
-        <v>4021600</v>
+        <v>4030300</v>
       </c>
       <c r="H46" s="3">
-        <v>8227000</v>
+        <v>8245000</v>
       </c>
       <c r="I46" s="3">
-        <v>7446200</v>
+        <v>7462400</v>
       </c>
       <c r="J46" s="3">
-        <v>6374500</v>
+        <v>6388400</v>
       </c>
       <c r="K46" s="3">
         <v>4669800</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>940300</v>
+        <v>942400</v>
       </c>
       <c r="E47" s="3">
-        <v>954600</v>
+        <v>956700</v>
       </c>
       <c r="F47" s="3">
-        <v>1043300</v>
+        <v>1045500</v>
       </c>
       <c r="G47" s="3">
-        <v>726700</v>
+        <v>728200</v>
       </c>
       <c r="H47" s="3">
-        <v>627200</v>
+        <v>628500</v>
       </c>
       <c r="I47" s="3">
-        <v>533700</v>
+        <v>534900</v>
       </c>
       <c r="J47" s="3">
-        <v>317600</v>
+        <v>318300</v>
       </c>
       <c r="K47" s="3">
         <v>726100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1378400</v>
+        <v>1381400</v>
       </c>
       <c r="E48" s="3">
-        <v>3947000</v>
+        <v>3955700</v>
       </c>
       <c r="F48" s="3">
-        <v>4738300</v>
+        <v>4748700</v>
       </c>
       <c r="G48" s="3">
-        <v>5506500</v>
+        <v>5518500</v>
       </c>
       <c r="H48" s="3">
-        <v>2840100</v>
+        <v>2846300</v>
       </c>
       <c r="I48" s="3">
-        <v>4521600</v>
+        <v>4531500</v>
       </c>
       <c r="J48" s="3">
-        <v>1853900</v>
+        <v>1857900</v>
       </c>
       <c r="K48" s="3">
         <v>1946100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400000</v>
+        <v>400900</v>
       </c>
       <c r="E49" s="3">
-        <v>1158700</v>
+        <v>1161200</v>
       </c>
       <c r="F49" s="3">
-        <v>1241400</v>
+        <v>1244100</v>
       </c>
       <c r="G49" s="3">
-        <v>1255900</v>
+        <v>1258700</v>
       </c>
       <c r="H49" s="3">
-        <v>1106300</v>
+        <v>1108700</v>
       </c>
       <c r="I49" s="3">
-        <v>1153200</v>
+        <v>1155700</v>
       </c>
       <c r="J49" s="3">
-        <v>384300</v>
+        <v>385100</v>
       </c>
       <c r="K49" s="3">
         <v>1224100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>358700</v>
+        <v>359500</v>
       </c>
       <c r="E52" s="3">
-        <v>298100</v>
+        <v>298700</v>
       </c>
       <c r="F52" s="3">
-        <v>157700</v>
+        <v>158000</v>
       </c>
       <c r="G52" s="3">
-        <v>266300</v>
+        <v>266800</v>
       </c>
       <c r="H52" s="3">
-        <v>299500</v>
+        <v>300100</v>
       </c>
       <c r="I52" s="3">
-        <v>219900</v>
+        <v>220400</v>
       </c>
       <c r="J52" s="3">
-        <v>176400</v>
+        <v>176800</v>
       </c>
       <c r="K52" s="3">
         <v>272200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8829200</v>
+        <v>8848500</v>
       </c>
       <c r="E54" s="3">
-        <v>9957800</v>
+        <v>9979600</v>
       </c>
       <c r="F54" s="3">
-        <v>10733600</v>
+        <v>10757100</v>
       </c>
       <c r="G54" s="3">
-        <v>11776900</v>
+        <v>11802600</v>
       </c>
       <c r="H54" s="3">
-        <v>12484400</v>
+        <v>12511700</v>
       </c>
       <c r="I54" s="3">
-        <v>11250600</v>
+        <v>11275200</v>
       </c>
       <c r="J54" s="3">
-        <v>9106700</v>
+        <v>9126600</v>
       </c>
       <c r="K54" s="3">
         <v>8838300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>629000</v>
+        <v>630300</v>
       </c>
       <c r="E57" s="3">
-        <v>2029700</v>
+        <v>2034100</v>
       </c>
       <c r="F57" s="3">
-        <v>2300800</v>
+        <v>2305800</v>
       </c>
       <c r="G57" s="3">
-        <v>2998200</v>
+        <v>3004800</v>
       </c>
       <c r="H57" s="3">
-        <v>1862100</v>
+        <v>1866200</v>
       </c>
       <c r="I57" s="3">
-        <v>1637000</v>
+        <v>1640600</v>
       </c>
       <c r="J57" s="3">
-        <v>1456500</v>
+        <v>1459700</v>
       </c>
       <c r="K57" s="3">
         <v>2901400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300300</v>
+        <v>300900</v>
       </c>
       <c r="E58" s="3">
-        <v>476300</v>
+        <v>477400</v>
       </c>
       <c r="F58" s="3">
-        <v>655800</v>
+        <v>657200</v>
       </c>
       <c r="G58" s="3">
-        <v>891200</v>
+        <v>893100</v>
       </c>
       <c r="H58" s="3">
-        <v>907100</v>
+        <v>909100</v>
       </c>
       <c r="I58" s="3">
-        <v>583300</v>
+        <v>584500</v>
       </c>
       <c r="J58" s="3">
-        <v>595500</v>
+        <v>596800</v>
       </c>
       <c r="K58" s="3">
         <v>1427100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2645000</v>
+        <v>2650800</v>
       </c>
       <c r="E59" s="3">
-        <v>827100</v>
+        <v>829000</v>
       </c>
       <c r="F59" s="3">
-        <v>765900</v>
+        <v>767600</v>
       </c>
       <c r="G59" s="3">
-        <v>770000</v>
+        <v>771600</v>
       </c>
       <c r="H59" s="3">
-        <v>5232400</v>
+        <v>5243800</v>
       </c>
       <c r="I59" s="3">
-        <v>4826100</v>
+        <v>4836700</v>
       </c>
       <c r="J59" s="3">
-        <v>3503000</v>
+        <v>3510600</v>
       </c>
       <c r="K59" s="3">
         <v>1113400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3574200</v>
+        <v>3582100</v>
       </c>
       <c r="E60" s="3">
-        <v>3333200</v>
+        <v>3340500</v>
       </c>
       <c r="F60" s="3">
-        <v>3722500</v>
+        <v>3730600</v>
       </c>
       <c r="G60" s="3">
-        <v>4659400</v>
+        <v>4669600</v>
       </c>
       <c r="H60" s="3">
-        <v>7570000</v>
+        <v>7586600</v>
       </c>
       <c r="I60" s="3">
-        <v>6725800</v>
+        <v>6740400</v>
       </c>
       <c r="J60" s="3">
-        <v>5555000</v>
+        <v>5567200</v>
       </c>
       <c r="K60" s="3">
         <v>4728300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1693600</v>
+        <v>1697300</v>
       </c>
       <c r="E61" s="3">
-        <v>2578900</v>
+        <v>2584600</v>
       </c>
       <c r="F61" s="3">
-        <v>2873800</v>
+        <v>2880100</v>
       </c>
       <c r="G61" s="3">
-        <v>3713000</v>
+        <v>3721100</v>
       </c>
       <c r="H61" s="3">
-        <v>1746500</v>
+        <v>1750400</v>
       </c>
       <c r="I61" s="3">
-        <v>1614200</v>
+        <v>1617700</v>
       </c>
       <c r="J61" s="3">
-        <v>586500</v>
+        <v>587800</v>
       </c>
       <c r="K61" s="3">
         <v>779000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>795500</v>
+        <v>797300</v>
       </c>
       <c r="E62" s="3">
-        <v>746800</v>
+        <v>748400</v>
       </c>
       <c r="F62" s="3">
-        <v>752400</v>
+        <v>754100</v>
       </c>
       <c r="G62" s="3">
-        <v>675900</v>
+        <v>677400</v>
       </c>
       <c r="H62" s="3">
-        <v>517600</v>
+        <v>518700</v>
       </c>
       <c r="I62" s="3">
-        <v>462400</v>
+        <v>463400</v>
       </c>
       <c r="J62" s="3">
-        <v>428200</v>
+        <v>429100</v>
       </c>
       <c r="K62" s="3">
         <v>832900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6504000</v>
+        <v>6518200</v>
       </c>
       <c r="E66" s="3">
-        <v>7208900</v>
+        <v>7224700</v>
       </c>
       <c r="F66" s="3">
-        <v>7975400</v>
+        <v>7992900</v>
       </c>
       <c r="G66" s="3">
-        <v>9573500</v>
+        <v>9594500</v>
       </c>
       <c r="H66" s="3">
-        <v>10423300</v>
+        <v>10446000</v>
       </c>
       <c r="I66" s="3">
-        <v>9360700</v>
+        <v>9381100</v>
       </c>
       <c r="J66" s="3">
-        <v>7120900</v>
+        <v>7136500</v>
       </c>
       <c r="K66" s="3">
         <v>6901200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1206800</v>
+        <v>1209400</v>
       </c>
       <c r="E72" s="3">
-        <v>1209000</v>
+        <v>1211600</v>
       </c>
       <c r="F72" s="3">
-        <v>1155000</v>
+        <v>1157600</v>
       </c>
       <c r="G72" s="3">
-        <v>817100</v>
+        <v>818900</v>
       </c>
       <c r="H72" s="3">
-        <v>719400</v>
+        <v>721000</v>
       </c>
       <c r="I72" s="3">
-        <v>521800</v>
+        <v>523000</v>
       </c>
       <c r="J72" s="3">
-        <v>632400</v>
+        <v>633800</v>
       </c>
       <c r="K72" s="3">
         <v>673900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2325200</v>
+        <v>2330200</v>
       </c>
       <c r="E76" s="3">
-        <v>2748900</v>
+        <v>2754900</v>
       </c>
       <c r="F76" s="3">
-        <v>2758200</v>
+        <v>2764200</v>
       </c>
       <c r="G76" s="3">
-        <v>2203300</v>
+        <v>2208100</v>
       </c>
       <c r="H76" s="3">
-        <v>2061100</v>
+        <v>2065600</v>
       </c>
       <c r="I76" s="3">
-        <v>1889900</v>
+        <v>1894100</v>
       </c>
       <c r="J76" s="3">
-        <v>1985800</v>
+        <v>1990100</v>
       </c>
       <c r="K76" s="3">
         <v>1937100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34600</v>
+        <v>-34700</v>
       </c>
       <c r="E81" s="3">
-        <v>161500</v>
+        <v>161900</v>
       </c>
       <c r="F81" s="3">
-        <v>438900</v>
+        <v>439800</v>
       </c>
       <c r="G81" s="3">
-        <v>159100</v>
+        <v>159500</v>
       </c>
       <c r="H81" s="3">
-        <v>231400</v>
+        <v>231900</v>
       </c>
       <c r="I81" s="3">
-        <v>116800</v>
+        <v>117100</v>
       </c>
       <c r="J81" s="3">
-        <v>-97100</v>
+        <v>-97300</v>
       </c>
       <c r="K81" s="3">
         <v>49600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>383100</v>
+        <v>383900</v>
       </c>
       <c r="E83" s="3">
-        <v>426400</v>
+        <v>427300</v>
       </c>
       <c r="F83" s="3">
-        <v>516400</v>
+        <v>517500</v>
       </c>
       <c r="G83" s="3">
-        <v>314000</v>
+        <v>314700</v>
       </c>
       <c r="H83" s="3">
-        <v>266300</v>
+        <v>266800</v>
       </c>
       <c r="I83" s="3">
-        <v>167800</v>
+        <v>168100</v>
       </c>
       <c r="J83" s="3">
-        <v>219300</v>
+        <v>219800</v>
       </c>
       <c r="K83" s="3">
         <v>206200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-43500</v>
+        <v>-43600</v>
       </c>
       <c r="E89" s="3">
-        <v>549400</v>
+        <v>550600</v>
       </c>
       <c r="F89" s="3">
-        <v>955000</v>
+        <v>957100</v>
       </c>
       <c r="G89" s="3">
-        <v>228600</v>
+        <v>229100</v>
       </c>
       <c r="H89" s="3">
-        <v>859400</v>
+        <v>861300</v>
       </c>
       <c r="I89" s="3">
-        <v>381700</v>
+        <v>382500</v>
       </c>
       <c r="J89" s="3">
-        <v>-262600</v>
+        <v>-263200</v>
       </c>
       <c r="K89" s="3">
         <v>866600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-281600</v>
+        <v>-282200</v>
       </c>
       <c r="E91" s="3">
-        <v>-208400</v>
+        <v>-208900</v>
       </c>
       <c r="F91" s="3">
-        <v>-461000</v>
+        <v>-462000</v>
       </c>
       <c r="G91" s="3">
-        <v>-495800</v>
+        <v>-496900</v>
       </c>
       <c r="H91" s="3">
-        <v>-332100</v>
+        <v>-332800</v>
       </c>
       <c r="I91" s="3">
-        <v>-282400</v>
+        <v>-283000</v>
       </c>
       <c r="J91" s="3">
-        <v>-254800</v>
+        <v>-255300</v>
       </c>
       <c r="K91" s="3">
         <v>-295800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>570800</v>
+        <v>572000</v>
       </c>
       <c r="E94" s="3">
         <v>-15500</v>
       </c>
       <c r="F94" s="3">
-        <v>-864200</v>
+        <v>-866100</v>
       </c>
       <c r="G94" s="3">
-        <v>-657800</v>
+        <v>-659200</v>
       </c>
       <c r="H94" s="3">
-        <v>-382100</v>
+        <v>-382900</v>
       </c>
       <c r="I94" s="3">
-        <v>-320600</v>
+        <v>-321300</v>
       </c>
       <c r="J94" s="3">
-        <v>-406800</v>
+        <v>-407700</v>
       </c>
       <c r="K94" s="3">
         <v>-346500</v>
@@ -3997,22 +3997,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-53400</v>
+        <v>-53500</v>
       </c>
       <c r="E96" s="3">
-        <v>-157100</v>
+        <v>-157400</v>
       </c>
       <c r="F96" s="3">
-        <v>-68300</v>
+        <v>-68400</v>
       </c>
       <c r="G96" s="3">
-        <v>-54000</v>
+        <v>-54100</v>
       </c>
       <c r="H96" s="3">
-        <v>-70700</v>
+        <v>-70800</v>
       </c>
       <c r="I96" s="3">
-        <v>-20300</v>
+        <v>-20400</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-947200</v>
+        <v>-949300</v>
       </c>
       <c r="E100" s="3">
-        <v>-552400</v>
+        <v>-553600</v>
       </c>
       <c r="F100" s="3">
-        <v>-56600</v>
+        <v>-56700</v>
       </c>
       <c r="G100" s="3">
-        <v>381500</v>
+        <v>382300</v>
       </c>
       <c r="H100" s="3">
-        <v>-330500</v>
+        <v>-331200</v>
       </c>
       <c r="I100" s="3">
-        <v>-421700</v>
+        <v>-422700</v>
       </c>
       <c r="J100" s="3">
-        <v>297100</v>
+        <v>297700</v>
       </c>
       <c r="K100" s="3">
         <v>-562400</v>
@@ -4207,13 +4207,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-114400</v>
+        <v>-114600</v>
       </c>
       <c r="E101" s="3">
-        <v>-69500</v>
+        <v>-69600</v>
       </c>
       <c r="F101" s="3">
-        <v>118200</v>
+        <v>118500</v>
       </c>
       <c r="G101" s="3">
         <v>22400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-534300</v>
+        <v>-535500</v>
       </c>
       <c r="E102" s="3">
-        <v>-88000</v>
+        <v>-88200</v>
       </c>
       <c r="F102" s="3">
-        <v>152500</v>
+        <v>152800</v>
       </c>
       <c r="G102" s="3">
         <v>-25400</v>
       </c>
       <c r="H102" s="3">
-        <v>146800</v>
+        <v>147100</v>
       </c>
       <c r="I102" s="3">
-        <v>-360700</v>
+        <v>-361500</v>
       </c>
       <c r="J102" s="3">
-        <v>-377200</v>
+        <v>-378000</v>
       </c>
       <c r="K102" s="3">
         <v>-25100</v>

--- a/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CBD_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3496100</v>
+        <v>3561700</v>
       </c>
       <c r="E8" s="3">
-        <v>3289600</v>
+        <v>3351400</v>
       </c>
       <c r="F8" s="3">
-        <v>10344900</v>
+        <v>10539200</v>
       </c>
       <c r="G8" s="3">
-        <v>5820700</v>
+        <v>5930000</v>
       </c>
       <c r="H8" s="3">
-        <v>9968500</v>
+        <v>10155700</v>
       </c>
       <c r="I8" s="3">
-        <v>9008900</v>
+        <v>9178100</v>
       </c>
       <c r="J8" s="3">
-        <v>8367100</v>
+        <v>8524200</v>
       </c>
       <c r="K8" s="3">
         <v>6959400</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2627800</v>
+        <v>2677100</v>
       </c>
       <c r="E9" s="3">
-        <v>2410400</v>
+        <v>2455600</v>
       </c>
       <c r="F9" s="3">
-        <v>7569800</v>
+        <v>7711900</v>
       </c>
       <c r="G9" s="3">
-        <v>4284100</v>
+        <v>4364500</v>
       </c>
       <c r="H9" s="3">
-        <v>7625300</v>
+        <v>7768500</v>
       </c>
       <c r="I9" s="3">
-        <v>6791100</v>
+        <v>6918600</v>
       </c>
       <c r="J9" s="3">
-        <v>6445400</v>
+        <v>6566400</v>
       </c>
       <c r="K9" s="3">
         <v>5261500</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>868300</v>
+        <v>884600</v>
       </c>
       <c r="E10" s="3">
-        <v>879200</v>
+        <v>895700</v>
       </c>
       <c r="F10" s="3">
-        <v>2775100</v>
+        <v>2827200</v>
       </c>
       <c r="G10" s="3">
-        <v>1536600</v>
+        <v>1565500</v>
       </c>
       <c r="H10" s="3">
-        <v>2343200</v>
+        <v>2387200</v>
       </c>
       <c r="I10" s="3">
-        <v>2217800</v>
+        <v>2259500</v>
       </c>
       <c r="J10" s="3">
-        <v>1921700</v>
+        <v>1957800</v>
       </c>
       <c r="K10" s="3">
         <v>1697800</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>63600</v>
+        <v>64800</v>
       </c>
       <c r="E14" s="3">
-        <v>139100</v>
+        <v>141700</v>
       </c>
       <c r="F14" s="3">
-        <v>118700</v>
+        <v>120900</v>
       </c>
       <c r="G14" s="3">
-        <v>53900</v>
+        <v>54900</v>
       </c>
       <c r="H14" s="3">
-        <v>29700</v>
+        <v>30200</v>
       </c>
       <c r="I14" s="3">
-        <v>21600</v>
+        <v>22000</v>
       </c>
       <c r="J14" s="3">
-        <v>20000</v>
+        <v>20400</v>
       </c>
       <c r="K14" s="3">
         <v>21700</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>187900</v>
+        <v>191400</v>
       </c>
       <c r="E15" s="3">
-        <v>163500</v>
+        <v>166600</v>
       </c>
       <c r="F15" s="3">
-        <v>364100</v>
+        <v>371000</v>
       </c>
       <c r="G15" s="3">
-        <v>207500</v>
+        <v>211400</v>
       </c>
       <c r="H15" s="3">
-        <v>242600</v>
+        <v>247200</v>
       </c>
       <c r="I15" s="3">
-        <v>157200</v>
+        <v>160200</v>
       </c>
       <c r="J15" s="3">
-        <v>142700</v>
+        <v>145400</v>
       </c>
       <c r="K15" s="3">
         <v>121600</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3610100</v>
+        <v>3677900</v>
       </c>
       <c r="E17" s="3">
-        <v>3278900</v>
+        <v>3340500</v>
       </c>
       <c r="F17" s="3">
-        <v>9814300</v>
+        <v>9998600</v>
       </c>
       <c r="G17" s="3">
-        <v>5719100</v>
+        <v>5826500</v>
       </c>
       <c r="H17" s="3">
-        <v>9437600</v>
+        <v>9614800</v>
       </c>
       <c r="I17" s="3">
-        <v>8709800</v>
+        <v>8873300</v>
       </c>
       <c r="J17" s="3">
-        <v>8194300</v>
+        <v>8348200</v>
       </c>
       <c r="K17" s="3">
         <v>6657800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-114000</v>
+        <v>-116200</v>
       </c>
       <c r="E18" s="3">
-        <v>10700</v>
+        <v>10900</v>
       </c>
       <c r="F18" s="3">
-        <v>530600</v>
+        <v>540600</v>
       </c>
       <c r="G18" s="3">
-        <v>101500</v>
+        <v>103400</v>
       </c>
       <c r="H18" s="3">
-        <v>530800</v>
+        <v>540800</v>
       </c>
       <c r="I18" s="3">
-        <v>299100</v>
+        <v>304700</v>
       </c>
       <c r="J18" s="3">
-        <v>172800</v>
+        <v>176000</v>
       </c>
       <c r="K18" s="3">
         <v>301600</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>102100</v>
+        <v>104000</v>
       </c>
       <c r="E20" s="3">
-        <v>27200</v>
+        <v>27800</v>
       </c>
       <c r="F20" s="3">
-        <v>78300</v>
+        <v>79800</v>
       </c>
       <c r="G20" s="3">
         <v>-1200</v>
       </c>
       <c r="H20" s="3">
-        <v>-17000</v>
+        <v>-17300</v>
       </c>
       <c r="I20" s="3">
-        <v>-46800</v>
+        <v>-47700</v>
       </c>
       <c r="J20" s="3">
-        <v>-40000</v>
+        <v>-40700</v>
       </c>
       <c r="K20" s="3">
         <v>-13100</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>372000</v>
+        <v>379100</v>
       </c>
       <c r="E21" s="3">
-        <v>465200</v>
+        <v>474100</v>
       </c>
       <c r="F21" s="3">
-        <v>1126500</v>
+        <v>1147700</v>
       </c>
       <c r="G21" s="3">
-        <v>415000</v>
+        <v>422900</v>
       </c>
       <c r="H21" s="3">
-        <v>780700</v>
+        <v>795400</v>
       </c>
       <c r="I21" s="3">
-        <v>420400</v>
+        <v>428400</v>
       </c>
       <c r="J21" s="3">
-        <v>352600</v>
+        <v>359300</v>
       </c>
       <c r="K21" s="3">
         <v>501000</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>253500</v>
+        <v>258300</v>
       </c>
       <c r="E22" s="3">
-        <v>153000</v>
+        <v>155900</v>
       </c>
       <c r="F22" s="3">
-        <v>225300</v>
+        <v>229500</v>
       </c>
       <c r="G22" s="3">
-        <v>174600</v>
+        <v>177900</v>
       </c>
       <c r="H22" s="3">
-        <v>197200</v>
+        <v>200900</v>
       </c>
       <c r="I22" s="3">
-        <v>100500</v>
+        <v>102400</v>
       </c>
       <c r="J22" s="3">
-        <v>142300</v>
+        <v>145000</v>
       </c>
       <c r="K22" s="3">
         <v>130600</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-265400</v>
+        <v>-270400</v>
       </c>
       <c r="E23" s="3">
-        <v>-115000</v>
+        <v>-117200</v>
       </c>
       <c r="F23" s="3">
-        <v>383700</v>
+        <v>390900</v>
       </c>
       <c r="G23" s="3">
-        <v>-74300</v>
+        <v>-75700</v>
       </c>
       <c r="H23" s="3">
-        <v>316700</v>
+        <v>322600</v>
       </c>
       <c r="I23" s="3">
-        <v>151800</v>
+        <v>154600</v>
       </c>
       <c r="J23" s="3">
-        <v>-9500</v>
+        <v>-9700</v>
       </c>
       <c r="K23" s="3">
         <v>157900</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-91600</v>
+        <v>-93400</v>
       </c>
       <c r="E24" s="3">
-        <v>-146300</v>
+        <v>-149100</v>
       </c>
       <c r="F24" s="3">
-        <v>133600</v>
+        <v>136100</v>
       </c>
       <c r="G24" s="3">
-        <v>-19200</v>
+        <v>-19500</v>
       </c>
       <c r="H24" s="3">
-        <v>83400</v>
+        <v>84900</v>
       </c>
       <c r="I24" s="3">
-        <v>59900</v>
+        <v>61100</v>
       </c>
       <c r="J24" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K24" s="3">
         <v>42800</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-173800</v>
+        <v>-177000</v>
       </c>
       <c r="E26" s="3">
-        <v>31300</v>
+        <v>31900</v>
       </c>
       <c r="F26" s="3">
-        <v>250100</v>
+        <v>254800</v>
       </c>
       <c r="G26" s="3">
-        <v>-55100</v>
+        <v>-56100</v>
       </c>
       <c r="H26" s="3">
-        <v>233300</v>
+        <v>237700</v>
       </c>
       <c r="I26" s="3">
-        <v>91800</v>
+        <v>93600</v>
       </c>
       <c r="J26" s="3">
-        <v>-14300</v>
+        <v>-14600</v>
       </c>
       <c r="K26" s="3">
         <v>115100</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-207700</v>
+        <v>-211600</v>
       </c>
       <c r="E27" s="3">
         <v>-600</v>
       </c>
       <c r="F27" s="3">
-        <v>220400</v>
+        <v>224500</v>
       </c>
       <c r="G27" s="3">
-        <v>-64400</v>
+        <v>-65600</v>
       </c>
       <c r="H27" s="3">
-        <v>206100</v>
+        <v>209900</v>
       </c>
       <c r="I27" s="3">
-        <v>45200</v>
+        <v>46100</v>
       </c>
       <c r="J27" s="3">
-        <v>105600</v>
+        <v>107500</v>
       </c>
       <c r="K27" s="3">
         <v>216300</v>
@@ -1533,25 +1533,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>173000</v>
+        <v>176200</v>
       </c>
       <c r="E29" s="3">
-        <v>162500</v>
+        <v>165500</v>
       </c>
       <c r="F29" s="3">
-        <v>219400</v>
+        <v>223500</v>
       </c>
       <c r="G29" s="3">
-        <v>223800</v>
+        <v>228000</v>
       </c>
       <c r="H29" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="I29" s="3">
-        <v>71900</v>
+        <v>73200</v>
       </c>
       <c r="J29" s="3">
-        <v>-202800</v>
+        <v>-206700</v>
       </c>
       <c r="K29" s="3">
         <v>-166700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-102100</v>
+        <v>-104000</v>
       </c>
       <c r="E32" s="3">
-        <v>-27200</v>
+        <v>-27800</v>
       </c>
       <c r="F32" s="3">
-        <v>-78300</v>
+        <v>-79800</v>
       </c>
       <c r="G32" s="3">
         <v>1200</v>
       </c>
       <c r="H32" s="3">
-        <v>17000</v>
+        <v>17300</v>
       </c>
       <c r="I32" s="3">
-        <v>46800</v>
+        <v>47700</v>
       </c>
       <c r="J32" s="3">
-        <v>40000</v>
+        <v>40700</v>
       </c>
       <c r="K32" s="3">
         <v>13100</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-34700</v>
+        <v>-35400</v>
       </c>
       <c r="E33" s="3">
-        <v>161900</v>
+        <v>164900</v>
       </c>
       <c r="F33" s="3">
-        <v>439800</v>
+        <v>448100</v>
       </c>
       <c r="G33" s="3">
-        <v>159500</v>
+        <v>162400</v>
       </c>
       <c r="H33" s="3">
-        <v>231900</v>
+        <v>236300</v>
       </c>
       <c r="I33" s="3">
-        <v>117100</v>
+        <v>119300</v>
       </c>
       <c r="J33" s="3">
-        <v>-97300</v>
+        <v>-99100</v>
       </c>
       <c r="K33" s="3">
         <v>49600</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-34700</v>
+        <v>-35400</v>
       </c>
       <c r="E35" s="3">
-        <v>161900</v>
+        <v>164900</v>
       </c>
       <c r="F35" s="3">
-        <v>439800</v>
+        <v>448100</v>
       </c>
       <c r="G35" s="3">
-        <v>159500</v>
+        <v>162400</v>
       </c>
       <c r="H35" s="3">
-        <v>231900</v>
+        <v>236300</v>
       </c>
       <c r="I35" s="3">
-        <v>117100</v>
+        <v>119300</v>
       </c>
       <c r="J35" s="3">
-        <v>-97300</v>
+        <v>-99100</v>
       </c>
       <c r="K35" s="3">
         <v>49600</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>757100</v>
+        <v>771300</v>
       </c>
       <c r="E41" s="3">
-        <v>1670000</v>
+        <v>1701400</v>
       </c>
       <c r="F41" s="3">
-        <v>1758200</v>
+        <v>1791200</v>
       </c>
       <c r="G41" s="3">
-        <v>1605400</v>
+        <v>1635600</v>
       </c>
       <c r="H41" s="3">
-        <v>881800</v>
+        <v>898400</v>
       </c>
       <c r="I41" s="3">
-        <v>1530800</v>
+        <v>1559500</v>
       </c>
       <c r="J41" s="3">
-        <v>1031800</v>
+        <v>1051200</v>
       </c>
       <c r="K41" s="3">
         <v>2060800</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>365300</v>
+        <v>372200</v>
       </c>
       <c r="E43" s="3">
-        <v>582100</v>
+        <v>593000</v>
       </c>
       <c r="F43" s="3">
-        <v>410500</v>
+        <v>418300</v>
       </c>
       <c r="G43" s="3">
-        <v>565200</v>
+        <v>575800</v>
       </c>
       <c r="H43" s="3">
-        <v>275500</v>
+        <v>280700</v>
       </c>
       <c r="I43" s="3">
-        <v>423700</v>
+        <v>431600</v>
       </c>
       <c r="J43" s="3">
-        <v>271100</v>
+        <v>276200</v>
       </c>
       <c r="K43" s="3">
         <v>872800</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>413000</v>
+        <v>420700</v>
       </c>
       <c r="E44" s="3">
-        <v>1061100</v>
+        <v>1081000</v>
       </c>
       <c r="F44" s="3">
-        <v>1319200</v>
+        <v>1344000</v>
       </c>
       <c r="G44" s="3">
-        <v>1742100</v>
+        <v>1774800</v>
       </c>
       <c r="H44" s="3">
-        <v>1192700</v>
+        <v>1215100</v>
       </c>
       <c r="I44" s="3">
-        <v>1946500</v>
+        <v>1983100</v>
       </c>
       <c r="J44" s="3">
-        <v>936700</v>
+        <v>954300</v>
       </c>
       <c r="K44" s="3">
         <v>1677300</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4229000</v>
+        <v>4308400</v>
       </c>
       <c r="E45" s="3">
-        <v>294100</v>
+        <v>299600</v>
       </c>
       <c r="F45" s="3">
-        <v>72700</v>
+        <v>74000</v>
       </c>
       <c r="G45" s="3">
-        <v>117700</v>
+        <v>119900</v>
       </c>
       <c r="H45" s="3">
-        <v>5894900</v>
+        <v>6005600</v>
       </c>
       <c r="I45" s="3">
-        <v>5454300</v>
+        <v>5556700</v>
       </c>
       <c r="J45" s="3">
-        <v>4148800</v>
+        <v>4226700</v>
       </c>
       <c r="K45" s="3">
         <v>58900</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5764300</v>
+        <v>5872600</v>
       </c>
       <c r="E46" s="3">
-        <v>3607300</v>
+        <v>3675000</v>
       </c>
       <c r="F46" s="3">
-        <v>3560700</v>
+        <v>3627500</v>
       </c>
       <c r="G46" s="3">
-        <v>4030300</v>
+        <v>4106000</v>
       </c>
       <c r="H46" s="3">
-        <v>8245000</v>
+        <v>8399800</v>
       </c>
       <c r="I46" s="3">
-        <v>7462400</v>
+        <v>7602600</v>
       </c>
       <c r="J46" s="3">
-        <v>6388400</v>
+        <v>6508400</v>
       </c>
       <c r="K46" s="3">
         <v>4669800</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>942400</v>
+        <v>960100</v>
       </c>
       <c r="E47" s="3">
-        <v>956700</v>
+        <v>974700</v>
       </c>
       <c r="F47" s="3">
-        <v>1045500</v>
+        <v>1065200</v>
       </c>
       <c r="G47" s="3">
-        <v>728200</v>
+        <v>741900</v>
       </c>
       <c r="H47" s="3">
-        <v>628500</v>
+        <v>640300</v>
       </c>
       <c r="I47" s="3">
-        <v>534900</v>
+        <v>544900</v>
       </c>
       <c r="J47" s="3">
-        <v>318300</v>
+        <v>324300</v>
       </c>
       <c r="K47" s="3">
         <v>726100</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1381400</v>
+        <v>1407300</v>
       </c>
       <c r="E48" s="3">
-        <v>3955700</v>
+        <v>4029900</v>
       </c>
       <c r="F48" s="3">
-        <v>4748700</v>
+        <v>4837900</v>
       </c>
       <c r="G48" s="3">
-        <v>5518500</v>
+        <v>5622100</v>
       </c>
       <c r="H48" s="3">
-        <v>2846300</v>
+        <v>2899800</v>
       </c>
       <c r="I48" s="3">
-        <v>4531500</v>
+        <v>4616600</v>
       </c>
       <c r="J48" s="3">
-        <v>1857900</v>
+        <v>1892800</v>
       </c>
       <c r="K48" s="3">
         <v>1946100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400900</v>
+        <v>408400</v>
       </c>
       <c r="E49" s="3">
-        <v>1161200</v>
+        <v>1183000</v>
       </c>
       <c r="F49" s="3">
-        <v>1244100</v>
+        <v>1267500</v>
       </c>
       <c r="G49" s="3">
-        <v>1258700</v>
+        <v>1282300</v>
       </c>
       <c r="H49" s="3">
-        <v>1108700</v>
+        <v>1129500</v>
       </c>
       <c r="I49" s="3">
-        <v>1155700</v>
+        <v>1177400</v>
       </c>
       <c r="J49" s="3">
-        <v>385100</v>
+        <v>392300</v>
       </c>
       <c r="K49" s="3">
         <v>1224100</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>359500</v>
+        <v>366200</v>
       </c>
       <c r="E52" s="3">
-        <v>298700</v>
+        <v>304300</v>
       </c>
       <c r="F52" s="3">
-        <v>158000</v>
+        <v>161000</v>
       </c>
       <c r="G52" s="3">
-        <v>266800</v>
+        <v>271800</v>
       </c>
       <c r="H52" s="3">
-        <v>300100</v>
+        <v>305800</v>
       </c>
       <c r="I52" s="3">
-        <v>220400</v>
+        <v>224500</v>
       </c>
       <c r="J52" s="3">
-        <v>176800</v>
+        <v>180100</v>
       </c>
       <c r="K52" s="3">
         <v>272200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8848500</v>
+        <v>9014600</v>
       </c>
       <c r="E54" s="3">
-        <v>9979600</v>
+        <v>10167000</v>
       </c>
       <c r="F54" s="3">
-        <v>10757100</v>
+        <v>10959100</v>
       </c>
       <c r="G54" s="3">
-        <v>11802600</v>
+        <v>12024200</v>
       </c>
       <c r="H54" s="3">
-        <v>12511700</v>
+        <v>12746600</v>
       </c>
       <c r="I54" s="3">
-        <v>11275200</v>
+        <v>11486900</v>
       </c>
       <c r="J54" s="3">
-        <v>9126600</v>
+        <v>9298000</v>
       </c>
       <c r="K54" s="3">
         <v>8838300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>630300</v>
+        <v>642200</v>
       </c>
       <c r="E57" s="3">
-        <v>2034100</v>
+        <v>2072300</v>
       </c>
       <c r="F57" s="3">
-        <v>2305800</v>
+        <v>2349100</v>
       </c>
       <c r="G57" s="3">
-        <v>3004800</v>
+        <v>3061200</v>
       </c>
       <c r="H57" s="3">
-        <v>1866200</v>
+        <v>1901300</v>
       </c>
       <c r="I57" s="3">
-        <v>1640600</v>
+        <v>1671400</v>
       </c>
       <c r="J57" s="3">
-        <v>1459700</v>
+        <v>1487100</v>
       </c>
       <c r="K57" s="3">
         <v>2901400</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300900</v>
+        <v>306600</v>
       </c>
       <c r="E58" s="3">
-        <v>477400</v>
+        <v>486300</v>
       </c>
       <c r="F58" s="3">
-        <v>657200</v>
+        <v>669500</v>
       </c>
       <c r="G58" s="3">
-        <v>893100</v>
+        <v>909900</v>
       </c>
       <c r="H58" s="3">
-        <v>909100</v>
+        <v>926200</v>
       </c>
       <c r="I58" s="3">
-        <v>584500</v>
+        <v>595500</v>
       </c>
       <c r="J58" s="3">
-        <v>596800</v>
+        <v>608000</v>
       </c>
       <c r="K58" s="3">
         <v>1427100</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2650800</v>
+        <v>2700500</v>
       </c>
       <c r="E59" s="3">
-        <v>829000</v>
+        <v>844500</v>
       </c>
       <c r="F59" s="3">
-        <v>767600</v>
+        <v>782000</v>
       </c>
       <c r="G59" s="3">
-        <v>771600</v>
+        <v>786100</v>
       </c>
       <c r="H59" s="3">
-        <v>5243800</v>
+        <v>5342300</v>
       </c>
       <c r="I59" s="3">
-        <v>4836700</v>
+        <v>4927500</v>
       </c>
       <c r="J59" s="3">
-        <v>3510600</v>
+        <v>3576500</v>
       </c>
       <c r="K59" s="3">
         <v>1113400</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3582100</v>
+        <v>3649300</v>
       </c>
       <c r="E60" s="3">
-        <v>3340500</v>
+        <v>3403200</v>
       </c>
       <c r="F60" s="3">
-        <v>3730600</v>
+        <v>3800700</v>
       </c>
       <c r="G60" s="3">
-        <v>4669600</v>
+        <v>4757300</v>
       </c>
       <c r="H60" s="3">
-        <v>7586600</v>
+        <v>7729000</v>
       </c>
       <c r="I60" s="3">
-        <v>6740400</v>
+        <v>6867000</v>
       </c>
       <c r="J60" s="3">
-        <v>5567200</v>
+        <v>5671700</v>
       </c>
       <c r="K60" s="3">
         <v>4728300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1697300</v>
+        <v>1729100</v>
       </c>
       <c r="E61" s="3">
-        <v>2584600</v>
+        <v>2633100</v>
       </c>
       <c r="F61" s="3">
-        <v>2880100</v>
+        <v>2934100</v>
       </c>
       <c r="G61" s="3">
-        <v>3721100</v>
+        <v>3791000</v>
       </c>
       <c r="H61" s="3">
-        <v>1750400</v>
+        <v>1783200</v>
       </c>
       <c r="I61" s="3">
-        <v>1617700</v>
+        <v>1648100</v>
       </c>
       <c r="J61" s="3">
-        <v>587800</v>
+        <v>598800</v>
       </c>
       <c r="K61" s="3">
         <v>779000</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>797300</v>
+        <v>812200</v>
       </c>
       <c r="E62" s="3">
-        <v>748400</v>
+        <v>762500</v>
       </c>
       <c r="F62" s="3">
-        <v>754100</v>
+        <v>768200</v>
       </c>
       <c r="G62" s="3">
-        <v>677400</v>
+        <v>690100</v>
       </c>
       <c r="H62" s="3">
-        <v>518700</v>
+        <v>528500</v>
       </c>
       <c r="I62" s="3">
-        <v>463400</v>
+        <v>472100</v>
       </c>
       <c r="J62" s="3">
-        <v>429100</v>
+        <v>437200</v>
       </c>
       <c r="K62" s="3">
         <v>832900</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6518200</v>
+        <v>6640600</v>
       </c>
       <c r="E66" s="3">
-        <v>7224700</v>
+        <v>7360300</v>
       </c>
       <c r="F66" s="3">
-        <v>7992900</v>
+        <v>8142900</v>
       </c>
       <c r="G66" s="3">
-        <v>9594500</v>
+        <v>9774600</v>
       </c>
       <c r="H66" s="3">
-        <v>10446000</v>
+        <v>10642200</v>
       </c>
       <c r="I66" s="3">
-        <v>9381100</v>
+        <v>9557300</v>
       </c>
       <c r="J66" s="3">
-        <v>7136500</v>
+        <v>7270500</v>
       </c>
       <c r="K66" s="3">
         <v>6901200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1209400</v>
+        <v>1232100</v>
       </c>
       <c r="E72" s="3">
-        <v>1211600</v>
+        <v>1234400</v>
       </c>
       <c r="F72" s="3">
-        <v>1157600</v>
+        <v>1179300</v>
       </c>
       <c r="G72" s="3">
-        <v>818900</v>
+        <v>834200</v>
       </c>
       <c r="H72" s="3">
-        <v>721000</v>
+        <v>734500</v>
       </c>
       <c r="I72" s="3">
-        <v>523000</v>
+        <v>532800</v>
       </c>
       <c r="J72" s="3">
-        <v>633800</v>
+        <v>645700</v>
       </c>
       <c r="K72" s="3">
         <v>673900</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2330200</v>
+        <v>2374000</v>
       </c>
       <c r="E76" s="3">
-        <v>2754900</v>
+        <v>2806600</v>
       </c>
       <c r="F76" s="3">
-        <v>2764200</v>
+        <v>2816100</v>
       </c>
       <c r="G76" s="3">
-        <v>2208100</v>
+        <v>2249600</v>
       </c>
       <c r="H76" s="3">
-        <v>2065600</v>
+        <v>2104400</v>
       </c>
       <c r="I76" s="3">
-        <v>1894100</v>
+        <v>1929600</v>
       </c>
       <c r="J76" s="3">
-        <v>1990100</v>
+        <v>2027500</v>
       </c>
       <c r="K76" s="3">
         <v>1937100</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-34700</v>
+        <v>-35400</v>
       </c>
       <c r="E81" s="3">
-        <v>161900</v>
+        <v>164900</v>
       </c>
       <c r="F81" s="3">
-        <v>439800</v>
+        <v>448100</v>
       </c>
       <c r="G81" s="3">
-        <v>159500</v>
+        <v>162400</v>
       </c>
       <c r="H81" s="3">
-        <v>231900</v>
+        <v>236300</v>
       </c>
       <c r="I81" s="3">
-        <v>117100</v>
+        <v>119300</v>
       </c>
       <c r="J81" s="3">
-        <v>-97300</v>
+        <v>-99100</v>
       </c>
       <c r="K81" s="3">
         <v>49600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>383900</v>
+        <v>391100</v>
       </c>
       <c r="E83" s="3">
-        <v>427300</v>
+        <v>435300</v>
       </c>
       <c r="F83" s="3">
-        <v>517500</v>
+        <v>527200</v>
       </c>
       <c r="G83" s="3">
-        <v>314700</v>
+        <v>320600</v>
       </c>
       <c r="H83" s="3">
-        <v>266800</v>
+        <v>271800</v>
       </c>
       <c r="I83" s="3">
-        <v>168100</v>
+        <v>171300</v>
       </c>
       <c r="J83" s="3">
-        <v>219800</v>
+        <v>223900</v>
       </c>
       <c r="K83" s="3">
         <v>206200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-43600</v>
+        <v>-44400</v>
       </c>
       <c r="E89" s="3">
-        <v>550600</v>
+        <v>561000</v>
       </c>
       <c r="F89" s="3">
-        <v>957100</v>
+        <v>975100</v>
       </c>
       <c r="G89" s="3">
-        <v>229100</v>
+        <v>233400</v>
       </c>
       <c r="H89" s="3">
-        <v>861300</v>
+        <v>877400</v>
       </c>
       <c r="I89" s="3">
-        <v>382500</v>
+        <v>389700</v>
       </c>
       <c r="J89" s="3">
-        <v>-263200</v>
+        <v>-268100</v>
       </c>
       <c r="K89" s="3">
         <v>866600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-282200</v>
+        <v>-287500</v>
       </c>
       <c r="E91" s="3">
-        <v>-208900</v>
+        <v>-212800</v>
       </c>
       <c r="F91" s="3">
-        <v>-462000</v>
+        <v>-470700</v>
       </c>
       <c r="G91" s="3">
-        <v>-496900</v>
+        <v>-506300</v>
       </c>
       <c r="H91" s="3">
-        <v>-332800</v>
+        <v>-339100</v>
       </c>
       <c r="I91" s="3">
-        <v>-283000</v>
+        <v>-288300</v>
       </c>
       <c r="J91" s="3">
-        <v>-255300</v>
+        <v>-260100</v>
       </c>
       <c r="K91" s="3">
         <v>-295800</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>572000</v>
+        <v>582800</v>
       </c>
       <c r="E94" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="F94" s="3">
-        <v>-866100</v>
+        <v>-882400</v>
       </c>
       <c r="G94" s="3">
-        <v>-659200</v>
+        <v>-671600</v>
       </c>
       <c r="H94" s="3">
-        <v>-382900</v>
+        <v>-390100</v>
       </c>
       <c r="I94" s="3">
-        <v>-321300</v>
+        <v>-327400</v>
       </c>
       <c r="J94" s="3">
-        <v>-407700</v>
+        <v>-415400</v>
       </c>
       <c r="K94" s="3">
         <v>-346500</v>
@@ -3997,22 +3997,22 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-53500</v>
+        <v>-54500</v>
       </c>
       <c r="E96" s="3">
-        <v>-157400</v>
+        <v>-160400</v>
       </c>
       <c r="F96" s="3">
-        <v>-68400</v>
+        <v>-69700</v>
       </c>
       <c r="G96" s="3">
-        <v>-54100</v>
+        <v>-55100</v>
       </c>
       <c r="H96" s="3">
-        <v>-70800</v>
+        <v>-72200</v>
       </c>
       <c r="I96" s="3">
-        <v>-20400</v>
+        <v>-20800</v>
       </c>
       <c r="J96" s="3">
         <v>-800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-949300</v>
+        <v>-967100</v>
       </c>
       <c r="E100" s="3">
-        <v>-553600</v>
+        <v>-564000</v>
       </c>
       <c r="F100" s="3">
-        <v>-56700</v>
+        <v>-57800</v>
       </c>
       <c r="G100" s="3">
-        <v>382300</v>
+        <v>389500</v>
       </c>
       <c r="H100" s="3">
-        <v>-331200</v>
+        <v>-337400</v>
       </c>
       <c r="I100" s="3">
-        <v>-422700</v>
+        <v>-430600</v>
       </c>
       <c r="J100" s="3">
-        <v>297700</v>
+        <v>303300</v>
       </c>
       <c r="K100" s="3">
         <v>-562400</v>
@@ -4207,16 +4207,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-114600</v>
+        <v>-116800</v>
       </c>
       <c r="E101" s="3">
-        <v>-69600</v>
+        <v>-70900</v>
       </c>
       <c r="F101" s="3">
-        <v>118500</v>
+        <v>120700</v>
       </c>
       <c r="G101" s="3">
-        <v>22400</v>
+        <v>22800</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
@@ -4225,7 +4225,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="K101" s="3">
         <v>17200</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-535500</v>
+        <v>-545500</v>
       </c>
       <c r="E102" s="3">
-        <v>-88200</v>
+        <v>-89900</v>
       </c>
       <c r="F102" s="3">
-        <v>152800</v>
+        <v>155700</v>
       </c>
       <c r="G102" s="3">
-        <v>-25400</v>
+        <v>-25900</v>
       </c>
       <c r="H102" s="3">
-        <v>147100</v>
+        <v>149900</v>
       </c>
       <c r="I102" s="3">
-        <v>-361500</v>
+        <v>-368300</v>
       </c>
       <c r="J102" s="3">
-        <v>-378000</v>
+        <v>-385100</v>
       </c>
       <c r="K102" s="3">
         <v>-25100</v>
